--- a/BackTest/2020-01-26 BackTest XLM.xlsx
+++ b/BackTest/2020-01-26 BackTest XLM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M188"/>
+  <dimension ref="A1:M189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>66.36</v>
+        <v>66.47</v>
       </c>
       <c r="C2" t="n">
-        <v>66.25</v>
+        <v>66.47</v>
       </c>
       <c r="D2" t="n">
-        <v>66.36</v>
+        <v>66.47</v>
       </c>
       <c r="E2" t="n">
-        <v>66.25</v>
+        <v>66.47</v>
       </c>
       <c r="F2" t="n">
-        <v>16043.7365</v>
+        <v>501.8943</v>
       </c>
       <c r="G2" t="n">
-        <v>66.92100000000002</v>
+        <v>66.92716666666668</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>66.20999999999999</v>
+        <v>66.36</v>
       </c>
       <c r="C3" t="n">
-        <v>66.20999999999999</v>
+        <v>66.25</v>
       </c>
       <c r="D3" t="n">
-        <v>66.20999999999999</v>
+        <v>66.36</v>
       </c>
       <c r="E3" t="n">
-        <v>66.20999999999999</v>
+        <v>66.25</v>
       </c>
       <c r="F3" t="n">
-        <v>707.592</v>
+        <v>16043.7365</v>
       </c>
       <c r="G3" t="n">
-        <v>66.91416666666669</v>
+        <v>66.92100000000002</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,22 +503,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>66.3</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>66.3</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>66.3</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>66.3</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>800.9999</v>
+        <v>707.592</v>
       </c>
       <c r="G4" t="n">
-        <v>66.90883333333336</v>
+        <v>66.91416666666669</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -538,22 +538,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66.2</v>
+        <v>66.3</v>
       </c>
       <c r="C5" t="n">
-        <v>66.03</v>
+        <v>66.3</v>
       </c>
       <c r="D5" t="n">
-        <v>66.2</v>
+        <v>66.3</v>
       </c>
       <c r="E5" t="n">
-        <v>66.03</v>
+        <v>66.3</v>
       </c>
       <c r="F5" t="n">
-        <v>46420.4988</v>
+        <v>800.9999</v>
       </c>
       <c r="G5" t="n">
-        <v>66.89250000000003</v>
+        <v>66.90883333333336</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -573,22 +573,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="C6" t="n">
-        <v>66.09999999999999</v>
+        <v>66.03</v>
       </c>
       <c r="D6" t="n">
-        <v>66.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="E6" t="n">
-        <v>66.09999999999999</v>
+        <v>66.03</v>
       </c>
       <c r="F6" t="n">
-        <v>5038.4664</v>
+        <v>46420.4988</v>
       </c>
       <c r="G6" t="n">
-        <v>66.88083333333336</v>
+        <v>66.89250000000003</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66.09</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>66.09</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>66.09</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>66.09</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>2979.6819</v>
+        <v>5038.4664</v>
       </c>
       <c r="G7" t="n">
-        <v>66.86900000000001</v>
+        <v>66.88083333333336</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65.90000000000001</v>
+        <v>66.09</v>
       </c>
       <c r="C8" t="n">
-        <v>65.89</v>
+        <v>66.09</v>
       </c>
       <c r="D8" t="n">
-        <v>65.90000000000001</v>
+        <v>66.09</v>
       </c>
       <c r="E8" t="n">
-        <v>65.89</v>
+        <v>66.09</v>
       </c>
       <c r="F8" t="n">
-        <v>14890.9241</v>
+        <v>2979.6819</v>
       </c>
       <c r="G8" t="n">
-        <v>66.85316666666668</v>
+        <v>66.86900000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66.09</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C9" t="n">
-        <v>66.09</v>
+        <v>65.89</v>
       </c>
       <c r="D9" t="n">
-        <v>66.09</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>66.09</v>
+        <v>65.89</v>
       </c>
       <c r="F9" t="n">
-        <v>103.8988</v>
+        <v>14890.9241</v>
       </c>
       <c r="G9" t="n">
-        <v>66.84200000000001</v>
+        <v>66.85316666666668</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>65.98999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="C10" t="n">
         <v>66.09</v>
@@ -722,13 +722,13 @@
         <v>66.09</v>
       </c>
       <c r="E10" t="n">
-        <v>65.98999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="F10" t="n">
-        <v>3371.4813</v>
+        <v>103.8988</v>
       </c>
       <c r="G10" t="n">
-        <v>66.81900000000002</v>
+        <v>66.84200000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>65.81</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>65.64</v>
+        <v>66.09</v>
       </c>
       <c r="D11" t="n">
-        <v>65.81</v>
+        <v>66.09</v>
       </c>
       <c r="E11" t="n">
-        <v>65.64</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>14890.9241</v>
+        <v>3371.4813</v>
       </c>
       <c r="G11" t="n">
-        <v>66.79550000000002</v>
+        <v>66.81900000000002</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>65.93000000000001</v>
+        <v>65.81</v>
       </c>
       <c r="C12" t="n">
-        <v>65.90000000000001</v>
+        <v>65.64</v>
       </c>
       <c r="D12" t="n">
-        <v>65.95</v>
+        <v>65.81</v>
       </c>
       <c r="E12" t="n">
-        <v>65.90000000000001</v>
+        <v>65.64</v>
       </c>
       <c r="F12" t="n">
-        <v>1895.4481</v>
+        <v>14890.9241</v>
       </c>
       <c r="G12" t="n">
-        <v>66.77716666666669</v>
+        <v>66.79550000000002</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -818,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>65.75</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>65.75</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>65.75</v>
+        <v>65.95</v>
       </c>
       <c r="E13" t="n">
-        <v>65.75</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>377.5409</v>
+        <v>1895.4481</v>
       </c>
       <c r="G13" t="n">
-        <v>66.75583333333334</v>
+        <v>66.77716666666669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>65.59999999999999</v>
+        <v>65.75</v>
       </c>
       <c r="C14" t="n">
-        <v>65.59999999999999</v>
+        <v>65.75</v>
       </c>
       <c r="D14" t="n">
-        <v>65.59999999999999</v>
+        <v>65.75</v>
       </c>
       <c r="E14" t="n">
-        <v>65.59999999999999</v>
+        <v>65.75</v>
       </c>
       <c r="F14" t="n">
-        <v>3922.4581</v>
+        <v>377.5409</v>
       </c>
       <c r="G14" t="n">
-        <v>66.72750000000001</v>
+        <v>66.75583333333334</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>65.59999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>65.70999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>65.70999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>65.54000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>25951.6879</v>
+        <v>3922.4581</v>
       </c>
       <c r="G15" t="n">
-        <v>66.70083333333335</v>
+        <v>66.72750000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -923,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="C16" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>65.70999999999999</v>
+      </c>
+      <c r="E16" t="n">
         <v>65.54000000000001</v>
       </c>
-      <c r="C16" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="D16" t="n">
-        <v>65.7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>65.53</v>
-      </c>
       <c r="F16" t="n">
-        <v>35173.8524</v>
+        <v>25951.6879</v>
       </c>
       <c r="G16" t="n">
-        <v>66.67266666666667</v>
+        <v>66.70083333333335</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>65.54000000000001</v>
+      </c>
+      <c r="C17" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="D17" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="E17" t="n">
         <v>65.53</v>
       </c>
-      <c r="C17" t="n">
-        <v>65.52</v>
-      </c>
-      <c r="D17" t="n">
-        <v>65.53</v>
-      </c>
-      <c r="E17" t="n">
-        <v>65.52</v>
-      </c>
       <c r="F17" t="n">
-        <v>10171.3285</v>
+        <v>35173.8524</v>
       </c>
       <c r="G17" t="n">
-        <v>66.64216666666668</v>
+        <v>66.67266666666667</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>65.52</v>
+        <v>65.53</v>
       </c>
       <c r="C18" t="n">
         <v>65.52</v>
       </c>
       <c r="D18" t="n">
-        <v>65.52</v>
+        <v>65.53</v>
       </c>
       <c r="E18" t="n">
         <v>65.52</v>
       </c>
       <c r="F18" t="n">
-        <v>604.8029</v>
+        <v>10171.3285</v>
       </c>
       <c r="G18" t="n">
-        <v>66.61116666666668</v>
+        <v>66.64216666666668</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1031,19 +1031,19 @@
         <v>65.52</v>
       </c>
       <c r="C19" t="n">
-        <v>65.64</v>
+        <v>65.52</v>
       </c>
       <c r="D19" t="n">
-        <v>65.64</v>
+        <v>65.52</v>
       </c>
       <c r="E19" t="n">
-        <v>65.5</v>
+        <v>65.52</v>
       </c>
       <c r="F19" t="n">
-        <v>31021.72496124</v>
+        <v>604.8029</v>
       </c>
       <c r="G19" t="n">
-        <v>66.58166666666668</v>
+        <v>66.61116666666668</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>65.5</v>
+        <v>65.52</v>
       </c>
       <c r="C20" t="n">
-        <v>65.59999999999999</v>
+        <v>65.64</v>
       </c>
       <c r="D20" t="n">
-        <v>65.59999999999999</v>
+        <v>65.64</v>
       </c>
       <c r="E20" t="n">
         <v>65.5</v>
       </c>
       <c r="F20" t="n">
-        <v>13218.6061</v>
+        <v>31021.72496124</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5485</v>
+        <v>66.58166666666668</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>65.41</v>
+        <v>65.5</v>
       </c>
       <c r="C21" t="n">
-        <v>65.40000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>65.54000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>65.40000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="F21" t="n">
-        <v>3971.6995</v>
+        <v>13218.6061</v>
       </c>
       <c r="G21" t="n">
-        <v>66.51283333333335</v>
+        <v>66.5485</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>65.33</v>
+        <v>65.41</v>
       </c>
       <c r="C22" t="n">
-        <v>65.33</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>65.33</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>65.3</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>5502.3396</v>
+        <v>3971.6995</v>
       </c>
       <c r="G22" t="n">
-        <v>66.48416666666667</v>
+        <v>66.51283333333335</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>65.3</v>
+        <v>65.33</v>
       </c>
       <c r="C23" t="n">
-        <v>65.3</v>
+        <v>65.33</v>
       </c>
       <c r="D23" t="n">
-        <v>65.3</v>
+        <v>65.33</v>
       </c>
       <c r="E23" t="n">
         <v>65.3</v>
       </c>
       <c r="F23" t="n">
-        <v>432.5167</v>
+        <v>5502.3396</v>
       </c>
       <c r="G23" t="n">
-        <v>66.45533333333334</v>
+        <v>66.48416666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>65.3</v>
       </c>
       <c r="F24" t="n">
-        <v>2907.6768</v>
+        <v>432.5167</v>
       </c>
       <c r="G24" t="n">
-        <v>66.42666666666668</v>
+        <v>66.45533333333334</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1238,22 +1238,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>65.23</v>
+        <v>65.3</v>
       </c>
       <c r="C25" t="n">
-        <v>65.23</v>
+        <v>65.3</v>
       </c>
       <c r="D25" t="n">
-        <v>65.23</v>
+        <v>65.3</v>
       </c>
       <c r="E25" t="n">
-        <v>65.23</v>
+        <v>65.3</v>
       </c>
       <c r="F25" t="n">
-        <v>12335.9906</v>
+        <v>2907.6768</v>
       </c>
       <c r="G25" t="n">
-        <v>66.39366666666668</v>
+        <v>66.42666666666668</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1273,35 +1273,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>65.36</v>
+        <v>65.23</v>
       </c>
       <c r="C26" t="n">
-        <v>65.36</v>
+        <v>65.23</v>
       </c>
       <c r="D26" t="n">
-        <v>65.36</v>
+        <v>65.23</v>
       </c>
       <c r="E26" t="n">
-        <v>65.36</v>
+        <v>65.23</v>
       </c>
       <c r="F26" t="n">
-        <v>894</v>
+        <v>12335.9906</v>
       </c>
       <c r="G26" t="n">
-        <v>66.36466666666668</v>
+        <v>66.39366666666668</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="K26" t="n">
-        <v>65.23</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
@@ -1312,40 +1308,32 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>65.23</v>
+        <v>65.36</v>
       </c>
       <c r="C27" t="n">
-        <v>65.23</v>
+        <v>65.36</v>
       </c>
       <c r="D27" t="n">
-        <v>65.23</v>
+        <v>65.36</v>
       </c>
       <c r="E27" t="n">
-        <v>65.11</v>
+        <v>65.36</v>
       </c>
       <c r="F27" t="n">
-        <v>31127.8342</v>
+        <v>894</v>
       </c>
       <c r="G27" t="n">
-        <v>66.33466666666668</v>
+        <v>66.36466666666668</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>65.36</v>
-      </c>
-      <c r="K27" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1358,37 +1346,29 @@
         <v>65.23</v>
       </c>
       <c r="C28" t="n">
-        <v>65.08</v>
+        <v>65.23</v>
       </c>
       <c r="D28" t="n">
         <v>65.23</v>
       </c>
       <c r="E28" t="n">
-        <v>65</v>
+        <v>65.11</v>
       </c>
       <c r="F28" t="n">
-        <v>23376.4188</v>
+        <v>31127.8342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.3005</v>
+        <v>66.33466666666668</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="K28" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1398,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>65.06999999999999</v>
+        <v>65.23</v>
       </c>
       <c r="C29" t="n">
         <v>65.08</v>
       </c>
       <c r="D29" t="n">
-        <v>65.08</v>
+        <v>65.23</v>
       </c>
       <c r="E29" t="n">
-        <v>65.06999999999999</v>
+        <v>65</v>
       </c>
       <c r="F29" t="n">
-        <v>871.1679</v>
+        <v>23376.4188</v>
       </c>
       <c r="G29" t="n">
-        <v>66.26633333333334</v>
+        <v>66.3005</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1422,14 +1402,8 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1439,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>65.12</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>65.13</v>
+        <v>65.08</v>
       </c>
       <c r="D30" t="n">
-        <v>65.13</v>
+        <v>65.08</v>
       </c>
       <c r="E30" t="n">
-        <v>65.12</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>20159.0706</v>
+        <v>871.1679</v>
       </c>
       <c r="G30" t="n">
-        <v>66.23350000000001</v>
+        <v>66.26633333333334</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1463,14 +1437,8 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1483,19 +1451,19 @@
         <v>65.12</v>
       </c>
       <c r="C31" t="n">
-        <v>65.12</v>
+        <v>65.13</v>
       </c>
       <c r="D31" t="n">
-        <v>65.12</v>
+        <v>65.13</v>
       </c>
       <c r="E31" t="n">
         <v>65.12</v>
       </c>
       <c r="F31" t="n">
-        <v>851.7525000000001</v>
+        <v>20159.0706</v>
       </c>
       <c r="G31" t="n">
-        <v>66.196</v>
+        <v>66.23350000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1504,14 +1472,8 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1521,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>65.15000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="C32" t="n">
-        <v>65.19</v>
+        <v>65.12</v>
       </c>
       <c r="D32" t="n">
-        <v>65.19</v>
+        <v>65.12</v>
       </c>
       <c r="E32" t="n">
-        <v>65.15000000000001</v>
+        <v>65.12</v>
       </c>
       <c r="F32" t="n">
-        <v>23417.83525095</v>
+        <v>851.7525000000001</v>
       </c>
       <c r="G32" t="n">
-        <v>66.15966666666667</v>
+        <v>66.196</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1545,14 +1507,8 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1562,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>65.17</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>65.17</v>
+        <v>65.19</v>
       </c>
       <c r="D33" t="n">
-        <v>65.17</v>
+        <v>65.19</v>
       </c>
       <c r="E33" t="n">
-        <v>65.17</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>1701.3761</v>
+        <v>23417.83525095</v>
       </c>
       <c r="G33" t="n">
-        <v>66.12550000000002</v>
+        <v>66.15966666666667</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1586,14 +1542,8 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1606,19 +1556,19 @@
         <v>65.17</v>
       </c>
       <c r="C34" t="n">
-        <v>65.29000000000001</v>
+        <v>65.17</v>
       </c>
       <c r="D34" t="n">
-        <v>65.29000000000001</v>
+        <v>65.17</v>
       </c>
       <c r="E34" t="n">
         <v>65.17</v>
       </c>
       <c r="F34" t="n">
-        <v>1749.1859</v>
+        <v>1701.3761</v>
       </c>
       <c r="G34" t="n">
-        <v>66.09600000000002</v>
+        <v>66.12550000000002</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1627,14 +1577,8 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1644,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>65.38</v>
+        <v>65.17</v>
       </c>
       <c r="C35" t="n">
-        <v>65.27</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>65.38</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="E35" t="n">
-        <v>65.27</v>
+        <v>65.17</v>
       </c>
       <c r="F35" t="n">
-        <v>5604.1908</v>
+        <v>1749.1859</v>
       </c>
       <c r="G35" t="n">
-        <v>66.07266666666668</v>
+        <v>66.09600000000002</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1668,14 +1612,8 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1685,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>65.27</v>
+        <v>65.38</v>
       </c>
       <c r="C36" t="n">
         <v>65.27</v>
       </c>
       <c r="D36" t="n">
-        <v>65.27</v>
+        <v>65.38</v>
       </c>
       <c r="E36" t="n">
         <v>65.27</v>
       </c>
       <c r="F36" t="n">
-        <v>591</v>
+        <v>5604.1908</v>
       </c>
       <c r="G36" t="n">
-        <v>66.04900000000001</v>
+        <v>66.07266666666668</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1709,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1729,19 +1661,19 @@
         <v>65.27</v>
       </c>
       <c r="C37" t="n">
-        <v>65.33</v>
+        <v>65.27</v>
       </c>
       <c r="D37" t="n">
-        <v>65.33</v>
+        <v>65.27</v>
       </c>
       <c r="E37" t="n">
         <v>65.27</v>
       </c>
       <c r="F37" t="n">
-        <v>634.8528</v>
+        <v>591</v>
       </c>
       <c r="G37" t="n">
-        <v>66.0275</v>
+        <v>66.04900000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1750,14 +1682,8 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1767,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>65.17</v>
+        <v>65.27</v>
       </c>
       <c r="C38" t="n">
-        <v>65.16</v>
+        <v>65.33</v>
       </c>
       <c r="D38" t="n">
-        <v>65.17</v>
+        <v>65.33</v>
       </c>
       <c r="E38" t="n">
-        <v>65.16</v>
+        <v>65.27</v>
       </c>
       <c r="F38" t="n">
-        <v>43800</v>
+        <v>634.8528</v>
       </c>
       <c r="G38" t="n">
-        <v>65.99783333333333</v>
+        <v>66.0275</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1791,14 +1717,8 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1808,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>65.16</v>
+        <v>65.17</v>
       </c>
       <c r="C39" t="n">
         <v>65.16</v>
       </c>
       <c r="D39" t="n">
-        <v>65.22</v>
+        <v>65.17</v>
       </c>
       <c r="E39" t="n">
         <v>65.16</v>
       </c>
       <c r="F39" t="n">
-        <v>9283.5299</v>
+        <v>43800</v>
       </c>
       <c r="G39" t="n">
-        <v>65.96833333333333</v>
+        <v>65.99783333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1832,14 +1752,8 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1849,22 +1763,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>65.31999999999999</v>
+        <v>65.16</v>
       </c>
       <c r="C40" t="n">
-        <v>65.31999999999999</v>
+        <v>65.16</v>
       </c>
       <c r="D40" t="n">
-        <v>65.31999999999999</v>
+        <v>65.22</v>
       </c>
       <c r="E40" t="n">
-        <v>65.31999999999999</v>
+        <v>65.16</v>
       </c>
       <c r="F40" t="n">
-        <v>827.5141</v>
+        <v>9283.5299</v>
       </c>
       <c r="G40" t="n">
-        <v>65.94000000000001</v>
+        <v>65.96833333333333</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1873,14 +1787,8 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1890,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>65.34</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>65.34</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>65.34</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>65.34</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>386.4312</v>
+        <v>827.5141</v>
       </c>
       <c r="G41" t="n">
-        <v>65.91250000000001</v>
+        <v>65.94000000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1914,14 +1822,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1931,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>65.33</v>
+        <v>65.34</v>
       </c>
       <c r="C42" t="n">
-        <v>65.33</v>
+        <v>65.34</v>
       </c>
       <c r="D42" t="n">
-        <v>65.45999999999999</v>
+        <v>65.34</v>
       </c>
       <c r="E42" t="n">
-        <v>65.33</v>
+        <v>65.34</v>
       </c>
       <c r="F42" t="n">
-        <v>113427.92698001</v>
+        <v>386.4312</v>
       </c>
       <c r="G42" t="n">
-        <v>65.88683333333334</v>
+        <v>65.91250000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1955,14 +1857,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1978,16 +1874,16 @@
         <v>65.33</v>
       </c>
       <c r="D43" t="n">
-        <v>65.33</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="E43" t="n">
         <v>65.33</v>
       </c>
       <c r="F43" t="n">
-        <v>120926.9485</v>
+        <v>113427.92698001</v>
       </c>
       <c r="G43" t="n">
-        <v>65.86383333333335</v>
+        <v>65.88683333333334</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1996,14 +1892,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2013,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>65.55</v>
+        <v>65.33</v>
       </c>
       <c r="C44" t="n">
-        <v>65.55</v>
+        <v>65.33</v>
       </c>
       <c r="D44" t="n">
-        <v>65.55</v>
+        <v>65.33</v>
       </c>
       <c r="E44" t="n">
-        <v>65.55</v>
+        <v>65.33</v>
       </c>
       <c r="F44" t="n">
-        <v>300.54919908</v>
+        <v>120926.9485</v>
       </c>
       <c r="G44" t="n">
-        <v>65.84116666666668</v>
+        <v>65.86383333333335</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2037,14 +1927,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2054,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>65.61</v>
+        <v>65.55</v>
       </c>
       <c r="C45" t="n">
-        <v>65.61</v>
+        <v>65.55</v>
       </c>
       <c r="D45" t="n">
-        <v>65.61</v>
+        <v>65.55</v>
       </c>
       <c r="E45" t="n">
-        <v>65.61</v>
+        <v>65.55</v>
       </c>
       <c r="F45" t="n">
-        <v>302.2943</v>
+        <v>300.54919908</v>
       </c>
       <c r="G45" t="n">
-        <v>65.82400000000003</v>
+        <v>65.84116666666668</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2078,14 +1962,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2107,10 +1985,10 @@
         <v>65.61</v>
       </c>
       <c r="F46" t="n">
-        <v>2597.70261611</v>
+        <v>302.2943</v>
       </c>
       <c r="G46" t="n">
-        <v>65.80750000000003</v>
+        <v>65.82400000000003</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2119,14 +1997,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2148,10 +2020,10 @@
         <v>65.61</v>
       </c>
       <c r="F47" t="n">
-        <v>519.7942</v>
+        <v>2597.70261611</v>
       </c>
       <c r="G47" t="n">
-        <v>65.79333333333336</v>
+        <v>65.80750000000003</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2160,14 +2032,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2177,7 +2043,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>65.59999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="C48" t="n">
         <v>65.61</v>
@@ -2186,13 +2052,13 @@
         <v>65.61</v>
       </c>
       <c r="E48" t="n">
-        <v>65.59999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="F48" t="n">
-        <v>5640.1993</v>
+        <v>519.7942</v>
       </c>
       <c r="G48" t="n">
-        <v>65.7791666666667</v>
+        <v>65.79333333333336</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2201,14 +2067,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2218,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
+        <v>65.59999999999999</v>
+      </c>
+      <c r="C49" t="n">
         <v>65.61</v>
-      </c>
-      <c r="C49" t="n">
-        <v>65.42</v>
       </c>
       <c r="D49" t="n">
         <v>65.61</v>
       </c>
       <c r="E49" t="n">
-        <v>65.42</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>10000</v>
+        <v>5640.1993</v>
       </c>
       <c r="G49" t="n">
-        <v>65.76183333333337</v>
+        <v>65.7791666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2242,14 +2102,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2259,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>65.53</v>
+        <v>65.61</v>
       </c>
       <c r="C50" t="n">
-        <v>65.3</v>
+        <v>65.42</v>
       </c>
       <c r="D50" t="n">
-        <v>65.53</v>
+        <v>65.61</v>
       </c>
       <c r="E50" t="n">
-        <v>65.29000000000001</v>
+        <v>65.42</v>
       </c>
       <c r="F50" t="n">
-        <v>41248.3352</v>
+        <v>10000</v>
       </c>
       <c r="G50" t="n">
-        <v>65.7441666666667</v>
+        <v>65.76183333333337</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2283,14 +2137,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2300,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>65.23999999999999</v>
+        <v>65.53</v>
       </c>
       <c r="C51" t="n">
-        <v>65.23999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="D51" t="n">
-        <v>65.23999999999999</v>
+        <v>65.53</v>
       </c>
       <c r="E51" t="n">
-        <v>65.23999999999999</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>379.4187</v>
+        <v>41248.3352</v>
       </c>
       <c r="G51" t="n">
-        <v>65.72433333333336</v>
+        <v>65.7441666666667</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2324,14 +2172,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2341,22 +2183,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>65.33</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>65.33</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>65.33</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>65.33</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>322.28600341</v>
+        <v>379.4187</v>
       </c>
       <c r="G52" t="n">
-        <v>65.70300000000003</v>
+        <v>65.72433333333336</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2365,14 +2207,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2385,19 +2221,19 @@
         <v>65.33</v>
       </c>
       <c r="C53" t="n">
-        <v>65.18000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="D53" t="n">
         <v>65.33</v>
       </c>
       <c r="E53" t="n">
-        <v>65.18000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="F53" t="n">
-        <v>1252.8943</v>
+        <v>322.28600341</v>
       </c>
       <c r="G53" t="n">
-        <v>65.6746666666667</v>
+        <v>65.70300000000003</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2406,14 +2242,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2423,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>65.3</v>
+        <v>65.33</v>
       </c>
       <c r="C54" t="n">
-        <v>65.3</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>65.3</v>
+        <v>65.33</v>
       </c>
       <c r="E54" t="n">
-        <v>65.3</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>562</v>
+        <v>1252.8943</v>
       </c>
       <c r="G54" t="n">
-        <v>65.64283333333336</v>
+        <v>65.6746666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2447,14 +2277,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2464,22 +2288,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>65.33</v>
+        <v>65.3</v>
       </c>
       <c r="C55" t="n">
-        <v>65.33</v>
+        <v>65.3</v>
       </c>
       <c r="D55" t="n">
-        <v>65.33</v>
+        <v>65.3</v>
       </c>
       <c r="E55" t="n">
-        <v>65.33</v>
+        <v>65.3</v>
       </c>
       <c r="F55" t="n">
-        <v>5727.6494</v>
+        <v>562</v>
       </c>
       <c r="G55" t="n">
-        <v>65.61566666666668</v>
+        <v>65.64283333333336</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2488,14 +2312,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2505,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>65.2</v>
+        <v>65.33</v>
       </c>
       <c r="C56" t="n">
-        <v>65.11</v>
+        <v>65.33</v>
       </c>
       <c r="D56" t="n">
-        <v>65.2</v>
+        <v>65.33</v>
       </c>
       <c r="E56" t="n">
-        <v>65.11</v>
+        <v>65.33</v>
       </c>
       <c r="F56" t="n">
-        <v>4495.5</v>
+        <v>5727.6494</v>
       </c>
       <c r="G56" t="n">
-        <v>65.58700000000003</v>
+        <v>65.61566666666668</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2529,14 +2347,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2546,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>65.39</v>
+        <v>65.2</v>
       </c>
       <c r="C57" t="n">
-        <v>65.39</v>
+        <v>65.11</v>
       </c>
       <c r="D57" t="n">
-        <v>65.39</v>
+        <v>65.2</v>
       </c>
       <c r="E57" t="n">
-        <v>65.39</v>
+        <v>65.11</v>
       </c>
       <c r="F57" t="n">
-        <v>167.1234</v>
+        <v>4495.5</v>
       </c>
       <c r="G57" t="n">
-        <v>65.5651666666667</v>
+        <v>65.58700000000003</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2570,14 +2382,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2587,22 +2393,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>65.45</v>
+        <v>65.39</v>
       </c>
       <c r="C58" t="n">
-        <v>65.45</v>
+        <v>65.39</v>
       </c>
       <c r="D58" t="n">
-        <v>65.45</v>
+        <v>65.39</v>
       </c>
       <c r="E58" t="n">
-        <v>65.45</v>
+        <v>65.39</v>
       </c>
       <c r="F58" t="n">
-        <v>103.5076</v>
+        <v>167.1234</v>
       </c>
       <c r="G58" t="n">
-        <v>65.54566666666669</v>
+        <v>65.5651666666667</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2611,14 +2417,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2628,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>65.61</v>
+        <v>65.45</v>
       </c>
       <c r="C59" t="n">
-        <v>65.70999999999999</v>
+        <v>65.45</v>
       </c>
       <c r="D59" t="n">
-        <v>65.70999999999999</v>
+        <v>65.45</v>
       </c>
       <c r="E59" t="n">
-        <v>65.61</v>
+        <v>65.45</v>
       </c>
       <c r="F59" t="n">
-        <v>20062.8383</v>
+        <v>103.5076</v>
       </c>
       <c r="G59" t="n">
-        <v>65.53183333333337</v>
+        <v>65.54566666666669</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2652,14 +2452,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2669,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>66.04000000000001</v>
+        <v>65.61</v>
       </c>
       <c r="C60" t="n">
-        <v>66.04000000000001</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>66.04000000000001</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="E60" t="n">
-        <v>66.04000000000001</v>
+        <v>65.61</v>
       </c>
       <c r="F60" t="n">
-        <v>9311</v>
+        <v>20062.8383</v>
       </c>
       <c r="G60" t="n">
-        <v>65.52683333333336</v>
+        <v>65.53183333333337</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2693,14 +2487,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2710,22 +2498,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>66.17</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>65.98999999999999</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>66.17</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>65.98999999999999</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="F61" t="n">
-        <v>17561.599</v>
+        <v>9311</v>
       </c>
       <c r="G61" t="n">
-        <v>65.51883333333336</v>
+        <v>65.52683333333336</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2734,14 +2522,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2751,22 +2533,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>65.98</v>
+        <v>66.17</v>
       </c>
       <c r="C62" t="n">
-        <v>65.97</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>65.98</v>
+        <v>66.17</v>
       </c>
       <c r="E62" t="n">
-        <v>65.97</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>14442.4189</v>
+        <v>17561.599</v>
       </c>
       <c r="G62" t="n">
-        <v>65.51416666666668</v>
+        <v>65.51883333333336</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2775,14 +2557,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2795,19 +2571,19 @@
         <v>65.98</v>
       </c>
       <c r="C63" t="n">
-        <v>66.17</v>
+        <v>65.97</v>
       </c>
       <c r="D63" t="n">
-        <v>66.17</v>
+        <v>65.98</v>
       </c>
       <c r="E63" t="n">
-        <v>65.98</v>
+        <v>65.97</v>
       </c>
       <c r="F63" t="n">
-        <v>2013.7205</v>
+        <v>14442.4189</v>
       </c>
       <c r="G63" t="n">
-        <v>65.51350000000002</v>
+        <v>65.51416666666668</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2816,14 +2592,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2833,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>66.28</v>
+        <v>65.98</v>
       </c>
       <c r="C64" t="n">
-        <v>66.01000000000001</v>
+        <v>66.17</v>
       </c>
       <c r="D64" t="n">
-        <v>66.28</v>
+        <v>66.17</v>
       </c>
       <c r="E64" t="n">
-        <v>66.01000000000001</v>
+        <v>65.98</v>
       </c>
       <c r="F64" t="n">
-        <v>16114.2064</v>
+        <v>2013.7205</v>
       </c>
       <c r="G64" t="n">
-        <v>65.50866666666668</v>
+        <v>65.51350000000002</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2857,14 +2627,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2874,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>66.15000000000001</v>
+        <v>66.28</v>
       </c>
       <c r="C65" t="n">
-        <v>66.15000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>66.15000000000001</v>
+        <v>66.28</v>
       </c>
       <c r="E65" t="n">
-        <v>66.15000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>10988</v>
+        <v>16114.2064</v>
       </c>
       <c r="G65" t="n">
-        <v>65.51066666666669</v>
+        <v>65.50866666666668</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2898,14 +2662,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2915,22 +2673,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>66.37</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>66.37</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="D66" t="n">
-        <v>66.37</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>66.37</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>150.67048365</v>
+        <v>10988</v>
       </c>
       <c r="G66" t="n">
-        <v>65.51516666666669</v>
+        <v>65.51066666666669</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2939,14 +2697,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2956,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>66.25</v>
+        <v>66.37</v>
       </c>
       <c r="C67" t="n">
-        <v>66.26000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="D67" t="n">
-        <v>66.26000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="E67" t="n">
-        <v>66.25</v>
+        <v>66.37</v>
       </c>
       <c r="F67" t="n">
-        <v>3452.0365</v>
+        <v>150.67048365</v>
       </c>
       <c r="G67" t="n">
-        <v>65.51800000000001</v>
+        <v>65.51516666666669</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2980,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2997,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>66.31</v>
+        <v>66.25</v>
       </c>
       <c r="C68" t="n">
-        <v>66.31</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>66.31</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="E68" t="n">
-        <v>66.31</v>
+        <v>66.25</v>
       </c>
       <c r="F68" t="n">
-        <v>1105.1077</v>
+        <v>3452.0365</v>
       </c>
       <c r="G68" t="n">
-        <v>65.52500000000002</v>
+        <v>65.51800000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3021,14 +2767,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3038,22 +2778,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>66.29000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="C69" t="n">
-        <v>66.26000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="D69" t="n">
-        <v>66.29000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="E69" t="n">
-        <v>66.26000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="F69" t="n">
-        <v>2282.5437</v>
+        <v>1105.1077</v>
       </c>
       <c r="G69" t="n">
-        <v>65.52783333333336</v>
+        <v>65.52500000000002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3062,14 +2802,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3079,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
+        <v>66.29000000000001</v>
+      </c>
+      <c r="C70" t="n">
         <v>66.26000000000001</v>
       </c>
-      <c r="C70" t="n">
-        <v>66.31</v>
-      </c>
       <c r="D70" t="n">
-        <v>66.31</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="E70" t="n">
         <v>66.26000000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>871.552</v>
+        <v>2282.5437</v>
       </c>
       <c r="G70" t="n">
-        <v>65.53150000000002</v>
+        <v>65.52783333333336</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3103,14 +2837,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3120,7 +2848,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>66.31</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="C71" t="n">
         <v>66.31</v>
@@ -3129,13 +2857,13 @@
         <v>66.31</v>
       </c>
       <c r="E71" t="n">
-        <v>66.31</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>1379.273</v>
+        <v>871.552</v>
       </c>
       <c r="G71" t="n">
-        <v>65.54266666666669</v>
+        <v>65.53150000000002</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3144,14 +2872,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3161,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>66.26000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="C72" t="n">
-        <v>66.26000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="D72" t="n">
-        <v>66.26000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="E72" t="n">
-        <v>66.26000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="F72" t="n">
-        <v>13.1048</v>
+        <v>1379.273</v>
       </c>
       <c r="G72" t="n">
-        <v>65.54866666666669</v>
+        <v>65.54266666666669</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3185,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3202,38 +2918,32 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>66.25</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>66.25</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>66.25</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>66.25</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>7.5963</v>
+        <v>13.1048</v>
       </c>
       <c r="G73" t="n">
-        <v>65.55700000000003</v>
+        <v>65.54866666666669</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3243,38 +2953,32 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>66.09999999999999</v>
+        <v>66.25</v>
       </c>
       <c r="C74" t="n">
-        <v>66.09999999999999</v>
+        <v>66.25</v>
       </c>
       <c r="D74" t="n">
-        <v>66.09999999999999</v>
+        <v>66.25</v>
       </c>
       <c r="E74" t="n">
-        <v>66.09999999999999</v>
+        <v>66.25</v>
       </c>
       <c r="F74" t="n">
-        <v>589.9226</v>
+        <v>7.5963</v>
       </c>
       <c r="G74" t="n">
-        <v>65.56533333333336</v>
+        <v>65.55700000000003</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3284,22 +2988,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>65.84999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C75" t="n">
-        <v>65.84999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>65.84999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E75" t="n">
-        <v>65.84999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F75" t="n">
-        <v>1733.3337</v>
+        <v>589.9226</v>
       </c>
       <c r="G75" t="n">
-        <v>65.56766666666668</v>
+        <v>65.56533333333336</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3308,14 +3012,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3325,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>65.84</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="C76" t="n">
-        <v>65.86</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>65.86</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="E76" t="n">
-        <v>65.84</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="F76" t="n">
-        <v>1576.89</v>
+        <v>1733.3337</v>
       </c>
       <c r="G76" t="n">
-        <v>65.57033333333337</v>
+        <v>65.56766666666668</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3349,14 +3047,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3366,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>65.81999999999999</v>
+        <v>65.84</v>
       </c>
       <c r="C77" t="n">
-        <v>65.79000000000001</v>
+        <v>65.86</v>
       </c>
       <c r="D77" t="n">
-        <v>65.81999999999999</v>
+        <v>65.86</v>
       </c>
       <c r="E77" t="n">
-        <v>65.79000000000001</v>
+        <v>65.84</v>
       </c>
       <c r="F77" t="n">
-        <v>1003.2249</v>
+        <v>1576.89</v>
       </c>
       <c r="G77" t="n">
-        <v>65.57483333333336</v>
+        <v>65.57033333333337</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3390,14 +3082,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3407,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>65.73</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>65.72</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>65.73</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="E78" t="n">
-        <v>65.72</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="F78" t="n">
-        <v>802.8881</v>
+        <v>1003.2249</v>
       </c>
       <c r="G78" t="n">
-        <v>65.57816666666669</v>
+        <v>65.57483333333336</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3431,14 +3117,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3448,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>65.8</v>
+        <v>65.73</v>
       </c>
       <c r="C79" t="n">
-        <v>65.8</v>
+        <v>65.72</v>
       </c>
       <c r="D79" t="n">
-        <v>65.8</v>
+        <v>65.73</v>
       </c>
       <c r="E79" t="n">
-        <v>65.8</v>
+        <v>65.72</v>
       </c>
       <c r="F79" t="n">
-        <v>442.016</v>
+        <v>802.8881</v>
       </c>
       <c r="G79" t="n">
-        <v>65.58083333333336</v>
+        <v>65.57816666666669</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3472,14 +3152,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3489,22 +3163,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>65.7</v>
+        <v>65.8</v>
       </c>
       <c r="C80" t="n">
-        <v>65.95999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="D80" t="n">
-        <v>65.95999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="E80" t="n">
-        <v>65.62</v>
+        <v>65.8</v>
       </c>
       <c r="F80" t="n">
-        <v>110037.8853</v>
+        <v>442.016</v>
       </c>
       <c r="G80" t="n">
-        <v>65.58683333333336</v>
+        <v>65.58083333333336</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3513,14 +3187,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3530,22 +3198,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>65.93000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="C81" t="n">
-        <v>66.20999999999999</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>66.20999999999999</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>65.84</v>
+        <v>65.62</v>
       </c>
       <c r="F81" t="n">
-        <v>65370.3416</v>
+        <v>110037.8853</v>
       </c>
       <c r="G81" t="n">
-        <v>65.60033333333337</v>
+        <v>65.58683333333336</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3554,14 +3222,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3571,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>66.27</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="C82" t="n">
-        <v>66.27</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>66.27</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>66.27</v>
+        <v>65.84</v>
       </c>
       <c r="F82" t="n">
-        <v>1407</v>
+        <v>65370.3416</v>
       </c>
       <c r="G82" t="n">
-        <v>65.61600000000003</v>
+        <v>65.60033333333337</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3595,14 +3257,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3612,40 +3268,34 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>66.16</v>
+        <v>66.27</v>
       </c>
       <c r="C83" t="n">
-        <v>66.16</v>
+        <v>66.27</v>
       </c>
       <c r="D83" t="n">
-        <v>66.16</v>
+        <v>66.27</v>
       </c>
       <c r="E83" t="n">
-        <v>66.16</v>
+        <v>66.27</v>
       </c>
       <c r="F83" t="n">
-        <v>2634</v>
+        <v>1407</v>
       </c>
       <c r="G83" t="n">
-        <v>65.63033333333335</v>
+        <v>65.61600000000003</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>1.009257243599571</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -3653,28 +3303,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>66.37</v>
+        <v>66.16</v>
       </c>
       <c r="C84" t="n">
-        <v>66.37</v>
+        <v>66.16</v>
       </c>
       <c r="D84" t="n">
-        <v>66.37</v>
+        <v>66.16</v>
       </c>
       <c r="E84" t="n">
-        <v>66.37</v>
+        <v>66.16</v>
       </c>
       <c r="F84" t="n">
-        <v>6013.0083</v>
+        <v>2634</v>
       </c>
       <c r="G84" t="n">
-        <v>65.64816666666668</v>
+        <v>65.63033333333335</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3688,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>66.15000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="C85" t="n">
-        <v>66.08</v>
+        <v>66.37</v>
       </c>
       <c r="D85" t="n">
-        <v>66.15000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="E85" t="n">
-        <v>66.08</v>
+        <v>66.37</v>
       </c>
       <c r="F85" t="n">
-        <v>973.3187</v>
+        <v>6013.0083</v>
       </c>
       <c r="G85" t="n">
-        <v>65.66233333333335</v>
+        <v>65.64816666666668</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3723,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>66.08</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C86" t="n">
         <v>66.08</v>
       </c>
       <c r="D86" t="n">
-        <v>66.08</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="E86" t="n">
         <v>66.08</v>
       </c>
       <c r="F86" t="n">
-        <v>482.4979</v>
+        <v>973.3187</v>
       </c>
       <c r="G86" t="n">
-        <v>65.67433333333335</v>
+        <v>65.66233333333335</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3770,10 +3420,10 @@
         <v>66.08</v>
       </c>
       <c r="F87" t="n">
-        <v>178.0385</v>
+        <v>482.4979</v>
       </c>
       <c r="G87" t="n">
-        <v>65.68850000000002</v>
+        <v>65.67433333333335</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3793,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>66.09</v>
+        <v>66.08</v>
       </c>
       <c r="C88" t="n">
-        <v>65.87</v>
+        <v>66.08</v>
       </c>
       <c r="D88" t="n">
-        <v>66.09</v>
+        <v>66.08</v>
       </c>
       <c r="E88" t="n">
-        <v>65.87</v>
+        <v>66.08</v>
       </c>
       <c r="F88" t="n">
-        <v>4682.9994</v>
+        <v>178.0385</v>
       </c>
       <c r="G88" t="n">
-        <v>65.70166666666668</v>
+        <v>65.68850000000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3828,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>65.89</v>
+        <v>66.09</v>
       </c>
       <c r="C89" t="n">
-        <v>65.89</v>
+        <v>65.87</v>
       </c>
       <c r="D89" t="n">
-        <v>65.89</v>
+        <v>66.09</v>
       </c>
       <c r="E89" t="n">
-        <v>65.89</v>
+        <v>65.87</v>
       </c>
       <c r="F89" t="n">
-        <v>379.6968</v>
+        <v>4682.9994</v>
       </c>
       <c r="G89" t="n">
-        <v>65.71516666666668</v>
+        <v>65.70166666666668</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3863,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>65.87</v>
+        <v>65.89</v>
       </c>
       <c r="C90" t="n">
-        <v>65.87</v>
+        <v>65.89</v>
       </c>
       <c r="D90" t="n">
-        <v>65.87</v>
+        <v>65.89</v>
       </c>
       <c r="E90" t="n">
-        <v>65.87</v>
+        <v>65.89</v>
       </c>
       <c r="F90" t="n">
-        <v>3098.3673</v>
+        <v>379.6968</v>
       </c>
       <c r="G90" t="n">
-        <v>65.72750000000001</v>
+        <v>65.71516666666668</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3898,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>65.79000000000001</v>
+        <v>65.87</v>
       </c>
       <c r="C91" t="n">
-        <v>65.88</v>
+        <v>65.87</v>
       </c>
       <c r="D91" t="n">
-        <v>65.88</v>
+        <v>65.87</v>
       </c>
       <c r="E91" t="n">
-        <v>65.79000000000001</v>
+        <v>65.87</v>
       </c>
       <c r="F91" t="n">
-        <v>3028.85898603</v>
+        <v>3098.3673</v>
       </c>
       <c r="G91" t="n">
-        <v>65.74016666666668</v>
+        <v>65.72750000000001</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3933,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>65.45999999999999</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="C92" t="n">
-        <v>65.45999999999999</v>
+        <v>65.88</v>
       </c>
       <c r="D92" t="n">
-        <v>65.45999999999999</v>
+        <v>65.88</v>
       </c>
       <c r="E92" t="n">
-        <v>65.45999999999999</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="F92" t="n">
-        <v>767.3218000000001</v>
+        <v>3028.85898603</v>
       </c>
       <c r="G92" t="n">
-        <v>65.74466666666667</v>
+        <v>65.74016666666668</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3980,10 +3630,10 @@
         <v>65.45999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>20159.0706</v>
+        <v>767.3218000000001</v>
       </c>
       <c r="G93" t="n">
-        <v>65.74950000000001</v>
+        <v>65.74466666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4015,10 +3665,10 @@
         <v>65.45999999999999</v>
       </c>
       <c r="F94" t="n">
-        <v>9612.4107</v>
+        <v>20159.0706</v>
       </c>
       <c r="G94" t="n">
-        <v>65.75233333333334</v>
+        <v>65.74950000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4038,22 +3688,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>65.34999999999999</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="C95" t="n">
-        <v>65.34999999999999</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="D95" t="n">
-        <v>65.34999999999999</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="E95" t="n">
-        <v>65.34999999999999</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="F95" t="n">
-        <v>13164</v>
+        <v>9612.4107</v>
       </c>
       <c r="G95" t="n">
-        <v>65.75366666666667</v>
+        <v>65.75233333333334</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4073,22 +3723,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>65.52</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>65.52</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="D96" t="n">
-        <v>65.52</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>65.52</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="F96" t="n">
-        <v>30.4182</v>
+        <v>13164</v>
       </c>
       <c r="G96" t="n">
-        <v>65.75783333333335</v>
+        <v>65.75366666666667</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4108,31 +3758,35 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>65.56</v>
+        <v>65.52</v>
       </c>
       <c r="C97" t="n">
-        <v>65.64</v>
+        <v>65.52</v>
       </c>
       <c r="D97" t="n">
-        <v>65.64</v>
+        <v>65.52</v>
       </c>
       <c r="E97" t="n">
-        <v>65.53</v>
+        <v>65.52</v>
       </c>
       <c r="F97" t="n">
-        <v>69088.60799999999</v>
+        <v>30.4182</v>
       </c>
       <c r="G97" t="n">
-        <v>65.76300000000001</v>
+        <v>65.75783333333335</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>65.34999999999999</v>
+      </c>
+      <c r="K97" t="n">
+        <v>65.34999999999999</v>
+      </c>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
@@ -4143,22 +3797,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>65.62</v>
+        <v>65.56</v>
       </c>
       <c r="C98" t="n">
-        <v>65.62</v>
+        <v>65.64</v>
       </c>
       <c r="D98" t="n">
-        <v>65.62</v>
+        <v>65.64</v>
       </c>
       <c r="E98" t="n">
-        <v>65.62</v>
+        <v>65.53</v>
       </c>
       <c r="F98" t="n">
-        <v>4286.0969</v>
+        <v>69088.60799999999</v>
       </c>
       <c r="G98" t="n">
-        <v>65.77066666666668</v>
+        <v>65.76300000000001</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4167,8 +3821,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>65.34999999999999</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4190,10 +3850,10 @@
         <v>65.62</v>
       </c>
       <c r="F99" t="n">
-        <v>2647.1812</v>
+        <v>4286.0969</v>
       </c>
       <c r="G99" t="n">
-        <v>65.77833333333335</v>
+        <v>65.77066666666668</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4202,8 +3862,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>65.34999999999999</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4225,10 +3891,10 @@
         <v>65.62</v>
       </c>
       <c r="F100" t="n">
-        <v>87.38849999999999</v>
+        <v>2647.1812</v>
       </c>
       <c r="G100" t="n">
-        <v>65.78333333333335</v>
+        <v>65.77833333333335</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4260,10 +3926,10 @@
         <v>65.62</v>
       </c>
       <c r="F101" t="n">
-        <v>13863.6412</v>
+        <v>87.38849999999999</v>
       </c>
       <c r="G101" t="n">
-        <v>65.788</v>
+        <v>65.78333333333335</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4283,22 +3949,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>65.47</v>
+        <v>65.62</v>
       </c>
       <c r="C102" t="n">
-        <v>65.47</v>
+        <v>65.62</v>
       </c>
       <c r="D102" t="n">
-        <v>65.47</v>
+        <v>65.62</v>
       </c>
       <c r="E102" t="n">
-        <v>65.47</v>
+        <v>65.62</v>
       </c>
       <c r="F102" t="n">
-        <v>1179.2478</v>
+        <v>13863.6412</v>
       </c>
       <c r="G102" t="n">
-        <v>65.79033333333334</v>
+        <v>65.788</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4330,10 +3996,10 @@
         <v>65.47</v>
       </c>
       <c r="F103" t="n">
-        <v>4184.5697</v>
+        <v>1179.2478</v>
       </c>
       <c r="G103" t="n">
-        <v>65.79266666666666</v>
+        <v>65.79033333333334</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4365,10 +4031,10 @@
         <v>65.47</v>
       </c>
       <c r="F104" t="n">
-        <v>8499.823700000001</v>
+        <v>4184.5697</v>
       </c>
       <c r="G104" t="n">
-        <v>65.79133333333333</v>
+        <v>65.79266666666666</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4388,22 +4054,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>65.45999999999999</v>
+        <v>65.47</v>
       </c>
       <c r="C105" t="n">
-        <v>65.59999999999999</v>
+        <v>65.47</v>
       </c>
       <c r="D105" t="n">
-        <v>65.59999999999999</v>
+        <v>65.47</v>
       </c>
       <c r="E105" t="n">
-        <v>65.45999999999999</v>
+        <v>65.47</v>
       </c>
       <c r="F105" t="n">
-        <v>22465.9045</v>
+        <v>8499.823700000001</v>
       </c>
       <c r="G105" t="n">
-        <v>65.79116666666665</v>
+        <v>65.79133333333333</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4423,22 +4089,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>65.45999999999999</v>
+      </c>
+      <c r="C106" t="n">
         <v>65.59999999999999</v>
-      </c>
-      <c r="C106" t="n">
-        <v>65.59</v>
       </c>
       <c r="D106" t="n">
         <v>65.59999999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>65.59</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="F106" t="n">
-        <v>42134.3203</v>
+        <v>22465.9045</v>
       </c>
       <c r="G106" t="n">
-        <v>65.79083333333332</v>
+        <v>65.79116666666665</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4458,22 +4124,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>65.53</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>65.53</v>
+        <v>65.59</v>
       </c>
       <c r="D107" t="n">
-        <v>65.53</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>65.53</v>
+        <v>65.59</v>
       </c>
       <c r="F107" t="n">
-        <v>12.2063</v>
+        <v>42134.3203</v>
       </c>
       <c r="G107" t="n">
-        <v>65.78949999999999</v>
+        <v>65.79083333333332</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4493,22 +4159,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>65.51000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="C108" t="n">
-        <v>65.51000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="D108" t="n">
-        <v>65.51000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="E108" t="n">
-        <v>65.51000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="F108" t="n">
-        <v>2878.4379</v>
+        <v>12.2063</v>
       </c>
       <c r="G108" t="n">
-        <v>65.78783333333332</v>
+        <v>65.78949999999999</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4540,10 +4206,10 @@
         <v>65.51000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>2247.4534</v>
+        <v>2878.4379</v>
       </c>
       <c r="G109" t="n">
-        <v>65.78933333333333</v>
+        <v>65.78783333333332</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4575,10 +4241,10 @@
         <v>65.51000000000001</v>
       </c>
       <c r="F110" t="n">
-        <v>1862.5936</v>
+        <v>2247.4534</v>
       </c>
       <c r="G110" t="n">
-        <v>65.79283333333333</v>
+        <v>65.78933333333333</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4598,22 +4264,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>65.5</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>65.5</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>65.5</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E111" t="n">
-        <v>65.5</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>3399.9</v>
+        <v>1862.5936</v>
       </c>
       <c r="G111" t="n">
-        <v>65.79716666666667</v>
+        <v>65.79283333333333</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4633,22 +4299,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>65.51000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="C112" t="n">
-        <v>65.51000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="D112" t="n">
-        <v>65.51000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="E112" t="n">
-        <v>65.51000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="F112" t="n">
-        <v>553.782</v>
+        <v>3399.9</v>
       </c>
       <c r="G112" t="n">
-        <v>65.80016666666667</v>
+        <v>65.79716666666667</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4680,10 +4346,10 @@
         <v>65.51000000000001</v>
       </c>
       <c r="F113" t="n">
-        <v>1002.0482</v>
+        <v>553.782</v>
       </c>
       <c r="G113" t="n">
-        <v>65.80566666666668</v>
+        <v>65.80016666666667</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4715,10 +4381,10 @@
         <v>65.51000000000001</v>
       </c>
       <c r="F114" t="n">
-        <v>5000</v>
+        <v>1002.0482</v>
       </c>
       <c r="G114" t="n">
-        <v>65.80916666666668</v>
+        <v>65.80566666666668</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4750,10 +4416,10 @@
         <v>65.51000000000001</v>
       </c>
       <c r="F115" t="n">
-        <v>542.4277</v>
+        <v>5000</v>
       </c>
       <c r="G115" t="n">
-        <v>65.81216666666668</v>
+        <v>65.80916666666668</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4773,22 +4439,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>65.5</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>65.5</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>65.5</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>65.5</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F116" t="n">
-        <v>19.9993</v>
+        <v>542.4277</v>
       </c>
       <c r="G116" t="n">
-        <v>65.81866666666669</v>
+        <v>65.81216666666668</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4808,22 +4474,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>65.48</v>
+        <v>65.5</v>
       </c>
       <c r="C117" t="n">
-        <v>65.48</v>
+        <v>65.5</v>
       </c>
       <c r="D117" t="n">
-        <v>65.48</v>
+        <v>65.5</v>
       </c>
       <c r="E117" t="n">
-        <v>65.48</v>
+        <v>65.5</v>
       </c>
       <c r="F117" t="n">
-        <v>100</v>
+        <v>19.9993</v>
       </c>
       <c r="G117" t="n">
-        <v>65.82016666666668</v>
+        <v>65.81866666666669</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4843,22 +4509,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>65.5</v>
+        <v>65.48</v>
       </c>
       <c r="C118" t="n">
-        <v>65.5</v>
+        <v>65.48</v>
       </c>
       <c r="D118" t="n">
-        <v>65.5</v>
+        <v>65.48</v>
       </c>
       <c r="E118" t="n">
-        <v>65.5</v>
+        <v>65.48</v>
       </c>
       <c r="F118" t="n">
-        <v>894</v>
+        <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>65.82100000000001</v>
+        <v>65.82016666666668</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4878,22 +4544,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>65.45</v>
+        <v>65.5</v>
       </c>
       <c r="C119" t="n">
-        <v>65.31</v>
+        <v>65.5</v>
       </c>
       <c r="D119" t="n">
-        <v>65.45</v>
+        <v>65.5</v>
       </c>
       <c r="E119" t="n">
-        <v>65.31</v>
+        <v>65.5</v>
       </c>
       <c r="F119" t="n">
-        <v>100869.7157</v>
+        <v>894</v>
       </c>
       <c r="G119" t="n">
-        <v>65.81433333333335</v>
+        <v>65.82100000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4913,22 +4579,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>65.47</v>
+        <v>65.45</v>
       </c>
       <c r="C120" t="n">
-        <v>65.43000000000001</v>
+        <v>65.31</v>
       </c>
       <c r="D120" t="n">
-        <v>65.47</v>
+        <v>65.45</v>
       </c>
       <c r="E120" t="n">
-        <v>65.43000000000001</v>
+        <v>65.31</v>
       </c>
       <c r="F120" t="n">
-        <v>653.7115</v>
+        <v>100869.7157</v>
       </c>
       <c r="G120" t="n">
-        <v>65.80416666666669</v>
+        <v>65.81433333333335</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4948,22 +4614,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>65.5</v>
+        <v>65.47</v>
       </c>
       <c r="C121" t="n">
-        <v>65.5</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>65.5</v>
+        <v>65.47</v>
       </c>
       <c r="E121" t="n">
-        <v>65.5</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>271.1726</v>
+        <v>653.7115</v>
       </c>
       <c r="G121" t="n">
-        <v>65.79600000000002</v>
+        <v>65.80416666666669</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4995,10 +4661,10 @@
         <v>65.5</v>
       </c>
       <c r="F122" t="n">
-        <v>15760.2</v>
+        <v>271.1726</v>
       </c>
       <c r="G122" t="n">
-        <v>65.78816666666668</v>
+        <v>65.79600000000002</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5030,10 +4696,10 @@
         <v>65.5</v>
       </c>
       <c r="F123" t="n">
-        <v>14532.5366</v>
+        <v>15760.2</v>
       </c>
       <c r="G123" t="n">
-        <v>65.77700000000002</v>
+        <v>65.78816666666668</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5065,10 +4731,10 @@
         <v>65.5</v>
       </c>
       <c r="F124" t="n">
-        <v>1979.1402</v>
+        <v>14532.5366</v>
       </c>
       <c r="G124" t="n">
-        <v>65.76850000000002</v>
+        <v>65.77700000000002</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5100,10 +4766,10 @@
         <v>65.5</v>
       </c>
       <c r="F125" t="n">
-        <v>1659.4978</v>
+        <v>1979.1402</v>
       </c>
       <c r="G125" t="n">
-        <v>65.75766666666668</v>
+        <v>65.76850000000002</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5135,10 +4801,10 @@
         <v>65.5</v>
       </c>
       <c r="F126" t="n">
-        <v>1705.7865</v>
+        <v>1659.4978</v>
       </c>
       <c r="G126" t="n">
-        <v>65.74316666666668</v>
+        <v>65.75766666666668</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5170,10 +4836,10 @@
         <v>65.5</v>
       </c>
       <c r="F127" t="n">
-        <v>1000</v>
+        <v>1705.7865</v>
       </c>
       <c r="G127" t="n">
-        <v>65.73050000000002</v>
+        <v>65.74316666666668</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5205,10 +4871,10 @@
         <v>65.5</v>
       </c>
       <c r="F128" t="n">
-        <v>624.93467557</v>
+        <v>1000</v>
       </c>
       <c r="G128" t="n">
-        <v>65.71700000000001</v>
+        <v>65.73050000000002</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5228,22 +4894,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>65.48999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="C129" t="n">
-        <v>65.48999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="D129" t="n">
-        <v>65.48999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="E129" t="n">
-        <v>65.48999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="F129" t="n">
-        <v>906.5939</v>
+        <v>624.93467557</v>
       </c>
       <c r="G129" t="n">
-        <v>65.70416666666668</v>
+        <v>65.71700000000001</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5275,10 +4941,10 @@
         <v>65.48999999999999</v>
       </c>
       <c r="F130" t="n">
-        <v>23254.9</v>
+        <v>906.5939</v>
       </c>
       <c r="G130" t="n">
-        <v>65.6905</v>
+        <v>65.70416666666668</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5298,22 +4964,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>65.44</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>65.43000000000001</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>65.44</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>65.43000000000001</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>2057</v>
+        <v>23254.9</v>
       </c>
       <c r="G131" t="n">
-        <v>65.67583333333333</v>
+        <v>65.6905</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5333,22 +4999,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="C132" t="n">
         <v>65.43000000000001</v>
       </c>
-      <c r="C132" t="n">
-        <v>65.41</v>
-      </c>
       <c r="D132" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="E132" t="n">
         <v>65.43000000000001</v>
       </c>
-      <c r="E132" t="n">
-        <v>65.41</v>
-      </c>
       <c r="F132" t="n">
-        <v>34904.7561</v>
+        <v>2057</v>
       </c>
       <c r="G132" t="n">
-        <v>65.66166666666666</v>
+        <v>65.67583333333333</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5368,22 +5034,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>65.53</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>65.53</v>
+        <v>65.41</v>
       </c>
       <c r="D133" t="n">
-        <v>65.53</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>65.53</v>
+        <v>65.41</v>
       </c>
       <c r="F133" t="n">
-        <v>758.0258</v>
+        <v>34904.7561</v>
       </c>
       <c r="G133" t="n">
-        <v>65.64966666666666</v>
+        <v>65.66166666666666</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5403,22 +5069,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>65.68000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="C134" t="n">
-        <v>65.73</v>
+        <v>65.53</v>
       </c>
       <c r="D134" t="n">
-        <v>65.73</v>
+        <v>65.53</v>
       </c>
       <c r="E134" t="n">
-        <v>65.63</v>
+        <v>65.53</v>
       </c>
       <c r="F134" t="n">
-        <v>23600</v>
+        <v>758.0258</v>
       </c>
       <c r="G134" t="n">
-        <v>65.6435</v>
+        <v>65.64966666666666</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5438,22 +5104,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>65.86</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>65.86</v>
+        <v>65.73</v>
       </c>
       <c r="D135" t="n">
-        <v>65.86</v>
+        <v>65.73</v>
       </c>
       <c r="E135" t="n">
-        <v>65.86</v>
+        <v>65.63</v>
       </c>
       <c r="F135" t="n">
-        <v>1330.00303674</v>
+        <v>23600</v>
       </c>
       <c r="G135" t="n">
-        <v>65.64366666666668</v>
+        <v>65.6435</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5473,22 +5139,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>65.65000000000001</v>
+        <v>65.86</v>
       </c>
       <c r="C136" t="n">
-        <v>65.65000000000001</v>
+        <v>65.86</v>
       </c>
       <c r="D136" t="n">
-        <v>65.65000000000001</v>
+        <v>65.86</v>
       </c>
       <c r="E136" t="n">
-        <v>65.65000000000001</v>
+        <v>65.86</v>
       </c>
       <c r="F136" t="n">
-        <v>388.2954</v>
+        <v>1330.00303674</v>
       </c>
       <c r="G136" t="n">
-        <v>65.64016666666667</v>
+        <v>65.64366666666668</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5520,10 +5186,10 @@
         <v>65.65000000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>68.6734</v>
+        <v>388.2954</v>
       </c>
       <c r="G137" t="n">
-        <v>65.63783333333335</v>
+        <v>65.64016666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5543,22 +5209,22 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>65.68000000000001</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>65.68000000000001</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>65.68000000000001</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>65.68000000000001</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="F138" t="n">
-        <v>5519.1443</v>
+        <v>68.6734</v>
       </c>
       <c r="G138" t="n">
-        <v>65.63716666666667</v>
+        <v>65.63783333333335</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5581,19 +5247,19 @@
         <v>65.68000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>65.78</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>65.78</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="E139" t="n">
         <v>65.68000000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>428.6</v>
+        <v>5519.1443</v>
       </c>
       <c r="G139" t="n">
-        <v>65.63683333333334</v>
+        <v>65.63716666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5613,22 +5279,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>66.06999999999999</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>66.06999999999999</v>
+        <v>65.78</v>
       </c>
       <c r="D140" t="n">
-        <v>66.06999999999999</v>
+        <v>65.78</v>
       </c>
       <c r="E140" t="n">
-        <v>66.06999999999999</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="F140" t="n">
-        <v>8</v>
+        <v>428.6</v>
       </c>
       <c r="G140" t="n">
-        <v>65.63866666666668</v>
+        <v>65.63683333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5648,22 +5314,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>66.09</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>66.09</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="D141" t="n">
-        <v>66.09</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="E141" t="n">
-        <v>66.09</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="F141" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G141" t="n">
-        <v>65.63666666666668</v>
+        <v>65.63866666666668</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5683,22 +5349,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>65.81</v>
+        <v>66.09</v>
       </c>
       <c r="C142" t="n">
-        <v>65.81</v>
+        <v>66.09</v>
       </c>
       <c r="D142" t="n">
-        <v>65.81</v>
+        <v>66.09</v>
       </c>
       <c r="E142" t="n">
-        <v>65.81</v>
+        <v>66.09</v>
       </c>
       <c r="F142" t="n">
-        <v>7.5977</v>
+        <v>10</v>
       </c>
       <c r="G142" t="n">
-        <v>65.629</v>
+        <v>65.63666666666668</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5718,22 +5384,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>66.09999999999999</v>
+        <v>65.81</v>
       </c>
       <c r="C143" t="n">
-        <v>66.09999999999999</v>
+        <v>65.81</v>
       </c>
       <c r="D143" t="n">
-        <v>66.09999999999999</v>
+        <v>65.81</v>
       </c>
       <c r="E143" t="n">
-        <v>66.09999999999999</v>
+        <v>65.81</v>
       </c>
       <c r="F143" t="n">
-        <v>8</v>
+        <v>7.5977</v>
       </c>
       <c r="G143" t="n">
-        <v>65.62800000000001</v>
+        <v>65.629</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5765,10 +5431,10 @@
         <v>66.09999999999999</v>
       </c>
       <c r="F144" t="n">
-        <v>2122.2066</v>
+        <v>8</v>
       </c>
       <c r="G144" t="n">
-        <v>65.62350000000001</v>
+        <v>65.62800000000001</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5788,22 +5454,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C145" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D145" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E145" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F145" t="n">
-        <v>10881.87878787</v>
+        <v>2122.2066</v>
       </c>
       <c r="G145" t="n">
-        <v>65.62216666666669</v>
+        <v>65.62350000000001</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5823,22 +5489,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>65.56999999999999</v>
+        <v>66</v>
       </c>
       <c r="C146" t="n">
-        <v>65.56999999999999</v>
+        <v>66</v>
       </c>
       <c r="D146" t="n">
-        <v>65.56999999999999</v>
+        <v>66</v>
       </c>
       <c r="E146" t="n">
-        <v>65.56999999999999</v>
+        <v>66</v>
       </c>
       <c r="F146" t="n">
-        <v>1646.7832</v>
+        <v>10881.87878787</v>
       </c>
       <c r="G146" t="n">
-        <v>65.61366666666669</v>
+        <v>65.62216666666669</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5858,22 +5524,22 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>65.8</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="C147" t="n">
-        <v>65.8</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="D147" t="n">
-        <v>65.8</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="E147" t="n">
-        <v>65.8</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="F147" t="n">
-        <v>125</v>
+        <v>1646.7832</v>
       </c>
       <c r="G147" t="n">
-        <v>65.60900000000002</v>
+        <v>65.61366666666669</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5893,22 +5559,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>65.7</v>
+        <v>65.8</v>
       </c>
       <c r="C148" t="n">
-        <v>65.7</v>
+        <v>65.8</v>
       </c>
       <c r="D148" t="n">
-        <v>65.7</v>
+        <v>65.8</v>
       </c>
       <c r="E148" t="n">
-        <v>65.7</v>
+        <v>65.8</v>
       </c>
       <c r="F148" t="n">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="G148" t="n">
-        <v>65.60616666666668</v>
+        <v>65.60900000000002</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5928,22 +5594,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>65.76000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="C149" t="n">
-        <v>65.56</v>
+        <v>65.7</v>
       </c>
       <c r="D149" t="n">
-        <v>65.76000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="E149" t="n">
-        <v>65.56</v>
+        <v>65.7</v>
       </c>
       <c r="F149" t="n">
-        <v>22769.4747</v>
+        <v>60</v>
       </c>
       <c r="G149" t="n">
-        <v>65.60066666666668</v>
+        <v>65.60616666666668</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5963,22 +5629,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>65.79000000000001</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>65.79000000000001</v>
+        <v>65.56</v>
       </c>
       <c r="D150" t="n">
-        <v>65.79000000000001</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="E150" t="n">
-        <v>65.79000000000001</v>
+        <v>65.56</v>
       </c>
       <c r="F150" t="n">
-        <v>7.61</v>
+        <v>22769.4747</v>
       </c>
       <c r="G150" t="n">
-        <v>65.59933333333336</v>
+        <v>65.60066666666668</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6010,10 +5676,10 @@
         <v>65.79000000000001</v>
       </c>
       <c r="F151" t="n">
-        <v>10</v>
+        <v>7.61</v>
       </c>
       <c r="G151" t="n">
-        <v>65.59783333333336</v>
+        <v>65.59933333333336</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6033,22 +5699,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>65.69</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>65.69</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="D152" t="n">
-        <v>65.69</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="E152" t="n">
-        <v>65.69</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="F152" t="n">
-        <v>150.0806</v>
+        <v>10</v>
       </c>
       <c r="G152" t="n">
-        <v>65.60166666666669</v>
+        <v>65.59783333333336</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6068,22 +5734,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>65.76000000000001</v>
+        <v>65.69</v>
       </c>
       <c r="C153" t="n">
-        <v>65.76000000000001</v>
+        <v>65.69</v>
       </c>
       <c r="D153" t="n">
-        <v>65.76000000000001</v>
+        <v>65.69</v>
       </c>
       <c r="E153" t="n">
-        <v>65.76000000000001</v>
+        <v>65.69</v>
       </c>
       <c r="F153" t="n">
-        <v>8</v>
+        <v>150.0806</v>
       </c>
       <c r="G153" t="n">
-        <v>65.6066666666667</v>
+        <v>65.60166666666669</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6103,22 +5769,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>65.72</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>65.72</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="D154" t="n">
-        <v>65.72</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="E154" t="n">
-        <v>65.72</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="F154" t="n">
-        <v>801</v>
+        <v>8</v>
       </c>
       <c r="G154" t="n">
-        <v>65.61100000000002</v>
+        <v>65.6066666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6150,10 +5816,10 @@
         <v>65.72</v>
       </c>
       <c r="F155" t="n">
-        <v>376.5661</v>
+        <v>801</v>
       </c>
       <c r="G155" t="n">
-        <v>65.61716666666669</v>
+        <v>65.61100000000002</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6185,10 +5851,10 @@
         <v>65.72</v>
       </c>
       <c r="F156" t="n">
-        <v>53.1546</v>
+        <v>376.5661</v>
       </c>
       <c r="G156" t="n">
-        <v>65.62050000000002</v>
+        <v>65.61716666666669</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6208,22 +5874,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>65.83</v>
+        <v>65.72</v>
       </c>
       <c r="C157" t="n">
-        <v>65.83</v>
+        <v>65.72</v>
       </c>
       <c r="D157" t="n">
-        <v>65.83</v>
+        <v>65.72</v>
       </c>
       <c r="E157" t="n">
-        <v>65.83</v>
+        <v>65.72</v>
       </c>
       <c r="F157" t="n">
-        <v>7574.217</v>
+        <v>53.1546</v>
       </c>
       <c r="G157" t="n">
-        <v>65.62366666666668</v>
+        <v>65.62050000000002</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6243,22 +5909,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>66</v>
+        <v>65.83</v>
       </c>
       <c r="C158" t="n">
-        <v>66</v>
+        <v>65.83</v>
       </c>
       <c r="D158" t="n">
-        <v>66</v>
+        <v>65.83</v>
       </c>
       <c r="E158" t="n">
-        <v>66</v>
+        <v>65.83</v>
       </c>
       <c r="F158" t="n">
-        <v>12084.1848</v>
+        <v>7574.217</v>
       </c>
       <c r="G158" t="n">
-        <v>65.63000000000002</v>
+        <v>65.62366666666668</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6278,22 +5944,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>66.09</v>
+        <v>66</v>
       </c>
       <c r="C159" t="n">
-        <v>66.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="D159" t="n">
-        <v>66.09999999999999</v>
+        <v>66</v>
       </c>
       <c r="E159" t="n">
-        <v>66.09</v>
+        <v>66</v>
       </c>
       <c r="F159" t="n">
-        <v>27780.6214</v>
+        <v>12084.1848</v>
       </c>
       <c r="G159" t="n">
-        <v>65.63800000000002</v>
+        <v>65.63000000000002</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6313,22 +5979,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
+        <v>66.09</v>
+      </c>
+      <c r="C160" t="n">
         <v>66.09999999999999</v>
       </c>
-      <c r="C160" t="n">
-        <v>66.26000000000001</v>
-      </c>
       <c r="D160" t="n">
-        <v>66.34</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E160" t="n">
-        <v>66.09999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="F160" t="n">
-        <v>20927.6993</v>
+        <v>27780.6214</v>
       </c>
       <c r="G160" t="n">
-        <v>65.64866666666668</v>
+        <v>65.63800000000002</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6348,22 +6014,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>66.26000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C161" t="n">
         <v>66.26000000000001</v>
       </c>
       <c r="D161" t="n">
-        <v>66.26000000000001</v>
+        <v>66.34</v>
       </c>
       <c r="E161" t="n">
-        <v>66.26000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F161" t="n">
-        <v>1202.3734</v>
+        <v>20927.6993</v>
       </c>
       <c r="G161" t="n">
-        <v>65.65933333333336</v>
+        <v>65.64866666666668</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6383,22 +6049,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>66.3</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="C162" t="n">
-        <v>66.3</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D162" t="n">
-        <v>66.3</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="E162" t="n">
-        <v>66.3</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="F162" t="n">
-        <v>618.9</v>
+        <v>1202.3734</v>
       </c>
       <c r="G162" t="n">
-        <v>65.6731666666667</v>
+        <v>65.65933333333336</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6430,10 +6096,10 @@
         <v>66.3</v>
       </c>
       <c r="F163" t="n">
-        <v>64.45140000000001</v>
+        <v>618.9</v>
       </c>
       <c r="G163" t="n">
-        <v>65.68700000000004</v>
+        <v>65.6731666666667</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6453,22 +6119,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="C164" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="D164" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="E164" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="F164" t="n">
-        <v>201.2688</v>
+        <v>64.45140000000001</v>
       </c>
       <c r="G164" t="n">
-        <v>65.70200000000004</v>
+        <v>65.68700000000004</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6488,22 +6154,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>66.3</v>
+        <v>66.37</v>
       </c>
       <c r="C165" t="n">
-        <v>66.3</v>
+        <v>66.37</v>
       </c>
       <c r="D165" t="n">
-        <v>66.3</v>
+        <v>66.37</v>
       </c>
       <c r="E165" t="n">
-        <v>66.3</v>
+        <v>66.37</v>
       </c>
       <c r="F165" t="n">
-        <v>905.9446</v>
+        <v>201.2688</v>
       </c>
       <c r="G165" t="n">
-        <v>65.71366666666671</v>
+        <v>65.70200000000004</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6523,22 +6189,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="C166" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="D166" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="E166" t="n">
-        <v>66.37</v>
+        <v>66.3</v>
       </c>
       <c r="F166" t="n">
-        <v>943.5469000000001</v>
+        <v>905.9446</v>
       </c>
       <c r="G166" t="n">
-        <v>65.72666666666672</v>
+        <v>65.71366666666671</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6558,28 +6224,28 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>66.31</v>
+        <v>66.37</v>
       </c>
       <c r="C167" t="n">
-        <v>66.31</v>
+        <v>66.37</v>
       </c>
       <c r="D167" t="n">
-        <v>66.31</v>
+        <v>66.37</v>
       </c>
       <c r="E167" t="n">
-        <v>66.31</v>
+        <v>66.37</v>
       </c>
       <c r="F167" t="n">
-        <v>445.5565</v>
+        <v>943.5469000000001</v>
       </c>
       <c r="G167" t="n">
-        <v>65.73966666666671</v>
+        <v>65.72666666666672</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
@@ -6593,22 +6259,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>66.48</v>
+        <v>66.31</v>
       </c>
       <c r="C168" t="n">
-        <v>66.26000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="D168" t="n">
-        <v>66.48</v>
+        <v>66.31</v>
       </c>
       <c r="E168" t="n">
-        <v>66.26000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="F168" t="n">
-        <v>2536.838</v>
+        <v>445.5565</v>
       </c>
       <c r="G168" t="n">
-        <v>65.75216666666671</v>
+        <v>65.73966666666671</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6628,22 +6294,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>66.2</v>
+        <v>66.48</v>
       </c>
       <c r="C169" t="n">
-        <v>66.2</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D169" t="n">
-        <v>66.2</v>
+        <v>66.48</v>
       </c>
       <c r="E169" t="n">
-        <v>66.2</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="F169" t="n">
-        <v>14</v>
+        <v>2536.838</v>
       </c>
       <c r="G169" t="n">
-        <v>65.76366666666669</v>
+        <v>65.75216666666671</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6666,19 +6332,19 @@
         <v>66.2</v>
       </c>
       <c r="C170" t="n">
-        <v>66.08</v>
+        <v>66.2</v>
       </c>
       <c r="D170" t="n">
         <v>66.2</v>
       </c>
       <c r="E170" t="n">
-        <v>66.08</v>
+        <v>66.2</v>
       </c>
       <c r="F170" t="n">
-        <v>1911.0111</v>
+        <v>14</v>
       </c>
       <c r="G170" t="n">
-        <v>65.7731666666667</v>
+        <v>65.76366666666669</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6698,22 +6364,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>66.31</v>
+        <v>66.2</v>
       </c>
       <c r="C171" t="n">
-        <v>66.31</v>
+        <v>66.08</v>
       </c>
       <c r="D171" t="n">
-        <v>66.31</v>
+        <v>66.2</v>
       </c>
       <c r="E171" t="n">
-        <v>66.31</v>
+        <v>66.08</v>
       </c>
       <c r="F171" t="n">
-        <v>8</v>
+        <v>1911.0111</v>
       </c>
       <c r="G171" t="n">
-        <v>65.78666666666669</v>
+        <v>65.7731666666667</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6733,22 +6399,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>66.25</v>
+        <v>66.31</v>
       </c>
       <c r="C172" t="n">
-        <v>66.04000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="D172" t="n">
-        <v>66.25</v>
+        <v>66.31</v>
       </c>
       <c r="E172" t="n">
-        <v>66.04000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="F172" t="n">
-        <v>9027.270699999999</v>
+        <v>8</v>
       </c>
       <c r="G172" t="n">
-        <v>65.79550000000002</v>
+        <v>65.78666666666669</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6768,22 +6434,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>66</v>
+        <v>66.25</v>
       </c>
       <c r="C173" t="n">
-        <v>65.94</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="D173" t="n">
-        <v>66</v>
+        <v>66.25</v>
       </c>
       <c r="E173" t="n">
-        <v>65.94</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="F173" t="n">
-        <v>8216.1494</v>
+        <v>9027.270699999999</v>
       </c>
       <c r="G173" t="n">
-        <v>65.80266666666668</v>
+        <v>65.79550000000002</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6803,22 +6469,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>65.94</v>
+        <v>66</v>
       </c>
       <c r="C174" t="n">
         <v>65.94</v>
       </c>
       <c r="D174" t="n">
-        <v>65.94</v>
+        <v>66</v>
       </c>
       <c r="E174" t="n">
         <v>65.94</v>
       </c>
       <c r="F174" t="n">
-        <v>97.3241</v>
+        <v>8216.1494</v>
       </c>
       <c r="G174" t="n">
-        <v>65.80983333333334</v>
+        <v>65.80266666666668</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6838,22 +6504,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>65.92</v>
+        <v>65.94</v>
       </c>
       <c r="C175" t="n">
-        <v>65.92</v>
+        <v>65.94</v>
       </c>
       <c r="D175" t="n">
-        <v>65.92</v>
+        <v>65.94</v>
       </c>
       <c r="E175" t="n">
-        <v>65.92</v>
+        <v>65.94</v>
       </c>
       <c r="F175" t="n">
-        <v>1043.6572</v>
+        <v>97.3241</v>
       </c>
       <c r="G175" t="n">
-        <v>65.81666666666668</v>
+        <v>65.80983333333334</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6876,19 +6542,19 @@
         <v>65.92</v>
       </c>
       <c r="C176" t="n">
-        <v>65.90000000000001</v>
+        <v>65.92</v>
       </c>
       <c r="D176" t="n">
         <v>65.92</v>
       </c>
       <c r="E176" t="n">
-        <v>65.90000000000001</v>
+        <v>65.92</v>
       </c>
       <c r="F176" t="n">
-        <v>386</v>
+        <v>1043.6572</v>
       </c>
       <c r="G176" t="n">
-        <v>65.82333333333335</v>
+        <v>65.81666666666668</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6908,22 +6574,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>65.91</v>
+        <v>65.92</v>
       </c>
       <c r="C177" t="n">
         <v>65.90000000000001</v>
       </c>
       <c r="D177" t="n">
-        <v>65.91</v>
+        <v>65.92</v>
       </c>
       <c r="E177" t="n">
         <v>65.90000000000001</v>
       </c>
       <c r="F177" t="n">
-        <v>1762.7673</v>
+        <v>386</v>
       </c>
       <c r="G177" t="n">
-        <v>65.83033333333336</v>
+        <v>65.82333333333335</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6943,22 +6609,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>65.98999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="C178" t="n">
-        <v>65.95999999999999</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D178" t="n">
-        <v>65.98999999999999</v>
+        <v>65.91</v>
       </c>
       <c r="E178" t="n">
-        <v>65.81999999999999</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F178" t="n">
-        <v>3302.5795</v>
+        <v>1762.7673</v>
       </c>
       <c r="G178" t="n">
-        <v>65.83800000000002</v>
+        <v>65.83033333333336</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6978,22 +6644,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>65.72</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C179" t="n">
-        <v>65.72</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="D179" t="n">
-        <v>65.72</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="E179" t="n">
-        <v>65.72</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="F179" t="n">
-        <v>300</v>
+        <v>3302.5795</v>
       </c>
       <c r="G179" t="n">
-        <v>65.84483333333336</v>
+        <v>65.83800000000002</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -7013,22 +6679,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>65.73999999999999</v>
+        <v>65.72</v>
       </c>
       <c r="C180" t="n">
-        <v>65.73999999999999</v>
+        <v>65.72</v>
       </c>
       <c r="D180" t="n">
-        <v>65.73999999999999</v>
+        <v>65.72</v>
       </c>
       <c r="E180" t="n">
-        <v>65.73999999999999</v>
+        <v>65.72</v>
       </c>
       <c r="F180" t="n">
-        <v>9300</v>
+        <v>300</v>
       </c>
       <c r="G180" t="n">
-        <v>65.85000000000001</v>
+        <v>65.84483333333336</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7048,22 +6714,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>65.81</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="C181" t="n">
-        <v>65.81</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="D181" t="n">
-        <v>65.81</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="E181" t="n">
-        <v>65.81</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="F181" t="n">
-        <v>100</v>
+        <v>9300</v>
       </c>
       <c r="G181" t="n">
-        <v>65.85516666666668</v>
+        <v>65.85000000000001</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7083,22 +6749,22 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>65.8</v>
+        <v>65.81</v>
       </c>
       <c r="C182" t="n">
-        <v>65.8</v>
+        <v>65.81</v>
       </c>
       <c r="D182" t="n">
-        <v>65.8</v>
+        <v>65.81</v>
       </c>
       <c r="E182" t="n">
-        <v>65.8</v>
+        <v>65.81</v>
       </c>
       <c r="F182" t="n">
-        <v>23.2521</v>
+        <v>100</v>
       </c>
       <c r="G182" t="n">
-        <v>65.86016666666669</v>
+        <v>65.85516666666668</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7130,10 +6796,10 @@
         <v>65.8</v>
       </c>
       <c r="F183" t="n">
-        <v>221</v>
+        <v>23.2521</v>
       </c>
       <c r="G183" t="n">
-        <v>65.86516666666668</v>
+        <v>65.86016666666669</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7153,22 +6819,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>65.81999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="C184" t="n">
-        <v>65.72</v>
+        <v>65.8</v>
       </c>
       <c r="D184" t="n">
-        <v>65.81999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="E184" t="n">
-        <v>65.72</v>
+        <v>65.8</v>
       </c>
       <c r="F184" t="n">
-        <v>1346.1019</v>
+        <v>221</v>
       </c>
       <c r="G184" t="n">
-        <v>65.86883333333336</v>
+        <v>65.86516666666668</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7188,22 +6854,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="C185" t="n">
         <v>65.72</v>
       </c>
-      <c r="C185" t="n">
-        <v>65.48999999999999</v>
-      </c>
       <c r="D185" t="n">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="E185" t="n">
         <v>65.72</v>
       </c>
-      <c r="E185" t="n">
-        <v>65.48999999999999</v>
-      </c>
       <c r="F185" t="n">
-        <v>2659.2231</v>
+        <v>1346.1019</v>
       </c>
       <c r="G185" t="n">
-        <v>65.86866666666668</v>
+        <v>65.86883333333336</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7223,22 +6889,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>65.48999999999999</v>
+        <v>65.72</v>
       </c>
       <c r="C186" t="n">
         <v>65.48999999999999</v>
       </c>
       <c r="D186" t="n">
-        <v>65.48999999999999</v>
+        <v>65.72</v>
       </c>
       <c r="E186" t="n">
         <v>65.48999999999999</v>
       </c>
       <c r="F186" t="n">
-        <v>0.143</v>
+        <v>2659.2231</v>
       </c>
       <c r="G186" t="n">
-        <v>65.86850000000001</v>
+        <v>65.86866666666668</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7270,10 +6936,10 @@
         <v>65.48999999999999</v>
       </c>
       <c r="F187" t="n">
-        <v>734.8366</v>
+        <v>0.143</v>
       </c>
       <c r="G187" t="n">
-        <v>65.86833333333334</v>
+        <v>65.86850000000001</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7305,10 +6971,10 @@
         <v>65.48999999999999</v>
       </c>
       <c r="F188" t="n">
-        <v>3266.1977</v>
+        <v>734.8366</v>
       </c>
       <c r="G188" t="n">
-        <v>65.86816666666667</v>
+        <v>65.86833333333334</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7323,6 +6989,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="C189" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="D189" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="E189" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="F189" t="n">
+        <v>3266.1977</v>
+      </c>
+      <c r="G189" t="n">
+        <v>65.86816666666667</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2020-01-26 BackTest XLM.xlsx
+++ b/BackTest/2020-01-26 BackTest XLM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M189"/>
+  <dimension ref="A1:N199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>501.8943</v>
       </c>
       <c r="G2" t="n">
+        <v>66.62199999999996</v>
+      </c>
+      <c r="H2" t="n">
         <v>66.92716666666668</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>1</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>16043.7365</v>
       </c>
       <c r="G3" t="n">
+        <v>66.60799999999996</v>
+      </c>
+      <c r="H3" t="n">
         <v>66.92100000000002</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>707.592</v>
       </c>
       <c r="G4" t="n">
+        <v>66.5913333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>66.91416666666669</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>1</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>800.9999</v>
       </c>
       <c r="G5" t="n">
+        <v>66.58066666666663</v>
+      </c>
+      <c r="H5" t="n">
         <v>66.90883333333336</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>46420.4988</v>
       </c>
       <c r="G6" t="n">
+        <v>66.55866666666662</v>
+      </c>
+      <c r="H6" t="n">
         <v>66.89250000000003</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>5038.4664</v>
       </c>
       <c r="G7" t="n">
+        <v>66.53666666666662</v>
+      </c>
+      <c r="H7" t="n">
         <v>66.88083333333336</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>2979.6819</v>
       </c>
       <c r="G8" t="n">
+        <v>66.50199999999994</v>
+      </c>
+      <c r="H8" t="n">
         <v>66.86900000000001</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>14890.9241</v>
       </c>
       <c r="G9" t="n">
+        <v>66.43599999999995</v>
+      </c>
+      <c r="H9" t="n">
         <v>66.85316666666668</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>103.8988</v>
       </c>
       <c r="G10" t="n">
+        <v>66.36133333333328</v>
+      </c>
+      <c r="H10" t="n">
         <v>66.84200000000001</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>3371.4813</v>
       </c>
       <c r="G11" t="n">
+        <v>66.30333333333327</v>
+      </c>
+      <c r="H11" t="n">
         <v>66.81900000000002</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>14890.9241</v>
       </c>
       <c r="G12" t="n">
+        <v>66.22399999999995</v>
+      </c>
+      <c r="H12" t="n">
         <v>66.79550000000002</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>1895.4481</v>
       </c>
       <c r="G13" t="n">
+        <v>66.17066666666661</v>
+      </c>
+      <c r="H13" t="n">
         <v>66.77716666666669</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>377.5409</v>
       </c>
       <c r="G14" t="n">
+        <v>66.1126666666666</v>
+      </c>
+      <c r="H14" t="n">
         <v>66.75583333333334</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>3922.4581</v>
       </c>
       <c r="G15" t="n">
+        <v>66.04999999999994</v>
+      </c>
+      <c r="H15" t="n">
         <v>66.72750000000001</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>25951.6879</v>
       </c>
       <c r="G16" t="n">
+        <v>66.00799999999994</v>
+      </c>
+      <c r="H16" t="n">
         <v>66.70083333333335</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>35173.8524</v>
       </c>
       <c r="G17" t="n">
+        <v>65.95666666666661</v>
+      </c>
+      <c r="H17" t="n">
         <v>66.67266666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>10171.3285</v>
       </c>
       <c r="G18" t="n">
+        <v>65.90799999999993</v>
+      </c>
+      <c r="H18" t="n">
         <v>66.64216666666668</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>604.8029</v>
       </c>
       <c r="G19" t="n">
+        <v>65.86199999999992</v>
+      </c>
+      <c r="H19" t="n">
         <v>66.61116666666668</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>31021.72496124</v>
       </c>
       <c r="G20" t="n">
+        <v>65.81799999999994</v>
+      </c>
+      <c r="H20" t="n">
         <v>66.58166666666668</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>13218.6061</v>
       </c>
       <c r="G21" t="n">
+        <v>65.78933333333326</v>
+      </c>
+      <c r="H21" t="n">
         <v>66.5485</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>3971.6995</v>
       </c>
       <c r="G22" t="n">
+        <v>65.74266666666661</v>
+      </c>
+      <c r="H22" t="n">
         <v>66.51283333333335</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>5502.3396</v>
       </c>
       <c r="G23" t="n">
+        <v>65.69199999999994</v>
+      </c>
+      <c r="H23" t="n">
         <v>66.48416666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>432.5167</v>
       </c>
       <c r="G24" t="n">
+        <v>65.6526666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>66.45533333333334</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>2907.6768</v>
       </c>
       <c r="G25" t="n">
+        <v>65.59999999999995</v>
+      </c>
+      <c r="H25" t="n">
         <v>66.42666666666668</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>12335.9906</v>
       </c>
       <c r="G26" t="n">
+        <v>65.54266666666661</v>
+      </c>
+      <c r="H26" t="n">
         <v>66.39366666666668</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>894</v>
       </c>
       <c r="G27" t="n">
+        <v>65.52399999999994</v>
+      </c>
+      <c r="H27" t="n">
         <v>66.36466666666668</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>31127.8342</v>
       </c>
       <c r="G28" t="n">
+        <v>65.47933333333327</v>
+      </c>
+      <c r="H28" t="n">
         <v>66.33466666666668</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>23376.4188</v>
       </c>
       <c r="G29" t="n">
+        <v>65.4346666666666</v>
+      </c>
+      <c r="H29" t="n">
         <v>66.3005</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>871.1679</v>
       </c>
       <c r="G30" t="n">
+        <v>65.39999999999993</v>
+      </c>
+      <c r="H30" t="n">
         <v>66.26633333333334</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>20159.0706</v>
       </c>
       <c r="G31" t="n">
+        <v>65.36133333333326</v>
+      </c>
+      <c r="H31" t="n">
         <v>66.23350000000001</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>851.7525000000001</v>
       </c>
       <c r="G32" t="n">
+        <v>65.32266666666661</v>
+      </c>
+      <c r="H32" t="n">
         <v>66.196</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>23417.83525095</v>
       </c>
       <c r="G33" t="n">
+        <v>65.3006666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>66.15966666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>1701.3761</v>
       </c>
       <c r="G34" t="n">
+        <v>65.27733333333327</v>
+      </c>
+      <c r="H34" t="n">
         <v>66.12550000000002</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>1749.1859</v>
       </c>
       <c r="G35" t="n">
+        <v>65.25399999999995</v>
+      </c>
+      <c r="H35" t="n">
         <v>66.09600000000002</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,27 @@
         <v>5604.1908</v>
       </c>
       <c r="G36" t="n">
+        <v>65.23199999999994</v>
+      </c>
+      <c r="H36" t="n">
         <v>66.07266666666668</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>65.29000000000001</v>
+      </c>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1789,27 @@
         <v>591</v>
       </c>
       <c r="G37" t="n">
+        <v>65.22333333333329</v>
+      </c>
+      <c r="H37" t="n">
         <v>66.04900000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>65.27</v>
+      </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1833,27 @@
         <v>634.8528</v>
       </c>
       <c r="G38" t="n">
+        <v>65.22333333333329</v>
+      </c>
+      <c r="H38" t="n">
         <v>66.0275</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>65.27</v>
+      </c>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1877,27 @@
         <v>43800</v>
       </c>
       <c r="G39" t="n">
+        <v>65.21399999999996</v>
+      </c>
+      <c r="H39" t="n">
         <v>65.99783333333333</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>65.33</v>
+      </c>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1921,25 @@
         <v>9283.5299</v>
       </c>
       <c r="G40" t="n">
+        <v>65.20466666666663</v>
+      </c>
+      <c r="H40" t="n">
         <v>65.96833333333333</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1963,25 @@
         <v>827.5141</v>
       </c>
       <c r="G41" t="n">
+        <v>65.21066666666663</v>
+      </c>
+      <c r="H41" t="n">
         <v>65.94000000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +2005,25 @@
         <v>386.4312</v>
       </c>
       <c r="G42" t="n">
+        <v>65.20933333333329</v>
+      </c>
+      <c r="H42" t="n">
         <v>65.91250000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2047,25 @@
         <v>113427.92698001</v>
       </c>
       <c r="G43" t="n">
+        <v>65.21599999999995</v>
+      </c>
+      <c r="H43" t="n">
         <v>65.88683333333334</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2089,25 @@
         <v>120926.9485</v>
       </c>
       <c r="G44" t="n">
+        <v>65.23266666666662</v>
+      </c>
+      <c r="H44" t="n">
         <v>65.86383333333335</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2131,25 @@
         <v>300.54919908</v>
       </c>
       <c r="G45" t="n">
+        <v>65.26399999999995</v>
+      </c>
+      <c r="H45" t="n">
         <v>65.84116666666668</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2173,25 @@
         <v>302.2943</v>
       </c>
       <c r="G46" t="n">
+        <v>65.29599999999995</v>
+      </c>
+      <c r="H46" t="n">
         <v>65.82400000000003</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2215,25 @@
         <v>2597.70261611</v>
       </c>
       <c r="G47" t="n">
+        <v>65.32866666666662</v>
+      </c>
+      <c r="H47" t="n">
         <v>65.80750000000003</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2257,25 @@
         <v>519.7942</v>
       </c>
       <c r="G48" t="n">
+        <v>65.35666666666661</v>
+      </c>
+      <c r="H48" t="n">
         <v>65.79333333333336</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2299,25 @@
         <v>5640.1993</v>
       </c>
       <c r="G49" t="n">
+        <v>65.38599999999994</v>
+      </c>
+      <c r="H49" t="n">
         <v>65.7791666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2341,25 @@
         <v>10000</v>
       </c>
       <c r="G50" t="n">
+        <v>65.39466666666661</v>
+      </c>
+      <c r="H50" t="n">
         <v>65.76183333333337</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2383,25 @@
         <v>41248.3352</v>
       </c>
       <c r="G51" t="n">
+        <v>65.3966666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>65.7441666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2425,25 @@
         <v>379.4187</v>
       </c>
       <c r="G52" t="n">
+        <v>65.39466666666661</v>
+      </c>
+      <c r="H52" t="n">
         <v>65.72433333333336</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2467,25 @@
         <v>322.28600341</v>
       </c>
       <c r="G53" t="n">
+        <v>65.39466666666661</v>
+      </c>
+      <c r="H53" t="n">
         <v>65.70300000000003</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2509,25 @@
         <v>1252.8943</v>
       </c>
       <c r="G54" t="n">
+        <v>65.39599999999993</v>
+      </c>
+      <c r="H54" t="n">
         <v>65.6746666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2551,25 @@
         <v>562</v>
       </c>
       <c r="G55" t="n">
+        <v>65.40533333333327</v>
+      </c>
+      <c r="H55" t="n">
         <v>65.64283333333336</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2593,25 @@
         <v>5727.6494</v>
       </c>
       <c r="G56" t="n">
+        <v>65.40599999999995</v>
+      </c>
+      <c r="H56" t="n">
         <v>65.61566666666668</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2635,25 @@
         <v>4495.5</v>
       </c>
       <c r="G57" t="n">
+        <v>65.3906666666666</v>
+      </c>
+      <c r="H57" t="n">
         <v>65.58700000000003</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2677,25 @@
         <v>167.1234</v>
       </c>
       <c r="G58" t="n">
+        <v>65.39466666666661</v>
+      </c>
+      <c r="H58" t="n">
         <v>65.5651666666667</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2719,25 @@
         <v>103.5076</v>
       </c>
       <c r="G59" t="n">
+        <v>65.40266666666659</v>
+      </c>
+      <c r="H59" t="n">
         <v>65.54566666666669</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2761,25 @@
         <v>20062.8383</v>
       </c>
       <c r="G60" t="n">
+        <v>65.41333333333326</v>
+      </c>
+      <c r="H60" t="n">
         <v>65.53183333333337</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2803,25 @@
         <v>9311</v>
       </c>
       <c r="G61" t="n">
+        <v>65.44199999999992</v>
+      </c>
+      <c r="H61" t="n">
         <v>65.52683333333336</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2845,25 @@
         <v>17561.599</v>
       </c>
       <c r="G62" t="n">
+        <v>65.46733333333324</v>
+      </c>
+      <c r="H62" t="n">
         <v>65.51883333333336</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2887,25 @@
         <v>14442.4189</v>
       </c>
       <c r="G63" t="n">
+        <v>65.49133333333324</v>
+      </c>
+      <c r="H63" t="n">
         <v>65.51416666666668</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2929,25 @@
         <v>2013.7205</v>
       </c>
       <c r="G64" t="n">
+        <v>65.52866666666657</v>
+      </c>
+      <c r="H64" t="n">
         <v>65.51350000000002</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2971,25 @@
         <v>16114.2064</v>
       </c>
       <c r="G65" t="n">
+        <v>65.56799999999991</v>
+      </c>
+      <c r="H65" t="n">
         <v>65.50866666666668</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +3013,25 @@
         <v>10988</v>
       </c>
       <c r="G66" t="n">
+        <v>65.62466666666658</v>
+      </c>
+      <c r="H66" t="n">
         <v>65.51066666666669</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +3055,25 @@
         <v>150.67048365</v>
       </c>
       <c r="G67" t="n">
+        <v>65.69999999999992</v>
+      </c>
+      <c r="H67" t="n">
         <v>65.51516666666669</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +3097,25 @@
         <v>3452.0365</v>
       </c>
       <c r="G68" t="n">
+        <v>65.76199999999992</v>
+      </c>
+      <c r="H68" t="n">
         <v>65.51800000000001</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +3139,25 @@
         <v>1105.1077</v>
       </c>
       <c r="G69" t="n">
+        <v>65.83733333333325</v>
+      </c>
+      <c r="H69" t="n">
         <v>65.52500000000002</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3181,25 @@
         <v>2282.5437</v>
       </c>
       <c r="G70" t="n">
+        <v>65.90133333333326</v>
+      </c>
+      <c r="H70" t="n">
         <v>65.52783333333336</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3223,25 @@
         <v>871.552</v>
       </c>
       <c r="G71" t="n">
+        <v>65.96666666666658</v>
+      </c>
+      <c r="H71" t="n">
         <v>65.53150000000002</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3265,25 @@
         <v>1379.273</v>
       </c>
       <c r="G72" t="n">
+        <v>66.04666666666658</v>
+      </c>
+      <c r="H72" t="n">
         <v>65.54266666666669</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3307,25 @@
         <v>13.1048</v>
       </c>
       <c r="G73" t="n">
+        <v>66.10466666666659</v>
+      </c>
+      <c r="H73" t="n">
         <v>65.54866666666669</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
-        <v>1</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3349,25 @@
         <v>7.5963</v>
       </c>
       <c r="G74" t="n">
+        <v>66.15799999999992</v>
+      </c>
+      <c r="H74" t="n">
         <v>65.55700000000003</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3391,25 @@
         <v>589.9226</v>
       </c>
       <c r="G75" t="n">
+        <v>66.18399999999991</v>
+      </c>
+      <c r="H75" t="n">
         <v>65.56533333333336</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3433,25 @@
         <v>1733.3337</v>
       </c>
       <c r="G76" t="n">
+        <v>66.17133333333324</v>
+      </c>
+      <c r="H76" t="n">
         <v>65.56766666666668</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3475,25 @@
         <v>1576.89</v>
       </c>
       <c r="G77" t="n">
+        <v>66.16266666666657</v>
+      </c>
+      <c r="H77" t="n">
         <v>65.57033333333337</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3517,25 @@
         <v>1003.2249</v>
       </c>
       <c r="G78" t="n">
+        <v>66.15066666666657</v>
+      </c>
+      <c r="H78" t="n">
         <v>65.57483333333336</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3559,25 @@
         <v>802.8881</v>
       </c>
       <c r="G79" t="n">
+        <v>66.12066666666657</v>
+      </c>
+      <c r="H79" t="n">
         <v>65.57816666666669</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3601,25 @@
         <v>442.016</v>
       </c>
       <c r="G80" t="n">
+        <v>66.10666666666657</v>
+      </c>
+      <c r="H80" t="n">
         <v>65.58083333333336</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3643,25 @@
         <v>110037.8853</v>
       </c>
       <c r="G81" t="n">
+        <v>66.09399999999991</v>
+      </c>
+      <c r="H81" t="n">
         <v>65.58683333333336</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3685,25 @@
         <v>65370.3416</v>
       </c>
       <c r="G82" t="n">
+        <v>66.08333333333323</v>
+      </c>
+      <c r="H82" t="n">
         <v>65.60033333333337</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3727,25 @@
         <v>1407</v>
       </c>
       <c r="G83" t="n">
+        <v>66.0839999999999</v>
+      </c>
+      <c r="H83" t="n">
         <v>65.61600000000003</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3769,25 @@
         <v>2634</v>
       </c>
       <c r="G84" t="n">
+        <v>66.07399999999991</v>
+      </c>
+      <c r="H84" t="n">
         <v>65.63033333333335</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3811,25 @@
         <v>6013.0083</v>
       </c>
       <c r="G85" t="n">
+        <v>66.08133333333325</v>
+      </c>
+      <c r="H85" t="n">
         <v>65.64816666666668</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3853,25 @@
         <v>973.3187</v>
       </c>
       <c r="G86" t="n">
+        <v>66.0659999999999</v>
+      </c>
+      <c r="H86" t="n">
         <v>65.66233333333335</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3895,25 @@
         <v>482.4979</v>
       </c>
       <c r="G87" t="n">
+        <v>66.05066666666657</v>
+      </c>
+      <c r="H87" t="n">
         <v>65.67433333333335</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3937,25 @@
         <v>178.0385</v>
       </c>
       <c r="G88" t="n">
+        <v>66.03866666666657</v>
+      </c>
+      <c r="H88" t="n">
         <v>65.68850000000002</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3979,25 @@
         <v>4682.9994</v>
       </c>
       <c r="G89" t="n">
+        <v>66.01333333333324</v>
+      </c>
+      <c r="H89" t="n">
         <v>65.70166666666668</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +4021,25 @@
         <v>379.6968</v>
       </c>
       <c r="G90" t="n">
+        <v>65.99933333333324</v>
+      </c>
+      <c r="H90" t="n">
         <v>65.71516666666668</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +4063,25 @@
         <v>3098.3673</v>
       </c>
       <c r="G91" t="n">
+        <v>66.00066666666656</v>
+      </c>
+      <c r="H91" t="n">
         <v>65.72750000000001</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +4105,25 @@
         <v>3028.85898603</v>
       </c>
       <c r="G92" t="n">
+        <v>66.0019999999999</v>
+      </c>
+      <c r="H92" t="n">
         <v>65.74016666666668</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +4147,25 @@
         <v>767.3218000000001</v>
       </c>
       <c r="G93" t="n">
+        <v>65.97999999999989</v>
+      </c>
+      <c r="H93" t="n">
         <v>65.74466666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +4189,25 @@
         <v>20159.0706</v>
       </c>
       <c r="G94" t="n">
+        <v>65.96266666666656</v>
+      </c>
+      <c r="H94" t="n">
         <v>65.74950000000001</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +4231,25 @@
         <v>9612.4107</v>
       </c>
       <c r="G95" t="n">
+        <v>65.9399999999999</v>
+      </c>
+      <c r="H95" t="n">
         <v>65.75233333333334</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4273,25 @@
         <v>13164</v>
       </c>
       <c r="G96" t="n">
+        <v>65.89933333333323</v>
+      </c>
+      <c r="H96" t="n">
         <v>65.75366666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,22 +4315,27 @@
         <v>30.4182</v>
       </c>
       <c r="G97" t="n">
+        <v>65.85333333333323</v>
+      </c>
+      <c r="H97" t="n">
         <v>65.75783333333335</v>
       </c>
-      <c r="H97" t="n">
-        <v>1</v>
-      </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J97" t="n">
-        <v>65.34999999999999</v>
+        <v>0</v>
       </c>
       <c r="K97" t="n">
         <v>65.34999999999999</v>
       </c>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,24 +4359,27 @@
         <v>69088.60799999999</v>
       </c>
       <c r="G98" t="n">
+        <v>65.81133333333324</v>
+      </c>
+      <c r="H98" t="n">
         <v>65.76300000000001</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="n">
-        <v>65.34999999999999</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
+        <v>65.52</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3853,24 +4403,25 @@
         <v>4286.0969</v>
       </c>
       <c r="G99" t="n">
+        <v>65.77533333333324</v>
+      </c>
+      <c r="H99" t="n">
         <v>65.77066666666668</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>65.34999999999999</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3894,18 +4445,25 @@
         <v>2647.1812</v>
       </c>
       <c r="G100" t="n">
+        <v>65.72533333333324</v>
+      </c>
+      <c r="H100" t="n">
         <v>65.77833333333335</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3929,18 +4487,25 @@
         <v>87.38849999999999</v>
       </c>
       <c r="G101" t="n">
+        <v>65.69466666666658</v>
+      </c>
+      <c r="H101" t="n">
         <v>65.78333333333335</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3964,18 +4529,25 @@
         <v>13863.6412</v>
       </c>
       <c r="G102" t="n">
+        <v>65.6639999999999</v>
+      </c>
+      <c r="H102" t="n">
         <v>65.788</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3999,18 +4571,27 @@
         <v>1179.2478</v>
       </c>
       <c r="G103" t="n">
+        <v>65.62333333333324</v>
+      </c>
+      <c r="H103" t="n">
         <v>65.79033333333334</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>65.62</v>
+      </c>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4034,18 +4615,27 @@
         <v>4184.5697</v>
       </c>
       <c r="G104" t="n">
+        <v>65.59666666666655</v>
+      </c>
+      <c r="H104" t="n">
         <v>65.79266666666666</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>65.47</v>
+      </c>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,18 +4659,27 @@
         <v>8499.823700000001</v>
       </c>
       <c r="G105" t="n">
+        <v>65.56866666666654</v>
+      </c>
+      <c r="H105" t="n">
         <v>65.79133333333333</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>65.47</v>
+      </c>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4104,18 +4703,27 @@
         <v>22465.9045</v>
       </c>
       <c r="G106" t="n">
+        <v>65.55066666666656</v>
+      </c>
+      <c r="H106" t="n">
         <v>65.79116666666665</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>65.47</v>
+      </c>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4139,18 +4747,27 @@
         <v>42134.3203</v>
       </c>
       <c r="G107" t="n">
+        <v>65.53133333333322</v>
+      </c>
+      <c r="H107" t="n">
         <v>65.79083333333332</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>65.59999999999999</v>
+      </c>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4174,18 +4791,27 @@
         <v>12.2063</v>
       </c>
       <c r="G108" t="n">
+        <v>65.53599999999989</v>
+      </c>
+      <c r="H108" t="n">
         <v>65.78949999999999</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>65.59</v>
+      </c>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4209,18 +4835,27 @@
         <v>2878.4379</v>
       </c>
       <c r="G109" t="n">
+        <v>65.53933333333322</v>
+      </c>
+      <c r="H109" t="n">
         <v>65.78783333333332</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>65.53</v>
+      </c>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4244,18 +4879,25 @@
         <v>2247.4534</v>
       </c>
       <c r="G110" t="n">
+        <v>65.54266666666655</v>
+      </c>
+      <c r="H110" t="n">
         <v>65.78933333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4279,18 +4921,25 @@
         <v>1862.5936</v>
       </c>
       <c r="G111" t="n">
+        <v>65.55333333333321</v>
+      </c>
+      <c r="H111" t="n">
         <v>65.79283333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4314,18 +4963,25 @@
         <v>3399.9</v>
       </c>
       <c r="G112" t="n">
+        <v>65.55199999999989</v>
+      </c>
+      <c r="H112" t="n">
         <v>65.79716666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4349,18 +5005,25 @@
         <v>553.782</v>
       </c>
       <c r="G113" t="n">
+        <v>65.54333333333322</v>
+      </c>
+      <c r="H113" t="n">
         <v>65.80016666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4384,18 +5047,25 @@
         <v>1002.0482</v>
       </c>
       <c r="G114" t="n">
+        <v>65.5359999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>65.80566666666668</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4419,18 +5089,25 @@
         <v>5000</v>
       </c>
       <c r="G115" t="n">
+        <v>65.52866666666657</v>
+      </c>
+      <c r="H115" t="n">
         <v>65.80916666666668</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4454,18 +5131,25 @@
         <v>542.4277</v>
       </c>
       <c r="G116" t="n">
+        <v>65.52133333333325</v>
+      </c>
+      <c r="H116" t="n">
         <v>65.81216666666668</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4489,18 +5173,25 @@
         <v>19.9993</v>
       </c>
       <c r="G117" t="n">
+        <v>65.51333333333325</v>
+      </c>
+      <c r="H117" t="n">
         <v>65.81866666666669</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4524,18 +5215,25 @@
         <v>100</v>
       </c>
       <c r="G118" t="n">
+        <v>65.51399999999991</v>
+      </c>
+      <c r="H118" t="n">
         <v>65.82016666666668</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4559,18 +5257,25 @@
         <v>894</v>
       </c>
       <c r="G119" t="n">
+        <v>65.51599999999991</v>
+      </c>
+      <c r="H119" t="n">
         <v>65.82100000000001</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4594,18 +5299,25 @@
         <v>100869.7157</v>
       </c>
       <c r="G120" t="n">
+        <v>65.50533333333324</v>
+      </c>
+      <c r="H120" t="n">
         <v>65.81433333333335</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4629,18 +5341,25 @@
         <v>653.7115</v>
       </c>
       <c r="G121" t="n">
+        <v>65.4939999999999</v>
+      </c>
+      <c r="H121" t="n">
         <v>65.80416666666669</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4664,18 +5383,25 @@
         <v>271.1726</v>
       </c>
       <c r="G122" t="n">
+        <v>65.4879999999999</v>
+      </c>
+      <c r="H122" t="n">
         <v>65.79600000000002</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4699,18 +5425,25 @@
         <v>15760.2</v>
       </c>
       <c r="G123" t="n">
+        <v>65.48599999999989</v>
+      </c>
+      <c r="H123" t="n">
         <v>65.78816666666668</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4734,18 +5467,25 @@
         <v>14532.5366</v>
       </c>
       <c r="G124" t="n">
+        <v>65.48533333333323</v>
+      </c>
+      <c r="H124" t="n">
         <v>65.77700000000002</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4769,18 +5509,25 @@
         <v>1979.1402</v>
       </c>
       <c r="G125" t="n">
+        <v>65.48466666666656</v>
+      </c>
+      <c r="H125" t="n">
         <v>65.76850000000002</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4804,18 +5551,25 @@
         <v>1659.4978</v>
       </c>
       <c r="G126" t="n">
+        <v>65.4839999999999</v>
+      </c>
+      <c r="H126" t="n">
         <v>65.75766666666668</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4839,18 +5593,25 @@
         <v>1705.7865</v>
       </c>
       <c r="G127" t="n">
+        <v>65.4839999999999</v>
+      </c>
+      <c r="H127" t="n">
         <v>65.74316666666668</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4874,18 +5635,25 @@
         <v>1000</v>
       </c>
       <c r="G128" t="n">
+        <v>65.48333333333322</v>
+      </c>
+      <c r="H128" t="n">
         <v>65.73050000000002</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4909,18 +5677,25 @@
         <v>624.93467557</v>
       </c>
       <c r="G129" t="n">
+        <v>65.48266666666656</v>
+      </c>
+      <c r="H129" t="n">
         <v>65.71700000000001</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4944,18 +5719,25 @@
         <v>906.5939</v>
       </c>
       <c r="G130" t="n">
+        <v>65.48133333333323</v>
+      </c>
+      <c r="H130" t="n">
         <v>65.70416666666668</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4979,18 +5761,25 @@
         <v>23254.9</v>
       </c>
       <c r="G131" t="n">
+        <v>65.47999999999989</v>
+      </c>
+      <c r="H131" t="n">
         <v>65.6905</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5014,18 +5803,25 @@
         <v>2057</v>
       </c>
       <c r="G132" t="n">
+        <v>65.47533333333324</v>
+      </c>
+      <c r="H132" t="n">
         <v>65.67583333333333</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5049,18 +5845,25 @@
         <v>34904.7561</v>
       </c>
       <c r="G133" t="n">
+        <v>65.47066666666657</v>
+      </c>
+      <c r="H133" t="n">
         <v>65.66166666666666</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5084,18 +5887,25 @@
         <v>758.0258</v>
       </c>
       <c r="G134" t="n">
+        <v>65.47266666666657</v>
+      </c>
+      <c r="H134" t="n">
         <v>65.64966666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5119,18 +5929,25 @@
         <v>23600</v>
       </c>
       <c r="G135" t="n">
+        <v>65.50066666666658</v>
+      </c>
+      <c r="H135" t="n">
         <v>65.6435</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5154,18 +5971,25 @@
         <v>1330.00303674</v>
       </c>
       <c r="G136" t="n">
+        <v>65.52933333333323</v>
+      </c>
+      <c r="H136" t="n">
         <v>65.64366666666668</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,18 +6013,25 @@
         <v>388.2954</v>
       </c>
       <c r="G137" t="n">
+        <v>65.53933333333323</v>
+      </c>
+      <c r="H137" t="n">
         <v>65.64016666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5224,18 +6055,25 @@
         <v>68.6734</v>
       </c>
       <c r="G138" t="n">
+        <v>65.54933333333324</v>
+      </c>
+      <c r="H138" t="n">
         <v>65.63783333333335</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5259,18 +6097,25 @@
         <v>5519.1443</v>
       </c>
       <c r="G139" t="n">
+        <v>65.56133333333325</v>
+      </c>
+      <c r="H139" t="n">
         <v>65.63716666666667</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5294,18 +6139,25 @@
         <v>428.6</v>
       </c>
       <c r="G140" t="n">
+        <v>65.57999999999991</v>
+      </c>
+      <c r="H140" t="n">
         <v>65.63683333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5329,18 +6181,25 @@
         <v>8</v>
       </c>
       <c r="G141" t="n">
+        <v>65.61799999999991</v>
+      </c>
+      <c r="H141" t="n">
         <v>65.63866666666668</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5364,18 +6223,25 @@
         <v>10</v>
       </c>
       <c r="G142" t="n">
+        <v>65.65733333333324</v>
+      </c>
+      <c r="H142" t="n">
         <v>65.63666666666668</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5399,18 +6265,25 @@
         <v>7.5977</v>
       </c>
       <c r="G143" t="n">
+        <v>65.6779999999999</v>
+      </c>
+      <c r="H143" t="n">
         <v>65.629</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5434,18 +6307,25 @@
         <v>8</v>
       </c>
       <c r="G144" t="n">
+        <v>65.71799999999989</v>
+      </c>
+      <c r="H144" t="n">
         <v>65.62800000000001</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5469,18 +6349,25 @@
         <v>2122.2066</v>
       </c>
       <c r="G145" t="n">
+        <v>65.75866666666656</v>
+      </c>
+      <c r="H145" t="n">
         <v>65.62350000000001</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5504,18 +6391,25 @@
         <v>10881.87878787</v>
       </c>
       <c r="G146" t="n">
+        <v>65.79266666666655</v>
+      </c>
+      <c r="H146" t="n">
         <v>65.62216666666669</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5539,18 +6433,25 @@
         <v>1646.7832</v>
       </c>
       <c r="G147" t="n">
+        <v>65.80199999999988</v>
+      </c>
+      <c r="H147" t="n">
         <v>65.61366666666669</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5574,18 +6475,25 @@
         <v>125</v>
       </c>
       <c r="G148" t="n">
+        <v>65.82799999999988</v>
+      </c>
+      <c r="H148" t="n">
         <v>65.60900000000002</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5609,18 +6517,25 @@
         <v>60</v>
       </c>
       <c r="G149" t="n">
+        <v>65.8393333333332</v>
+      </c>
+      <c r="H149" t="n">
         <v>65.60616666666668</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5644,18 +6559,25 @@
         <v>22769.4747</v>
       </c>
       <c r="G150" t="n">
+        <v>65.82799999999988</v>
+      </c>
+      <c r="H150" t="n">
         <v>65.60066666666668</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5679,18 +6601,25 @@
         <v>7.61</v>
       </c>
       <c r="G151" t="n">
+        <v>65.8233333333332</v>
+      </c>
+      <c r="H151" t="n">
         <v>65.59933333333336</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5714,18 +6643,25 @@
         <v>10</v>
       </c>
       <c r="G152" t="n">
+        <v>65.83266666666654</v>
+      </c>
+      <c r="H152" t="n">
         <v>65.59783333333336</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5749,18 +6685,25 @@
         <v>150.0806</v>
       </c>
       <c r="G153" t="n">
+        <v>65.8353333333332</v>
+      </c>
+      <c r="H153" t="n">
         <v>65.60166666666669</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5784,18 +6727,25 @@
         <v>8</v>
       </c>
       <c r="G154" t="n">
+        <v>65.84066666666654</v>
+      </c>
+      <c r="H154" t="n">
         <v>65.6066666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5819,18 +6769,25 @@
         <v>801</v>
       </c>
       <c r="G155" t="n">
+        <v>65.83666666666655</v>
+      </c>
+      <c r="H155" t="n">
         <v>65.61100000000002</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5854,18 +6811,25 @@
         <v>376.5661</v>
       </c>
       <c r="G156" t="n">
+        <v>65.81333333333322</v>
+      </c>
+      <c r="H156" t="n">
         <v>65.61716666666669</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5889,18 +6853,27 @@
         <v>53.1546</v>
       </c>
       <c r="G157" t="n">
+        <v>65.78866666666654</v>
+      </c>
+      <c r="H157" t="n">
         <v>65.62050000000002</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>65.72</v>
+      </c>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5924,18 +6897,27 @@
         <v>7574.217</v>
       </c>
       <c r="G158" t="n">
+        <v>65.78999999999989</v>
+      </c>
+      <c r="H158" t="n">
         <v>65.62366666666668</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>65.72</v>
+      </c>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5959,18 +6941,25 @@
         <v>12084.1848</v>
       </c>
       <c r="G159" t="n">
+        <v>65.78333333333322</v>
+      </c>
+      <c r="H159" t="n">
         <v>65.63000000000002</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5994,18 +6983,25 @@
         <v>27780.6214</v>
       </c>
       <c r="G160" t="n">
+        <v>65.78333333333322</v>
+      </c>
+      <c r="H160" t="n">
         <v>65.63800000000002</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6029,18 +7025,25 @@
         <v>20927.6993</v>
       </c>
       <c r="G161" t="n">
+        <v>65.80066666666656</v>
+      </c>
+      <c r="H161" t="n">
         <v>65.64866666666668</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6064,18 +7067,25 @@
         <v>1202.3734</v>
       </c>
       <c r="G162" t="n">
+        <v>65.84666666666656</v>
+      </c>
+      <c r="H162" t="n">
         <v>65.65933333333336</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6099,18 +7109,25 @@
         <v>618.9</v>
       </c>
       <c r="G163" t="n">
+        <v>65.8799999999999</v>
+      </c>
+      <c r="H163" t="n">
         <v>65.6731666666667</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6134,18 +7151,25 @@
         <v>64.45140000000001</v>
       </c>
       <c r="G164" t="n">
+        <v>65.91999999999989</v>
+      </c>
+      <c r="H164" t="n">
         <v>65.68700000000004</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6169,18 +7193,25 @@
         <v>201.2688</v>
       </c>
       <c r="G165" t="n">
+        <v>65.97399999999989</v>
+      </c>
+      <c r="H165" t="n">
         <v>65.70200000000004</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6204,18 +7235,25 @@
         <v>905.9446</v>
       </c>
       <c r="G166" t="n">
+        <v>66.00799999999988</v>
+      </c>
+      <c r="H166" t="n">
         <v>65.71366666666671</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6239,18 +7277,25 @@
         <v>943.5469000000001</v>
       </c>
       <c r="G167" t="n">
+        <v>66.04666666666657</v>
+      </c>
+      <c r="H167" t="n">
         <v>65.72666666666672</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>1</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6274,18 +7319,25 @@
         <v>445.5565</v>
       </c>
       <c r="G168" t="n">
+        <v>66.08799999999989</v>
+      </c>
+      <c r="H168" t="n">
         <v>65.73966666666671</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6309,18 +7361,25 @@
         <v>2536.838</v>
       </c>
       <c r="G169" t="n">
+        <v>66.12133333333323</v>
+      </c>
+      <c r="H169" t="n">
         <v>65.75216666666671</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6344,18 +7403,25 @@
         <v>14</v>
       </c>
       <c r="G170" t="n">
+        <v>66.15333333333322</v>
+      </c>
+      <c r="H170" t="n">
         <v>65.76366666666669</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6379,18 +7445,25 @@
         <v>1911.0111</v>
       </c>
       <c r="G171" t="n">
+        <v>66.17733333333322</v>
+      </c>
+      <c r="H171" t="n">
         <v>65.7731666666667</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6414,18 +7487,25 @@
         <v>8</v>
       </c>
       <c r="G172" t="n">
+        <v>66.21666666666654</v>
+      </c>
+      <c r="H172" t="n">
         <v>65.78666666666669</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6449,18 +7529,25 @@
         <v>9027.270699999999</v>
       </c>
       <c r="G173" t="n">
+        <v>66.23066666666654</v>
+      </c>
+      <c r="H173" t="n">
         <v>65.79550000000002</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6484,18 +7571,25 @@
         <v>8216.1494</v>
       </c>
       <c r="G174" t="n">
+        <v>66.22666666666653</v>
+      </c>
+      <c r="H174" t="n">
         <v>65.80266666666668</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6519,18 +7613,25 @@
         <v>97.3241</v>
       </c>
       <c r="G175" t="n">
+        <v>66.21599999999987</v>
+      </c>
+      <c r="H175" t="n">
         <v>65.80983333333334</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6554,18 +7655,25 @@
         <v>1043.6572</v>
       </c>
       <c r="G176" t="n">
+        <v>66.1933333333332</v>
+      </c>
+      <c r="H176" t="n">
         <v>65.81666666666668</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6589,18 +7697,27 @@
         <v>386</v>
       </c>
       <c r="G177" t="n">
+        <v>66.16933333333321</v>
+      </c>
+      <c r="H177" t="n">
         <v>65.82333333333335</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>65.92</v>
+      </c>
       <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6624,18 +7741,27 @@
         <v>1762.7673</v>
       </c>
       <c r="G178" t="n">
+        <v>66.14266666666656</v>
+      </c>
+      <c r="H178" t="n">
         <v>65.83033333333336</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>65.90000000000001</v>
+      </c>
       <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6659,18 +7785,27 @@
         <v>3302.5795</v>
       </c>
       <c r="G179" t="n">
+        <v>66.11999999999989</v>
+      </c>
+      <c r="H179" t="n">
         <v>65.83800000000002</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>65.90000000000001</v>
+      </c>
       <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6694,18 +7829,27 @@
         <v>300</v>
       </c>
       <c r="G180" t="n">
+        <v>66.07666666666655</v>
+      </c>
+      <c r="H180" t="n">
         <v>65.84483333333336</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>65.95999999999999</v>
+      </c>
       <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6729,18 +7873,27 @@
         <v>9300</v>
       </c>
       <c r="G181" t="n">
+        <v>66.03933333333322</v>
+      </c>
+      <c r="H181" t="n">
         <v>65.85000000000001</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>65.72</v>
+      </c>
       <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6764,18 +7917,27 @@
         <v>100</v>
       </c>
       <c r="G182" t="n">
+        <v>66.00199999999988</v>
+      </c>
+      <c r="H182" t="n">
         <v>65.85516666666668</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>65.73999999999999</v>
+      </c>
       <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6799,18 +7961,27 @@
         <v>23.2521</v>
       </c>
       <c r="G183" t="n">
+        <v>65.96799999999989</v>
+      </c>
+      <c r="H183" t="n">
         <v>65.86016666666669</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>65.81</v>
+      </c>
       <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6834,18 +8005,27 @@
         <v>221</v>
       </c>
       <c r="G184" t="n">
+        <v>65.93733333333323</v>
+      </c>
+      <c r="H184" t="n">
         <v>65.86516666666668</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>65.8</v>
+      </c>
       <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6869,18 +8049,27 @@
         <v>1346.1019</v>
       </c>
       <c r="G185" t="n">
+        <v>65.90533333333322</v>
+      </c>
+      <c r="H185" t="n">
         <v>65.86883333333336</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>65.8</v>
+      </c>
       <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6904,18 +8093,27 @@
         <v>2659.2231</v>
       </c>
       <c r="G186" t="n">
+        <v>65.86599999999989</v>
+      </c>
+      <c r="H186" t="n">
         <v>65.86866666666668</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>65.72</v>
+      </c>
       <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6939,18 +8137,27 @@
         <v>0.143</v>
       </c>
       <c r="G187" t="n">
+        <v>65.81133333333322</v>
+      </c>
+      <c r="H187" t="n">
         <v>65.86850000000001</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>65.48999999999999</v>
+      </c>
       <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,18 +8181,27 @@
         <v>734.8366</v>
       </c>
       <c r="G188" t="n">
+        <v>65.77466666666655</v>
+      </c>
+      <c r="H188" t="n">
         <v>65.86833333333334</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>65.48999999999999</v>
+      </c>
       <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7009,18 +8225,467 @@
         <v>3266.1977</v>
       </c>
       <c r="G189" t="n">
+        <v>65.74466666666655</v>
+      </c>
+      <c r="H189" t="n">
         <v>65.86816666666667</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>65.48999999999999</v>
+      </c>
       <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="C190" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="D190" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="E190" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="F190" t="n">
+        <v>14632.5904</v>
+      </c>
+      <c r="G190" t="n">
+        <v>65.71933333333321</v>
+      </c>
+      <c r="H190" t="n">
+        <v>65.86933333333334</v>
+      </c>
+      <c r="I190" t="n">
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>65.41</v>
+      </c>
+      <c r="C191" t="n">
+        <v>65.26000000000001</v>
+      </c>
+      <c r="D191" t="n">
+        <v>65.41</v>
+      </c>
+      <c r="E191" t="n">
+        <v>65.26000000000001</v>
+      </c>
+      <c r="F191" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G191" t="n">
+        <v>65.67533333333321</v>
+      </c>
+      <c r="H191" t="n">
+        <v>65.86550000000001</v>
+      </c>
+      <c r="I191" t="n">
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="C192" t="n">
+        <v>65</v>
+      </c>
+      <c r="D192" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="E192" t="n">
+        <v>65</v>
+      </c>
+      <c r="F192" t="n">
+        <v>42101.5272</v>
+      </c>
+      <c r="G192" t="n">
+        <v>65.61533333333323</v>
+      </c>
+      <c r="H192" t="n">
+        <v>65.85833333333335</v>
+      </c>
+      <c r="I192" t="n">
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>65.26000000000001</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>64.95</v>
+      </c>
+      <c r="C193" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="D193" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="E193" t="n">
+        <v>64.94</v>
+      </c>
+      <c r="F193" t="n">
+        <v>20261.0947</v>
+      </c>
+      <c r="G193" t="n">
+        <v>65.56666666666655</v>
+      </c>
+      <c r="H193" t="n">
+        <v>65.85433333333336</v>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>65</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="C194" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="D194" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="E194" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="F194" t="n">
+        <v>2619.4576</v>
+      </c>
+      <c r="G194" t="n">
+        <v>65.51466666666654</v>
+      </c>
+      <c r="H194" t="n">
+        <v>65.84850000000002</v>
+      </c>
+      <c r="I194" t="n">
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="C195" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="D195" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="E195" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1879.1145</v>
+      </c>
+      <c r="G195" t="n">
+        <v>65.47533333333321</v>
+      </c>
+      <c r="H195" t="n">
+        <v>65.83850000000001</v>
+      </c>
+      <c r="I195" t="n">
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="C196" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="D196" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="E196" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="F196" t="n">
+        <v>7564.90525672</v>
+      </c>
+      <c r="G196" t="n">
+        <v>65.4553333333332</v>
+      </c>
+      <c r="H196" t="n">
+        <v>65.83150000000002</v>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>65.23</v>
+      </c>
+      <c r="C197" t="n">
+        <v>65.23</v>
+      </c>
+      <c r="D197" t="n">
+        <v>65.23</v>
+      </c>
+      <c r="E197" t="n">
+        <v>65.23</v>
+      </c>
+      <c r="F197" t="n">
+        <v>200</v>
+      </c>
+      <c r="G197" t="n">
+        <v>65.41666666666654</v>
+      </c>
+      <c r="H197" t="n">
+        <v>65.82450000000001</v>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="C198" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="D198" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="E198" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="F198" t="n">
+        <v>8</v>
+      </c>
+      <c r="G198" t="n">
+        <v>65.39266666666656</v>
+      </c>
+      <c r="H198" t="n">
+        <v>65.82100000000001</v>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>65.23</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="C199" t="n">
+        <v>65.45999999999999</v>
+      </c>
+      <c r="D199" t="n">
+        <v>65.45999999999999</v>
+      </c>
+      <c r="E199" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="F199" t="n">
+        <v>4761.136</v>
+      </c>
+      <c r="G199" t="n">
+        <v>65.36999999999989</v>
+      </c>
+      <c r="H199" t="n">
+        <v>65.81733333333335</v>
+      </c>
+      <c r="I199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-26 BackTest XLM.xlsx
+++ b/BackTest/2020-01-26 BackTest XLM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M228"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,28 +427,33 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>67.37</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>67.37</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>67.37</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>67.37</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>19757.7311</v>
+        <v>3922.4581</v>
       </c>
       <c r="G2" t="n">
-        <v>-114176.7573431999</v>
+        <v>-158204.84490878</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>67.22</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>67.22</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>67.22</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>67.22</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>1315</v>
+        <v>25951.6879</v>
       </c>
       <c r="G3" t="n">
-        <v>-115491.7573431999</v>
+        <v>-132253.15700878</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,34 +503,35 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>67.22</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>67.06</v>
+        <v>65.7</v>
       </c>
       <c r="D4" t="n">
-        <v>67.22</v>
+        <v>65.7</v>
       </c>
       <c r="E4" t="n">
-        <v>67.06</v>
+        <v>65.53</v>
       </c>
       <c r="F4" t="n">
-        <v>9542.897499999999</v>
+        <v>35173.8524</v>
       </c>
       <c r="G4" t="n">
-        <v>-125034.6548431999</v>
+        <v>-167427.00940878</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -532,34 +539,35 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>66.95999999999999</v>
+        <v>65.53</v>
       </c>
       <c r="C5" t="n">
-        <v>66.67</v>
+        <v>65.52</v>
       </c>
       <c r="D5" t="n">
-        <v>66.95999999999999</v>
+        <v>65.53</v>
       </c>
       <c r="E5" t="n">
-        <v>66.67</v>
+        <v>65.52</v>
       </c>
       <c r="F5" t="n">
-        <v>45718.6477</v>
+        <v>10171.3285</v>
       </c>
       <c r="G5" t="n">
-        <v>-170753.3025431999</v>
+        <v>-177598.33790878</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
@@ -567,34 +575,35 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>66.69</v>
+        <v>65.52</v>
       </c>
       <c r="C6" t="n">
-        <v>66.69</v>
+        <v>65.52</v>
       </c>
       <c r="D6" t="n">
-        <v>66.69</v>
+        <v>65.52</v>
       </c>
       <c r="E6" t="n">
-        <v>66.69</v>
+        <v>65.52</v>
       </c>
       <c r="F6" t="n">
-        <v>21100.3688</v>
+        <v>604.8029</v>
       </c>
       <c r="G6" t="n">
-        <v>-149652.9337431999</v>
+        <v>-177598.33790878</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
@@ -602,34 +611,35 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66.62</v>
+        <v>65.52</v>
       </c>
       <c r="C7" t="n">
-        <v>66.62</v>
+        <v>65.64</v>
       </c>
       <c r="D7" t="n">
-        <v>66.62</v>
+        <v>65.64</v>
       </c>
       <c r="E7" t="n">
-        <v>66.62</v>
+        <v>65.5</v>
       </c>
       <c r="F7" t="n">
-        <v>23.3156</v>
+        <v>31021.72496124</v>
       </c>
       <c r="G7" t="n">
-        <v>-149676.2493431999</v>
+        <v>-146576.61294754</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -637,34 +647,35 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>66.94</v>
+        <v>65.5</v>
       </c>
       <c r="C8" t="n">
-        <v>66.94</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>66.94</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>66.94</v>
+        <v>65.5</v>
       </c>
       <c r="F8" t="n">
-        <v>52000</v>
+        <v>13218.6061</v>
       </c>
       <c r="G8" t="n">
-        <v>-97676.24934319995</v>
+        <v>-159795.21904754</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -672,34 +683,35 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>66.93000000000001</v>
+        <v>65.41</v>
       </c>
       <c r="C9" t="n">
-        <v>66.93000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>66.93000000000001</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>66.93000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>23.3156</v>
+        <v>3971.6995</v>
       </c>
       <c r="G9" t="n">
-        <v>-97699.56494319995</v>
+        <v>-163766.91854754</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
@@ -707,34 +719,35 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67.02</v>
+        <v>65.33</v>
       </c>
       <c r="C10" t="n">
-        <v>67.02</v>
+        <v>65.33</v>
       </c>
       <c r="D10" t="n">
-        <v>67.02</v>
+        <v>65.33</v>
       </c>
       <c r="E10" t="n">
-        <v>67.02</v>
+        <v>65.3</v>
       </c>
       <c r="F10" t="n">
-        <v>20374.938</v>
+        <v>5502.3396</v>
       </c>
       <c r="G10" t="n">
-        <v>-77324.62694319995</v>
+        <v>-169269.25814754</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
@@ -742,34 +755,35 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>67.02</v>
+        <v>65.3</v>
       </c>
       <c r="C11" t="n">
-        <v>66.98999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="D11" t="n">
-        <v>67.02</v>
+        <v>65.3</v>
       </c>
       <c r="E11" t="n">
-        <v>66.98999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="F11" t="n">
-        <v>543.8892</v>
+        <v>432.5167</v>
       </c>
       <c r="G11" t="n">
-        <v>-77868.51614319996</v>
+        <v>-169701.77484754</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
@@ -777,34 +791,35 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>66.98999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="C12" t="n">
-        <v>66.87</v>
+        <v>65.3</v>
       </c>
       <c r="D12" t="n">
-        <v>66.98999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="E12" t="n">
-        <v>66.87</v>
+        <v>65.3</v>
       </c>
       <c r="F12" t="n">
-        <v>431.8327</v>
+        <v>2907.6768</v>
       </c>
       <c r="G12" t="n">
-        <v>-78300.34884319996</v>
+        <v>-169701.77484754</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
@@ -812,28 +827,29 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>66.77</v>
+        <v>65.23</v>
       </c>
       <c r="C13" t="n">
-        <v>66.70999999999999</v>
+        <v>65.23</v>
       </c>
       <c r="D13" t="n">
-        <v>66.77</v>
+        <v>65.23</v>
       </c>
       <c r="E13" t="n">
-        <v>66.70999999999999</v>
+        <v>65.23</v>
       </c>
       <c r="F13" t="n">
-        <v>4264.5365</v>
+        <v>12335.9906</v>
       </c>
       <c r="G13" t="n">
-        <v>-82564.88534319996</v>
+        <v>-182037.76544754</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,28 +863,29 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>66.84</v>
+        <v>65.36</v>
       </c>
       <c r="C14" t="n">
-        <v>66.91</v>
+        <v>65.36</v>
       </c>
       <c r="D14" t="n">
-        <v>66.91</v>
+        <v>65.36</v>
       </c>
       <c r="E14" t="n">
-        <v>66.84</v>
+        <v>65.36</v>
       </c>
       <c r="F14" t="n">
-        <v>1495.88402331</v>
+        <v>894</v>
       </c>
       <c r="G14" t="n">
-        <v>-81069.00131988995</v>
+        <v>-181143.76544754</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,28 +899,29 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>66.64</v>
+        <v>65.23</v>
       </c>
       <c r="C15" t="n">
-        <v>66.64</v>
+        <v>65.23</v>
       </c>
       <c r="D15" t="n">
-        <v>66.64</v>
+        <v>65.23</v>
       </c>
       <c r="E15" t="n">
-        <v>66.64</v>
+        <v>65.11</v>
       </c>
       <c r="F15" t="n">
-        <v>10014.6416</v>
+        <v>31127.8342</v>
       </c>
       <c r="G15" t="n">
-        <v>-91083.64291988996</v>
+        <v>-212271.59964754</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,28 +935,29 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>66.59999999999999</v>
+        <v>65.23</v>
       </c>
       <c r="C16" t="n">
-        <v>66.59999999999999</v>
+        <v>65.08</v>
       </c>
       <c r="D16" t="n">
-        <v>66.59999999999999</v>
+        <v>65.23</v>
       </c>
       <c r="E16" t="n">
-        <v>66.59999999999999</v>
+        <v>65</v>
       </c>
       <c r="F16" t="n">
-        <v>648.7753</v>
+        <v>23376.4188</v>
       </c>
       <c r="G16" t="n">
-        <v>-91732.41821988995</v>
+        <v>-235648.01844754</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,28 +971,29 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>66.45999999999999</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>66.45999999999999</v>
+        <v>65.08</v>
       </c>
       <c r="D17" t="n">
-        <v>66.45999999999999</v>
+        <v>65.08</v>
       </c>
       <c r="E17" t="n">
-        <v>66.45999999999999</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>880.0993</v>
+        <v>871.1679</v>
       </c>
       <c r="G17" t="n">
-        <v>-92612.51751988995</v>
+        <v>-235648.01844754</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,28 +1007,29 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>66.45999999999999</v>
+        <v>65.12</v>
       </c>
       <c r="C18" t="n">
-        <v>66.45999999999999</v>
+        <v>65.13</v>
       </c>
       <c r="D18" t="n">
-        <v>66.45999999999999</v>
+        <v>65.13</v>
       </c>
       <c r="E18" t="n">
-        <v>66.45999999999999</v>
+        <v>65.12</v>
       </c>
       <c r="F18" t="n">
-        <v>1184.5839</v>
+        <v>20159.0706</v>
       </c>
       <c r="G18" t="n">
-        <v>-92612.51751988995</v>
+        <v>-215488.94784754</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1022,28 +1043,29 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>66.45999999999999</v>
+        <v>65.12</v>
       </c>
       <c r="C19" t="n">
-        <v>66.45999999999999</v>
+        <v>65.12</v>
       </c>
       <c r="D19" t="n">
-        <v>66.45999999999999</v>
+        <v>65.12</v>
       </c>
       <c r="E19" t="n">
-        <v>66.45999999999999</v>
+        <v>65.12</v>
       </c>
       <c r="F19" t="n">
-        <v>15.5904</v>
+        <v>851.7525000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>-92612.51751988995</v>
+        <v>-216340.70034754</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1057,28 +1079,29 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>66.36</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>66.36</v>
+        <v>65.19</v>
       </c>
       <c r="D20" t="n">
-        <v>66.36</v>
+        <v>65.19</v>
       </c>
       <c r="E20" t="n">
-        <v>66.36</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>640</v>
+        <v>23417.83525095</v>
       </c>
       <c r="G20" t="n">
-        <v>-93252.51751988995</v>
+        <v>-192922.86509659</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1092,28 +1115,29 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>66.43000000000001</v>
+        <v>65.17</v>
       </c>
       <c r="C21" t="n">
-        <v>66.43000000000001</v>
+        <v>65.17</v>
       </c>
       <c r="D21" t="n">
-        <v>66.43000000000001</v>
+        <v>65.17</v>
       </c>
       <c r="E21" t="n">
-        <v>66.43000000000001</v>
+        <v>65.17</v>
       </c>
       <c r="F21" t="n">
-        <v>7.9641</v>
+        <v>1701.3761</v>
       </c>
       <c r="G21" t="n">
-        <v>-93244.55341988995</v>
+        <v>-194624.24119659</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,28 +1151,29 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>66.61</v>
+        <v>65.17</v>
       </c>
       <c r="C22" t="n">
-        <v>66.61</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="D22" t="n">
-        <v>66.61</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>66.61</v>
+        <v>65.17</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>1749.1859</v>
       </c>
       <c r="G22" t="n">
-        <v>-93236.55341988995</v>
+        <v>-192875.05529659</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,28 +1187,29 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>66.88</v>
+        <v>65.38</v>
       </c>
       <c r="C23" t="n">
-        <v>66.88</v>
+        <v>65.27</v>
       </c>
       <c r="D23" t="n">
-        <v>66.88</v>
+        <v>65.38</v>
       </c>
       <c r="E23" t="n">
-        <v>66.88</v>
+        <v>65.27</v>
       </c>
       <c r="F23" t="n">
-        <v>632</v>
+        <v>5604.1908</v>
       </c>
       <c r="G23" t="n">
-        <v>-92604.55341988995</v>
+        <v>-198479.24609659</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,28 +1223,29 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>66.93000000000001</v>
+        <v>65.27</v>
       </c>
       <c r="C24" t="n">
-        <v>67.20999999999999</v>
+        <v>65.27</v>
       </c>
       <c r="D24" t="n">
-        <v>67.20999999999999</v>
+        <v>65.27</v>
       </c>
       <c r="E24" t="n">
-        <v>66.93000000000001</v>
+        <v>65.27</v>
       </c>
       <c r="F24" t="n">
-        <v>74523.79331111</v>
+        <v>591</v>
       </c>
       <c r="G24" t="n">
-        <v>-18080.76010877996</v>
+        <v>-198479.24609659</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,34 +1259,35 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>66.95999999999999</v>
+        <v>65.27</v>
       </c>
       <c r="C25" t="n">
-        <v>66.95999999999999</v>
+        <v>65.33</v>
       </c>
       <c r="D25" t="n">
-        <v>66.95999999999999</v>
+        <v>65.33</v>
       </c>
       <c r="E25" t="n">
-        <v>66.95999999999999</v>
+        <v>65.27</v>
       </c>
       <c r="F25" t="n">
-        <v>476.5996</v>
+        <v>634.8528</v>
       </c>
       <c r="G25" t="n">
-        <v>-18557.35970877996</v>
+        <v>-197844.39329659</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1267,34 +1295,35 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>66.95999999999999</v>
+        <v>65.17</v>
       </c>
       <c r="C26" t="n">
-        <v>66.83</v>
+        <v>65.16</v>
       </c>
       <c r="D26" t="n">
-        <v>66.95999999999999</v>
+        <v>65.17</v>
       </c>
       <c r="E26" t="n">
-        <v>66.83</v>
+        <v>65.16</v>
       </c>
       <c r="F26" t="n">
-        <v>11294.2461</v>
+        <v>43800</v>
       </c>
       <c r="G26" t="n">
-        <v>-29851.60580877996</v>
+        <v>-241644.39329659</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,34 +1331,35 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>66.70999999999999</v>
+        <v>65.16</v>
       </c>
       <c r="C27" t="n">
-        <v>66.7</v>
+        <v>65.16</v>
       </c>
       <c r="D27" t="n">
-        <v>66.70999999999999</v>
+        <v>65.22</v>
       </c>
       <c r="E27" t="n">
-        <v>66.7</v>
+        <v>65.16</v>
       </c>
       <c r="F27" t="n">
-        <v>22500</v>
+        <v>9283.5299</v>
       </c>
       <c r="G27" t="n">
-        <v>-52351.60580877996</v>
+        <v>-241644.39329659</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,28 +1367,29 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>66.62</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>66.62</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>66.62</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>66.62</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>527.0593</v>
+        <v>827.5141</v>
       </c>
       <c r="G28" t="n">
-        <v>-52878.66510877996</v>
+        <v>-240816.87919659</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,28 +1403,29 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>66.54000000000001</v>
+        <v>65.34</v>
       </c>
       <c r="C29" t="n">
-        <v>66.54000000000001</v>
+        <v>65.34</v>
       </c>
       <c r="D29" t="n">
-        <v>66.54000000000001</v>
+        <v>65.34</v>
       </c>
       <c r="E29" t="n">
-        <v>66.54000000000001</v>
+        <v>65.34</v>
       </c>
       <c r="F29" t="n">
-        <v>1118.9306</v>
+        <v>386.4312</v>
       </c>
       <c r="G29" t="n">
-        <v>-53997.59570877996</v>
+        <v>-240430.44799659</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1407,28 +1439,29 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>66.54000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="C30" t="n">
-        <v>66.34</v>
+        <v>65.33</v>
       </c>
       <c r="D30" t="n">
-        <v>66.54000000000001</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>66.34</v>
+        <v>65.33</v>
       </c>
       <c r="F30" t="n">
-        <v>12314.6003</v>
+        <v>113427.92698001</v>
       </c>
       <c r="G30" t="n">
-        <v>-66312.19600877997</v>
+        <v>-353858.3749766</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1442,28 +1475,29 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>66.47</v>
+        <v>65.33</v>
       </c>
       <c r="C31" t="n">
-        <v>66.47</v>
+        <v>65.33</v>
       </c>
       <c r="D31" t="n">
-        <v>66.47</v>
+        <v>65.33</v>
       </c>
       <c r="E31" t="n">
-        <v>66.47</v>
+        <v>65.33</v>
       </c>
       <c r="F31" t="n">
-        <v>501.8943</v>
+        <v>120926.9485</v>
       </c>
       <c r="G31" t="n">
-        <v>-65810.30170877997</v>
+        <v>-353858.3749766</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1477,28 +1511,29 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>66.36</v>
+        <v>65.55</v>
       </c>
       <c r="C32" t="n">
-        <v>66.25</v>
+        <v>65.55</v>
       </c>
       <c r="D32" t="n">
-        <v>66.36</v>
+        <v>65.55</v>
       </c>
       <c r="E32" t="n">
-        <v>66.25</v>
+        <v>65.55</v>
       </c>
       <c r="F32" t="n">
-        <v>16043.7365</v>
+        <v>300.54919908</v>
       </c>
       <c r="G32" t="n">
-        <v>-81854.03820877997</v>
+        <v>-353557.82577752</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1512,28 +1547,29 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>66.20999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="C33" t="n">
-        <v>66.20999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="D33" t="n">
-        <v>66.20999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="E33" t="n">
-        <v>66.20999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="F33" t="n">
-        <v>707.592</v>
+        <v>302.2943</v>
       </c>
       <c r="G33" t="n">
-        <v>-82561.63020877997</v>
+        <v>-353255.53147752</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,28 +1583,29 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>66.3</v>
+        <v>65.61</v>
       </c>
       <c r="C34" t="n">
-        <v>66.3</v>
+        <v>65.61</v>
       </c>
       <c r="D34" t="n">
-        <v>66.3</v>
+        <v>65.61</v>
       </c>
       <c r="E34" t="n">
-        <v>66.3</v>
+        <v>65.61</v>
       </c>
       <c r="F34" t="n">
-        <v>800.9999</v>
+        <v>2597.70261611</v>
       </c>
       <c r="G34" t="n">
-        <v>-81760.63030877998</v>
+        <v>-353255.53147752</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,28 +1619,29 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>66.2</v>
+        <v>65.61</v>
       </c>
       <c r="C35" t="n">
-        <v>66.03</v>
+        <v>65.61</v>
       </c>
       <c r="D35" t="n">
-        <v>66.2</v>
+        <v>65.61</v>
       </c>
       <c r="E35" t="n">
-        <v>66.03</v>
+        <v>65.61</v>
       </c>
       <c r="F35" t="n">
-        <v>46420.4988</v>
+        <v>519.7942</v>
       </c>
       <c r="G35" t="n">
-        <v>-128181.12910878</v>
+        <v>-353255.53147752</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,28 +1655,29 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>66.09999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>66.09999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="D36" t="n">
-        <v>66.09999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="E36" t="n">
-        <v>66.09999999999999</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F36" t="n">
-        <v>5038.4664</v>
+        <v>5640.1993</v>
       </c>
       <c r="G36" t="n">
-        <v>-123142.66270878</v>
+        <v>-353255.53147752</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,28 +1691,29 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>66.09</v>
+        <v>65.61</v>
       </c>
       <c r="C37" t="n">
-        <v>66.09</v>
+        <v>65.42</v>
       </c>
       <c r="D37" t="n">
-        <v>66.09</v>
+        <v>65.61</v>
       </c>
       <c r="E37" t="n">
-        <v>66.09</v>
+        <v>65.42</v>
       </c>
       <c r="F37" t="n">
-        <v>2979.6819</v>
+        <v>10000</v>
       </c>
       <c r="G37" t="n">
-        <v>-126122.34460878</v>
+        <v>-363255.53147752</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,28 +1727,29 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>65.90000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="C38" t="n">
-        <v>65.89</v>
+        <v>65.3</v>
       </c>
       <c r="D38" t="n">
-        <v>65.90000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="E38" t="n">
-        <v>65.89</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>14890.9241</v>
+        <v>41248.3352</v>
       </c>
       <c r="G38" t="n">
-        <v>-141013.26870878</v>
+        <v>-404503.86667752</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,28 +1763,29 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>66.09</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="C39" t="n">
-        <v>66.09</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>66.09</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>66.09</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>103.8988</v>
+        <v>379.4187</v>
       </c>
       <c r="G39" t="n">
-        <v>-140909.36990878</v>
+        <v>-404883.28537752</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,28 +1799,29 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>65.98999999999999</v>
+        <v>65.33</v>
       </c>
       <c r="C40" t="n">
-        <v>66.09</v>
+        <v>65.33</v>
       </c>
       <c r="D40" t="n">
-        <v>66.09</v>
+        <v>65.33</v>
       </c>
       <c r="E40" t="n">
-        <v>65.98999999999999</v>
+        <v>65.33</v>
       </c>
       <c r="F40" t="n">
-        <v>3371.4813</v>
+        <v>322.28600341</v>
       </c>
       <c r="G40" t="n">
-        <v>-140909.36990878</v>
+        <v>-404560.99937411</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,28 +1835,29 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>65.81</v>
+        <v>65.33</v>
       </c>
       <c r="C41" t="n">
-        <v>65.64</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>65.81</v>
+        <v>65.33</v>
       </c>
       <c r="E41" t="n">
-        <v>65.64</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>14890.9241</v>
+        <v>1252.8943</v>
       </c>
       <c r="G41" t="n">
-        <v>-155800.29400878</v>
+        <v>-405813.8936741099</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1827,28 +1871,29 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>65.93000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="C42" t="n">
-        <v>65.90000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="D42" t="n">
-        <v>65.95</v>
+        <v>65.3</v>
       </c>
       <c r="E42" t="n">
-        <v>65.90000000000001</v>
+        <v>65.3</v>
       </c>
       <c r="F42" t="n">
-        <v>1895.4481</v>
+        <v>562</v>
       </c>
       <c r="G42" t="n">
-        <v>-153904.84590878</v>
+        <v>-405251.8936741099</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1862,28 +1907,29 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>65.75</v>
+        <v>65.33</v>
       </c>
       <c r="C43" t="n">
-        <v>65.75</v>
+        <v>65.33</v>
       </c>
       <c r="D43" t="n">
-        <v>65.75</v>
+        <v>65.33</v>
       </c>
       <c r="E43" t="n">
-        <v>65.75</v>
+        <v>65.33</v>
       </c>
       <c r="F43" t="n">
-        <v>377.5409</v>
+        <v>5727.6494</v>
       </c>
       <c r="G43" t="n">
-        <v>-154282.38680878</v>
+        <v>-399524.24427411</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1897,28 +1943,29 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>65.59999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="C44" t="n">
-        <v>65.59999999999999</v>
+        <v>65.11</v>
       </c>
       <c r="D44" t="n">
-        <v>65.59999999999999</v>
+        <v>65.2</v>
       </c>
       <c r="E44" t="n">
-        <v>65.59999999999999</v>
+        <v>65.11</v>
       </c>
       <c r="F44" t="n">
-        <v>3922.4581</v>
+        <v>4495.5</v>
       </c>
       <c r="G44" t="n">
-        <v>-158204.84490878</v>
+        <v>-404019.74427411</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1932,28 +1979,29 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>65.59999999999999</v>
+        <v>65.39</v>
       </c>
       <c r="C45" t="n">
-        <v>65.70999999999999</v>
+        <v>65.39</v>
       </c>
       <c r="D45" t="n">
-        <v>65.70999999999999</v>
+        <v>65.39</v>
       </c>
       <c r="E45" t="n">
-        <v>65.54000000000001</v>
+        <v>65.39</v>
       </c>
       <c r="F45" t="n">
-        <v>25951.6879</v>
+        <v>167.1234</v>
       </c>
       <c r="G45" t="n">
-        <v>-132253.15700878</v>
+        <v>-403852.62087411</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1967,28 +2015,29 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>65.54000000000001</v>
+        <v>65.45</v>
       </c>
       <c r="C46" t="n">
-        <v>65.7</v>
+        <v>65.45</v>
       </c>
       <c r="D46" t="n">
-        <v>65.7</v>
+        <v>65.45</v>
       </c>
       <c r="E46" t="n">
-        <v>65.53</v>
+        <v>65.45</v>
       </c>
       <c r="F46" t="n">
-        <v>35173.8524</v>
+        <v>103.5076</v>
       </c>
       <c r="G46" t="n">
-        <v>-167427.00940878</v>
+        <v>-403749.11327411</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2002,28 +2051,29 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>65.53</v>
+        <v>65.61</v>
       </c>
       <c r="C47" t="n">
-        <v>65.52</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>65.53</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>65.52</v>
+        <v>65.61</v>
       </c>
       <c r="F47" t="n">
-        <v>10171.3285</v>
+        <v>20062.8383</v>
       </c>
       <c r="G47" t="n">
-        <v>-177598.33790878</v>
+        <v>-383686.27497411</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2037,28 +2087,29 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>65.52</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>65.52</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>65.52</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="E48" t="n">
-        <v>65.52</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>604.8029</v>
+        <v>9311</v>
       </c>
       <c r="G48" t="n">
-        <v>-177598.33790878</v>
+        <v>-374375.27497411</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2072,28 +2123,29 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>65.52</v>
+        <v>66.17</v>
       </c>
       <c r="C49" t="n">
-        <v>65.64</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="D49" t="n">
-        <v>65.64</v>
+        <v>66.17</v>
       </c>
       <c r="E49" t="n">
-        <v>65.5</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="F49" t="n">
-        <v>31021.72496124</v>
+        <v>17561.599</v>
       </c>
       <c r="G49" t="n">
-        <v>-146576.61294754</v>
+        <v>-391936.8739741099</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2107,28 +2159,29 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>65.5</v>
+        <v>65.98</v>
       </c>
       <c r="C50" t="n">
-        <v>65.59999999999999</v>
+        <v>65.97</v>
       </c>
       <c r="D50" t="n">
-        <v>65.59999999999999</v>
+        <v>65.98</v>
       </c>
       <c r="E50" t="n">
-        <v>65.5</v>
+        <v>65.97</v>
       </c>
       <c r="F50" t="n">
-        <v>13218.6061</v>
+        <v>14442.4189</v>
       </c>
       <c r="G50" t="n">
-        <v>-159795.21904754</v>
+        <v>-406379.2928741099</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2142,28 +2195,29 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>65.41</v>
+        <v>65.98</v>
       </c>
       <c r="C51" t="n">
-        <v>65.40000000000001</v>
+        <v>66.17</v>
       </c>
       <c r="D51" t="n">
-        <v>65.54000000000001</v>
+        <v>66.17</v>
       </c>
       <c r="E51" t="n">
-        <v>65.40000000000001</v>
+        <v>65.98</v>
       </c>
       <c r="F51" t="n">
-        <v>3971.6995</v>
+        <v>2013.7205</v>
       </c>
       <c r="G51" t="n">
-        <v>-163766.91854754</v>
+        <v>-404365.5723741099</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2177,28 +2231,29 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>65.33</v>
+        <v>66.28</v>
       </c>
       <c r="C52" t="n">
-        <v>65.33</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>65.33</v>
+        <v>66.28</v>
       </c>
       <c r="E52" t="n">
-        <v>65.3</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>5502.3396</v>
+        <v>16114.2064</v>
       </c>
       <c r="G52" t="n">
-        <v>-169269.25814754</v>
+        <v>-420479.77877411</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2212,28 +2267,29 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>65.3</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>65.3</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>65.3</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="E53" t="n">
-        <v>65.3</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>432.5167</v>
+        <v>10988</v>
       </c>
       <c r="G53" t="n">
-        <v>-169701.77484754</v>
+        <v>-409491.77877411</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2247,28 +2303,29 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>65.3</v>
+        <v>66.37</v>
       </c>
       <c r="C54" t="n">
-        <v>65.3</v>
+        <v>66.37</v>
       </c>
       <c r="D54" t="n">
-        <v>65.3</v>
+        <v>66.37</v>
       </c>
       <c r="E54" t="n">
-        <v>65.3</v>
+        <v>66.37</v>
       </c>
       <c r="F54" t="n">
-        <v>2907.6768</v>
+        <v>150.67048365</v>
       </c>
       <c r="G54" t="n">
-        <v>-169701.77484754</v>
+        <v>-409341.10829046</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2282,28 +2339,29 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>65.23</v>
+        <v>66.25</v>
       </c>
       <c r="C55" t="n">
-        <v>65.23</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>65.23</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>65.23</v>
+        <v>66.25</v>
       </c>
       <c r="F55" t="n">
-        <v>12335.9906</v>
+        <v>3452.0365</v>
       </c>
       <c r="G55" t="n">
-        <v>-182037.76544754</v>
+        <v>-412793.1447904599</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2317,28 +2375,29 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>65.36</v>
+        <v>66.31</v>
       </c>
       <c r="C56" t="n">
-        <v>65.36</v>
+        <v>66.31</v>
       </c>
       <c r="D56" t="n">
-        <v>65.36</v>
+        <v>66.31</v>
       </c>
       <c r="E56" t="n">
-        <v>65.36</v>
+        <v>66.31</v>
       </c>
       <c r="F56" t="n">
-        <v>894</v>
+        <v>1105.1077</v>
       </c>
       <c r="G56" t="n">
-        <v>-181143.76544754</v>
+        <v>-411688.03709046</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2352,28 +2411,29 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>65.23</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>65.23</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>65.23</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>65.11</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>31127.8342</v>
+        <v>2282.5437</v>
       </c>
       <c r="G57" t="n">
-        <v>-212271.59964754</v>
+        <v>-413970.5807904599</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2387,28 +2447,29 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>65.23</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>65.08</v>
+        <v>66.31</v>
       </c>
       <c r="D58" t="n">
-        <v>65.23</v>
+        <v>66.31</v>
       </c>
       <c r="E58" t="n">
-        <v>65</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>23376.4188</v>
+        <v>871.552</v>
       </c>
       <c r="G58" t="n">
-        <v>-235648.01844754</v>
+        <v>-413099.0287904599</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2422,28 +2483,29 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>65.06999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="C59" t="n">
-        <v>65.08</v>
+        <v>66.31</v>
       </c>
       <c r="D59" t="n">
-        <v>65.08</v>
+        <v>66.31</v>
       </c>
       <c r="E59" t="n">
-        <v>65.06999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="F59" t="n">
-        <v>871.1679</v>
+        <v>1379.273</v>
       </c>
       <c r="G59" t="n">
-        <v>-235648.01844754</v>
+        <v>-413099.0287904599</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2457,28 +2519,29 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>65.12</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>65.13</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>65.13</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>65.12</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>20159.0706</v>
+        <v>13.1048</v>
       </c>
       <c r="G60" t="n">
-        <v>-215488.94784754</v>
+        <v>-413112.1335904599</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2492,28 +2555,29 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>65.12</v>
+        <v>66.25</v>
       </c>
       <c r="C61" t="n">
-        <v>65.12</v>
+        <v>66.25</v>
       </c>
       <c r="D61" t="n">
-        <v>65.12</v>
+        <v>66.25</v>
       </c>
       <c r="E61" t="n">
-        <v>65.12</v>
+        <v>66.25</v>
       </c>
       <c r="F61" t="n">
-        <v>851.7525000000001</v>
+        <v>7.5963</v>
       </c>
       <c r="G61" t="n">
-        <v>-216340.70034754</v>
+        <v>-413119.7298904599</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2527,28 +2591,29 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>65.15000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>65.19</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>65.19</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>65.15000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>23417.83525095</v>
+        <v>589.9226</v>
       </c>
       <c r="G62" t="n">
-        <v>-192922.86509659</v>
+        <v>-413709.6524904598</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2562,28 +2627,29 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>65.17</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>65.17</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="D63" t="n">
-        <v>65.17</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="E63" t="n">
-        <v>65.17</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="F63" t="n">
-        <v>1701.3761</v>
+        <v>1733.3337</v>
       </c>
       <c r="G63" t="n">
-        <v>-194624.24119659</v>
+        <v>-415442.9861904599</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2597,28 +2663,29 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>65.17</v>
+        <v>65.84</v>
       </c>
       <c r="C64" t="n">
-        <v>65.29000000000001</v>
+        <v>65.86</v>
       </c>
       <c r="D64" t="n">
-        <v>65.29000000000001</v>
+        <v>65.86</v>
       </c>
       <c r="E64" t="n">
-        <v>65.17</v>
+        <v>65.84</v>
       </c>
       <c r="F64" t="n">
-        <v>1749.1859</v>
+        <v>1576.89</v>
       </c>
       <c r="G64" t="n">
-        <v>-192875.05529659</v>
+        <v>-413866.0961904599</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2632,28 +2699,29 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>65.38</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>65.27</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>65.38</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>65.27</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="F65" t="n">
-        <v>5604.1908</v>
+        <v>1003.2249</v>
       </c>
       <c r="G65" t="n">
-        <v>-198479.24609659</v>
+        <v>-414869.3210904598</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2667,28 +2735,29 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>65.27</v>
+        <v>65.73</v>
       </c>
       <c r="C66" t="n">
-        <v>65.27</v>
+        <v>65.72</v>
       </c>
       <c r="D66" t="n">
-        <v>65.27</v>
+        <v>65.73</v>
       </c>
       <c r="E66" t="n">
-        <v>65.27</v>
+        <v>65.72</v>
       </c>
       <c r="F66" t="n">
-        <v>591</v>
+        <v>802.8881</v>
       </c>
       <c r="G66" t="n">
-        <v>-198479.24609659</v>
+        <v>-415672.2091904598</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2702,28 +2771,29 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>65.27</v>
+        <v>65.8</v>
       </c>
       <c r="C67" t="n">
-        <v>65.33</v>
+        <v>65.8</v>
       </c>
       <c r="D67" t="n">
-        <v>65.33</v>
+        <v>65.8</v>
       </c>
       <c r="E67" t="n">
-        <v>65.27</v>
+        <v>65.8</v>
       </c>
       <c r="F67" t="n">
-        <v>634.8528</v>
+        <v>442.016</v>
       </c>
       <c r="G67" t="n">
-        <v>-197844.39329659</v>
+        <v>-415230.1931904598</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2737,28 +2807,29 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>65.17</v>
+        <v>65.7</v>
       </c>
       <c r="C68" t="n">
-        <v>65.16</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>65.17</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>65.16</v>
+        <v>65.62</v>
       </c>
       <c r="F68" t="n">
-        <v>43800</v>
+        <v>110037.8853</v>
       </c>
       <c r="G68" t="n">
-        <v>-241644.39329659</v>
+        <v>-305192.3078904598</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2772,28 +2843,29 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>65.16</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>65.16</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>65.22</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="E69" t="n">
-        <v>65.16</v>
+        <v>65.84</v>
       </c>
       <c r="F69" t="n">
-        <v>9283.5299</v>
+        <v>65370.3416</v>
       </c>
       <c r="G69" t="n">
-        <v>-241644.39329659</v>
+        <v>-239821.9662904598</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2807,28 +2879,29 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>65.31999999999999</v>
+        <v>66.27</v>
       </c>
       <c r="C70" t="n">
-        <v>65.31999999999999</v>
+        <v>66.27</v>
       </c>
       <c r="D70" t="n">
-        <v>65.31999999999999</v>
+        <v>66.27</v>
       </c>
       <c r="E70" t="n">
-        <v>65.31999999999999</v>
+        <v>66.27</v>
       </c>
       <c r="F70" t="n">
-        <v>827.5141</v>
+        <v>1407</v>
       </c>
       <c r="G70" t="n">
-        <v>-240816.87919659</v>
+        <v>-238414.9662904598</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2842,28 +2915,29 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>65.34</v>
+        <v>66.16</v>
       </c>
       <c r="C71" t="n">
-        <v>65.34</v>
+        <v>66.16</v>
       </c>
       <c r="D71" t="n">
-        <v>65.34</v>
+        <v>66.16</v>
       </c>
       <c r="E71" t="n">
-        <v>65.34</v>
+        <v>66.16</v>
       </c>
       <c r="F71" t="n">
-        <v>386.4312</v>
+        <v>2634</v>
       </c>
       <c r="G71" t="n">
-        <v>-240430.44799659</v>
+        <v>-241048.9662904598</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2877,28 +2951,29 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>65.33</v>
+        <v>66.37</v>
       </c>
       <c r="C72" t="n">
-        <v>65.33</v>
+        <v>66.37</v>
       </c>
       <c r="D72" t="n">
-        <v>65.45999999999999</v>
+        <v>66.37</v>
       </c>
       <c r="E72" t="n">
-        <v>65.33</v>
+        <v>66.37</v>
       </c>
       <c r="F72" t="n">
-        <v>113427.92698001</v>
+        <v>6013.0083</v>
       </c>
       <c r="G72" t="n">
-        <v>-353858.3749766</v>
+        <v>-235035.9579904598</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2912,28 +2987,29 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>65.33</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>65.33</v>
+        <v>66.08</v>
       </c>
       <c r="D73" t="n">
-        <v>65.33</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="E73" t="n">
-        <v>65.33</v>
+        <v>66.08</v>
       </c>
       <c r="F73" t="n">
-        <v>120926.9485</v>
+        <v>973.3187</v>
       </c>
       <c r="G73" t="n">
-        <v>-353858.3749766</v>
+        <v>-236009.2766904598</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2947,28 +3023,29 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>65.55</v>
+        <v>66.08</v>
       </c>
       <c r="C74" t="n">
-        <v>65.55</v>
+        <v>66.08</v>
       </c>
       <c r="D74" t="n">
-        <v>65.55</v>
+        <v>66.08</v>
       </c>
       <c r="E74" t="n">
-        <v>65.55</v>
+        <v>66.08</v>
       </c>
       <c r="F74" t="n">
-        <v>300.54919908</v>
+        <v>482.4979</v>
       </c>
       <c r="G74" t="n">
-        <v>-353557.82577752</v>
+        <v>-236009.2766904598</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2982,28 +3059,29 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>65.61</v>
+        <v>66.08</v>
       </c>
       <c r="C75" t="n">
-        <v>65.61</v>
+        <v>66.08</v>
       </c>
       <c r="D75" t="n">
-        <v>65.61</v>
+        <v>66.08</v>
       </c>
       <c r="E75" t="n">
-        <v>65.61</v>
+        <v>66.08</v>
       </c>
       <c r="F75" t="n">
-        <v>302.2943</v>
+        <v>178.0385</v>
       </c>
       <c r="G75" t="n">
-        <v>-353255.53147752</v>
+        <v>-236009.2766904598</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3017,28 +3095,29 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>65.61</v>
+        <v>66.09</v>
       </c>
       <c r="C76" t="n">
-        <v>65.61</v>
+        <v>65.87</v>
       </c>
       <c r="D76" t="n">
-        <v>65.61</v>
+        <v>66.09</v>
       </c>
       <c r="E76" t="n">
-        <v>65.61</v>
+        <v>65.87</v>
       </c>
       <c r="F76" t="n">
-        <v>2597.70261611</v>
+        <v>4682.9994</v>
       </c>
       <c r="G76" t="n">
-        <v>-353255.53147752</v>
+        <v>-240692.2760904598</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3052,28 +3131,29 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>65.61</v>
+        <v>65.89</v>
       </c>
       <c r="C77" t="n">
-        <v>65.61</v>
+        <v>65.89</v>
       </c>
       <c r="D77" t="n">
-        <v>65.61</v>
+        <v>65.89</v>
       </c>
       <c r="E77" t="n">
-        <v>65.61</v>
+        <v>65.89</v>
       </c>
       <c r="F77" t="n">
-        <v>519.7942</v>
+        <v>379.6968</v>
       </c>
       <c r="G77" t="n">
-        <v>-353255.53147752</v>
+        <v>-240312.5792904598</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3087,28 +3167,29 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>65.59999999999999</v>
+        <v>65.87</v>
       </c>
       <c r="C78" t="n">
-        <v>65.61</v>
+        <v>65.87</v>
       </c>
       <c r="D78" t="n">
-        <v>65.61</v>
+        <v>65.87</v>
       </c>
       <c r="E78" t="n">
-        <v>65.59999999999999</v>
+        <v>65.87</v>
       </c>
       <c r="F78" t="n">
-        <v>5640.1993</v>
+        <v>3098.3673</v>
       </c>
       <c r="G78" t="n">
-        <v>-353255.53147752</v>
+        <v>-243410.9465904598</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3122,28 +3203,29 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>65.61</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>65.42</v>
+        <v>65.88</v>
       </c>
       <c r="D79" t="n">
-        <v>65.61</v>
+        <v>65.88</v>
       </c>
       <c r="E79" t="n">
-        <v>65.42</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="F79" t="n">
-        <v>10000</v>
+        <v>3028.85898603</v>
       </c>
       <c r="G79" t="n">
-        <v>-363255.53147752</v>
+        <v>-240382.0876044298</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3157,28 +3239,29 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>65.53</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="C80" t="n">
-        <v>65.3</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>65.53</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="E80" t="n">
-        <v>65.29000000000001</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="F80" t="n">
-        <v>41248.3352</v>
+        <v>767.3218000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>-404503.86667752</v>
+        <v>-241149.4094044298</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3192,28 +3275,29 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>65.23999999999999</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="C81" t="n">
-        <v>65.23999999999999</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>65.23999999999999</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="E81" t="n">
-        <v>65.23999999999999</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>379.4187</v>
+        <v>20159.0706</v>
       </c>
       <c r="G81" t="n">
-        <v>-404883.28537752</v>
+        <v>-241149.4094044298</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3227,28 +3311,29 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>65.33</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>65.33</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>65.33</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="E82" t="n">
-        <v>65.33</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="F82" t="n">
-        <v>322.28600341</v>
+        <v>9612.4107</v>
       </c>
       <c r="G82" t="n">
-        <v>-404560.99937411</v>
+        <v>-241149.4094044298</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3262,28 +3347,29 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>65.33</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="C83" t="n">
-        <v>65.18000000000001</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>65.33</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="E83" t="n">
-        <v>65.18000000000001</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="F83" t="n">
-        <v>1252.8943</v>
+        <v>13164</v>
       </c>
       <c r="G83" t="n">
-        <v>-405813.8936741099</v>
+        <v>-254313.4094044298</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3297,28 +3383,29 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>65.3</v>
+        <v>65.52</v>
       </c>
       <c r="C84" t="n">
-        <v>65.3</v>
+        <v>65.52</v>
       </c>
       <c r="D84" t="n">
-        <v>65.3</v>
+        <v>65.52</v>
       </c>
       <c r="E84" t="n">
-        <v>65.3</v>
+        <v>65.52</v>
       </c>
       <c r="F84" t="n">
-        <v>562</v>
+        <v>30.4182</v>
       </c>
       <c r="G84" t="n">
-        <v>-405251.8936741099</v>
+        <v>-254282.9912044298</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3332,28 +3419,29 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>65.33</v>
+        <v>65.56</v>
       </c>
       <c r="C85" t="n">
-        <v>65.33</v>
+        <v>65.64</v>
       </c>
       <c r="D85" t="n">
-        <v>65.33</v>
+        <v>65.64</v>
       </c>
       <c r="E85" t="n">
-        <v>65.33</v>
+        <v>65.53</v>
       </c>
       <c r="F85" t="n">
-        <v>5727.6494</v>
+        <v>69088.60799999999</v>
       </c>
       <c r="G85" t="n">
-        <v>-399524.24427411</v>
+        <v>-185194.3832044298</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3367,28 +3455,29 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>65.2</v>
+        <v>65.62</v>
       </c>
       <c r="C86" t="n">
-        <v>65.11</v>
+        <v>65.62</v>
       </c>
       <c r="D86" t="n">
-        <v>65.2</v>
+        <v>65.62</v>
       </c>
       <c r="E86" t="n">
-        <v>65.11</v>
+        <v>65.62</v>
       </c>
       <c r="F86" t="n">
-        <v>4495.5</v>
+        <v>4286.0969</v>
       </c>
       <c r="G86" t="n">
-        <v>-404019.74427411</v>
+        <v>-189480.4801044298</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3402,28 +3491,29 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>65.39</v>
+        <v>65.62</v>
       </c>
       <c r="C87" t="n">
-        <v>65.39</v>
+        <v>65.62</v>
       </c>
       <c r="D87" t="n">
-        <v>65.39</v>
+        <v>65.62</v>
       </c>
       <c r="E87" t="n">
-        <v>65.39</v>
+        <v>65.62</v>
       </c>
       <c r="F87" t="n">
-        <v>167.1234</v>
+        <v>2647.1812</v>
       </c>
       <c r="G87" t="n">
-        <v>-403852.62087411</v>
+        <v>-189480.4801044298</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3437,28 +3527,29 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>65.45</v>
+        <v>65.62</v>
       </c>
       <c r="C88" t="n">
-        <v>65.45</v>
+        <v>65.62</v>
       </c>
       <c r="D88" t="n">
-        <v>65.45</v>
+        <v>65.62</v>
       </c>
       <c r="E88" t="n">
-        <v>65.45</v>
+        <v>65.62</v>
       </c>
       <c r="F88" t="n">
-        <v>103.5076</v>
+        <v>87.38849999999999</v>
       </c>
       <c r="G88" t="n">
-        <v>-403749.11327411</v>
+        <v>-189480.4801044298</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3472,28 +3563,29 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>65.61</v>
+        <v>65.62</v>
       </c>
       <c r="C89" t="n">
-        <v>65.70999999999999</v>
+        <v>65.62</v>
       </c>
       <c r="D89" t="n">
-        <v>65.70999999999999</v>
+        <v>65.62</v>
       </c>
       <c r="E89" t="n">
-        <v>65.61</v>
+        <v>65.62</v>
       </c>
       <c r="F89" t="n">
-        <v>20062.8383</v>
+        <v>13863.6412</v>
       </c>
       <c r="G89" t="n">
-        <v>-383686.27497411</v>
+        <v>-189480.4801044298</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3507,28 +3599,29 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>66.04000000000001</v>
+        <v>65.47</v>
       </c>
       <c r="C90" t="n">
-        <v>66.04000000000001</v>
+        <v>65.47</v>
       </c>
       <c r="D90" t="n">
-        <v>66.04000000000001</v>
+        <v>65.47</v>
       </c>
       <c r="E90" t="n">
-        <v>66.04000000000001</v>
+        <v>65.47</v>
       </c>
       <c r="F90" t="n">
-        <v>9311</v>
+        <v>1179.2478</v>
       </c>
       <c r="G90" t="n">
-        <v>-374375.27497411</v>
+        <v>-190659.7279044298</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3542,28 +3635,29 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>66.17</v>
+        <v>65.47</v>
       </c>
       <c r="C91" t="n">
-        <v>65.98999999999999</v>
+        <v>65.47</v>
       </c>
       <c r="D91" t="n">
-        <v>66.17</v>
+        <v>65.47</v>
       </c>
       <c r="E91" t="n">
-        <v>65.98999999999999</v>
+        <v>65.47</v>
       </c>
       <c r="F91" t="n">
-        <v>17561.599</v>
+        <v>4184.5697</v>
       </c>
       <c r="G91" t="n">
-        <v>-391936.8739741099</v>
+        <v>-190659.7279044298</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3577,28 +3671,29 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>65.98</v>
+        <v>65.47</v>
       </c>
       <c r="C92" t="n">
-        <v>65.97</v>
+        <v>65.47</v>
       </c>
       <c r="D92" t="n">
-        <v>65.98</v>
+        <v>65.47</v>
       </c>
       <c r="E92" t="n">
-        <v>65.97</v>
+        <v>65.47</v>
       </c>
       <c r="F92" t="n">
-        <v>14442.4189</v>
+        <v>8499.823700000001</v>
       </c>
       <c r="G92" t="n">
-        <v>-406379.2928741099</v>
+        <v>-190659.7279044298</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3612,28 +3707,29 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>65.98</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="C93" t="n">
-        <v>66.17</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D93" t="n">
-        <v>66.17</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E93" t="n">
-        <v>65.98</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="F93" t="n">
-        <v>2013.7205</v>
+        <v>22465.9045</v>
       </c>
       <c r="G93" t="n">
-        <v>-404365.5723741099</v>
+        <v>-168193.8234044298</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3647,28 +3743,29 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>66.28</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C94" t="n">
-        <v>66.01000000000001</v>
+        <v>65.59</v>
       </c>
       <c r="D94" t="n">
-        <v>66.28</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E94" t="n">
-        <v>66.01000000000001</v>
+        <v>65.59</v>
       </c>
       <c r="F94" t="n">
-        <v>16114.2064</v>
+        <v>42134.3203</v>
       </c>
       <c r="G94" t="n">
-        <v>-420479.77877411</v>
+        <v>-210328.1437044298</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3682,28 +3779,29 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>66.15000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="C95" t="n">
-        <v>66.15000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="D95" t="n">
-        <v>66.15000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="E95" t="n">
-        <v>66.15000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="F95" t="n">
-        <v>10988</v>
+        <v>12.2063</v>
       </c>
       <c r="G95" t="n">
-        <v>-409491.77877411</v>
+        <v>-210340.3500044298</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3717,28 +3815,29 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>66.37</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C96" t="n">
-        <v>66.37</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D96" t="n">
-        <v>66.37</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>66.37</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F96" t="n">
-        <v>150.67048365</v>
+        <v>2878.4379</v>
       </c>
       <c r="G96" t="n">
-        <v>-409341.10829046</v>
+        <v>-213218.7879044298</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3752,28 +3851,29 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>66.25</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C97" t="n">
-        <v>66.26000000000001</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D97" t="n">
-        <v>66.26000000000001</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>66.25</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F97" t="n">
-        <v>3452.0365</v>
+        <v>2247.4534</v>
       </c>
       <c r="G97" t="n">
-        <v>-412793.1447904599</v>
+        <v>-213218.7879044298</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3787,28 +3887,29 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>66.31</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>66.31</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>66.31</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>66.31</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F98" t="n">
-        <v>1105.1077</v>
+        <v>1862.5936</v>
       </c>
       <c r="G98" t="n">
-        <v>-411688.03709046</v>
+        <v>-213218.7879044298</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3822,28 +3923,29 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>66.29000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="C99" t="n">
-        <v>66.26000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="D99" t="n">
-        <v>66.29000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="E99" t="n">
-        <v>66.26000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="F99" t="n">
-        <v>2282.5437</v>
+        <v>3399.9</v>
       </c>
       <c r="G99" t="n">
-        <v>-413970.5807904599</v>
+        <v>-216618.6879044298</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3857,28 +3959,29 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>66.26000000000001</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C100" t="n">
-        <v>66.31</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D100" t="n">
-        <v>66.31</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E100" t="n">
-        <v>66.26000000000001</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F100" t="n">
-        <v>871.552</v>
+        <v>553.782</v>
       </c>
       <c r="G100" t="n">
-        <v>-413099.0287904599</v>
+        <v>-216064.9059044298</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3892,28 +3995,29 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>66.31</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>66.31</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>66.31</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E101" t="n">
-        <v>66.31</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F101" t="n">
-        <v>1379.273</v>
+        <v>1002.0482</v>
       </c>
       <c r="G101" t="n">
-        <v>-413099.0287904599</v>
+        <v>-216064.9059044298</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3927,28 +4031,29 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>66.26000000000001</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C102" t="n">
-        <v>66.26000000000001</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>66.26000000000001</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>66.26000000000001</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F102" t="n">
-        <v>13.1048</v>
+        <v>5000</v>
       </c>
       <c r="G102" t="n">
-        <v>-413112.1335904599</v>
+        <v>-216064.9059044298</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3962,28 +4067,29 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>66.25</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>66.25</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>66.25</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>66.25</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F103" t="n">
-        <v>7.5963</v>
+        <v>542.4277</v>
       </c>
       <c r="G103" t="n">
-        <v>-413119.7298904599</v>
+        <v>-216064.9059044298</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -3997,28 +4103,29 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>66.09999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="C104" t="n">
-        <v>66.09999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="D104" t="n">
-        <v>66.09999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="E104" t="n">
-        <v>66.09999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="F104" t="n">
-        <v>589.9226</v>
+        <v>19.9993</v>
       </c>
       <c r="G104" t="n">
-        <v>-413709.6524904598</v>
+        <v>-216084.9052044298</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4139,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>65.84999999999999</v>
+        <v>65.48</v>
       </c>
       <c r="C105" t="n">
-        <v>65.84999999999999</v>
+        <v>65.48</v>
       </c>
       <c r="D105" t="n">
-        <v>65.84999999999999</v>
+        <v>65.48</v>
       </c>
       <c r="E105" t="n">
-        <v>65.84999999999999</v>
+        <v>65.48</v>
       </c>
       <c r="F105" t="n">
-        <v>1733.3337</v>
+        <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>-415442.9861904599</v>
+        <v>-216184.9052044298</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4175,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>65.84</v>
+        <v>65.5</v>
       </c>
       <c r="C106" t="n">
-        <v>65.86</v>
+        <v>65.5</v>
       </c>
       <c r="D106" t="n">
-        <v>65.86</v>
+        <v>65.5</v>
       </c>
       <c r="E106" t="n">
-        <v>65.84</v>
+        <v>65.5</v>
       </c>
       <c r="F106" t="n">
-        <v>1576.89</v>
+        <v>894</v>
       </c>
       <c r="G106" t="n">
-        <v>-413866.0961904599</v>
+        <v>-215290.9052044298</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4211,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>65.81999999999999</v>
+        <v>65.45</v>
       </c>
       <c r="C107" t="n">
-        <v>65.79000000000001</v>
+        <v>65.31</v>
       </c>
       <c r="D107" t="n">
-        <v>65.81999999999999</v>
+        <v>65.45</v>
       </c>
       <c r="E107" t="n">
-        <v>65.79000000000001</v>
+        <v>65.31</v>
       </c>
       <c r="F107" t="n">
-        <v>1003.2249</v>
+        <v>100869.7157</v>
       </c>
       <c r="G107" t="n">
-        <v>-414869.3210904598</v>
+        <v>-316160.6209044298</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4247,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>65.73</v>
+        <v>65.47</v>
       </c>
       <c r="C108" t="n">
-        <v>65.72</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>65.73</v>
+        <v>65.47</v>
       </c>
       <c r="E108" t="n">
-        <v>65.72</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="F108" t="n">
-        <v>802.8881</v>
+        <v>653.7115</v>
       </c>
       <c r="G108" t="n">
-        <v>-415672.2091904598</v>
+        <v>-315506.9094044298</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,28 +4283,29 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>65.8</v>
+        <v>65.5</v>
       </c>
       <c r="C109" t="n">
-        <v>65.8</v>
+        <v>65.5</v>
       </c>
       <c r="D109" t="n">
-        <v>65.8</v>
+        <v>65.5</v>
       </c>
       <c r="E109" t="n">
-        <v>65.8</v>
+        <v>65.5</v>
       </c>
       <c r="F109" t="n">
-        <v>442.016</v>
+        <v>271.1726</v>
       </c>
       <c r="G109" t="n">
-        <v>-415230.1931904598</v>
+        <v>-315235.7368044298</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,28 +4319,29 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>65.7</v>
+        <v>65.5</v>
       </c>
       <c r="C110" t="n">
-        <v>65.95999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="D110" t="n">
-        <v>65.95999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="E110" t="n">
-        <v>65.62</v>
+        <v>65.5</v>
       </c>
       <c r="F110" t="n">
-        <v>110037.8853</v>
+        <v>15760.2</v>
       </c>
       <c r="G110" t="n">
-        <v>-305192.3078904598</v>
+        <v>-315235.7368044298</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4242,28 +4355,29 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>65.93000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="C111" t="n">
-        <v>66.20999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="D111" t="n">
-        <v>66.20999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="E111" t="n">
-        <v>65.84</v>
+        <v>65.5</v>
       </c>
       <c r="F111" t="n">
-        <v>65370.3416</v>
+        <v>14532.5366</v>
       </c>
       <c r="G111" t="n">
-        <v>-239821.9662904598</v>
+        <v>-315235.7368044298</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4277,28 +4391,29 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>66.27</v>
+        <v>65.5</v>
       </c>
       <c r="C112" t="n">
-        <v>66.27</v>
+        <v>65.5</v>
       </c>
       <c r="D112" t="n">
-        <v>66.27</v>
+        <v>65.5</v>
       </c>
       <c r="E112" t="n">
-        <v>66.27</v>
+        <v>65.5</v>
       </c>
       <c r="F112" t="n">
-        <v>1407</v>
+        <v>1979.1402</v>
       </c>
       <c r="G112" t="n">
-        <v>-238414.9662904598</v>
+        <v>-315235.7368044298</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4312,28 +4427,29 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>66.16</v>
+        <v>65.5</v>
       </c>
       <c r="C113" t="n">
-        <v>66.16</v>
+        <v>65.5</v>
       </c>
       <c r="D113" t="n">
-        <v>66.16</v>
+        <v>65.5</v>
       </c>
       <c r="E113" t="n">
-        <v>66.16</v>
+        <v>65.5</v>
       </c>
       <c r="F113" t="n">
-        <v>2634</v>
+        <v>1659.4978</v>
       </c>
       <c r="G113" t="n">
-        <v>-241048.9662904598</v>
+        <v>-315235.7368044298</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4347,28 +4463,29 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>66.37</v>
+        <v>65.5</v>
       </c>
       <c r="C114" t="n">
-        <v>66.37</v>
+        <v>65.5</v>
       </c>
       <c r="D114" t="n">
-        <v>66.37</v>
+        <v>65.5</v>
       </c>
       <c r="E114" t="n">
-        <v>66.37</v>
+        <v>65.5</v>
       </c>
       <c r="F114" t="n">
-        <v>6013.0083</v>
+        <v>1705.7865</v>
       </c>
       <c r="G114" t="n">
-        <v>-235035.9579904598</v>
+        <v>-315235.7368044298</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4382,28 +4499,29 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>66.15000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="C115" t="n">
-        <v>66.08</v>
+        <v>65.5</v>
       </c>
       <c r="D115" t="n">
-        <v>66.15000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="E115" t="n">
-        <v>66.08</v>
+        <v>65.5</v>
       </c>
       <c r="F115" t="n">
-        <v>973.3187</v>
+        <v>1000</v>
       </c>
       <c r="G115" t="n">
-        <v>-236009.2766904598</v>
+        <v>-315235.7368044298</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4417,28 +4535,29 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>66.08</v>
+        <v>65.5</v>
       </c>
       <c r="C116" t="n">
-        <v>66.08</v>
+        <v>65.5</v>
       </c>
       <c r="D116" t="n">
-        <v>66.08</v>
+        <v>65.5</v>
       </c>
       <c r="E116" t="n">
-        <v>66.08</v>
+        <v>65.5</v>
       </c>
       <c r="F116" t="n">
-        <v>482.4979</v>
+        <v>624.93467557</v>
       </c>
       <c r="G116" t="n">
-        <v>-236009.2766904598</v>
+        <v>-315235.7368044298</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4452,28 +4571,29 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>66.08</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="C117" t="n">
-        <v>66.08</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D117" t="n">
-        <v>66.08</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>66.08</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="F117" t="n">
-        <v>178.0385</v>
+        <v>906.5939</v>
       </c>
       <c r="G117" t="n">
-        <v>-236009.2766904598</v>
+        <v>-316142.3307044298</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4487,28 +4607,29 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>66.09</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="C118" t="n">
-        <v>65.87</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>66.09</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>65.87</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="F118" t="n">
-        <v>4682.9994</v>
+        <v>23254.9</v>
       </c>
       <c r="G118" t="n">
-        <v>-240692.2760904598</v>
+        <v>-316142.3307044298</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4522,28 +4643,29 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>65.89</v>
+        <v>65.44</v>
       </c>
       <c r="C119" t="n">
-        <v>65.89</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>65.89</v>
+        <v>65.44</v>
       </c>
       <c r="E119" t="n">
-        <v>65.89</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>379.6968</v>
+        <v>2057</v>
       </c>
       <c r="G119" t="n">
-        <v>-240312.5792904598</v>
+        <v>-318199.3307044298</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4557,28 +4679,29 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>65.87</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>65.87</v>
+        <v>65.41</v>
       </c>
       <c r="D120" t="n">
-        <v>65.87</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>65.87</v>
+        <v>65.41</v>
       </c>
       <c r="F120" t="n">
-        <v>3098.3673</v>
+        <v>34904.7561</v>
       </c>
       <c r="G120" t="n">
-        <v>-243410.9465904598</v>
+        <v>-353104.0868044298</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4592,28 +4715,29 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>65.79000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="C121" t="n">
-        <v>65.88</v>
+        <v>65.53</v>
       </c>
       <c r="D121" t="n">
-        <v>65.88</v>
+        <v>65.53</v>
       </c>
       <c r="E121" t="n">
-        <v>65.79000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="F121" t="n">
-        <v>3028.85898603</v>
+        <v>758.0258</v>
       </c>
       <c r="G121" t="n">
-        <v>-240382.0876044298</v>
+        <v>-352346.0610044298</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4627,28 +4751,29 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>65.45999999999999</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>65.45999999999999</v>
+        <v>65.73</v>
       </c>
       <c r="D122" t="n">
-        <v>65.45999999999999</v>
+        <v>65.73</v>
       </c>
       <c r="E122" t="n">
-        <v>65.45999999999999</v>
+        <v>65.63</v>
       </c>
       <c r="F122" t="n">
-        <v>767.3218000000001</v>
+        <v>23600</v>
       </c>
       <c r="G122" t="n">
-        <v>-241149.4094044298</v>
+        <v>-328746.0610044298</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4662,28 +4787,29 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>65.45999999999999</v>
+        <v>65.86</v>
       </c>
       <c r="C123" t="n">
-        <v>65.45999999999999</v>
+        <v>65.86</v>
       </c>
       <c r="D123" t="n">
-        <v>65.45999999999999</v>
+        <v>65.86</v>
       </c>
       <c r="E123" t="n">
-        <v>65.45999999999999</v>
+        <v>65.86</v>
       </c>
       <c r="F123" t="n">
-        <v>20159.0706</v>
+        <v>1330.00303674</v>
       </c>
       <c r="G123" t="n">
-        <v>-241149.4094044298</v>
+        <v>-327416.0579676898</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4697,67 +4823,65 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>65.45999999999999</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>65.45999999999999</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>65.45999999999999</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>65.45999999999999</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>9612.4107</v>
+        <v>388.2954</v>
       </c>
       <c r="G124" t="n">
-        <v>-241149.4094044298</v>
+        <v>-327804.3533676898</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>65.45999999999999</v>
-      </c>
-      <c r="K124" t="n">
-        <v>65.45999999999999</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>65.34999999999999</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="C125" t="n">
-        <v>65.34999999999999</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="D125" t="n">
-        <v>65.34999999999999</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="E125" t="n">
-        <v>65.34999999999999</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="F125" t="n">
-        <v>13164</v>
+        <v>68.6734</v>
       </c>
       <c r="G125" t="n">
-        <v>-254313.4094044298</v>
+        <v>-327804.3533676898</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4766,39 +4890,34 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>65.45999999999999</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>65.52</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>65.52</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>65.52</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>65.52</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="F126" t="n">
-        <v>30.4182</v>
+        <v>5519.1443</v>
       </c>
       <c r="G126" t="n">
-        <v>-254282.9912044298</v>
+        <v>-322285.2090676898</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4807,39 +4926,34 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>65.45999999999999</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>65.56</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="C127" t="n">
-        <v>65.64</v>
+        <v>65.78</v>
       </c>
       <c r="D127" t="n">
-        <v>65.64</v>
+        <v>65.78</v>
       </c>
       <c r="E127" t="n">
-        <v>65.53</v>
+        <v>65.68000000000001</v>
       </c>
       <c r="F127" t="n">
-        <v>69088.60799999999</v>
+        <v>428.6</v>
       </c>
       <c r="G127" t="n">
-        <v>-185194.3832044298</v>
+        <v>-321856.6090676899</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4853,28 +4967,29 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>65.62</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>65.62</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="D128" t="n">
-        <v>65.62</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>65.62</v>
+        <v>66.06999999999999</v>
       </c>
       <c r="F128" t="n">
-        <v>4286.0969</v>
+        <v>8</v>
       </c>
       <c r="G128" t="n">
-        <v>-189480.4801044298</v>
+        <v>-321848.6090676899</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4888,28 +5003,29 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>65.62</v>
+        <v>66.09</v>
       </c>
       <c r="C129" t="n">
-        <v>65.62</v>
+        <v>66.09</v>
       </c>
       <c r="D129" t="n">
-        <v>65.62</v>
+        <v>66.09</v>
       </c>
       <c r="E129" t="n">
-        <v>65.62</v>
+        <v>66.09</v>
       </c>
       <c r="F129" t="n">
-        <v>2647.1812</v>
+        <v>10</v>
       </c>
       <c r="G129" t="n">
-        <v>-189480.4801044298</v>
+        <v>-321838.6090676899</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -4923,28 +5039,29 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>65.62</v>
+        <v>65.81</v>
       </c>
       <c r="C130" t="n">
-        <v>65.62</v>
+        <v>65.81</v>
       </c>
       <c r="D130" t="n">
-        <v>65.62</v>
+        <v>65.81</v>
       </c>
       <c r="E130" t="n">
-        <v>65.62</v>
+        <v>65.81</v>
       </c>
       <c r="F130" t="n">
-        <v>87.38849999999999</v>
+        <v>7.5977</v>
       </c>
       <c r="G130" t="n">
-        <v>-189480.4801044298</v>
+        <v>-321846.2067676898</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -4958,28 +5075,29 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>65.62</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C131" t="n">
-        <v>65.62</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D131" t="n">
-        <v>65.62</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E131" t="n">
-        <v>65.62</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F131" t="n">
-        <v>13863.6412</v>
+        <v>8</v>
       </c>
       <c r="G131" t="n">
-        <v>-189480.4801044298</v>
+        <v>-321838.2067676898</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -4993,28 +5111,29 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>65.47</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C132" t="n">
-        <v>65.47</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>65.47</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E132" t="n">
-        <v>65.47</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F132" t="n">
-        <v>1179.2478</v>
+        <v>2122.2066</v>
       </c>
       <c r="G132" t="n">
-        <v>-190659.7279044298</v>
+        <v>-321838.2067676898</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5028,28 +5147,29 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>65.47</v>
+        <v>66</v>
       </c>
       <c r="C133" t="n">
-        <v>65.47</v>
+        <v>66</v>
       </c>
       <c r="D133" t="n">
-        <v>65.47</v>
+        <v>66</v>
       </c>
       <c r="E133" t="n">
-        <v>65.47</v>
+        <v>66</v>
       </c>
       <c r="F133" t="n">
-        <v>4184.5697</v>
+        <v>10881.87878787</v>
       </c>
       <c r="G133" t="n">
-        <v>-190659.7279044298</v>
+        <v>-332720.0855555598</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5063,28 +5183,29 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>65.47</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>65.47</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>65.47</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>65.47</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>8499.823700000001</v>
+        <v>1646.7832</v>
       </c>
       <c r="G134" t="n">
-        <v>-190659.7279044298</v>
+        <v>-334366.8687555598</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5098,28 +5219,29 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>65.45999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="C135" t="n">
-        <v>65.59999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="D135" t="n">
-        <v>65.59999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="E135" t="n">
-        <v>65.45999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="F135" t="n">
-        <v>22465.9045</v>
+        <v>125</v>
       </c>
       <c r="G135" t="n">
-        <v>-168193.8234044298</v>
+        <v>-334241.8687555598</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5133,28 +5255,29 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>65.59999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="C136" t="n">
-        <v>65.59</v>
+        <v>65.7</v>
       </c>
       <c r="D136" t="n">
-        <v>65.59999999999999</v>
+        <v>65.7</v>
       </c>
       <c r="E136" t="n">
-        <v>65.59</v>
+        <v>65.7</v>
       </c>
       <c r="F136" t="n">
-        <v>42134.3203</v>
+        <v>60</v>
       </c>
       <c r="G136" t="n">
-        <v>-210328.1437044298</v>
+        <v>-334301.8687555598</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5168,28 +5291,29 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>65.53</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>65.53</v>
+        <v>65.56</v>
       </c>
       <c r="D137" t="n">
-        <v>65.53</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="E137" t="n">
-        <v>65.53</v>
+        <v>65.56</v>
       </c>
       <c r="F137" t="n">
-        <v>12.2063</v>
+        <v>22769.4747</v>
       </c>
       <c r="G137" t="n">
-        <v>-210340.3500044298</v>
+        <v>-357071.3434555599</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5203,28 +5327,29 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>65.51000000000001</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="C138" t="n">
-        <v>65.51000000000001</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>65.51000000000001</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="E138" t="n">
-        <v>65.51000000000001</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="F138" t="n">
-        <v>2878.4379</v>
+        <v>7.61</v>
       </c>
       <c r="G138" t="n">
-        <v>-213218.7879044298</v>
+        <v>-357063.7334555599</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5238,153 +5363,137 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>65.51000000000001</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>65.51000000000001</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>65.51000000000001</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>65.51000000000001</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>2247.4534</v>
+        <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>-213218.7879044298</v>
+        <v>-357063.7334555599</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="K139" t="n">
-        <v>65.51000000000001</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>65.51000000000001</v>
+        <v>65.69</v>
       </c>
       <c r="C140" t="n">
-        <v>65.51000000000001</v>
+        <v>65.69</v>
       </c>
       <c r="D140" t="n">
-        <v>65.51000000000001</v>
+        <v>65.69</v>
       </c>
       <c r="E140" t="n">
-        <v>65.51000000000001</v>
+        <v>65.69</v>
       </c>
       <c r="F140" t="n">
-        <v>1862.5936</v>
+        <v>150.0806</v>
       </c>
       <c r="G140" t="n">
-        <v>-213218.7879044298</v>
+        <v>-357213.8140555599</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="K140" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>65.5</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="C141" t="n">
-        <v>65.5</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>65.5</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>65.5</v>
+        <v>65.76000000000001</v>
       </c>
       <c r="F141" t="n">
-        <v>3399.9</v>
+        <v>8</v>
       </c>
       <c r="G141" t="n">
-        <v>-216618.6879044298</v>
+        <v>-357205.8140555599</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="K141" t="n">
-        <v>65.51000000000001</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>65.51000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="C142" t="n">
-        <v>65.51000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="D142" t="n">
-        <v>65.51000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="E142" t="n">
-        <v>65.51000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="F142" t="n">
-        <v>553.782</v>
+        <v>801</v>
       </c>
       <c r="G142" t="n">
-        <v>-216064.9059044298</v>
+        <v>-358006.8140555599</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5398,28 +5507,29 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>65.51000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="C143" t="n">
-        <v>65.51000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="D143" t="n">
-        <v>65.51000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="E143" t="n">
-        <v>65.51000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="F143" t="n">
-        <v>1002.0482</v>
+        <v>376.5661</v>
       </c>
       <c r="G143" t="n">
-        <v>-216064.9059044298</v>
+        <v>-358006.8140555599</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5433,28 +5543,29 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>65.51000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="C144" t="n">
-        <v>65.51000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="D144" t="n">
-        <v>65.51000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="E144" t="n">
-        <v>65.51000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="F144" t="n">
-        <v>5000</v>
+        <v>53.1546</v>
       </c>
       <c r="G144" t="n">
-        <v>-216064.9059044298</v>
+        <v>-358006.8140555599</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5468,28 +5579,29 @@
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>65.51000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="C145" t="n">
-        <v>65.51000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="D145" t="n">
-        <v>65.51000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="E145" t="n">
-        <v>65.51000000000001</v>
+        <v>65.83</v>
       </c>
       <c r="F145" t="n">
-        <v>542.4277</v>
+        <v>7574.217</v>
       </c>
       <c r="G145" t="n">
-        <v>-216064.9059044298</v>
+        <v>-350432.5970555599</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5503,28 +5615,29 @@
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>65.5</v>
+        <v>66</v>
       </c>
       <c r="C146" t="n">
-        <v>65.5</v>
+        <v>66</v>
       </c>
       <c r="D146" t="n">
-        <v>65.5</v>
+        <v>66</v>
       </c>
       <c r="E146" t="n">
-        <v>65.5</v>
+        <v>66</v>
       </c>
       <c r="F146" t="n">
-        <v>19.9993</v>
+        <v>12084.1848</v>
       </c>
       <c r="G146" t="n">
-        <v>-216084.9052044298</v>
+        <v>-338348.4122555599</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5538,28 +5651,29 @@
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>65.48</v>
+        <v>66.09</v>
       </c>
       <c r="C147" t="n">
-        <v>65.48</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D147" t="n">
-        <v>65.48</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E147" t="n">
-        <v>65.48</v>
+        <v>66.09</v>
       </c>
       <c r="F147" t="n">
-        <v>100</v>
+        <v>27780.6214</v>
       </c>
       <c r="G147" t="n">
-        <v>-216184.9052044298</v>
+        <v>-310567.7908555599</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5573,28 +5687,29 @@
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>65.5</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>65.5</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D148" t="n">
-        <v>65.5</v>
+        <v>66.34</v>
       </c>
       <c r="E148" t="n">
-        <v>65.5</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F148" t="n">
-        <v>894</v>
+        <v>20927.6993</v>
       </c>
       <c r="G148" t="n">
-        <v>-215290.9052044298</v>
+        <v>-289640.0915555599</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5608,28 +5723,29 @@
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>65.45</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="C149" t="n">
-        <v>65.31</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D149" t="n">
-        <v>65.45</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="E149" t="n">
-        <v>65.31</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="F149" t="n">
-        <v>100869.7157</v>
+        <v>1202.3734</v>
       </c>
       <c r="G149" t="n">
-        <v>-316160.6209044298</v>
+        <v>-289640.0915555599</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5643,28 +5759,29 @@
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>65.47</v>
+        <v>66.3</v>
       </c>
       <c r="C150" t="n">
-        <v>65.43000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="D150" t="n">
-        <v>65.47</v>
+        <v>66.3</v>
       </c>
       <c r="E150" t="n">
-        <v>65.43000000000001</v>
+        <v>66.3</v>
       </c>
       <c r="F150" t="n">
-        <v>653.7115</v>
+        <v>618.9</v>
       </c>
       <c r="G150" t="n">
-        <v>-315506.9094044298</v>
+        <v>-289021.1915555599</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5678,28 +5795,29 @@
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>65.5</v>
+        <v>66.3</v>
       </c>
       <c r="C151" t="n">
-        <v>65.5</v>
+        <v>66.3</v>
       </c>
       <c r="D151" t="n">
-        <v>65.5</v>
+        <v>66.3</v>
       </c>
       <c r="E151" t="n">
-        <v>65.5</v>
+        <v>66.3</v>
       </c>
       <c r="F151" t="n">
-        <v>271.1726</v>
+        <v>64.45140000000001</v>
       </c>
       <c r="G151" t="n">
-        <v>-315235.7368044298</v>
+        <v>-289021.1915555599</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5713,28 +5831,29 @@
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>65.5</v>
+        <v>66.37</v>
       </c>
       <c r="C152" t="n">
-        <v>65.5</v>
+        <v>66.37</v>
       </c>
       <c r="D152" t="n">
-        <v>65.5</v>
+        <v>66.37</v>
       </c>
       <c r="E152" t="n">
-        <v>65.5</v>
+        <v>66.37</v>
       </c>
       <c r="F152" t="n">
-        <v>15760.2</v>
+        <v>201.2688</v>
       </c>
       <c r="G152" t="n">
-        <v>-315235.7368044298</v>
+        <v>-288819.9227555598</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5748,28 +5867,29 @@
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>65.5</v>
+        <v>66.3</v>
       </c>
       <c r="C153" t="n">
-        <v>65.5</v>
+        <v>66.3</v>
       </c>
       <c r="D153" t="n">
-        <v>65.5</v>
+        <v>66.3</v>
       </c>
       <c r="E153" t="n">
-        <v>65.5</v>
+        <v>66.3</v>
       </c>
       <c r="F153" t="n">
-        <v>14532.5366</v>
+        <v>905.9446</v>
       </c>
       <c r="G153" t="n">
-        <v>-315235.7368044298</v>
+        <v>-289725.8673555598</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5783,28 +5903,29 @@
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>65.5</v>
+        <v>66.37</v>
       </c>
       <c r="C154" t="n">
-        <v>65.5</v>
+        <v>66.37</v>
       </c>
       <c r="D154" t="n">
-        <v>65.5</v>
+        <v>66.37</v>
       </c>
       <c r="E154" t="n">
-        <v>65.5</v>
+        <v>66.37</v>
       </c>
       <c r="F154" t="n">
-        <v>1979.1402</v>
+        <v>943.5469000000001</v>
       </c>
       <c r="G154" t="n">
-        <v>-315235.7368044298</v>
+        <v>-288782.3204555598</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5818,28 +5939,29 @@
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>65.5</v>
+        <v>66.31</v>
       </c>
       <c r="C155" t="n">
-        <v>65.5</v>
+        <v>66.31</v>
       </c>
       <c r="D155" t="n">
-        <v>65.5</v>
+        <v>66.31</v>
       </c>
       <c r="E155" t="n">
-        <v>65.5</v>
+        <v>66.31</v>
       </c>
       <c r="F155" t="n">
-        <v>1659.4978</v>
+        <v>445.5565</v>
       </c>
       <c r="G155" t="n">
-        <v>-315235.7368044298</v>
+        <v>-289227.8769555598</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5853,28 +5975,29 @@
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>65.5</v>
+        <v>66.48</v>
       </c>
       <c r="C156" t="n">
-        <v>65.5</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D156" t="n">
-        <v>65.5</v>
+        <v>66.48</v>
       </c>
       <c r="E156" t="n">
-        <v>65.5</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="F156" t="n">
-        <v>1705.7865</v>
+        <v>2536.838</v>
       </c>
       <c r="G156" t="n">
-        <v>-315235.7368044298</v>
+        <v>-291764.7149555598</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5888,28 +6011,29 @@
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>65.5</v>
+        <v>66.2</v>
       </c>
       <c r="C157" t="n">
-        <v>65.5</v>
+        <v>66.2</v>
       </c>
       <c r="D157" t="n">
-        <v>65.5</v>
+        <v>66.2</v>
       </c>
       <c r="E157" t="n">
-        <v>65.5</v>
+        <v>66.2</v>
       </c>
       <c r="F157" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="G157" t="n">
-        <v>-315235.7368044298</v>
+        <v>-291778.7149555598</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5923,28 +6047,29 @@
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>65.5</v>
+        <v>66.2</v>
       </c>
       <c r="C158" t="n">
-        <v>65.5</v>
+        <v>66.08</v>
       </c>
       <c r="D158" t="n">
-        <v>65.5</v>
+        <v>66.2</v>
       </c>
       <c r="E158" t="n">
-        <v>65.5</v>
+        <v>66.08</v>
       </c>
       <c r="F158" t="n">
-        <v>624.93467557</v>
+        <v>1911.0111</v>
       </c>
       <c r="G158" t="n">
-        <v>-315235.7368044298</v>
+        <v>-293689.7260555598</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -5958,28 +6083,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>65.48999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="C159" t="n">
-        <v>65.48999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="D159" t="n">
-        <v>65.48999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="E159" t="n">
-        <v>65.48999999999999</v>
+        <v>66.31</v>
       </c>
       <c r="F159" t="n">
-        <v>906.5939</v>
+        <v>8</v>
       </c>
       <c r="G159" t="n">
-        <v>-316142.3307044298</v>
+        <v>-293681.7260555598</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -5993,28 +6119,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>65.48999999999999</v>
+        <v>66.25</v>
       </c>
       <c r="C160" t="n">
-        <v>65.48999999999999</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="D160" t="n">
-        <v>65.48999999999999</v>
+        <v>66.25</v>
       </c>
       <c r="E160" t="n">
-        <v>65.48999999999999</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="F160" t="n">
-        <v>23254.9</v>
+        <v>9027.270699999999</v>
       </c>
       <c r="G160" t="n">
-        <v>-316142.3307044298</v>
+        <v>-302708.9967555598</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6028,28 +6155,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>65.44</v>
+        <v>66</v>
       </c>
       <c r="C161" t="n">
-        <v>65.43000000000001</v>
+        <v>65.94</v>
       </c>
       <c r="D161" t="n">
-        <v>65.44</v>
+        <v>66</v>
       </c>
       <c r="E161" t="n">
-        <v>65.43000000000001</v>
+        <v>65.94</v>
       </c>
       <c r="F161" t="n">
-        <v>2057</v>
+        <v>8216.1494</v>
       </c>
       <c r="G161" t="n">
-        <v>-318199.3307044298</v>
+        <v>-310925.1461555598</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6063,28 +6191,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>65.43000000000001</v>
+        <v>65.94</v>
       </c>
       <c r="C162" t="n">
-        <v>65.41</v>
+        <v>65.94</v>
       </c>
       <c r="D162" t="n">
-        <v>65.43000000000001</v>
+        <v>65.94</v>
       </c>
       <c r="E162" t="n">
-        <v>65.41</v>
+        <v>65.94</v>
       </c>
       <c r="F162" t="n">
-        <v>34904.7561</v>
+        <v>97.3241</v>
       </c>
       <c r="G162" t="n">
-        <v>-353104.0868044298</v>
+        <v>-310925.1461555598</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6098,28 +6227,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>65.53</v>
+        <v>65.92</v>
       </c>
       <c r="C163" t="n">
-        <v>65.53</v>
+        <v>65.92</v>
       </c>
       <c r="D163" t="n">
-        <v>65.53</v>
+        <v>65.92</v>
       </c>
       <c r="E163" t="n">
-        <v>65.53</v>
+        <v>65.92</v>
       </c>
       <c r="F163" t="n">
-        <v>758.0258</v>
+        <v>1043.6572</v>
       </c>
       <c r="G163" t="n">
-        <v>-352346.0610044298</v>
+        <v>-311968.8033555598</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6133,28 +6263,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>65.68000000000001</v>
+        <v>65.92</v>
       </c>
       <c r="C164" t="n">
-        <v>65.73</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D164" t="n">
-        <v>65.73</v>
+        <v>65.92</v>
       </c>
       <c r="E164" t="n">
-        <v>65.63</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F164" t="n">
-        <v>23600</v>
+        <v>386</v>
       </c>
       <c r="G164" t="n">
-        <v>-328746.0610044298</v>
+        <v>-312354.8033555598</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6168,28 +6299,29 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
+      <c r="N164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>65.86</v>
+        <v>65.91</v>
       </c>
       <c r="C165" t="n">
-        <v>65.86</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D165" t="n">
-        <v>65.86</v>
+        <v>65.91</v>
       </c>
       <c r="E165" t="n">
-        <v>65.86</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F165" t="n">
-        <v>1330.00303674</v>
+        <v>1762.7673</v>
       </c>
       <c r="G165" t="n">
-        <v>-327416.0579676898</v>
+        <v>-312354.8033555598</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6203,28 +6335,29 @@
       <c r="M165" t="n">
         <v>1</v>
       </c>
+      <c r="N165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>65.65000000000001</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>65.65000000000001</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="D166" t="n">
-        <v>65.65000000000001</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="E166" t="n">
-        <v>65.65000000000001</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="F166" t="n">
-        <v>388.2954</v>
+        <v>3302.5795</v>
       </c>
       <c r="G166" t="n">
-        <v>-327804.3533676898</v>
+        <v>-309052.2238555598</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6238,28 +6371,29 @@
       <c r="M166" t="n">
         <v>1</v>
       </c>
+      <c r="N166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>65.65000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="C167" t="n">
-        <v>65.65000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="D167" t="n">
-        <v>65.65000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="E167" t="n">
-        <v>65.65000000000001</v>
+        <v>65.72</v>
       </c>
       <c r="F167" t="n">
-        <v>68.6734</v>
+        <v>300</v>
       </c>
       <c r="G167" t="n">
-        <v>-327804.3533676898</v>
+        <v>-309352.2238555598</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6273,28 +6407,29 @@
       <c r="M167" t="n">
         <v>1</v>
       </c>
+      <c r="N167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>65.68000000000001</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="C168" t="n">
-        <v>65.68000000000001</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="D168" t="n">
-        <v>65.68000000000001</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="E168" t="n">
-        <v>65.68000000000001</v>
+        <v>65.73999999999999</v>
       </c>
       <c r="F168" t="n">
-        <v>5519.1443</v>
+        <v>9300</v>
       </c>
       <c r="G168" t="n">
-        <v>-322285.2090676898</v>
+        <v>-300052.2238555598</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6308,28 +6443,29 @@
       <c r="M168" t="n">
         <v>1</v>
       </c>
+      <c r="N168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>65.68000000000001</v>
+        <v>65.81</v>
       </c>
       <c r="C169" t="n">
-        <v>65.78</v>
+        <v>65.81</v>
       </c>
       <c r="D169" t="n">
-        <v>65.78</v>
+        <v>65.81</v>
       </c>
       <c r="E169" t="n">
-        <v>65.68000000000001</v>
+        <v>65.81</v>
       </c>
       <c r="F169" t="n">
-        <v>428.6</v>
+        <v>100</v>
       </c>
       <c r="G169" t="n">
-        <v>-321856.6090676899</v>
+        <v>-299952.2238555598</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6343,28 +6479,29 @@
       <c r="M169" t="n">
         <v>1</v>
       </c>
+      <c r="N169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>66.06999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="C170" t="n">
-        <v>66.06999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="D170" t="n">
-        <v>66.06999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="E170" t="n">
-        <v>66.06999999999999</v>
+        <v>65.8</v>
       </c>
       <c r="F170" t="n">
-        <v>8</v>
+        <v>23.2521</v>
       </c>
       <c r="G170" t="n">
-        <v>-321848.6090676899</v>
+        <v>-299975.4759555598</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6378,28 +6515,29 @@
       <c r="M170" t="n">
         <v>1</v>
       </c>
+      <c r="N170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>66.09</v>
+        <v>65.8</v>
       </c>
       <c r="C171" t="n">
-        <v>66.09</v>
+        <v>65.8</v>
       </c>
       <c r="D171" t="n">
-        <v>66.09</v>
+        <v>65.8</v>
       </c>
       <c r="E171" t="n">
-        <v>66.09</v>
+        <v>65.8</v>
       </c>
       <c r="F171" t="n">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="G171" t="n">
-        <v>-321838.6090676899</v>
+        <v>-299975.4759555598</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6413,28 +6551,29 @@
       <c r="M171" t="n">
         <v>1</v>
       </c>
+      <c r="N171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>65.81</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="C172" t="n">
-        <v>65.81</v>
+        <v>65.72</v>
       </c>
       <c r="D172" t="n">
-        <v>65.81</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="E172" t="n">
-        <v>65.81</v>
+        <v>65.72</v>
       </c>
       <c r="F172" t="n">
-        <v>7.5977</v>
+        <v>1346.1019</v>
       </c>
       <c r="G172" t="n">
-        <v>-321846.2067676898</v>
+        <v>-301321.5778555598</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6448,28 +6587,29 @@
       <c r="M172" t="n">
         <v>1</v>
       </c>
+      <c r="N172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>66.09999999999999</v>
+        <v>65.72</v>
       </c>
       <c r="C173" t="n">
-        <v>66.09999999999999</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D173" t="n">
-        <v>66.09999999999999</v>
+        <v>65.72</v>
       </c>
       <c r="E173" t="n">
-        <v>66.09999999999999</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="F173" t="n">
-        <v>8</v>
+        <v>2659.2231</v>
       </c>
       <c r="G173" t="n">
-        <v>-321838.2067676898</v>
+        <v>-303980.8009555598</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6483,28 +6623,29 @@
       <c r="M173" t="n">
         <v>1</v>
       </c>
+      <c r="N173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>66.09999999999999</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="C174" t="n">
-        <v>66.09999999999999</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D174" t="n">
-        <v>66.09999999999999</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="E174" t="n">
-        <v>66.09999999999999</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="F174" t="n">
-        <v>2122.2066</v>
+        <v>0.143</v>
       </c>
       <c r="G174" t="n">
-        <v>-321838.2067676898</v>
+        <v>-303980.8009555598</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6518,133 +6659,157 @@
       <c r="M174" t="n">
         <v>1</v>
       </c>
+      <c r="N174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>66</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="C175" t="n">
-        <v>66</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D175" t="n">
-        <v>66</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="E175" t="n">
-        <v>66</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="F175" t="n">
-        <v>10881.87878787</v>
+        <v>734.8366</v>
       </c>
       <c r="G175" t="n">
-        <v>-332720.0855555598</v>
+        <v>-303980.8009555598</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="K175" t="n">
+        <v>65.48999999999999</v>
+      </c>
       <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
+      <c r="N175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>65.56999999999999</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="C176" t="n">
-        <v>65.56999999999999</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="D176" t="n">
-        <v>65.56999999999999</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="E176" t="n">
-        <v>65.56999999999999</v>
+        <v>65.48999999999999</v>
       </c>
       <c r="F176" t="n">
-        <v>1646.7832</v>
+        <v>3266.1977</v>
       </c>
       <c r="G176" t="n">
-        <v>-334366.8687555598</v>
+        <v>-303980.8009555598</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="K176" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
+      <c r="N176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>65.8</v>
+        <v>65.56</v>
       </c>
       <c r="C177" t="n">
-        <v>65.8</v>
+        <v>65.56</v>
       </c>
       <c r="D177" t="n">
-        <v>65.8</v>
+        <v>65.56</v>
       </c>
       <c r="E177" t="n">
-        <v>65.8</v>
+        <v>65.56</v>
       </c>
       <c r="F177" t="n">
-        <v>125</v>
+        <v>14632.5904</v>
       </c>
       <c r="G177" t="n">
-        <v>-334241.8687555598</v>
+        <v>-289348.2105555598</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="K177" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
+      <c r="N177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>65.7</v>
+        <v>65.41</v>
       </c>
       <c r="C178" t="n">
-        <v>65.7</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="D178" t="n">
-        <v>65.7</v>
+        <v>65.41</v>
       </c>
       <c r="E178" t="n">
-        <v>65.7</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="F178" t="n">
-        <v>60</v>
+        <v>5000</v>
       </c>
       <c r="G178" t="n">
-        <v>-334301.8687555598</v>
+        <v>-294348.2105555598</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6658,1882 +6823,343 @@
       <c r="M178" t="n">
         <v>1</v>
       </c>
+      <c r="N178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>65.76000000000001</v>
+        <v>65.25</v>
       </c>
       <c r="C179" t="n">
-        <v>65.56</v>
+        <v>65</v>
       </c>
       <c r="D179" t="n">
-        <v>65.76000000000001</v>
+        <v>65.25</v>
       </c>
       <c r="E179" t="n">
-        <v>65.56</v>
+        <v>65</v>
       </c>
       <c r="F179" t="n">
-        <v>22769.4747</v>
+        <v>42101.5272</v>
       </c>
       <c r="G179" t="n">
-        <v>-357071.3434555599</v>
+        <v>-336449.7377555599</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>65.26000000000001</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
+      <c r="N179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>65.79000000000001</v>
+        <v>64.95</v>
       </c>
       <c r="C180" t="n">
-        <v>65.79000000000001</v>
+        <v>65.17</v>
       </c>
       <c r="D180" t="n">
-        <v>65.79000000000001</v>
+        <v>65.17</v>
       </c>
       <c r="E180" t="n">
-        <v>65.79000000000001</v>
+        <v>64.94</v>
       </c>
       <c r="F180" t="n">
-        <v>7.61</v>
+        <v>20261.0947</v>
       </c>
       <c r="G180" t="n">
-        <v>-357063.7334555599</v>
+        <v>-316188.6430555598</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>65</v>
+      </c>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
+      <c r="N180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>65.79000000000001</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="C181" t="n">
-        <v>65.79000000000001</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="D181" t="n">
-        <v>65.79000000000001</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="E181" t="n">
-        <v>65.79000000000001</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="F181" t="n">
-        <v>10</v>
+        <v>2619.4576</v>
       </c>
       <c r="G181" t="n">
-        <v>-357063.7334555599</v>
+        <v>-313569.1854555598</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>65.17</v>
+      </c>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
+      <c r="N181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>65.69</v>
+        <v>65.19</v>
       </c>
       <c r="C182" t="n">
-        <v>65.69</v>
+        <v>65.13</v>
       </c>
       <c r="D182" t="n">
-        <v>65.69</v>
+        <v>65.19</v>
       </c>
       <c r="E182" t="n">
-        <v>65.69</v>
+        <v>65.13</v>
       </c>
       <c r="F182" t="n">
-        <v>150.0806</v>
+        <v>1879.1145</v>
       </c>
       <c r="G182" t="n">
-        <v>-357213.8140555599</v>
+        <v>-315448.2999555598</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>65.18000000000001</v>
+      </c>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
+      <c r="N182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>65.76000000000001</v>
+        <v>65.38</v>
       </c>
       <c r="C183" t="n">
-        <v>65.76000000000001</v>
+        <v>65.44</v>
       </c>
       <c r="D183" t="n">
-        <v>65.76000000000001</v>
+        <v>65.44</v>
       </c>
       <c r="E183" t="n">
-        <v>65.76000000000001</v>
+        <v>65.38</v>
       </c>
       <c r="F183" t="n">
-        <v>8</v>
+        <v>7564.90525672</v>
       </c>
       <c r="G183" t="n">
-        <v>-357205.8140555599</v>
+        <v>-307883.3946988398</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>65.13</v>
+      </c>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
+      <c r="N183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>65.72</v>
+        <v>65.23</v>
       </c>
       <c r="C184" t="n">
-        <v>65.72</v>
+        <v>65.23</v>
       </c>
       <c r="D184" t="n">
-        <v>65.72</v>
+        <v>65.23</v>
       </c>
       <c r="E184" t="n">
-        <v>65.72</v>
+        <v>65.23</v>
       </c>
       <c r="F184" t="n">
-        <v>801</v>
+        <v>200</v>
       </c>
       <c r="G184" t="n">
-        <v>-358006.8140555599</v>
+        <v>-308083.3946988398</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>65.44</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
+      <c r="N184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>65.72</v>
+        <v>65.44</v>
       </c>
       <c r="C185" t="n">
-        <v>65.72</v>
+        <v>65.44</v>
       </c>
       <c r="D185" t="n">
-        <v>65.72</v>
+        <v>65.44</v>
       </c>
       <c r="E185" t="n">
-        <v>65.72</v>
+        <v>65.44</v>
       </c>
       <c r="F185" t="n">
-        <v>376.5661</v>
+        <v>8</v>
       </c>
       <c r="G185" t="n">
-        <v>-358006.8140555599</v>
+        <v>-308075.3946988398</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>65.23</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
+      <c r="N185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>65.72</v>
+        <v>65.39</v>
       </c>
       <c r="C186" t="n">
-        <v>65.72</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="D186" t="n">
-        <v>65.72</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="E186" t="n">
-        <v>65.72</v>
+        <v>65.39</v>
       </c>
       <c r="F186" t="n">
-        <v>53.1546</v>
+        <v>4761.136</v>
       </c>
       <c r="G186" t="n">
-        <v>-358006.8140555599</v>
+        <v>-303314.2586988398</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>65.44</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>65.83</v>
-      </c>
-      <c r="C187" t="n">
-        <v>65.83</v>
-      </c>
-      <c r="D187" t="n">
-        <v>65.83</v>
-      </c>
-      <c r="E187" t="n">
-        <v>65.83</v>
-      </c>
-      <c r="F187" t="n">
-        <v>7574.217</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-350432.5970555599</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>66</v>
-      </c>
-      <c r="C188" t="n">
-        <v>66</v>
-      </c>
-      <c r="D188" t="n">
-        <v>66</v>
-      </c>
-      <c r="E188" t="n">
-        <v>66</v>
-      </c>
-      <c r="F188" t="n">
-        <v>12084.1848</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-338348.4122555599</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>66.09</v>
-      </c>
-      <c r="C189" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="D189" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="E189" t="n">
-        <v>66.09</v>
-      </c>
-      <c r="F189" t="n">
-        <v>27780.6214</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-310567.7908555599</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="C190" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="D190" t="n">
-        <v>66.34</v>
-      </c>
-      <c r="E190" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="F190" t="n">
-        <v>20927.6993</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-289640.0915555599</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="C191" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="D191" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="E191" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="F191" t="n">
-        <v>1202.3734</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-289640.0915555599</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="C192" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="D192" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="E192" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="F192" t="n">
-        <v>618.9</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-289021.1915555599</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="C193" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="D193" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="E193" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="F193" t="n">
-        <v>64.45140000000001</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-289021.1915555599</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="C194" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="D194" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="E194" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="F194" t="n">
-        <v>201.2688</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-288819.9227555598</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="C195" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="D195" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="E195" t="n">
-        <v>66.3</v>
-      </c>
-      <c r="F195" t="n">
-        <v>905.9446</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-289725.8673555598</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="C196" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="D196" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="E196" t="n">
-        <v>66.37</v>
-      </c>
-      <c r="F196" t="n">
-        <v>943.5469000000001</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-288782.3204555598</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="C197" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="D197" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="E197" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="F197" t="n">
-        <v>445.5565</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-289227.8769555598</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>66.48</v>
-      </c>
-      <c r="C198" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="D198" t="n">
-        <v>66.48</v>
-      </c>
-      <c r="E198" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="F198" t="n">
-        <v>2536.838</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-291764.7149555598</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C199" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="D199" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="E199" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="F199" t="n">
-        <v>14</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-291778.7149555598</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C200" t="n">
-        <v>66.08</v>
-      </c>
-      <c r="D200" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="E200" t="n">
-        <v>66.08</v>
-      </c>
-      <c r="F200" t="n">
-        <v>1911.0111</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-293689.7260555598</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="C201" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="D201" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="E201" t="n">
-        <v>66.31</v>
-      </c>
-      <c r="F201" t="n">
-        <v>8</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-293681.7260555598</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="C202" t="n">
-        <v>66.04000000000001</v>
-      </c>
-      <c r="D202" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="E202" t="n">
-        <v>66.04000000000001</v>
-      </c>
-      <c r="F202" t="n">
-        <v>9027.270699999999</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-302708.9967555598</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>66</v>
-      </c>
-      <c r="C203" t="n">
-        <v>65.94</v>
-      </c>
-      <c r="D203" t="n">
-        <v>66</v>
-      </c>
-      <c r="E203" t="n">
-        <v>65.94</v>
-      </c>
-      <c r="F203" t="n">
-        <v>8216.1494</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-310925.1461555598</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>65.94</v>
-      </c>
-      <c r="C204" t="n">
-        <v>65.94</v>
-      </c>
-      <c r="D204" t="n">
-        <v>65.94</v>
-      </c>
-      <c r="E204" t="n">
-        <v>65.94</v>
-      </c>
-      <c r="F204" t="n">
-        <v>97.3241</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-310925.1461555598</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>65.92</v>
-      </c>
-      <c r="C205" t="n">
-        <v>65.92</v>
-      </c>
-      <c r="D205" t="n">
-        <v>65.92</v>
-      </c>
-      <c r="E205" t="n">
-        <v>65.92</v>
-      </c>
-      <c r="F205" t="n">
-        <v>1043.6572</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-311968.8033555598</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>65.92</v>
-      </c>
-      <c r="C206" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="D206" t="n">
-        <v>65.92</v>
-      </c>
-      <c r="E206" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="F206" t="n">
-        <v>386</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-312354.8033555598</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>65.91</v>
-      </c>
-      <c r="C207" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="D207" t="n">
-        <v>65.91</v>
-      </c>
-      <c r="E207" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="F207" t="n">
-        <v>1762.7673</v>
-      </c>
-      <c r="G207" t="n">
-        <v>-312354.8033555598</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>65.98999999999999</v>
-      </c>
-      <c r="C208" t="n">
-        <v>65.95999999999999</v>
-      </c>
-      <c r="D208" t="n">
-        <v>65.98999999999999</v>
-      </c>
-      <c r="E208" t="n">
-        <v>65.81999999999999</v>
-      </c>
-      <c r="F208" t="n">
-        <v>3302.5795</v>
-      </c>
-      <c r="G208" t="n">
-        <v>-309052.2238555598</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>65.72</v>
-      </c>
-      <c r="C209" t="n">
-        <v>65.72</v>
-      </c>
-      <c r="D209" t="n">
-        <v>65.72</v>
-      </c>
-      <c r="E209" t="n">
-        <v>65.72</v>
-      </c>
-      <c r="F209" t="n">
-        <v>300</v>
-      </c>
-      <c r="G209" t="n">
-        <v>-309352.2238555598</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>65.73999999999999</v>
-      </c>
-      <c r="C210" t="n">
-        <v>65.73999999999999</v>
-      </c>
-      <c r="D210" t="n">
-        <v>65.73999999999999</v>
-      </c>
-      <c r="E210" t="n">
-        <v>65.73999999999999</v>
-      </c>
-      <c r="F210" t="n">
-        <v>9300</v>
-      </c>
-      <c r="G210" t="n">
-        <v>-300052.2238555598</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="C211" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="D211" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="E211" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="F211" t="n">
-        <v>100</v>
-      </c>
-      <c r="G211" t="n">
-        <v>-299952.2238555598</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="C212" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="D212" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="E212" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="F212" t="n">
-        <v>23.2521</v>
-      </c>
-      <c r="G212" t="n">
-        <v>-299975.4759555598</v>
-      </c>
-      <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="K212" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="C213" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="D213" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="E213" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="F213" t="n">
-        <v>221</v>
-      </c>
-      <c r="G213" t="n">
-        <v>-299975.4759555598</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>65.81999999999999</v>
-      </c>
-      <c r="C214" t="n">
-        <v>65.72</v>
-      </c>
-      <c r="D214" t="n">
-        <v>65.81999999999999</v>
-      </c>
-      <c r="E214" t="n">
-        <v>65.72</v>
-      </c>
-      <c r="F214" t="n">
-        <v>1346.1019</v>
-      </c>
-      <c r="G214" t="n">
-        <v>-301321.5778555598</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>65.72</v>
-      </c>
-      <c r="C215" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="D215" t="n">
-        <v>65.72</v>
-      </c>
-      <c r="E215" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="F215" t="n">
-        <v>2659.2231</v>
-      </c>
-      <c r="G215" t="n">
-        <v>-303980.8009555598</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="C216" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="D216" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="E216" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="F216" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="G216" t="n">
-        <v>-303980.8009555598</v>
-      </c>
-      <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="K216" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="C217" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="D217" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="E217" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="F217" t="n">
-        <v>734.8366</v>
-      </c>
-      <c r="G217" t="n">
-        <v>-303980.8009555598</v>
-      </c>
-      <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="K217" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="C218" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="D218" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="E218" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="F218" t="n">
-        <v>3266.1977</v>
-      </c>
-      <c r="G218" t="n">
-        <v>-303980.8009555598</v>
-      </c>
-      <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="K218" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>65.56</v>
-      </c>
-      <c r="C219" t="n">
-        <v>65.56</v>
-      </c>
-      <c r="D219" t="n">
-        <v>65.56</v>
-      </c>
-      <c r="E219" t="n">
-        <v>65.56</v>
-      </c>
-      <c r="F219" t="n">
-        <v>14632.5904</v>
-      </c>
-      <c r="G219" t="n">
-        <v>-289348.2105555598</v>
-      </c>
-      <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="K219" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>65.41</v>
-      </c>
-      <c r="C220" t="n">
-        <v>65.26000000000001</v>
-      </c>
-      <c r="D220" t="n">
-        <v>65.41</v>
-      </c>
-      <c r="E220" t="n">
-        <v>65.26000000000001</v>
-      </c>
-      <c r="F220" t="n">
-        <v>5000</v>
-      </c>
-      <c r="G220" t="n">
-        <v>-294348.2105555598</v>
-      </c>
-      <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="n">
-        <v>65.56</v>
-      </c>
-      <c r="K220" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>65.25</v>
-      </c>
-      <c r="C221" t="n">
-        <v>65</v>
-      </c>
-      <c r="D221" t="n">
-        <v>65.25</v>
-      </c>
-      <c r="E221" t="n">
-        <v>65</v>
-      </c>
-      <c r="F221" t="n">
-        <v>42101.5272</v>
-      </c>
-      <c r="G221" t="n">
-        <v>-336449.7377555599</v>
-      </c>
-      <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="n">
-        <v>65.26000000000001</v>
-      </c>
-      <c r="K221" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>64.95</v>
-      </c>
-      <c r="C222" t="n">
-        <v>65.17</v>
-      </c>
-      <c r="D222" t="n">
-        <v>65.17</v>
-      </c>
-      <c r="E222" t="n">
-        <v>64.94</v>
-      </c>
-      <c r="F222" t="n">
-        <v>20261.0947</v>
-      </c>
-      <c r="G222" t="n">
-        <v>-316188.6430555598</v>
-      </c>
-      <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="n">
-        <v>65</v>
-      </c>
-      <c r="K222" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>65.15000000000001</v>
-      </c>
-      <c r="C223" t="n">
-        <v>65.18000000000001</v>
-      </c>
-      <c r="D223" t="n">
-        <v>65.18000000000001</v>
-      </c>
-      <c r="E223" t="n">
-        <v>65.15000000000001</v>
-      </c>
-      <c r="F223" t="n">
-        <v>2619.4576</v>
-      </c>
-      <c r="G223" t="n">
-        <v>-313569.1854555598</v>
-      </c>
-      <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="n">
-        <v>65.17</v>
-      </c>
-      <c r="K223" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>65.19</v>
-      </c>
-      <c r="C224" t="n">
-        <v>65.13</v>
-      </c>
-      <c r="D224" t="n">
-        <v>65.19</v>
-      </c>
-      <c r="E224" t="n">
-        <v>65.13</v>
-      </c>
-      <c r="F224" t="n">
-        <v>1879.1145</v>
-      </c>
-      <c r="G224" t="n">
-        <v>-315448.2999555598</v>
-      </c>
-      <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="n">
-        <v>65.18000000000001</v>
-      </c>
-      <c r="K224" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>65.38</v>
-      </c>
-      <c r="C225" t="n">
-        <v>65.44</v>
-      </c>
-      <c r="D225" t="n">
-        <v>65.44</v>
-      </c>
-      <c r="E225" t="n">
-        <v>65.38</v>
-      </c>
-      <c r="F225" t="n">
-        <v>7564.90525672</v>
-      </c>
-      <c r="G225" t="n">
-        <v>-307883.3946988398</v>
-      </c>
-      <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="n">
-        <v>65.13</v>
-      </c>
-      <c r="K225" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="C226" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="D226" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="E226" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="F226" t="n">
-        <v>200</v>
-      </c>
-      <c r="G226" t="n">
-        <v>-308083.3946988398</v>
-      </c>
-      <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="n">
-        <v>65.44</v>
-      </c>
-      <c r="K226" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
-        <v>225</v>
-      </c>
-      <c r="B227" t="n">
-        <v>65.44</v>
-      </c>
-      <c r="C227" t="n">
-        <v>65.44</v>
-      </c>
-      <c r="D227" t="n">
-        <v>65.44</v>
-      </c>
-      <c r="E227" t="n">
-        <v>65.44</v>
-      </c>
-      <c r="F227" t="n">
-        <v>8</v>
-      </c>
-      <c r="G227" t="n">
-        <v>-308075.3946988398</v>
-      </c>
-      <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="K227" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="B228" t="n">
-        <v>65.39</v>
-      </c>
-      <c r="C228" t="n">
-        <v>65.45999999999999</v>
-      </c>
-      <c r="D228" t="n">
-        <v>65.45999999999999</v>
-      </c>
-      <c r="E228" t="n">
-        <v>65.39</v>
-      </c>
-      <c r="F228" t="n">
-        <v>4761.136</v>
-      </c>
-      <c r="G228" t="n">
-        <v>-303314.2586988398</v>
-      </c>
-      <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="n">
-        <v>65.44</v>
-      </c>
-      <c r="K228" t="n">
-        <v>65.81</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-26 BackTest XLM.xlsx
+++ b/BackTest/2020-01-26 BackTest XLM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N186"/>
+  <dimension ref="A1:N257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,28 +438,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>65.59999999999999</v>
+        <v>66.62</v>
       </c>
       <c r="C2" t="n">
-        <v>65.59999999999999</v>
+        <v>66.62</v>
       </c>
       <c r="D2" t="n">
-        <v>65.59999999999999</v>
+        <v>66.62</v>
       </c>
       <c r="E2" t="n">
-        <v>65.59999999999999</v>
+        <v>66.62</v>
       </c>
       <c r="F2" t="n">
-        <v>3922.4581</v>
+        <v>1840.0657</v>
       </c>
       <c r="G2" t="n">
-        <v>-158204.84490878</v>
+        <v>-174838.5730432</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
@@ -474,28 +474,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>65.59999999999999</v>
+        <v>66.62</v>
       </c>
       <c r="C3" t="n">
-        <v>65.70999999999999</v>
+        <v>66.62</v>
       </c>
       <c r="D3" t="n">
-        <v>65.70999999999999</v>
+        <v>66.62</v>
       </c>
       <c r="E3" t="n">
-        <v>65.54000000000001</v>
+        <v>66.62</v>
       </c>
       <c r="F3" t="n">
-        <v>25951.6879</v>
+        <v>4648.294</v>
       </c>
       <c r="G3" t="n">
-        <v>-132253.15700878</v>
+        <v>-174838.5730432</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -510,28 +510,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>65.54000000000001</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>65.7</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>65.7</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>65.53</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>35173.8524</v>
+        <v>18081.7498</v>
       </c>
       <c r="G4" t="n">
-        <v>-167427.00940878</v>
+        <v>-156756.8232432</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
@@ -546,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>65.53</v>
+        <v>66.8</v>
       </c>
       <c r="C5" t="n">
-        <v>65.52</v>
+        <v>66.8</v>
       </c>
       <c r="D5" t="n">
-        <v>65.53</v>
+        <v>66.8</v>
       </c>
       <c r="E5" t="n">
-        <v>65.52</v>
+        <v>66.79000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>10171.3285</v>
+        <v>5362.2693</v>
       </c>
       <c r="G5" t="n">
-        <v>-177598.33790878</v>
+        <v>-162119.0925432</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>65.52</v>
+        <v>66.8</v>
       </c>
       <c r="C6" t="n">
-        <v>65.52</v>
+        <v>66.8</v>
       </c>
       <c r="D6" t="n">
-        <v>65.52</v>
+        <v>66.8</v>
       </c>
       <c r="E6" t="n">
-        <v>65.52</v>
+        <v>66.8</v>
       </c>
       <c r="F6" t="n">
-        <v>604.8029</v>
+        <v>4990.9593</v>
       </c>
       <c r="G6" t="n">
-        <v>-177598.33790878</v>
+        <v>-162119.0925432</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,28 +618,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>65.52</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>65.64</v>
+        <v>66.84</v>
       </c>
       <c r="D7" t="n">
-        <v>65.64</v>
+        <v>66.84999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>65.5</v>
+        <v>66.84</v>
       </c>
       <c r="F7" t="n">
-        <v>31021.72496124</v>
+        <v>4892.6026</v>
       </c>
       <c r="G7" t="n">
-        <v>-146576.61294754</v>
+        <v>-157226.4899432</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>65.5</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>65.59999999999999</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>65.59999999999999</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>65.5</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>13218.6061</v>
+        <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>-159795.21904754</v>
+        <v>-157326.4899432</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>65.41</v>
+        <v>67.12</v>
       </c>
       <c r="C9" t="n">
-        <v>65.40000000000001</v>
+        <v>67.47</v>
       </c>
       <c r="D9" t="n">
-        <v>65.54000000000001</v>
+        <v>67.47</v>
       </c>
       <c r="E9" t="n">
-        <v>65.40000000000001</v>
+        <v>67.12</v>
       </c>
       <c r="F9" t="n">
-        <v>3971.6995</v>
+        <v>6346.5815</v>
       </c>
       <c r="G9" t="n">
-        <v>-163766.91854754</v>
+        <v>-150979.9084432</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -726,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>65.33</v>
+        <v>67.2</v>
       </c>
       <c r="C10" t="n">
-        <v>65.33</v>
+        <v>67.05</v>
       </c>
       <c r="D10" t="n">
-        <v>65.33</v>
+        <v>67.2</v>
       </c>
       <c r="E10" t="n">
-        <v>65.3</v>
+        <v>67.05</v>
       </c>
       <c r="F10" t="n">
-        <v>5502.3396</v>
+        <v>42838.9952</v>
       </c>
       <c r="G10" t="n">
-        <v>-169269.25814754</v>
+        <v>-193818.9036432</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>65.3</v>
+        <v>67</v>
       </c>
       <c r="C11" t="n">
-        <v>65.3</v>
+        <v>67</v>
       </c>
       <c r="D11" t="n">
-        <v>65.3</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
-        <v>65.3</v>
+        <v>67</v>
       </c>
       <c r="F11" t="n">
-        <v>432.5167</v>
+        <v>1000</v>
       </c>
       <c r="G11" t="n">
-        <v>-169701.77484754</v>
+        <v>-194818.9036432</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>65.3</v>
+        <v>67.03</v>
       </c>
       <c r="C12" t="n">
-        <v>65.3</v>
+        <v>67.03</v>
       </c>
       <c r="D12" t="n">
-        <v>65.3</v>
+        <v>67.03</v>
       </c>
       <c r="E12" t="n">
-        <v>65.3</v>
+        <v>67.03</v>
       </c>
       <c r="F12" t="n">
-        <v>2907.6768</v>
+        <v>285</v>
       </c>
       <c r="G12" t="n">
-        <v>-169701.77484754</v>
+        <v>-194533.9036432</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,28 +834,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>65.23</v>
+        <v>67.03</v>
       </c>
       <c r="C13" t="n">
-        <v>65.23</v>
+        <v>67.3</v>
       </c>
       <c r="D13" t="n">
-        <v>65.23</v>
+        <v>67.3</v>
       </c>
       <c r="E13" t="n">
-        <v>65.23</v>
+        <v>67.03</v>
       </c>
       <c r="F13" t="n">
-        <v>12335.9906</v>
+        <v>64.9909</v>
       </c>
       <c r="G13" t="n">
-        <v>-182037.76544754</v>
+        <v>-194468.9127432</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
@@ -870,28 +870,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>65.36</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="C14" t="n">
-        <v>65.36</v>
+        <v>67.31</v>
       </c>
       <c r="D14" t="n">
-        <v>65.36</v>
+        <v>67.31</v>
       </c>
       <c r="E14" t="n">
-        <v>65.36</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>894</v>
+        <v>25000</v>
       </c>
       <c r="G14" t="n">
-        <v>-181143.76544754</v>
+        <v>-169468.9127432</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
@@ -906,28 +906,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>65.23</v>
+        <v>67.39</v>
       </c>
       <c r="C15" t="n">
-        <v>65.23</v>
+        <v>67.39</v>
       </c>
       <c r="D15" t="n">
-        <v>65.23</v>
+        <v>67.39</v>
       </c>
       <c r="E15" t="n">
-        <v>65.11</v>
+        <v>67.39</v>
       </c>
       <c r="F15" t="n">
-        <v>31127.8342</v>
+        <v>7.5</v>
       </c>
       <c r="G15" t="n">
-        <v>-212271.59964754</v>
+        <v>-169461.4127432</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
@@ -942,28 +942,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>65.23</v>
+        <v>67.27</v>
       </c>
       <c r="C16" t="n">
-        <v>65.08</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>65.23</v>
+        <v>67.34999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>65</v>
+        <v>67.27</v>
       </c>
       <c r="F16" t="n">
-        <v>23376.4188</v>
+        <v>3489.3956</v>
       </c>
       <c r="G16" t="n">
-        <v>-235648.01844754</v>
+        <v>-172950.8083432</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
@@ -978,28 +978,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>65.06999999999999</v>
+        <v>67.38</v>
       </c>
       <c r="C17" t="n">
-        <v>65.08</v>
+        <v>67.38</v>
       </c>
       <c r="D17" t="n">
-        <v>65.08</v>
+        <v>67.38</v>
       </c>
       <c r="E17" t="n">
-        <v>65.06999999999999</v>
+        <v>67.38</v>
       </c>
       <c r="F17" t="n">
-        <v>871.1679</v>
+        <v>7.5</v>
       </c>
       <c r="G17" t="n">
-        <v>-235648.01844754</v>
+        <v>-172943.3083432</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>65.12</v>
+        <v>67.2</v>
       </c>
       <c r="C18" t="n">
-        <v>65.13</v>
+        <v>67.41</v>
       </c>
       <c r="D18" t="n">
-        <v>65.13</v>
+        <v>67.41</v>
       </c>
       <c r="E18" t="n">
-        <v>65.12</v>
+        <v>67.2</v>
       </c>
       <c r="F18" t="n">
-        <v>20159.0706</v>
+        <v>15.0298</v>
       </c>
       <c r="G18" t="n">
-        <v>-215488.94784754</v>
+        <v>-172928.2785432</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>65.12</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>65.12</v>
+        <v>67.59</v>
       </c>
       <c r="D19" t="n">
-        <v>65.12</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>65.12</v>
+        <v>67.59</v>
       </c>
       <c r="F19" t="n">
-        <v>851.7525000000001</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>-216340.70034754</v>
+        <v>-172913.2785432</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>65.15000000000001</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>65.19</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>65.19</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="E20" t="n">
-        <v>65.15000000000001</v>
+        <v>67.54000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>23417.83525095</v>
+        <v>7.5</v>
       </c>
       <c r="G20" t="n">
-        <v>-192922.86509659</v>
+        <v>-172920.7785432</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>65.17</v>
+        <v>67.05</v>
       </c>
       <c r="C21" t="n">
-        <v>65.17</v>
+        <v>67.05</v>
       </c>
       <c r="D21" t="n">
-        <v>65.17</v>
+        <v>67.05</v>
       </c>
       <c r="E21" t="n">
-        <v>65.17</v>
+        <v>67.05</v>
       </c>
       <c r="F21" t="n">
-        <v>1701.3761</v>
+        <v>23871.9017</v>
       </c>
       <c r="G21" t="n">
-        <v>-194624.24119659</v>
+        <v>-196792.6802432</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>65.17</v>
+        <v>67.03</v>
       </c>
       <c r="C22" t="n">
-        <v>65.29000000000001</v>
+        <v>67.03</v>
       </c>
       <c r="D22" t="n">
-        <v>65.29000000000001</v>
+        <v>67.03</v>
       </c>
       <c r="E22" t="n">
-        <v>65.17</v>
+        <v>67.03</v>
       </c>
       <c r="F22" t="n">
-        <v>1749.1859</v>
+        <v>10737.6186</v>
       </c>
       <c r="G22" t="n">
-        <v>-192875.05529659</v>
+        <v>-207530.2988432</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>65.38</v>
+        <v>67.02</v>
       </c>
       <c r="C23" t="n">
-        <v>65.27</v>
+        <v>67.02</v>
       </c>
       <c r="D23" t="n">
-        <v>65.38</v>
+        <v>67.02</v>
       </c>
       <c r="E23" t="n">
-        <v>65.27</v>
+        <v>67.02</v>
       </c>
       <c r="F23" t="n">
-        <v>5604.1908</v>
+        <v>1932.9006</v>
       </c>
       <c r="G23" t="n">
-        <v>-198479.24609659</v>
+        <v>-209463.1994432</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>65.27</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>65.27</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>65.27</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>65.27</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>591</v>
+        <v>7585.326</v>
       </c>
       <c r="G24" t="n">
-        <v>-198479.24609659</v>
+        <v>-201877.8734432</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>65.27</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>65.33</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>65.33</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>65.27</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>634.8528</v>
+        <v>977.6932</v>
       </c>
       <c r="G25" t="n">
-        <v>-197844.39329659</v>
+        <v>-202855.5666432</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>65.17</v>
+        <v>67.05</v>
       </c>
       <c r="C26" t="n">
-        <v>65.16</v>
+        <v>67.03</v>
       </c>
       <c r="D26" t="n">
-        <v>65.17</v>
+        <v>67.05</v>
       </c>
       <c r="E26" t="n">
-        <v>65.16</v>
+        <v>67.03</v>
       </c>
       <c r="F26" t="n">
-        <v>43800</v>
+        <v>12335.9905</v>
       </c>
       <c r="G26" t="n">
-        <v>-241644.39329659</v>
+        <v>-215191.5571432</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,22 +1338,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>65.16</v>
+        <v>67.13</v>
       </c>
       <c r="C27" t="n">
-        <v>65.16</v>
+        <v>67.13</v>
       </c>
       <c r="D27" t="n">
-        <v>65.22</v>
+        <v>67.13</v>
       </c>
       <c r="E27" t="n">
-        <v>65.16</v>
+        <v>67.13</v>
       </c>
       <c r="F27" t="n">
-        <v>9283.5299</v>
+        <v>370.3569</v>
       </c>
       <c r="G27" t="n">
-        <v>-241644.39329659</v>
+        <v>-214821.2002431999</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1374,22 +1374,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>65.31999999999999</v>
+        <v>67.13</v>
       </c>
       <c r="C28" t="n">
-        <v>65.31999999999999</v>
+        <v>67.13</v>
       </c>
       <c r="D28" t="n">
-        <v>65.31999999999999</v>
+        <v>67.13</v>
       </c>
       <c r="E28" t="n">
-        <v>65.31999999999999</v>
+        <v>67.13</v>
       </c>
       <c r="F28" t="n">
-        <v>827.5141</v>
+        <v>65.6431</v>
       </c>
       <c r="G28" t="n">
-        <v>-240816.87919659</v>
+        <v>-214821.2002431999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1410,22 +1410,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>65.34</v>
+        <v>67.09</v>
       </c>
       <c r="C29" t="n">
-        <v>65.34</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>65.34</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>65.34</v>
+        <v>67.09</v>
       </c>
       <c r="F29" t="n">
-        <v>386.4312</v>
+        <v>22500</v>
       </c>
       <c r="G29" t="n">
-        <v>-240430.44799659</v>
+        <v>-237321.2002431999</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1446,22 +1446,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>65.33</v>
+        <v>67.08</v>
       </c>
       <c r="C30" t="n">
-        <v>65.33</v>
+        <v>67.37</v>
       </c>
       <c r="D30" t="n">
-        <v>65.45999999999999</v>
+        <v>67.37</v>
       </c>
       <c r="E30" t="n">
-        <v>65.33</v>
+        <v>67.08</v>
       </c>
       <c r="F30" t="n">
-        <v>113427.92698001</v>
+        <v>123144.4429</v>
       </c>
       <c r="G30" t="n">
-        <v>-353858.3749766</v>
+        <v>-114176.7573431999</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1482,22 +1482,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>65.33</v>
+        <v>67.37</v>
       </c>
       <c r="C31" t="n">
-        <v>65.33</v>
+        <v>67.37</v>
       </c>
       <c r="D31" t="n">
-        <v>65.33</v>
+        <v>67.37</v>
       </c>
       <c r="E31" t="n">
-        <v>65.33</v>
+        <v>67.37</v>
       </c>
       <c r="F31" t="n">
-        <v>120926.9485</v>
+        <v>19757.7311</v>
       </c>
       <c r="G31" t="n">
-        <v>-353858.3749766</v>
+        <v>-114176.7573431999</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>65.55</v>
+        <v>67.22</v>
       </c>
       <c r="C32" t="n">
-        <v>65.55</v>
+        <v>67.22</v>
       </c>
       <c r="D32" t="n">
-        <v>65.55</v>
+        <v>67.22</v>
       </c>
       <c r="E32" t="n">
-        <v>65.55</v>
+        <v>67.22</v>
       </c>
       <c r="F32" t="n">
-        <v>300.54919908</v>
+        <v>1315</v>
       </c>
       <c r="G32" t="n">
-        <v>-353557.82577752</v>
+        <v>-115491.7573431999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>65.61</v>
+        <v>67.22</v>
       </c>
       <c r="C33" t="n">
-        <v>65.61</v>
+        <v>67.06</v>
       </c>
       <c r="D33" t="n">
-        <v>65.61</v>
+        <v>67.22</v>
       </c>
       <c r="E33" t="n">
-        <v>65.61</v>
+        <v>67.06</v>
       </c>
       <c r="F33" t="n">
-        <v>302.2943</v>
+        <v>9542.897499999999</v>
       </c>
       <c r="G33" t="n">
-        <v>-353255.53147752</v>
+        <v>-125034.6548431999</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>65.61</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>65.61</v>
+        <v>66.67</v>
       </c>
       <c r="D34" t="n">
-        <v>65.61</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>65.61</v>
+        <v>66.67</v>
       </c>
       <c r="F34" t="n">
-        <v>2597.70261611</v>
+        <v>45718.6477</v>
       </c>
       <c r="G34" t="n">
-        <v>-353255.53147752</v>
+        <v>-170753.3025431999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1626,22 +1626,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>65.61</v>
+        <v>66.69</v>
       </c>
       <c r="C35" t="n">
-        <v>65.61</v>
+        <v>66.69</v>
       </c>
       <c r="D35" t="n">
-        <v>65.61</v>
+        <v>66.69</v>
       </c>
       <c r="E35" t="n">
-        <v>65.61</v>
+        <v>66.69</v>
       </c>
       <c r="F35" t="n">
-        <v>519.7942</v>
+        <v>21100.3688</v>
       </c>
       <c r="G35" t="n">
-        <v>-353255.53147752</v>
+        <v>-149652.9337431999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>65.59999999999999</v>
+        <v>66.62</v>
       </c>
       <c r="C36" t="n">
-        <v>65.61</v>
+        <v>66.62</v>
       </c>
       <c r="D36" t="n">
-        <v>65.61</v>
+        <v>66.62</v>
       </c>
       <c r="E36" t="n">
-        <v>65.59999999999999</v>
+        <v>66.62</v>
       </c>
       <c r="F36" t="n">
-        <v>5640.1993</v>
+        <v>23.3156</v>
       </c>
       <c r="G36" t="n">
-        <v>-353255.53147752</v>
+        <v>-149676.2493431999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>65.61</v>
+        <v>66.94</v>
       </c>
       <c r="C37" t="n">
-        <v>65.42</v>
+        <v>66.94</v>
       </c>
       <c r="D37" t="n">
-        <v>65.61</v>
+        <v>66.94</v>
       </c>
       <c r="E37" t="n">
-        <v>65.42</v>
+        <v>66.94</v>
       </c>
       <c r="F37" t="n">
-        <v>10000</v>
+        <v>52000</v>
       </c>
       <c r="G37" t="n">
-        <v>-363255.53147752</v>
+        <v>-97676.24934319995</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,22 +1734,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>65.53</v>
+        <v>66.93000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>65.3</v>
+        <v>66.93000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>65.53</v>
+        <v>66.93000000000001</v>
       </c>
       <c r="E38" t="n">
-        <v>65.29000000000001</v>
+        <v>66.93000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>41248.3352</v>
+        <v>23.3156</v>
       </c>
       <c r="G38" t="n">
-        <v>-404503.86667752</v>
+        <v>-97699.56494319995</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>65.23999999999999</v>
+        <v>67.02</v>
       </c>
       <c r="C39" t="n">
-        <v>65.23999999999999</v>
+        <v>67.02</v>
       </c>
       <c r="D39" t="n">
-        <v>65.23999999999999</v>
+        <v>67.02</v>
       </c>
       <c r="E39" t="n">
-        <v>65.23999999999999</v>
+        <v>67.02</v>
       </c>
       <c r="F39" t="n">
-        <v>379.4187</v>
+        <v>20374.938</v>
       </c>
       <c r="G39" t="n">
-        <v>-404883.28537752</v>
+        <v>-77324.62694319995</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,28 +1806,28 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>65.33</v>
+        <v>67.02</v>
       </c>
       <c r="C40" t="n">
-        <v>65.33</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>65.33</v>
+        <v>67.02</v>
       </c>
       <c r="E40" t="n">
-        <v>65.33</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>322.28600341</v>
+        <v>543.8892</v>
       </c>
       <c r="G40" t="n">
-        <v>-404560.99937411</v>
+        <v>-77868.51614319996</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
@@ -1842,22 +1842,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>65.33</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="C41" t="n">
-        <v>65.18000000000001</v>
+        <v>66.87</v>
       </c>
       <c r="D41" t="n">
-        <v>65.33</v>
+        <v>66.98999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>65.18000000000001</v>
+        <v>66.87</v>
       </c>
       <c r="F41" t="n">
-        <v>1252.8943</v>
+        <v>431.8327</v>
       </c>
       <c r="G41" t="n">
-        <v>-405813.8936741099</v>
+        <v>-78300.34884319996</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1878,22 +1878,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>65.3</v>
+        <v>66.77</v>
       </c>
       <c r="C42" t="n">
-        <v>65.3</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>65.3</v>
+        <v>66.77</v>
       </c>
       <c r="E42" t="n">
-        <v>65.3</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>562</v>
+        <v>4264.5365</v>
       </c>
       <c r="G42" t="n">
-        <v>-405251.8936741099</v>
+        <v>-82564.88534319996</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1914,22 +1914,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>65.33</v>
+        <v>66.84</v>
       </c>
       <c r="C43" t="n">
-        <v>65.33</v>
+        <v>66.91</v>
       </c>
       <c r="D43" t="n">
-        <v>65.33</v>
+        <v>66.91</v>
       </c>
       <c r="E43" t="n">
-        <v>65.33</v>
+        <v>66.84</v>
       </c>
       <c r="F43" t="n">
-        <v>5727.6494</v>
+        <v>1495.88402331</v>
       </c>
       <c r="G43" t="n">
-        <v>-399524.24427411</v>
+        <v>-81069.00131988995</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1950,22 +1950,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>65.2</v>
+        <v>66.64</v>
       </c>
       <c r="C44" t="n">
-        <v>65.11</v>
+        <v>66.64</v>
       </c>
       <c r="D44" t="n">
-        <v>65.2</v>
+        <v>66.64</v>
       </c>
       <c r="E44" t="n">
-        <v>65.11</v>
+        <v>66.64</v>
       </c>
       <c r="F44" t="n">
-        <v>4495.5</v>
+        <v>10014.6416</v>
       </c>
       <c r="G44" t="n">
-        <v>-404019.74427411</v>
+        <v>-91083.64291988996</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1986,22 +1986,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>65.39</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>65.39</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>65.39</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E45" t="n">
-        <v>65.39</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>167.1234</v>
+        <v>648.7753</v>
       </c>
       <c r="G45" t="n">
-        <v>-403852.62087411</v>
+        <v>-91732.41821988995</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2022,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>65.45</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="C46" t="n">
-        <v>65.45</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>65.45</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>65.45</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>103.5076</v>
+        <v>880.0993</v>
       </c>
       <c r="G46" t="n">
-        <v>-403749.11327411</v>
+        <v>-92612.51751988995</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2058,22 +2058,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>65.61</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="C47" t="n">
-        <v>65.70999999999999</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>65.70999999999999</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>65.61</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>20062.8383</v>
+        <v>1184.5839</v>
       </c>
       <c r="G47" t="n">
-        <v>-383686.27497411</v>
+        <v>-92612.51751988995</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2094,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>66.04000000000001</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="C48" t="n">
-        <v>66.04000000000001</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>66.04000000000001</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>66.04000000000001</v>
+        <v>66.45999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>9311</v>
+        <v>15.5904</v>
       </c>
       <c r="G48" t="n">
-        <v>-374375.27497411</v>
+        <v>-92612.51751988995</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2130,22 +2130,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>66.17</v>
+        <v>66.36</v>
       </c>
       <c r="C49" t="n">
-        <v>65.98999999999999</v>
+        <v>66.36</v>
       </c>
       <c r="D49" t="n">
-        <v>66.17</v>
+        <v>66.36</v>
       </c>
       <c r="E49" t="n">
-        <v>65.98999999999999</v>
+        <v>66.36</v>
       </c>
       <c r="F49" t="n">
-        <v>17561.599</v>
+        <v>640</v>
       </c>
       <c r="G49" t="n">
-        <v>-391936.8739741099</v>
+        <v>-93252.51751988995</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2166,22 +2166,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>65.98</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="C50" t="n">
-        <v>65.97</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>65.98</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>65.97</v>
+        <v>66.43000000000001</v>
       </c>
       <c r="F50" t="n">
-        <v>14442.4189</v>
+        <v>7.9641</v>
       </c>
       <c r="G50" t="n">
-        <v>-406379.2928741099</v>
+        <v>-93244.55341988995</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2202,22 +2202,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>65.98</v>
+        <v>66.61</v>
       </c>
       <c r="C51" t="n">
-        <v>66.17</v>
+        <v>66.61</v>
       </c>
       <c r="D51" t="n">
-        <v>66.17</v>
+        <v>66.61</v>
       </c>
       <c r="E51" t="n">
-        <v>65.98</v>
+        <v>66.61</v>
       </c>
       <c r="F51" t="n">
-        <v>2013.7205</v>
+        <v>8</v>
       </c>
       <c r="G51" t="n">
-        <v>-404365.5723741099</v>
+        <v>-93236.55341988995</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2238,22 +2238,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>66.28</v>
+        <v>66.88</v>
       </c>
       <c r="C52" t="n">
-        <v>66.01000000000001</v>
+        <v>66.88</v>
       </c>
       <c r="D52" t="n">
-        <v>66.28</v>
+        <v>66.88</v>
       </c>
       <c r="E52" t="n">
-        <v>66.01000000000001</v>
+        <v>66.88</v>
       </c>
       <c r="F52" t="n">
-        <v>16114.2064</v>
+        <v>632</v>
       </c>
       <c r="G52" t="n">
-        <v>-420479.77877411</v>
+        <v>-92604.55341988995</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2274,22 +2274,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>66.15000000000001</v>
+        <v>66.93000000000001</v>
       </c>
       <c r="C53" t="n">
-        <v>66.15000000000001</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>66.15000000000001</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="E53" t="n">
-        <v>66.15000000000001</v>
+        <v>66.93000000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>10988</v>
+        <v>74523.79331111</v>
       </c>
       <c r="G53" t="n">
-        <v>-409491.77877411</v>
+        <v>-18080.76010877996</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2310,28 +2310,28 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>66.37</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>66.37</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>66.37</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>66.37</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="F54" t="n">
-        <v>150.67048365</v>
+        <v>476.5996</v>
       </c>
       <c r="G54" t="n">
-        <v>-409341.10829046</v>
+        <v>-18557.35970877996</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2346,28 +2346,28 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>66.25</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="C55" t="n">
-        <v>66.26000000000001</v>
+        <v>66.83</v>
       </c>
       <c r="D55" t="n">
-        <v>66.26000000000001</v>
+        <v>66.95999999999999</v>
       </c>
       <c r="E55" t="n">
-        <v>66.25</v>
+        <v>66.83</v>
       </c>
       <c r="F55" t="n">
-        <v>3452.0365</v>
+        <v>11294.2461</v>
       </c>
       <c r="G55" t="n">
-        <v>-412793.1447904599</v>
+        <v>-29851.60580877996</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2382,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>66.31</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>66.31</v>
+        <v>66.7</v>
       </c>
       <c r="D56" t="n">
-        <v>66.31</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="E56" t="n">
-        <v>66.31</v>
+        <v>66.7</v>
       </c>
       <c r="F56" t="n">
-        <v>1105.1077</v>
+        <v>22500</v>
       </c>
       <c r="G56" t="n">
-        <v>-411688.03709046</v>
+        <v>-52351.60580877996</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2418,22 +2418,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>66.29000000000001</v>
+        <v>66.62</v>
       </c>
       <c r="C57" t="n">
-        <v>66.26000000000001</v>
+        <v>66.62</v>
       </c>
       <c r="D57" t="n">
-        <v>66.29000000000001</v>
+        <v>66.62</v>
       </c>
       <c r="E57" t="n">
-        <v>66.26000000000001</v>
+        <v>66.62</v>
       </c>
       <c r="F57" t="n">
-        <v>2282.5437</v>
+        <v>527.0593</v>
       </c>
       <c r="G57" t="n">
-        <v>-413970.5807904599</v>
+        <v>-52878.66510877996</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2454,28 +2454,28 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>66.26000000000001</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="C58" t="n">
-        <v>66.31</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>66.31</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="E58" t="n">
-        <v>66.26000000000001</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>871.552</v>
+        <v>1118.9306</v>
       </c>
       <c r="G58" t="n">
-        <v>-413099.0287904599</v>
+        <v>-53997.59570877996</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -2490,22 +2490,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>66.31</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="C59" t="n">
-        <v>66.31</v>
+        <v>66.34</v>
       </c>
       <c r="D59" t="n">
-        <v>66.31</v>
+        <v>66.54000000000001</v>
       </c>
       <c r="E59" t="n">
-        <v>66.31</v>
+        <v>66.34</v>
       </c>
       <c r="F59" t="n">
-        <v>1379.273</v>
+        <v>12314.6003</v>
       </c>
       <c r="G59" t="n">
-        <v>-413099.0287904599</v>
+        <v>-66312.19600877997</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>66.26000000000001</v>
+        <v>66.47</v>
       </c>
       <c r="C60" t="n">
-        <v>66.26000000000001</v>
+        <v>66.47</v>
       </c>
       <c r="D60" t="n">
-        <v>66.26000000000001</v>
+        <v>66.47</v>
       </c>
       <c r="E60" t="n">
-        <v>66.26000000000001</v>
+        <v>66.47</v>
       </c>
       <c r="F60" t="n">
-        <v>13.1048</v>
+        <v>501.8943</v>
       </c>
       <c r="G60" t="n">
-        <v>-413112.1335904599</v>
+        <v>-65810.30170877997</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2562,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>66.25</v>
+        <v>66.36</v>
       </c>
       <c r="C61" t="n">
         <v>66.25</v>
       </c>
       <c r="D61" t="n">
-        <v>66.25</v>
+        <v>66.36</v>
       </c>
       <c r="E61" t="n">
         <v>66.25</v>
       </c>
       <c r="F61" t="n">
-        <v>7.5963</v>
+        <v>16043.7365</v>
       </c>
       <c r="G61" t="n">
-        <v>-413119.7298904599</v>
+        <v>-81854.03820877997</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2598,22 +2598,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>66.09999999999999</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>66.09999999999999</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>66.09999999999999</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="E62" t="n">
-        <v>66.09999999999999</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>589.9226</v>
+        <v>707.592</v>
       </c>
       <c r="G62" t="n">
-        <v>-413709.6524904598</v>
+        <v>-82561.63020877997</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2634,22 +2634,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>65.84999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="C63" t="n">
-        <v>65.84999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="D63" t="n">
-        <v>65.84999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="E63" t="n">
-        <v>65.84999999999999</v>
+        <v>66.3</v>
       </c>
       <c r="F63" t="n">
-        <v>1733.3337</v>
+        <v>800.9999</v>
       </c>
       <c r="G63" t="n">
-        <v>-415442.9861904599</v>
+        <v>-81760.63030877998</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2670,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>65.84</v>
+        <v>66.2</v>
       </c>
       <c r="C64" t="n">
-        <v>65.86</v>
+        <v>66.03</v>
       </c>
       <c r="D64" t="n">
-        <v>65.86</v>
+        <v>66.2</v>
       </c>
       <c r="E64" t="n">
-        <v>65.84</v>
+        <v>66.03</v>
       </c>
       <c r="F64" t="n">
-        <v>1576.89</v>
+        <v>46420.4988</v>
       </c>
       <c r="G64" t="n">
-        <v>-413866.0961904599</v>
+        <v>-128181.12910878</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2706,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>65.81999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C65" t="n">
-        <v>65.79000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>65.81999999999999</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E65" t="n">
-        <v>65.79000000000001</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F65" t="n">
-        <v>1003.2249</v>
+        <v>5038.4664</v>
       </c>
       <c r="G65" t="n">
-        <v>-414869.3210904598</v>
+        <v>-123142.66270878</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2742,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>65.73</v>
+        <v>66.09</v>
       </c>
       <c r="C66" t="n">
-        <v>65.72</v>
+        <v>66.09</v>
       </c>
       <c r="D66" t="n">
-        <v>65.73</v>
+        <v>66.09</v>
       </c>
       <c r="E66" t="n">
-        <v>65.72</v>
+        <v>66.09</v>
       </c>
       <c r="F66" t="n">
-        <v>802.8881</v>
+        <v>2979.6819</v>
       </c>
       <c r="G66" t="n">
-        <v>-415672.2091904598</v>
+        <v>-126122.34460878</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2778,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>65.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>65.8</v>
+        <v>65.89</v>
       </c>
       <c r="D67" t="n">
-        <v>65.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="E67" t="n">
-        <v>65.8</v>
+        <v>65.89</v>
       </c>
       <c r="F67" t="n">
-        <v>442.016</v>
+        <v>14890.9241</v>
       </c>
       <c r="G67" t="n">
-        <v>-415230.1931904598</v>
+        <v>-141013.26870878</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2814,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>65.7</v>
+        <v>66.09</v>
       </c>
       <c r="C68" t="n">
-        <v>65.95999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="D68" t="n">
-        <v>65.95999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="E68" t="n">
-        <v>65.62</v>
+        <v>66.09</v>
       </c>
       <c r="F68" t="n">
-        <v>110037.8853</v>
+        <v>103.8988</v>
       </c>
       <c r="G68" t="n">
-        <v>-305192.3078904598</v>
+        <v>-140909.36990878</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2850,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>65.93000000000001</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>66.20999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="D69" t="n">
-        <v>66.20999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="E69" t="n">
-        <v>65.84</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="F69" t="n">
-        <v>65370.3416</v>
+        <v>3371.4813</v>
       </c>
       <c r="G69" t="n">
-        <v>-239821.9662904598</v>
+        <v>-140909.36990878</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2886,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>66.27</v>
+        <v>65.81</v>
       </c>
       <c r="C70" t="n">
-        <v>66.27</v>
+        <v>65.64</v>
       </c>
       <c r="D70" t="n">
-        <v>66.27</v>
+        <v>65.81</v>
       </c>
       <c r="E70" t="n">
-        <v>66.27</v>
+        <v>65.64</v>
       </c>
       <c r="F70" t="n">
-        <v>1407</v>
+        <v>14890.9241</v>
       </c>
       <c r="G70" t="n">
-        <v>-238414.9662904598</v>
+        <v>-155800.29400878</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>66.16</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>66.16</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>66.16</v>
+        <v>65.95</v>
       </c>
       <c r="E71" t="n">
-        <v>66.16</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>2634</v>
+        <v>1895.4481</v>
       </c>
       <c r="G71" t="n">
-        <v>-241048.9662904598</v>
+        <v>-153904.84590878</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2958,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>66.37</v>
+        <v>65.75</v>
       </c>
       <c r="C72" t="n">
-        <v>66.37</v>
+        <v>65.75</v>
       </c>
       <c r="D72" t="n">
-        <v>66.37</v>
+        <v>65.75</v>
       </c>
       <c r="E72" t="n">
-        <v>66.37</v>
+        <v>65.75</v>
       </c>
       <c r="F72" t="n">
-        <v>6013.0083</v>
+        <v>377.5409</v>
       </c>
       <c r="G72" t="n">
-        <v>-235035.9579904598</v>
+        <v>-154282.38680878</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2994,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>66.15000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C73" t="n">
-        <v>66.08</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>66.15000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E73" t="n">
-        <v>66.08</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F73" t="n">
-        <v>973.3187</v>
+        <v>3922.4581</v>
       </c>
       <c r="G73" t="n">
-        <v>-236009.2766904598</v>
+        <v>-158204.84490878</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3030,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>66.08</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>66.08</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>66.08</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="E74" t="n">
-        <v>66.08</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="F74" t="n">
-        <v>482.4979</v>
+        <v>25951.6879</v>
       </c>
       <c r="G74" t="n">
-        <v>-236009.2766904598</v>
+        <v>-132253.15700878</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3066,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>66.08</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>66.08</v>
+        <v>65.7</v>
       </c>
       <c r="D75" t="n">
-        <v>66.08</v>
+        <v>65.7</v>
       </c>
       <c r="E75" t="n">
-        <v>66.08</v>
+        <v>65.53</v>
       </c>
       <c r="F75" t="n">
-        <v>178.0385</v>
+        <v>35173.8524</v>
       </c>
       <c r="G75" t="n">
-        <v>-236009.2766904598</v>
+        <v>-167427.00940878</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3102,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>66.09</v>
+        <v>65.53</v>
       </c>
       <c r="C76" t="n">
-        <v>65.87</v>
+        <v>65.52</v>
       </c>
       <c r="D76" t="n">
-        <v>66.09</v>
+        <v>65.53</v>
       </c>
       <c r="E76" t="n">
-        <v>65.87</v>
+        <v>65.52</v>
       </c>
       <c r="F76" t="n">
-        <v>4682.9994</v>
+        <v>10171.3285</v>
       </c>
       <c r="G76" t="n">
-        <v>-240692.2760904598</v>
+        <v>-177598.33790878</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3138,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>65.89</v>
+        <v>65.52</v>
       </c>
       <c r="C77" t="n">
-        <v>65.89</v>
+        <v>65.52</v>
       </c>
       <c r="D77" t="n">
-        <v>65.89</v>
+        <v>65.52</v>
       </c>
       <c r="E77" t="n">
-        <v>65.89</v>
+        <v>65.52</v>
       </c>
       <c r="F77" t="n">
-        <v>379.6968</v>
+        <v>604.8029</v>
       </c>
       <c r="G77" t="n">
-        <v>-240312.5792904598</v>
+        <v>-177598.33790878</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3174,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>65.87</v>
+        <v>65.52</v>
       </c>
       <c r="C78" t="n">
-        <v>65.87</v>
+        <v>65.64</v>
       </c>
       <c r="D78" t="n">
-        <v>65.87</v>
+        <v>65.64</v>
       </c>
       <c r="E78" t="n">
-        <v>65.87</v>
+        <v>65.5</v>
       </c>
       <c r="F78" t="n">
-        <v>3098.3673</v>
+        <v>31021.72496124</v>
       </c>
       <c r="G78" t="n">
-        <v>-243410.9465904598</v>
+        <v>-146576.61294754</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3210,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>65.79000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="C79" t="n">
-        <v>65.88</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>65.88</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E79" t="n">
-        <v>65.79000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="F79" t="n">
-        <v>3028.85898603</v>
+        <v>13218.6061</v>
       </c>
       <c r="G79" t="n">
-        <v>-240382.0876044298</v>
+        <v>-159795.21904754</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3246,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>65.45999999999999</v>
+        <v>65.41</v>
       </c>
       <c r="C80" t="n">
-        <v>65.45999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>65.45999999999999</v>
+        <v>65.54000000000001</v>
       </c>
       <c r="E80" t="n">
-        <v>65.45999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="F80" t="n">
-        <v>767.3218000000001</v>
+        <v>3971.6995</v>
       </c>
       <c r="G80" t="n">
-        <v>-241149.4094044298</v>
+        <v>-163766.91854754</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3282,22 +3282,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>65.45999999999999</v>
+        <v>65.33</v>
       </c>
       <c r="C81" t="n">
-        <v>65.45999999999999</v>
+        <v>65.33</v>
       </c>
       <c r="D81" t="n">
-        <v>65.45999999999999</v>
+        <v>65.33</v>
       </c>
       <c r="E81" t="n">
-        <v>65.45999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="F81" t="n">
-        <v>20159.0706</v>
+        <v>5502.3396</v>
       </c>
       <c r="G81" t="n">
-        <v>-241149.4094044298</v>
+        <v>-169269.25814754</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3318,22 +3318,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>65.45999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="C82" t="n">
-        <v>65.45999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="D82" t="n">
-        <v>65.45999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="E82" t="n">
-        <v>65.45999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="F82" t="n">
-        <v>9612.4107</v>
+        <v>432.5167</v>
       </c>
       <c r="G82" t="n">
-        <v>-241149.4094044298</v>
+        <v>-169701.77484754</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3354,22 +3354,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>65.34999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="C83" t="n">
-        <v>65.34999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="D83" t="n">
-        <v>65.34999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="E83" t="n">
-        <v>65.34999999999999</v>
+        <v>65.3</v>
       </c>
       <c r="F83" t="n">
-        <v>13164</v>
+        <v>2907.6768</v>
       </c>
       <c r="G83" t="n">
-        <v>-254313.4094044298</v>
+        <v>-169701.77484754</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>65.52</v>
+        <v>65.23</v>
       </c>
       <c r="C84" t="n">
-        <v>65.52</v>
+        <v>65.23</v>
       </c>
       <c r="D84" t="n">
-        <v>65.52</v>
+        <v>65.23</v>
       </c>
       <c r="E84" t="n">
-        <v>65.52</v>
+        <v>65.23</v>
       </c>
       <c r="F84" t="n">
-        <v>30.4182</v>
+        <v>12335.9906</v>
       </c>
       <c r="G84" t="n">
-        <v>-254282.9912044298</v>
+        <v>-182037.76544754</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>65.56</v>
+        <v>65.36</v>
       </c>
       <c r="C85" t="n">
-        <v>65.64</v>
+        <v>65.36</v>
       </c>
       <c r="D85" t="n">
-        <v>65.64</v>
+        <v>65.36</v>
       </c>
       <c r="E85" t="n">
-        <v>65.53</v>
+        <v>65.36</v>
       </c>
       <c r="F85" t="n">
-        <v>69088.60799999999</v>
+        <v>894</v>
       </c>
       <c r="G85" t="n">
-        <v>-185194.3832044298</v>
+        <v>-181143.76544754</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3462,22 +3462,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>65.62</v>
+        <v>65.23</v>
       </c>
       <c r="C86" t="n">
-        <v>65.62</v>
+        <v>65.23</v>
       </c>
       <c r="D86" t="n">
-        <v>65.62</v>
+        <v>65.23</v>
       </c>
       <c r="E86" t="n">
-        <v>65.62</v>
+        <v>65.11</v>
       </c>
       <c r="F86" t="n">
-        <v>4286.0969</v>
+        <v>31127.8342</v>
       </c>
       <c r="G86" t="n">
-        <v>-189480.4801044298</v>
+        <v>-212271.59964754</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3498,22 +3498,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>65.62</v>
+        <v>65.23</v>
       </c>
       <c r="C87" t="n">
-        <v>65.62</v>
+        <v>65.08</v>
       </c>
       <c r="D87" t="n">
-        <v>65.62</v>
+        <v>65.23</v>
       </c>
       <c r="E87" t="n">
-        <v>65.62</v>
+        <v>65</v>
       </c>
       <c r="F87" t="n">
-        <v>2647.1812</v>
+        <v>23376.4188</v>
       </c>
       <c r="G87" t="n">
-        <v>-189480.4801044298</v>
+        <v>-235648.01844754</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3534,22 +3534,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>65.62</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>65.62</v>
+        <v>65.08</v>
       </c>
       <c r="D88" t="n">
-        <v>65.62</v>
+        <v>65.08</v>
       </c>
       <c r="E88" t="n">
-        <v>65.62</v>
+        <v>65.06999999999999</v>
       </c>
       <c r="F88" t="n">
-        <v>87.38849999999999</v>
+        <v>871.1679</v>
       </c>
       <c r="G88" t="n">
-        <v>-189480.4801044298</v>
+        <v>-235648.01844754</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3570,22 +3570,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>65.62</v>
+        <v>65.12</v>
       </c>
       <c r="C89" t="n">
-        <v>65.62</v>
+        <v>65.13</v>
       </c>
       <c r="D89" t="n">
-        <v>65.62</v>
+        <v>65.13</v>
       </c>
       <c r="E89" t="n">
-        <v>65.62</v>
+        <v>65.12</v>
       </c>
       <c r="F89" t="n">
-        <v>13863.6412</v>
+        <v>20159.0706</v>
       </c>
       <c r="G89" t="n">
-        <v>-189480.4801044298</v>
+        <v>-215488.94784754</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3606,22 +3606,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>65.47</v>
+        <v>65.12</v>
       </c>
       <c r="C90" t="n">
-        <v>65.47</v>
+        <v>65.12</v>
       </c>
       <c r="D90" t="n">
-        <v>65.47</v>
+        <v>65.12</v>
       </c>
       <c r="E90" t="n">
-        <v>65.47</v>
+        <v>65.12</v>
       </c>
       <c r="F90" t="n">
-        <v>1179.2478</v>
+        <v>851.7525000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-190659.7279044298</v>
+        <v>-216340.70034754</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3642,22 +3642,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>65.47</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>65.47</v>
+        <v>65.19</v>
       </c>
       <c r="D91" t="n">
-        <v>65.47</v>
+        <v>65.19</v>
       </c>
       <c r="E91" t="n">
-        <v>65.47</v>
+        <v>65.15000000000001</v>
       </c>
       <c r="F91" t="n">
-        <v>4184.5697</v>
+        <v>23417.83525095</v>
       </c>
       <c r="G91" t="n">
-        <v>-190659.7279044298</v>
+        <v>-192922.86509659</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3678,22 +3678,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>65.47</v>
+        <v>65.17</v>
       </c>
       <c r="C92" t="n">
-        <v>65.47</v>
+        <v>65.17</v>
       </c>
       <c r="D92" t="n">
-        <v>65.47</v>
+        <v>65.17</v>
       </c>
       <c r="E92" t="n">
-        <v>65.47</v>
+        <v>65.17</v>
       </c>
       <c r="F92" t="n">
-        <v>8499.823700000001</v>
+        <v>1701.3761</v>
       </c>
       <c r="G92" t="n">
-        <v>-190659.7279044298</v>
+        <v>-194624.24119659</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>65.45999999999999</v>
+        <v>65.17</v>
       </c>
       <c r="C93" t="n">
-        <v>65.59999999999999</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="D93" t="n">
-        <v>65.59999999999999</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="E93" t="n">
-        <v>65.45999999999999</v>
+        <v>65.17</v>
       </c>
       <c r="F93" t="n">
-        <v>22465.9045</v>
+        <v>1749.1859</v>
       </c>
       <c r="G93" t="n">
-        <v>-168193.8234044298</v>
+        <v>-192875.05529659</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3750,22 +3750,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>65.59999999999999</v>
+        <v>65.38</v>
       </c>
       <c r="C94" t="n">
-        <v>65.59</v>
+        <v>65.27</v>
       </c>
       <c r="D94" t="n">
-        <v>65.59999999999999</v>
+        <v>65.38</v>
       </c>
       <c r="E94" t="n">
-        <v>65.59</v>
+        <v>65.27</v>
       </c>
       <c r="F94" t="n">
-        <v>42134.3203</v>
+        <v>5604.1908</v>
       </c>
       <c r="G94" t="n">
-        <v>-210328.1437044298</v>
+        <v>-198479.24609659</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3786,22 +3786,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>65.53</v>
+        <v>65.27</v>
       </c>
       <c r="C95" t="n">
-        <v>65.53</v>
+        <v>65.27</v>
       </c>
       <c r="D95" t="n">
-        <v>65.53</v>
+        <v>65.27</v>
       </c>
       <c r="E95" t="n">
-        <v>65.53</v>
+        <v>65.27</v>
       </c>
       <c r="F95" t="n">
-        <v>12.2063</v>
+        <v>591</v>
       </c>
       <c r="G95" t="n">
-        <v>-210340.3500044298</v>
+        <v>-198479.24609659</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>65.51000000000001</v>
+        <v>65.27</v>
       </c>
       <c r="C96" t="n">
-        <v>65.51000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="D96" t="n">
-        <v>65.51000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="E96" t="n">
-        <v>65.51000000000001</v>
+        <v>65.27</v>
       </c>
       <c r="F96" t="n">
-        <v>2878.4379</v>
+        <v>634.8528</v>
       </c>
       <c r="G96" t="n">
-        <v>-213218.7879044298</v>
+        <v>-197844.39329659</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3858,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>65.51000000000001</v>
+        <v>65.17</v>
       </c>
       <c r="C97" t="n">
-        <v>65.51000000000001</v>
+        <v>65.16</v>
       </c>
       <c r="D97" t="n">
-        <v>65.51000000000001</v>
+        <v>65.17</v>
       </c>
       <c r="E97" t="n">
-        <v>65.51000000000001</v>
+        <v>65.16</v>
       </c>
       <c r="F97" t="n">
-        <v>2247.4534</v>
+        <v>43800</v>
       </c>
       <c r="G97" t="n">
-        <v>-213218.7879044298</v>
+        <v>-241644.39329659</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>65.51000000000001</v>
+        <v>65.16</v>
       </c>
       <c r="C98" t="n">
-        <v>65.51000000000001</v>
+        <v>65.16</v>
       </c>
       <c r="D98" t="n">
-        <v>65.51000000000001</v>
+        <v>65.22</v>
       </c>
       <c r="E98" t="n">
-        <v>65.51000000000001</v>
+        <v>65.16</v>
       </c>
       <c r="F98" t="n">
-        <v>1862.5936</v>
+        <v>9283.5299</v>
       </c>
       <c r="G98" t="n">
-        <v>-213218.7879044298</v>
+        <v>-241644.39329659</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3930,22 +3930,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>65.5</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>65.5</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="D99" t="n">
-        <v>65.5</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="E99" t="n">
-        <v>65.5</v>
+        <v>65.31999999999999</v>
       </c>
       <c r="F99" t="n">
-        <v>3399.9</v>
+        <v>827.5141</v>
       </c>
       <c r="G99" t="n">
-        <v>-216618.6879044298</v>
+        <v>-240816.87919659</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3966,22 +3966,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>65.51000000000001</v>
+        <v>65.34</v>
       </c>
       <c r="C100" t="n">
-        <v>65.51000000000001</v>
+        <v>65.34</v>
       </c>
       <c r="D100" t="n">
-        <v>65.51000000000001</v>
+        <v>65.34</v>
       </c>
       <c r="E100" t="n">
-        <v>65.51000000000001</v>
+        <v>65.34</v>
       </c>
       <c r="F100" t="n">
-        <v>553.782</v>
+        <v>386.4312</v>
       </c>
       <c r="G100" t="n">
-        <v>-216064.9059044298</v>
+        <v>-240430.44799659</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4002,22 +4002,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>65.51000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="C101" t="n">
-        <v>65.51000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="D101" t="n">
-        <v>65.51000000000001</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="E101" t="n">
-        <v>65.51000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="F101" t="n">
-        <v>1002.0482</v>
+        <v>113427.92698001</v>
       </c>
       <c r="G101" t="n">
-        <v>-216064.9059044298</v>
+        <v>-353858.3749766</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4038,22 +4038,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>65.51000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="C102" t="n">
-        <v>65.51000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="D102" t="n">
-        <v>65.51000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="E102" t="n">
-        <v>65.51000000000001</v>
+        <v>65.33</v>
       </c>
       <c r="F102" t="n">
-        <v>5000</v>
+        <v>120926.9485</v>
       </c>
       <c r="G102" t="n">
-        <v>-216064.9059044298</v>
+        <v>-353858.3749766</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4074,22 +4074,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>65.51000000000001</v>
+        <v>65.55</v>
       </c>
       <c r="C103" t="n">
-        <v>65.51000000000001</v>
+        <v>65.55</v>
       </c>
       <c r="D103" t="n">
-        <v>65.51000000000001</v>
+        <v>65.55</v>
       </c>
       <c r="E103" t="n">
-        <v>65.51000000000001</v>
+        <v>65.55</v>
       </c>
       <c r="F103" t="n">
-        <v>542.4277</v>
+        <v>300.54919908</v>
       </c>
       <c r="G103" t="n">
-        <v>-216064.9059044298</v>
+        <v>-353557.82577752</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4110,22 +4110,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>65.5</v>
+        <v>65.61</v>
       </c>
       <c r="C104" t="n">
-        <v>65.5</v>
+        <v>65.61</v>
       </c>
       <c r="D104" t="n">
-        <v>65.5</v>
+        <v>65.61</v>
       </c>
       <c r="E104" t="n">
-        <v>65.5</v>
+        <v>65.61</v>
       </c>
       <c r="F104" t="n">
-        <v>19.9993</v>
+        <v>302.2943</v>
       </c>
       <c r="G104" t="n">
-        <v>-216084.9052044298</v>
+        <v>-353255.53147752</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4146,22 +4146,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>65.48</v>
+        <v>65.61</v>
       </c>
       <c r="C105" t="n">
-        <v>65.48</v>
+        <v>65.61</v>
       </c>
       <c r="D105" t="n">
-        <v>65.48</v>
+        <v>65.61</v>
       </c>
       <c r="E105" t="n">
-        <v>65.48</v>
+        <v>65.61</v>
       </c>
       <c r="F105" t="n">
-        <v>100</v>
+        <v>2597.70261611</v>
       </c>
       <c r="G105" t="n">
-        <v>-216184.9052044298</v>
+        <v>-353255.53147752</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>65.5</v>
+        <v>65.61</v>
       </c>
       <c r="C106" t="n">
-        <v>65.5</v>
+        <v>65.61</v>
       </c>
       <c r="D106" t="n">
-        <v>65.5</v>
+        <v>65.61</v>
       </c>
       <c r="E106" t="n">
-        <v>65.5</v>
+        <v>65.61</v>
       </c>
       <c r="F106" t="n">
-        <v>894</v>
+        <v>519.7942</v>
       </c>
       <c r="G106" t="n">
-        <v>-215290.9052044298</v>
+        <v>-353255.53147752</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>65.45</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>65.31</v>
+        <v>65.61</v>
       </c>
       <c r="D107" t="n">
-        <v>65.45</v>
+        <v>65.61</v>
       </c>
       <c r="E107" t="n">
-        <v>65.31</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="F107" t="n">
-        <v>100869.7157</v>
+        <v>5640.1993</v>
       </c>
       <c r="G107" t="n">
-        <v>-316160.6209044298</v>
+        <v>-353255.53147752</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4254,22 +4254,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>65.47</v>
+        <v>65.61</v>
       </c>
       <c r="C108" t="n">
-        <v>65.43000000000001</v>
+        <v>65.42</v>
       </c>
       <c r="D108" t="n">
-        <v>65.47</v>
+        <v>65.61</v>
       </c>
       <c r="E108" t="n">
-        <v>65.43000000000001</v>
+        <v>65.42</v>
       </c>
       <c r="F108" t="n">
-        <v>653.7115</v>
+        <v>10000</v>
       </c>
       <c r="G108" t="n">
-        <v>-315506.9094044298</v>
+        <v>-363255.53147752</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4290,22 +4290,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>65.5</v>
+        <v>65.53</v>
       </c>
       <c r="C109" t="n">
-        <v>65.5</v>
+        <v>65.3</v>
       </c>
       <c r="D109" t="n">
-        <v>65.5</v>
+        <v>65.53</v>
       </c>
       <c r="E109" t="n">
-        <v>65.5</v>
+        <v>65.29000000000001</v>
       </c>
       <c r="F109" t="n">
-        <v>271.1726</v>
+        <v>41248.3352</v>
       </c>
       <c r="G109" t="n">
-        <v>-315235.7368044298</v>
+        <v>-404503.86667752</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4326,22 +4326,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>65.5</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="C110" t="n">
-        <v>65.5</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>65.5</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="E110" t="n">
-        <v>65.5</v>
+        <v>65.23999999999999</v>
       </c>
       <c r="F110" t="n">
-        <v>15760.2</v>
+        <v>379.4187</v>
       </c>
       <c r="G110" t="n">
-        <v>-315235.7368044298</v>
+        <v>-404883.28537752</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4362,22 +4362,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>65.5</v>
+        <v>65.33</v>
       </c>
       <c r="C111" t="n">
-        <v>65.5</v>
+        <v>65.33</v>
       </c>
       <c r="D111" t="n">
-        <v>65.5</v>
+        <v>65.33</v>
       </c>
       <c r="E111" t="n">
-        <v>65.5</v>
+        <v>65.33</v>
       </c>
       <c r="F111" t="n">
-        <v>14532.5366</v>
+        <v>322.28600341</v>
       </c>
       <c r="G111" t="n">
-        <v>-315235.7368044298</v>
+        <v>-404560.99937411</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4398,22 +4398,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>65.5</v>
+        <v>65.33</v>
       </c>
       <c r="C112" t="n">
-        <v>65.5</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>65.5</v>
+        <v>65.33</v>
       </c>
       <c r="E112" t="n">
-        <v>65.5</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="F112" t="n">
-        <v>1979.1402</v>
+        <v>1252.8943</v>
       </c>
       <c r="G112" t="n">
-        <v>-315235.7368044298</v>
+        <v>-405813.8936741099</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4434,22 +4434,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>65.5</v>
+        <v>65.3</v>
       </c>
       <c r="C113" t="n">
-        <v>65.5</v>
+        <v>65.3</v>
       </c>
       <c r="D113" t="n">
-        <v>65.5</v>
+        <v>65.3</v>
       </c>
       <c r="E113" t="n">
-        <v>65.5</v>
+        <v>65.3</v>
       </c>
       <c r="F113" t="n">
-        <v>1659.4978</v>
+        <v>562</v>
       </c>
       <c r="G113" t="n">
-        <v>-315235.7368044298</v>
+        <v>-405251.8936741099</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4470,22 +4470,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>65.5</v>
+        <v>65.33</v>
       </c>
       <c r="C114" t="n">
-        <v>65.5</v>
+        <v>65.33</v>
       </c>
       <c r="D114" t="n">
-        <v>65.5</v>
+        <v>65.33</v>
       </c>
       <c r="E114" t="n">
-        <v>65.5</v>
+        <v>65.33</v>
       </c>
       <c r="F114" t="n">
-        <v>1705.7865</v>
+        <v>5727.6494</v>
       </c>
       <c r="G114" t="n">
-        <v>-315235.7368044298</v>
+        <v>-399524.24427411</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4506,22 +4506,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>65.5</v>
+        <v>65.2</v>
       </c>
       <c r="C115" t="n">
-        <v>65.5</v>
+        <v>65.11</v>
       </c>
       <c r="D115" t="n">
-        <v>65.5</v>
+        <v>65.2</v>
       </c>
       <c r="E115" t="n">
-        <v>65.5</v>
+        <v>65.11</v>
       </c>
       <c r="F115" t="n">
-        <v>1000</v>
+        <v>4495.5</v>
       </c>
       <c r="G115" t="n">
-        <v>-315235.7368044298</v>
+        <v>-404019.74427411</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4542,22 +4542,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>65.5</v>
+        <v>65.39</v>
       </c>
       <c r="C116" t="n">
-        <v>65.5</v>
+        <v>65.39</v>
       </c>
       <c r="D116" t="n">
-        <v>65.5</v>
+        <v>65.39</v>
       </c>
       <c r="E116" t="n">
-        <v>65.5</v>
+        <v>65.39</v>
       </c>
       <c r="F116" t="n">
-        <v>624.93467557</v>
+        <v>167.1234</v>
       </c>
       <c r="G116" t="n">
-        <v>-315235.7368044298</v>
+        <v>-403852.62087411</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4578,22 +4578,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>65.48999999999999</v>
+        <v>65.45</v>
       </c>
       <c r="C117" t="n">
-        <v>65.48999999999999</v>
+        <v>65.45</v>
       </c>
       <c r="D117" t="n">
-        <v>65.48999999999999</v>
+        <v>65.45</v>
       </c>
       <c r="E117" t="n">
-        <v>65.48999999999999</v>
+        <v>65.45</v>
       </c>
       <c r="F117" t="n">
-        <v>906.5939</v>
+        <v>103.5076</v>
       </c>
       <c r="G117" t="n">
-        <v>-316142.3307044298</v>
+        <v>-403749.11327411</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4614,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>65.48999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="C118" t="n">
-        <v>65.48999999999999</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="D118" t="n">
-        <v>65.48999999999999</v>
+        <v>65.70999999999999</v>
       </c>
       <c r="E118" t="n">
-        <v>65.48999999999999</v>
+        <v>65.61</v>
       </c>
       <c r="F118" t="n">
-        <v>23254.9</v>
+        <v>20062.8383</v>
       </c>
       <c r="G118" t="n">
-        <v>-316142.3307044298</v>
+        <v>-383686.27497411</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4650,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>65.44</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="C119" t="n">
-        <v>65.43000000000001</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>65.44</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>65.43000000000001</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="F119" t="n">
-        <v>2057</v>
+        <v>9311</v>
       </c>
       <c r="G119" t="n">
-        <v>-318199.3307044298</v>
+        <v>-374375.27497411</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4686,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>65.43000000000001</v>
+        <v>66.17</v>
       </c>
       <c r="C120" t="n">
-        <v>65.41</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="D120" t="n">
-        <v>65.43000000000001</v>
+        <v>66.17</v>
       </c>
       <c r="E120" t="n">
-        <v>65.41</v>
+        <v>65.98999999999999</v>
       </c>
       <c r="F120" t="n">
-        <v>34904.7561</v>
+        <v>17561.599</v>
       </c>
       <c r="G120" t="n">
-        <v>-353104.0868044298</v>
+        <v>-391936.8739741099</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4722,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>65.53</v>
+        <v>65.98</v>
       </c>
       <c r="C121" t="n">
-        <v>65.53</v>
+        <v>65.97</v>
       </c>
       <c r="D121" t="n">
-        <v>65.53</v>
+        <v>65.98</v>
       </c>
       <c r="E121" t="n">
-        <v>65.53</v>
+        <v>65.97</v>
       </c>
       <c r="F121" t="n">
-        <v>758.0258</v>
+        <v>14442.4189</v>
       </c>
       <c r="G121" t="n">
-        <v>-352346.0610044298</v>
+        <v>-406379.2928741099</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4758,22 +4758,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>65.68000000000001</v>
+        <v>65.98</v>
       </c>
       <c r="C122" t="n">
-        <v>65.73</v>
+        <v>66.17</v>
       </c>
       <c r="D122" t="n">
-        <v>65.73</v>
+        <v>66.17</v>
       </c>
       <c r="E122" t="n">
-        <v>65.63</v>
+        <v>65.98</v>
       </c>
       <c r="F122" t="n">
-        <v>23600</v>
+        <v>2013.7205</v>
       </c>
       <c r="G122" t="n">
-        <v>-328746.0610044298</v>
+        <v>-404365.5723741099</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -4794,22 +4794,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>65.86</v>
+        <v>66.28</v>
       </c>
       <c r="C123" t="n">
-        <v>65.86</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>65.86</v>
+        <v>66.28</v>
       </c>
       <c r="E123" t="n">
-        <v>65.86</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="F123" t="n">
-        <v>1330.00303674</v>
+        <v>16114.2064</v>
       </c>
       <c r="G123" t="n">
-        <v>-327416.0579676898</v>
+        <v>-420479.77877411</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -4830,22 +4830,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>65.65000000000001</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>65.65000000000001</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>65.65000000000001</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>65.65000000000001</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="F124" t="n">
-        <v>388.2954</v>
+        <v>10988</v>
       </c>
       <c r="G124" t="n">
-        <v>-327804.3533676898</v>
+        <v>-409491.77877411</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -4866,22 +4866,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>65.65000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="C125" t="n">
-        <v>65.65000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="D125" t="n">
-        <v>65.65000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="E125" t="n">
-        <v>65.65000000000001</v>
+        <v>66.37</v>
       </c>
       <c r="F125" t="n">
-        <v>68.6734</v>
+        <v>150.67048365</v>
       </c>
       <c r="G125" t="n">
-        <v>-327804.3533676898</v>
+        <v>-409341.10829046</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4902,22 +4902,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>65.68000000000001</v>
+        <v>66.25</v>
       </c>
       <c r="C126" t="n">
-        <v>65.68000000000001</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>65.68000000000001</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>65.68000000000001</v>
+        <v>66.25</v>
       </c>
       <c r="F126" t="n">
-        <v>5519.1443</v>
+        <v>3452.0365</v>
       </c>
       <c r="G126" t="n">
-        <v>-322285.2090676898</v>
+        <v>-412793.1447904599</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -4938,22 +4938,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>65.68000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="C127" t="n">
-        <v>65.78</v>
+        <v>66.31</v>
       </c>
       <c r="D127" t="n">
-        <v>65.78</v>
+        <v>66.31</v>
       </c>
       <c r="E127" t="n">
-        <v>65.68000000000001</v>
+        <v>66.31</v>
       </c>
       <c r="F127" t="n">
-        <v>428.6</v>
+        <v>1105.1077</v>
       </c>
       <c r="G127" t="n">
-        <v>-321856.6090676899</v>
+        <v>-411688.03709046</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -4974,22 +4974,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>66.06999999999999</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="C128" t="n">
-        <v>66.06999999999999</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>66.06999999999999</v>
+        <v>66.29000000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>66.06999999999999</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="F128" t="n">
-        <v>8</v>
+        <v>2282.5437</v>
       </c>
       <c r="G128" t="n">
-        <v>-321848.6090676899</v>
+        <v>-413970.5807904599</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5010,22 +5010,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>66.09</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>66.09</v>
+        <v>66.31</v>
       </c>
       <c r="D129" t="n">
-        <v>66.09</v>
+        <v>66.31</v>
       </c>
       <c r="E129" t="n">
-        <v>66.09</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="F129" t="n">
-        <v>10</v>
+        <v>871.552</v>
       </c>
       <c r="G129" t="n">
-        <v>-321838.6090676899</v>
+        <v>-413099.0287904599</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5046,22 +5046,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>65.81</v>
+        <v>66.31</v>
       </c>
       <c r="C130" t="n">
-        <v>65.81</v>
+        <v>66.31</v>
       </c>
       <c r="D130" t="n">
-        <v>65.81</v>
+        <v>66.31</v>
       </c>
       <c r="E130" t="n">
-        <v>65.81</v>
+        <v>66.31</v>
       </c>
       <c r="F130" t="n">
-        <v>7.5977</v>
+        <v>1379.273</v>
       </c>
       <c r="G130" t="n">
-        <v>-321846.2067676898</v>
+        <v>-413099.0287904599</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5082,22 +5082,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>66.09999999999999</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="C131" t="n">
-        <v>66.09999999999999</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>66.09999999999999</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>66.09999999999999</v>
+        <v>66.26000000000001</v>
       </c>
       <c r="F131" t="n">
-        <v>8</v>
+        <v>13.1048</v>
       </c>
       <c r="G131" t="n">
-        <v>-321838.2067676898</v>
+        <v>-413112.1335904599</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5118,22 +5118,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>66.09999999999999</v>
+        <v>66.25</v>
       </c>
       <c r="C132" t="n">
-        <v>66.09999999999999</v>
+        <v>66.25</v>
       </c>
       <c r="D132" t="n">
-        <v>66.09999999999999</v>
+        <v>66.25</v>
       </c>
       <c r="E132" t="n">
-        <v>66.09999999999999</v>
+        <v>66.25</v>
       </c>
       <c r="F132" t="n">
-        <v>2122.2066</v>
+        <v>7.5963</v>
       </c>
       <c r="G132" t="n">
-        <v>-321838.2067676898</v>
+        <v>-413119.7298904599</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5154,22 +5154,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="C133" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D133" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>66</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F133" t="n">
-        <v>10881.87878787</v>
+        <v>589.9226</v>
       </c>
       <c r="G133" t="n">
-        <v>-332720.0855555598</v>
+        <v>-413709.6524904598</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5190,22 +5190,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>65.56999999999999</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>65.56999999999999</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>65.56999999999999</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="E134" t="n">
-        <v>65.56999999999999</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="F134" t="n">
-        <v>1646.7832</v>
+        <v>1733.3337</v>
       </c>
       <c r="G134" t="n">
-        <v>-334366.8687555598</v>
+        <v>-415442.9861904599</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5226,22 +5226,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>65.8</v>
+        <v>65.84</v>
       </c>
       <c r="C135" t="n">
-        <v>65.8</v>
+        <v>65.86</v>
       </c>
       <c r="D135" t="n">
-        <v>65.8</v>
+        <v>65.86</v>
       </c>
       <c r="E135" t="n">
-        <v>65.8</v>
+        <v>65.84</v>
       </c>
       <c r="F135" t="n">
-        <v>125</v>
+        <v>1576.89</v>
       </c>
       <c r="G135" t="n">
-        <v>-334241.8687555598</v>
+        <v>-413866.0961904599</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5262,22 +5262,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>65.7</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>65.7</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>65.7</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="E136" t="n">
-        <v>65.7</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="F136" t="n">
-        <v>60</v>
+        <v>1003.2249</v>
       </c>
       <c r="G136" t="n">
-        <v>-334301.8687555598</v>
+        <v>-414869.3210904598</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5298,32 +5298,38 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>65.76000000000001</v>
+        <v>65.73</v>
       </c>
       <c r="C137" t="n">
-        <v>65.56</v>
+        <v>65.72</v>
       </c>
       <c r="D137" t="n">
-        <v>65.76000000000001</v>
+        <v>65.73</v>
       </c>
       <c r="E137" t="n">
-        <v>65.56</v>
+        <v>65.72</v>
       </c>
       <c r="F137" t="n">
-        <v>22769.4747</v>
+        <v>802.8881</v>
       </c>
       <c r="G137" t="n">
-        <v>-357071.3434555599</v>
+        <v>-415672.2091904598</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>65.79000000000001</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5334,32 +5340,38 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>65.79000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="C138" t="n">
-        <v>65.79000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="D138" t="n">
-        <v>65.79000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="E138" t="n">
-        <v>65.79000000000001</v>
+        <v>65.8</v>
       </c>
       <c r="F138" t="n">
-        <v>7.61</v>
+        <v>442.016</v>
       </c>
       <c r="G138" t="n">
-        <v>-357063.7334555599</v>
+        <v>-415230.1931904598</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>65.72</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5370,32 +5382,38 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>65.79000000000001</v>
+        <v>65.7</v>
       </c>
       <c r="C139" t="n">
-        <v>65.79000000000001</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>65.79000000000001</v>
+        <v>65.95999999999999</v>
       </c>
       <c r="E139" t="n">
-        <v>65.79000000000001</v>
+        <v>65.62</v>
       </c>
       <c r="F139" t="n">
-        <v>10</v>
+        <v>110037.8853</v>
       </c>
       <c r="G139" t="n">
-        <v>-357063.7334555599</v>
+        <v>-305192.3078904598</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>65.8</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5406,22 +5424,22 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>65.69</v>
+        <v>65.93000000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>65.69</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>65.69</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="E140" t="n">
-        <v>65.69</v>
+        <v>65.84</v>
       </c>
       <c r="F140" t="n">
-        <v>150.0806</v>
+        <v>65370.3416</v>
       </c>
       <c r="G140" t="n">
-        <v>-357213.8140555599</v>
+        <v>-239821.9662904598</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5431,7 +5449,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5442,22 +5464,22 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>65.76000000000001</v>
+        <v>66.27</v>
       </c>
       <c r="C141" t="n">
-        <v>65.76000000000001</v>
+        <v>66.27</v>
       </c>
       <c r="D141" t="n">
-        <v>65.76000000000001</v>
+        <v>66.27</v>
       </c>
       <c r="E141" t="n">
-        <v>65.76000000000001</v>
+        <v>66.27</v>
       </c>
       <c r="F141" t="n">
-        <v>8</v>
+        <v>1407</v>
       </c>
       <c r="G141" t="n">
-        <v>-357205.8140555599</v>
+        <v>-238414.9662904598</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5467,7 +5489,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5478,22 +5504,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>65.72</v>
+        <v>66.16</v>
       </c>
       <c r="C142" t="n">
-        <v>65.72</v>
+        <v>66.16</v>
       </c>
       <c r="D142" t="n">
-        <v>65.72</v>
+        <v>66.16</v>
       </c>
       <c r="E142" t="n">
-        <v>65.72</v>
+        <v>66.16</v>
       </c>
       <c r="F142" t="n">
-        <v>801</v>
+        <v>2634</v>
       </c>
       <c r="G142" t="n">
-        <v>-358006.8140555599</v>
+        <v>-241048.9662904598</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5503,7 +5529,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5514,22 +5544,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>65.72</v>
+        <v>66.37</v>
       </c>
       <c r="C143" t="n">
-        <v>65.72</v>
+        <v>66.37</v>
       </c>
       <c r="D143" t="n">
-        <v>65.72</v>
+        <v>66.37</v>
       </c>
       <c r="E143" t="n">
-        <v>65.72</v>
+        <v>66.37</v>
       </c>
       <c r="F143" t="n">
-        <v>376.5661</v>
+        <v>6013.0083</v>
       </c>
       <c r="G143" t="n">
-        <v>-358006.8140555599</v>
+        <v>-235035.9579904598</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5539,7 +5569,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5550,22 +5584,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>65.72</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C144" t="n">
-        <v>65.72</v>
+        <v>66.08</v>
       </c>
       <c r="D144" t="n">
-        <v>65.72</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="E144" t="n">
-        <v>65.72</v>
+        <v>66.08</v>
       </c>
       <c r="F144" t="n">
-        <v>53.1546</v>
+        <v>973.3187</v>
       </c>
       <c r="G144" t="n">
-        <v>-358006.8140555599</v>
+        <v>-236009.2766904598</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -5575,7 +5609,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5586,22 +5624,22 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>65.83</v>
+        <v>66.08</v>
       </c>
       <c r="C145" t="n">
-        <v>65.83</v>
+        <v>66.08</v>
       </c>
       <c r="D145" t="n">
-        <v>65.83</v>
+        <v>66.08</v>
       </c>
       <c r="E145" t="n">
-        <v>65.83</v>
+        <v>66.08</v>
       </c>
       <c r="F145" t="n">
-        <v>7574.217</v>
+        <v>482.4979</v>
       </c>
       <c r="G145" t="n">
-        <v>-350432.5970555599</v>
+        <v>-236009.2766904598</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5611,7 +5649,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5622,22 +5664,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>66</v>
+        <v>66.08</v>
       </c>
       <c r="C146" t="n">
-        <v>66</v>
+        <v>66.08</v>
       </c>
       <c r="D146" t="n">
-        <v>66</v>
+        <v>66.08</v>
       </c>
       <c r="E146" t="n">
-        <v>66</v>
+        <v>66.08</v>
       </c>
       <c r="F146" t="n">
-        <v>12084.1848</v>
+        <v>178.0385</v>
       </c>
       <c r="G146" t="n">
-        <v>-338348.4122555599</v>
+        <v>-236009.2766904598</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5647,7 +5689,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5661,19 +5707,19 @@
         <v>66.09</v>
       </c>
       <c r="C147" t="n">
-        <v>66.09999999999999</v>
+        <v>65.87</v>
       </c>
       <c r="D147" t="n">
-        <v>66.09999999999999</v>
+        <v>66.09</v>
       </c>
       <c r="E147" t="n">
-        <v>66.09</v>
+        <v>65.87</v>
       </c>
       <c r="F147" t="n">
-        <v>27780.6214</v>
+        <v>4682.9994</v>
       </c>
       <c r="G147" t="n">
-        <v>-310567.7908555599</v>
+        <v>-240692.2760904598</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5683,7 +5729,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5694,22 +5744,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>66.09999999999999</v>
+        <v>65.89</v>
       </c>
       <c r="C148" t="n">
-        <v>66.26000000000001</v>
+        <v>65.89</v>
       </c>
       <c r="D148" t="n">
-        <v>66.34</v>
+        <v>65.89</v>
       </c>
       <c r="E148" t="n">
-        <v>66.09999999999999</v>
+        <v>65.89</v>
       </c>
       <c r="F148" t="n">
-        <v>20927.6993</v>
+        <v>379.6968</v>
       </c>
       <c r="G148" t="n">
-        <v>-289640.0915555599</v>
+        <v>-240312.5792904598</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5719,7 +5769,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5730,22 +5784,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>66.26000000000001</v>
+        <v>65.87</v>
       </c>
       <c r="C149" t="n">
-        <v>66.26000000000001</v>
+        <v>65.87</v>
       </c>
       <c r="D149" t="n">
-        <v>66.26000000000001</v>
+        <v>65.87</v>
       </c>
       <c r="E149" t="n">
-        <v>66.26000000000001</v>
+        <v>65.87</v>
       </c>
       <c r="F149" t="n">
-        <v>1202.3734</v>
+        <v>3098.3673</v>
       </c>
       <c r="G149" t="n">
-        <v>-289640.0915555599</v>
+        <v>-243410.9465904598</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5755,7 +5809,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5766,22 +5824,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>66.3</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="C150" t="n">
-        <v>66.3</v>
+        <v>65.88</v>
       </c>
       <c r="D150" t="n">
-        <v>66.3</v>
+        <v>65.88</v>
       </c>
       <c r="E150" t="n">
-        <v>66.3</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="F150" t="n">
-        <v>618.9</v>
+        <v>3028.85898603</v>
       </c>
       <c r="G150" t="n">
-        <v>-289021.1915555599</v>
+        <v>-240382.0876044298</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5791,7 +5849,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5802,22 +5864,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>66.3</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="C151" t="n">
-        <v>66.3</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="D151" t="n">
-        <v>66.3</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="E151" t="n">
-        <v>66.3</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="F151" t="n">
-        <v>64.45140000000001</v>
+        <v>767.3218000000001</v>
       </c>
       <c r="G151" t="n">
-        <v>-289021.1915555599</v>
+        <v>-241149.4094044298</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5827,7 +5889,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5838,22 +5904,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>66.37</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="C152" t="n">
-        <v>66.37</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="D152" t="n">
-        <v>66.37</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="E152" t="n">
-        <v>66.37</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="F152" t="n">
-        <v>201.2688</v>
+        <v>20159.0706</v>
       </c>
       <c r="G152" t="n">
-        <v>-288819.9227555598</v>
+        <v>-241149.4094044298</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5863,7 +5929,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5874,22 +5944,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>66.3</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="C153" t="n">
-        <v>66.3</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="D153" t="n">
-        <v>66.3</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="E153" t="n">
-        <v>66.3</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="F153" t="n">
-        <v>905.9446</v>
+        <v>9612.4107</v>
       </c>
       <c r="G153" t="n">
-        <v>-289725.8673555598</v>
+        <v>-241149.4094044298</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5899,7 +5969,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5910,22 +5984,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>66.37</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="C154" t="n">
-        <v>66.37</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="D154" t="n">
-        <v>66.37</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="E154" t="n">
-        <v>66.37</v>
+        <v>65.34999999999999</v>
       </c>
       <c r="F154" t="n">
-        <v>943.5469000000001</v>
+        <v>13164</v>
       </c>
       <c r="G154" t="n">
-        <v>-288782.3204555598</v>
+        <v>-254313.4094044298</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -5935,7 +6009,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5946,22 +6024,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>66.31</v>
+        <v>65.52</v>
       </c>
       <c r="C155" t="n">
-        <v>66.31</v>
+        <v>65.52</v>
       </c>
       <c r="D155" t="n">
-        <v>66.31</v>
+        <v>65.52</v>
       </c>
       <c r="E155" t="n">
-        <v>66.31</v>
+        <v>65.52</v>
       </c>
       <c r="F155" t="n">
-        <v>445.5565</v>
+        <v>30.4182</v>
       </c>
       <c r="G155" t="n">
-        <v>-289227.8769555598</v>
+        <v>-254282.9912044298</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -5971,7 +6049,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5982,22 +6064,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>66.48</v>
+        <v>65.56</v>
       </c>
       <c r="C156" t="n">
-        <v>66.26000000000001</v>
+        <v>65.64</v>
       </c>
       <c r="D156" t="n">
-        <v>66.48</v>
+        <v>65.64</v>
       </c>
       <c r="E156" t="n">
-        <v>66.26000000000001</v>
+        <v>65.53</v>
       </c>
       <c r="F156" t="n">
-        <v>2536.838</v>
+        <v>69088.60799999999</v>
       </c>
       <c r="G156" t="n">
-        <v>-291764.7149555598</v>
+        <v>-185194.3832044298</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6007,7 +6089,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6018,22 +6104,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>66.2</v>
+        <v>65.62</v>
       </c>
       <c r="C157" t="n">
-        <v>66.2</v>
+        <v>65.62</v>
       </c>
       <c r="D157" t="n">
-        <v>66.2</v>
+        <v>65.62</v>
       </c>
       <c r="E157" t="n">
-        <v>66.2</v>
+        <v>65.62</v>
       </c>
       <c r="F157" t="n">
-        <v>14</v>
+        <v>4286.0969</v>
       </c>
       <c r="G157" t="n">
-        <v>-291778.7149555598</v>
+        <v>-189480.4801044298</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6043,7 +6129,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -6054,22 +6144,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>66.2</v>
+        <v>65.62</v>
       </c>
       <c r="C158" t="n">
-        <v>66.08</v>
+        <v>65.62</v>
       </c>
       <c r="D158" t="n">
-        <v>66.2</v>
+        <v>65.62</v>
       </c>
       <c r="E158" t="n">
-        <v>66.08</v>
+        <v>65.62</v>
       </c>
       <c r="F158" t="n">
-        <v>1911.0111</v>
+        <v>2647.1812</v>
       </c>
       <c r="G158" t="n">
-        <v>-293689.7260555598</v>
+        <v>-189480.4801044298</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6079,7 +6169,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -6090,22 +6184,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>66.31</v>
+        <v>65.62</v>
       </c>
       <c r="C159" t="n">
-        <v>66.31</v>
+        <v>65.62</v>
       </c>
       <c r="D159" t="n">
-        <v>66.31</v>
+        <v>65.62</v>
       </c>
       <c r="E159" t="n">
-        <v>66.31</v>
+        <v>65.62</v>
       </c>
       <c r="F159" t="n">
-        <v>8</v>
+        <v>87.38849999999999</v>
       </c>
       <c r="G159" t="n">
-        <v>-293681.7260555598</v>
+        <v>-189480.4801044298</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6115,7 +6209,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -6126,22 +6224,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>66.25</v>
+        <v>65.62</v>
       </c>
       <c r="C160" t="n">
-        <v>66.04000000000001</v>
+        <v>65.62</v>
       </c>
       <c r="D160" t="n">
-        <v>66.25</v>
+        <v>65.62</v>
       </c>
       <c r="E160" t="n">
-        <v>66.04000000000001</v>
+        <v>65.62</v>
       </c>
       <c r="F160" t="n">
-        <v>9027.270699999999</v>
+        <v>13863.6412</v>
       </c>
       <c r="G160" t="n">
-        <v>-302708.9967555598</v>
+        <v>-189480.4801044298</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6151,7 +6249,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6162,22 +6264,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>66</v>
+        <v>65.47</v>
       </c>
       <c r="C161" t="n">
-        <v>65.94</v>
+        <v>65.47</v>
       </c>
       <c r="D161" t="n">
-        <v>66</v>
+        <v>65.47</v>
       </c>
       <c r="E161" t="n">
-        <v>65.94</v>
+        <v>65.47</v>
       </c>
       <c r="F161" t="n">
-        <v>8216.1494</v>
+        <v>1179.2478</v>
       </c>
       <c r="G161" t="n">
-        <v>-310925.1461555598</v>
+        <v>-190659.7279044298</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6187,7 +6289,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6198,22 +6304,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>65.94</v>
+        <v>65.47</v>
       </c>
       <c r="C162" t="n">
-        <v>65.94</v>
+        <v>65.47</v>
       </c>
       <c r="D162" t="n">
-        <v>65.94</v>
+        <v>65.47</v>
       </c>
       <c r="E162" t="n">
-        <v>65.94</v>
+        <v>65.47</v>
       </c>
       <c r="F162" t="n">
-        <v>97.3241</v>
+        <v>4184.5697</v>
       </c>
       <c r="G162" t="n">
-        <v>-310925.1461555598</v>
+        <v>-190659.7279044298</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6223,7 +6329,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6234,22 +6344,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>65.92</v>
+        <v>65.47</v>
       </c>
       <c r="C163" t="n">
-        <v>65.92</v>
+        <v>65.47</v>
       </c>
       <c r="D163" t="n">
-        <v>65.92</v>
+        <v>65.47</v>
       </c>
       <c r="E163" t="n">
-        <v>65.92</v>
+        <v>65.47</v>
       </c>
       <c r="F163" t="n">
-        <v>1043.6572</v>
+        <v>8499.823700000001</v>
       </c>
       <c r="G163" t="n">
-        <v>-311968.8033555598</v>
+        <v>-190659.7279044298</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6259,7 +6369,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6270,22 +6384,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>65.92</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="C164" t="n">
-        <v>65.90000000000001</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="D164" t="n">
-        <v>65.92</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E164" t="n">
-        <v>65.90000000000001</v>
+        <v>65.45999999999999</v>
       </c>
       <c r="F164" t="n">
-        <v>386</v>
+        <v>22465.9045</v>
       </c>
       <c r="G164" t="n">
-        <v>-312354.8033555598</v>
+        <v>-168193.8234044298</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6295,7 +6409,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6306,22 +6424,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>65.91</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="C165" t="n">
-        <v>65.90000000000001</v>
+        <v>65.59</v>
       </c>
       <c r="D165" t="n">
-        <v>65.91</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E165" t="n">
-        <v>65.90000000000001</v>
+        <v>65.59</v>
       </c>
       <c r="F165" t="n">
-        <v>1762.7673</v>
+        <v>42134.3203</v>
       </c>
       <c r="G165" t="n">
-        <v>-312354.8033555598</v>
+        <v>-210328.1437044298</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6331,7 +6449,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6342,22 +6464,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>65.98999999999999</v>
+        <v>65.53</v>
       </c>
       <c r="C166" t="n">
-        <v>65.95999999999999</v>
+        <v>65.53</v>
       </c>
       <c r="D166" t="n">
-        <v>65.98999999999999</v>
+        <v>65.53</v>
       </c>
       <c r="E166" t="n">
-        <v>65.81999999999999</v>
+        <v>65.53</v>
       </c>
       <c r="F166" t="n">
-        <v>3302.5795</v>
+        <v>12.2063</v>
       </c>
       <c r="G166" t="n">
-        <v>-309052.2238555598</v>
+        <v>-210340.3500044298</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6367,7 +6489,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6378,22 +6504,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>65.72</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>65.72</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D167" t="n">
-        <v>65.72</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E167" t="n">
-        <v>65.72</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F167" t="n">
-        <v>300</v>
+        <v>2878.4379</v>
       </c>
       <c r="G167" t="n">
-        <v>-309352.2238555598</v>
+        <v>-213218.7879044298</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6403,7 +6529,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6414,22 +6544,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>65.73999999999999</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>65.73999999999999</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D168" t="n">
-        <v>65.73999999999999</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E168" t="n">
-        <v>65.73999999999999</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F168" t="n">
-        <v>9300</v>
+        <v>2247.4534</v>
       </c>
       <c r="G168" t="n">
-        <v>-300052.2238555598</v>
+        <v>-213218.7879044298</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6439,7 +6569,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6450,22 +6584,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>65.81</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C169" t="n">
-        <v>65.81</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D169" t="n">
-        <v>65.81</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E169" t="n">
-        <v>65.81</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F169" t="n">
-        <v>100</v>
+        <v>1862.5936</v>
       </c>
       <c r="G169" t="n">
-        <v>-299952.2238555598</v>
+        <v>-213218.7879044298</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6475,7 +6609,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6486,22 +6624,22 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>65.8</v>
+        <v>65.5</v>
       </c>
       <c r="C170" t="n">
-        <v>65.8</v>
+        <v>65.5</v>
       </c>
       <c r="D170" t="n">
-        <v>65.8</v>
+        <v>65.5</v>
       </c>
       <c r="E170" t="n">
-        <v>65.8</v>
+        <v>65.5</v>
       </c>
       <c r="F170" t="n">
-        <v>23.2521</v>
+        <v>3399.9</v>
       </c>
       <c r="G170" t="n">
-        <v>-299975.4759555598</v>
+        <v>-216618.6879044298</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6511,7 +6649,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6522,22 +6664,22 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>65.8</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C171" t="n">
-        <v>65.8</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D171" t="n">
-        <v>65.8</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E171" t="n">
-        <v>65.8</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F171" t="n">
-        <v>221</v>
+        <v>553.782</v>
       </c>
       <c r="G171" t="n">
-        <v>-299975.4759555598</v>
+        <v>-216064.9059044298</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6547,7 +6689,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6558,22 +6704,22 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>65.81999999999999</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>65.72</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D172" t="n">
-        <v>65.81999999999999</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E172" t="n">
-        <v>65.72</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F172" t="n">
-        <v>1346.1019</v>
+        <v>1002.0482</v>
       </c>
       <c r="G172" t="n">
-        <v>-301321.5778555598</v>
+        <v>-216064.9059044298</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6583,7 +6729,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6594,22 +6744,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>65.72</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C173" t="n">
-        <v>65.48999999999999</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D173" t="n">
-        <v>65.72</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E173" t="n">
-        <v>65.48999999999999</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F173" t="n">
-        <v>2659.2231</v>
+        <v>5000</v>
       </c>
       <c r="G173" t="n">
-        <v>-303980.8009555598</v>
+        <v>-216064.9059044298</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6619,7 +6769,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6630,22 +6784,22 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>65.48999999999999</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>65.48999999999999</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="D174" t="n">
-        <v>65.48999999999999</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="E174" t="n">
-        <v>65.48999999999999</v>
+        <v>65.51000000000001</v>
       </c>
       <c r="F174" t="n">
-        <v>0.143</v>
+        <v>542.4277</v>
       </c>
       <c r="G174" t="n">
-        <v>-303980.8009555598</v>
+        <v>-216064.9059044298</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -6655,7 +6809,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6666,36 +6824,36 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>65.48999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="C175" t="n">
-        <v>65.48999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="D175" t="n">
-        <v>65.48999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="E175" t="n">
-        <v>65.48999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="F175" t="n">
-        <v>734.8366</v>
+        <v>19.9993</v>
       </c>
       <c r="G175" t="n">
-        <v>-303980.8009555598</v>
+        <v>-216084.9052044298</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="K175" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="L175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6706,38 +6864,34 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>65.48999999999999</v>
+        <v>65.48</v>
       </c>
       <c r="C176" t="n">
-        <v>65.48999999999999</v>
+        <v>65.48</v>
       </c>
       <c r="D176" t="n">
-        <v>65.48999999999999</v>
+        <v>65.48</v>
       </c>
       <c r="E176" t="n">
-        <v>65.48999999999999</v>
+        <v>65.48</v>
       </c>
       <c r="F176" t="n">
-        <v>3266.1977</v>
+        <v>100</v>
       </c>
       <c r="G176" t="n">
-        <v>-303980.8009555598</v>
+        <v>-216184.9052044298</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="K176" t="n">
-        <v>65.48999999999999</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M176" t="n">
@@ -6750,38 +6904,34 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>65.56</v>
+        <v>65.5</v>
       </c>
       <c r="C177" t="n">
-        <v>65.56</v>
+        <v>65.5</v>
       </c>
       <c r="D177" t="n">
-        <v>65.56</v>
+        <v>65.5</v>
       </c>
       <c r="E177" t="n">
-        <v>65.56</v>
+        <v>65.5</v>
       </c>
       <c r="F177" t="n">
-        <v>14632.5904</v>
+        <v>894</v>
       </c>
       <c r="G177" t="n">
-        <v>-289348.2105555598</v>
+        <v>-215290.9052044298</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>65.48999999999999</v>
-      </c>
-      <c r="K177" t="n">
-        <v>65.48999999999999</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M177" t="n">
@@ -6794,22 +6944,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>65.41</v>
+        <v>65.45</v>
       </c>
       <c r="C178" t="n">
-        <v>65.26000000000001</v>
+        <v>65.31</v>
       </c>
       <c r="D178" t="n">
-        <v>65.41</v>
+        <v>65.45</v>
       </c>
       <c r="E178" t="n">
-        <v>65.26000000000001</v>
+        <v>65.31</v>
       </c>
       <c r="F178" t="n">
-        <v>5000</v>
+        <v>100869.7157</v>
       </c>
       <c r="G178" t="n">
-        <v>-294348.2105555598</v>
+        <v>-316160.6209044298</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6819,7 +6969,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6830,36 +6984,34 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>65.25</v>
+        <v>65.47</v>
       </c>
       <c r="C179" t="n">
-        <v>65</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="D179" t="n">
-        <v>65.25</v>
+        <v>65.47</v>
       </c>
       <c r="E179" t="n">
-        <v>65</v>
+        <v>65.43000000000001</v>
       </c>
       <c r="F179" t="n">
-        <v>42101.5272</v>
+        <v>653.7115</v>
       </c>
       <c r="G179" t="n">
-        <v>-336449.7377555599</v>
+        <v>-315506.9094044298</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>65.26000000000001</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M179" t="n">
@@ -6872,32 +7024,30 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>64.95</v>
+        <v>65.5</v>
       </c>
       <c r="C180" t="n">
-        <v>65.17</v>
+        <v>65.5</v>
       </c>
       <c r="D180" t="n">
-        <v>65.17</v>
+        <v>65.5</v>
       </c>
       <c r="E180" t="n">
-        <v>64.94</v>
+        <v>65.5</v>
       </c>
       <c r="F180" t="n">
-        <v>20261.0947</v>
+        <v>271.1726</v>
       </c>
       <c r="G180" t="n">
-        <v>-316188.6430555598</v>
+        <v>-315235.7368044298</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>65</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
@@ -6914,32 +7064,30 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>65.15000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="C181" t="n">
-        <v>65.18000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="D181" t="n">
-        <v>65.18000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="E181" t="n">
-        <v>65.15000000000001</v>
+        <v>65.5</v>
       </c>
       <c r="F181" t="n">
-        <v>2619.4576</v>
+        <v>15760.2</v>
       </c>
       <c r="G181" t="n">
-        <v>-313569.1854555598</v>
+        <v>-315235.7368044298</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>65.17</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
@@ -6956,32 +7104,30 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>65.19</v>
+        <v>65.5</v>
       </c>
       <c r="C182" t="n">
-        <v>65.13</v>
+        <v>65.5</v>
       </c>
       <c r="D182" t="n">
-        <v>65.19</v>
+        <v>65.5</v>
       </c>
       <c r="E182" t="n">
-        <v>65.13</v>
+        <v>65.5</v>
       </c>
       <c r="F182" t="n">
-        <v>1879.1145</v>
+        <v>14532.5366</v>
       </c>
       <c r="G182" t="n">
-        <v>-315448.2999555598</v>
+        <v>-315235.7368044298</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>65.18000000000001</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
@@ -6998,32 +7144,30 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>65.38</v>
+        <v>65.5</v>
       </c>
       <c r="C183" t="n">
-        <v>65.44</v>
+        <v>65.5</v>
       </c>
       <c r="D183" t="n">
-        <v>65.44</v>
+        <v>65.5</v>
       </c>
       <c r="E183" t="n">
-        <v>65.38</v>
+        <v>65.5</v>
       </c>
       <c r="F183" t="n">
-        <v>7564.90525672</v>
+        <v>1979.1402</v>
       </c>
       <c r="G183" t="n">
-        <v>-307883.3946988398</v>
+        <v>-315235.7368044298</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>65.13</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
@@ -7040,32 +7184,30 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>65.23</v>
+        <v>65.5</v>
       </c>
       <c r="C184" t="n">
-        <v>65.23</v>
+        <v>65.5</v>
       </c>
       <c r="D184" t="n">
-        <v>65.23</v>
+        <v>65.5</v>
       </c>
       <c r="E184" t="n">
-        <v>65.23</v>
+        <v>65.5</v>
       </c>
       <c r="F184" t="n">
-        <v>200</v>
+        <v>1659.4978</v>
       </c>
       <c r="G184" t="n">
-        <v>-308083.3946988398</v>
+        <v>-315235.7368044298</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>65.44</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
@@ -7082,32 +7224,30 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>65.44</v>
+        <v>65.5</v>
       </c>
       <c r="C185" t="n">
-        <v>65.44</v>
+        <v>65.5</v>
       </c>
       <c r="D185" t="n">
-        <v>65.44</v>
+        <v>65.5</v>
       </c>
       <c r="E185" t="n">
-        <v>65.44</v>
+        <v>65.5</v>
       </c>
       <c r="F185" t="n">
-        <v>8</v>
+        <v>1705.7865</v>
       </c>
       <c r="G185" t="n">
-        <v>-308075.3946988398</v>
+        <v>-315235.7368044298</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>65.23</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
@@ -7124,32 +7264,30 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>65.39</v>
+        <v>65.5</v>
       </c>
       <c r="C186" t="n">
-        <v>65.45999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="D186" t="n">
-        <v>65.45999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="E186" t="n">
-        <v>65.39</v>
+        <v>65.5</v>
       </c>
       <c r="F186" t="n">
-        <v>4761.136</v>
+        <v>1000</v>
       </c>
       <c r="G186" t="n">
-        <v>-303314.2586988398</v>
+        <v>-315235.7368044298</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>65.44</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
@@ -7160,6 +7298,2854 @@
         <v>1</v>
       </c>
       <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="C187" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="D187" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="E187" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="F187" t="n">
+        <v>624.93467557</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-315235.7368044298</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="C188" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="D188" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="E188" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="F188" t="n">
+        <v>906.5939</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-316142.3307044298</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="C189" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="D189" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="E189" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="F189" t="n">
+        <v>23254.9</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-316142.3307044298</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="C190" t="n">
+        <v>65.43000000000001</v>
+      </c>
+      <c r="D190" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="E190" t="n">
+        <v>65.43000000000001</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2057</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-318199.3307044298</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>65.43000000000001</v>
+      </c>
+      <c r="C191" t="n">
+        <v>65.41</v>
+      </c>
+      <c r="D191" t="n">
+        <v>65.43000000000001</v>
+      </c>
+      <c r="E191" t="n">
+        <v>65.41</v>
+      </c>
+      <c r="F191" t="n">
+        <v>34904.7561</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-353104.0868044298</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="C192" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="D192" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="E192" t="n">
+        <v>65.53</v>
+      </c>
+      <c r="F192" t="n">
+        <v>758.0258</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-352346.0610044298</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="C193" t="n">
+        <v>65.73</v>
+      </c>
+      <c r="D193" t="n">
+        <v>65.73</v>
+      </c>
+      <c r="E193" t="n">
+        <v>65.63</v>
+      </c>
+      <c r="F193" t="n">
+        <v>23600</v>
+      </c>
+      <c r="G193" t="n">
+        <v>-328746.0610044298</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>65.86</v>
+      </c>
+      <c r="C194" t="n">
+        <v>65.86</v>
+      </c>
+      <c r="D194" t="n">
+        <v>65.86</v>
+      </c>
+      <c r="E194" t="n">
+        <v>65.86</v>
+      </c>
+      <c r="F194" t="n">
+        <v>1330.00303674</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-327416.0579676898</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>65.65000000000001</v>
+      </c>
+      <c r="C195" t="n">
+        <v>65.65000000000001</v>
+      </c>
+      <c r="D195" t="n">
+        <v>65.65000000000001</v>
+      </c>
+      <c r="E195" t="n">
+        <v>65.65000000000001</v>
+      </c>
+      <c r="F195" t="n">
+        <v>388.2954</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-327804.3533676898</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>65.65000000000001</v>
+      </c>
+      <c r="C196" t="n">
+        <v>65.65000000000001</v>
+      </c>
+      <c r="D196" t="n">
+        <v>65.65000000000001</v>
+      </c>
+      <c r="E196" t="n">
+        <v>65.65000000000001</v>
+      </c>
+      <c r="F196" t="n">
+        <v>68.6734</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-327804.3533676898</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="C197" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="D197" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="E197" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="F197" t="n">
+        <v>5519.1443</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-322285.2090676898</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="C198" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="D198" t="n">
+        <v>65.78</v>
+      </c>
+      <c r="E198" t="n">
+        <v>65.68000000000001</v>
+      </c>
+      <c r="F198" t="n">
+        <v>428.6</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-321856.6090676899</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>66.06999999999999</v>
+      </c>
+      <c r="C199" t="n">
+        <v>66.06999999999999</v>
+      </c>
+      <c r="D199" t="n">
+        <v>66.06999999999999</v>
+      </c>
+      <c r="E199" t="n">
+        <v>66.06999999999999</v>
+      </c>
+      <c r="F199" t="n">
+        <v>8</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-321848.6090676899</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>66.09</v>
+      </c>
+      <c r="C200" t="n">
+        <v>66.09</v>
+      </c>
+      <c r="D200" t="n">
+        <v>66.09</v>
+      </c>
+      <c r="E200" t="n">
+        <v>66.09</v>
+      </c>
+      <c r="F200" t="n">
+        <v>10</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-321838.6090676899</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="C201" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="D201" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="E201" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="F201" t="n">
+        <v>7.5977</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-321846.2067676898</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C202" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D202" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E202" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F202" t="n">
+        <v>8</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-321838.2067676898</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C203" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D203" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E203" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F203" t="n">
+        <v>2122.2066</v>
+      </c>
+      <c r="G203" t="n">
+        <v>-321838.2067676898</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>66</v>
+      </c>
+      <c r="C204" t="n">
+        <v>66</v>
+      </c>
+      <c r="D204" t="n">
+        <v>66</v>
+      </c>
+      <c r="E204" t="n">
+        <v>66</v>
+      </c>
+      <c r="F204" t="n">
+        <v>10881.87878787</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-332720.0855555598</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>65.56999999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>65.56999999999999</v>
+      </c>
+      <c r="D205" t="n">
+        <v>65.56999999999999</v>
+      </c>
+      <c r="E205" t="n">
+        <v>65.56999999999999</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1646.7832</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-334366.8687555598</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C206" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="D206" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="E206" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F206" t="n">
+        <v>125</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-334241.8687555598</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="C207" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="D207" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="E207" t="n">
+        <v>65.7</v>
+      </c>
+      <c r="F207" t="n">
+        <v>60</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-334301.8687555598</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>65.76000000000001</v>
+      </c>
+      <c r="C208" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="D208" t="n">
+        <v>65.76000000000001</v>
+      </c>
+      <c r="E208" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="F208" t="n">
+        <v>22769.4747</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-357071.3434555599</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="D209" t="n">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="E209" t="n">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="F209" t="n">
+        <v>7.61</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-357063.7334555599</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="C210" t="n">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="D210" t="n">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="E210" t="n">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="F210" t="n">
+        <v>10</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-357063.7334555599</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="C211" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="D211" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="E211" t="n">
+        <v>65.69</v>
+      </c>
+      <c r="F211" t="n">
+        <v>150.0806</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-357213.8140555599</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>65.76000000000001</v>
+      </c>
+      <c r="C212" t="n">
+        <v>65.76000000000001</v>
+      </c>
+      <c r="D212" t="n">
+        <v>65.76000000000001</v>
+      </c>
+      <c r="E212" t="n">
+        <v>65.76000000000001</v>
+      </c>
+      <c r="F212" t="n">
+        <v>8</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-357205.8140555599</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="C213" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="D213" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="E213" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="F213" t="n">
+        <v>801</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-358006.8140555599</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="C214" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="D214" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="E214" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="F214" t="n">
+        <v>376.5661</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-358006.8140555599</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="C215" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="D215" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="E215" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="F215" t="n">
+        <v>53.1546</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-358006.8140555599</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>65.83</v>
+      </c>
+      <c r="C216" t="n">
+        <v>65.83</v>
+      </c>
+      <c r="D216" t="n">
+        <v>65.83</v>
+      </c>
+      <c r="E216" t="n">
+        <v>65.83</v>
+      </c>
+      <c r="F216" t="n">
+        <v>7574.217</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-350432.5970555599</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>66</v>
+      </c>
+      <c r="C217" t="n">
+        <v>66</v>
+      </c>
+      <c r="D217" t="n">
+        <v>66</v>
+      </c>
+      <c r="E217" t="n">
+        <v>66</v>
+      </c>
+      <c r="F217" t="n">
+        <v>12084.1848</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-338348.4122555599</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>66.09</v>
+      </c>
+      <c r="C218" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="D218" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="E218" t="n">
+        <v>66.09</v>
+      </c>
+      <c r="F218" t="n">
+        <v>27780.6214</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-310567.7908555599</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="C219" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="D219" t="n">
+        <v>66.34</v>
+      </c>
+      <c r="E219" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="F219" t="n">
+        <v>20927.6993</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-289640.0915555599</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="C220" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="D220" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="E220" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="F220" t="n">
+        <v>1202.3734</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-289640.0915555599</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C221" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D221" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E221" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F221" t="n">
+        <v>618.9</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-289021.1915555599</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C222" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D222" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E222" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F222" t="n">
+        <v>64.45140000000001</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-289021.1915555599</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="C223" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D223" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E223" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="F223" t="n">
+        <v>201.2688</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-288819.9227555598</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="C224" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="D224" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="E224" t="n">
+        <v>66.3</v>
+      </c>
+      <c r="F224" t="n">
+        <v>905.9446</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-289725.8673555598</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="C225" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="D225" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="E225" t="n">
+        <v>66.37</v>
+      </c>
+      <c r="F225" t="n">
+        <v>943.5469000000001</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-288782.3204555598</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="C226" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="D226" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="E226" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="F226" t="n">
+        <v>445.5565</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-289227.8769555598</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>66.48</v>
+      </c>
+      <c r="C227" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="D227" t="n">
+        <v>66.48</v>
+      </c>
+      <c r="E227" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="F227" t="n">
+        <v>2536.838</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-291764.7149555598</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C228" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="D228" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E228" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="F228" t="n">
+        <v>14</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-291778.7149555598</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="C229" t="n">
+        <v>66.08</v>
+      </c>
+      <c r="D229" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E229" t="n">
+        <v>66.08</v>
+      </c>
+      <c r="F229" t="n">
+        <v>1911.0111</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-293689.7260555598</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="C230" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="D230" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="E230" t="n">
+        <v>66.31</v>
+      </c>
+      <c r="F230" t="n">
+        <v>8</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-293681.7260555598</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="C231" t="n">
+        <v>66.04000000000001</v>
+      </c>
+      <c r="D231" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="E231" t="n">
+        <v>66.04000000000001</v>
+      </c>
+      <c r="F231" t="n">
+        <v>9027.270699999999</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-302708.9967555598</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>66</v>
+      </c>
+      <c r="C232" t="n">
+        <v>65.94</v>
+      </c>
+      <c r="D232" t="n">
+        <v>66</v>
+      </c>
+      <c r="E232" t="n">
+        <v>65.94</v>
+      </c>
+      <c r="F232" t="n">
+        <v>8216.1494</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-310925.1461555598</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>65.94</v>
+      </c>
+      <c r="C233" t="n">
+        <v>65.94</v>
+      </c>
+      <c r="D233" t="n">
+        <v>65.94</v>
+      </c>
+      <c r="E233" t="n">
+        <v>65.94</v>
+      </c>
+      <c r="F233" t="n">
+        <v>97.3241</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-310925.1461555598</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>65.92</v>
+      </c>
+      <c r="C234" t="n">
+        <v>65.92</v>
+      </c>
+      <c r="D234" t="n">
+        <v>65.92</v>
+      </c>
+      <c r="E234" t="n">
+        <v>65.92</v>
+      </c>
+      <c r="F234" t="n">
+        <v>1043.6572</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-311968.8033555598</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>65.92</v>
+      </c>
+      <c r="C235" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="D235" t="n">
+        <v>65.92</v>
+      </c>
+      <c r="E235" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="F235" t="n">
+        <v>386</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-312354.8033555598</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="C236" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="D236" t="n">
+        <v>65.91</v>
+      </c>
+      <c r="E236" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="F236" t="n">
+        <v>1762.7673</v>
+      </c>
+      <c r="G236" t="n">
+        <v>-312354.8033555598</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M236" t="n">
+        <v>1</v>
+      </c>
+      <c r="N236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="C237" t="n">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="D237" t="n">
+        <v>65.98999999999999</v>
+      </c>
+      <c r="E237" t="n">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="F237" t="n">
+        <v>3302.5795</v>
+      </c>
+      <c r="G237" t="n">
+        <v>-309052.2238555598</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M237" t="n">
+        <v>1</v>
+      </c>
+      <c r="N237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="C238" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="D238" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="E238" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="F238" t="n">
+        <v>300</v>
+      </c>
+      <c r="G238" t="n">
+        <v>-309352.2238555598</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M238" t="n">
+        <v>1</v>
+      </c>
+      <c r="N238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>65.73999999999999</v>
+      </c>
+      <c r="C239" t="n">
+        <v>65.73999999999999</v>
+      </c>
+      <c r="D239" t="n">
+        <v>65.73999999999999</v>
+      </c>
+      <c r="E239" t="n">
+        <v>65.73999999999999</v>
+      </c>
+      <c r="F239" t="n">
+        <v>9300</v>
+      </c>
+      <c r="G239" t="n">
+        <v>-300052.2238555598</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M239" t="n">
+        <v>1</v>
+      </c>
+      <c r="N239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="C240" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="D240" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="E240" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="F240" t="n">
+        <v>100</v>
+      </c>
+      <c r="G240" t="n">
+        <v>-299952.2238555598</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>1</v>
+      </c>
+      <c r="N240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C241" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="D241" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="E241" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F241" t="n">
+        <v>23.2521</v>
+      </c>
+      <c r="G241" t="n">
+        <v>-299975.4759555598</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>1</v>
+      </c>
+      <c r="N241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="C242" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="D242" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="E242" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="F242" t="n">
+        <v>221</v>
+      </c>
+      <c r="G242" t="n">
+        <v>-299975.4759555598</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>1</v>
+      </c>
+      <c r="N242" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="C243" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="D243" t="n">
+        <v>65.81999999999999</v>
+      </c>
+      <c r="E243" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="F243" t="n">
+        <v>1346.1019</v>
+      </c>
+      <c r="G243" t="n">
+        <v>-301321.5778555598</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>1</v>
+      </c>
+      <c r="N243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="C244" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="D244" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="E244" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="F244" t="n">
+        <v>2659.2231</v>
+      </c>
+      <c r="G244" t="n">
+        <v>-303980.8009555598</v>
+      </c>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="n">
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>1</v>
+      </c>
+      <c r="N244" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="C245" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="D245" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="E245" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="G245" t="n">
+        <v>-303980.8009555598</v>
+      </c>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>1</v>
+      </c>
+      <c r="N245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="C246" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="D246" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="E246" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="F246" t="n">
+        <v>734.8366</v>
+      </c>
+      <c r="G246" t="n">
+        <v>-303980.8009555598</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>1</v>
+      </c>
+      <c r="N246" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="C247" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="D247" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="E247" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="F247" t="n">
+        <v>3266.1977</v>
+      </c>
+      <c r="G247" t="n">
+        <v>-303980.8009555598</v>
+      </c>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>1</v>
+      </c>
+      <c r="N247" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="C248" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="D248" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="E248" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="F248" t="n">
+        <v>14632.5904</v>
+      </c>
+      <c r="G248" t="n">
+        <v>-289348.2105555598</v>
+      </c>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>1</v>
+      </c>
+      <c r="N248" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>65.41</v>
+      </c>
+      <c r="C249" t="n">
+        <v>65.26000000000001</v>
+      </c>
+      <c r="D249" t="n">
+        <v>65.41</v>
+      </c>
+      <c r="E249" t="n">
+        <v>65.26000000000001</v>
+      </c>
+      <c r="F249" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G249" t="n">
+        <v>-294348.2105555598</v>
+      </c>
+      <c r="H249" t="n">
+        <v>0</v>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M249" t="n">
+        <v>1</v>
+      </c>
+      <c r="N249" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="C250" t="n">
+        <v>65</v>
+      </c>
+      <c r="D250" t="n">
+        <v>65.25</v>
+      </c>
+      <c r="E250" t="n">
+        <v>65</v>
+      </c>
+      <c r="F250" t="n">
+        <v>42101.5272</v>
+      </c>
+      <c r="G250" t="n">
+        <v>-336449.7377555599</v>
+      </c>
+      <c r="H250" t="n">
+        <v>0</v>
+      </c>
+      <c r="I250" t="n">
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M250" t="n">
+        <v>1</v>
+      </c>
+      <c r="N250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>64.95</v>
+      </c>
+      <c r="C251" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="D251" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="E251" t="n">
+        <v>64.94</v>
+      </c>
+      <c r="F251" t="n">
+        <v>20261.0947</v>
+      </c>
+      <c r="G251" t="n">
+        <v>-316188.6430555598</v>
+      </c>
+      <c r="H251" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M251" t="n">
+        <v>1</v>
+      </c>
+      <c r="N251" t="inlineStr"/>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="C252" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="D252" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="E252" t="n">
+        <v>65.15000000000001</v>
+      </c>
+      <c r="F252" t="n">
+        <v>2619.4576</v>
+      </c>
+      <c r="G252" t="n">
+        <v>-313569.1854555598</v>
+      </c>
+      <c r="H252" t="n">
+        <v>0</v>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M252" t="n">
+        <v>1</v>
+      </c>
+      <c r="N252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="C253" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="D253" t="n">
+        <v>65.19</v>
+      </c>
+      <c r="E253" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="F253" t="n">
+        <v>1879.1145</v>
+      </c>
+      <c r="G253" t="n">
+        <v>-315448.2999555598</v>
+      </c>
+      <c r="H253" t="n">
+        <v>0</v>
+      </c>
+      <c r="I253" t="n">
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M253" t="n">
+        <v>1</v>
+      </c>
+      <c r="N253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="C254" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="D254" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="E254" t="n">
+        <v>65.38</v>
+      </c>
+      <c r="F254" t="n">
+        <v>7564.90525672</v>
+      </c>
+      <c r="G254" t="n">
+        <v>-307883.3946988398</v>
+      </c>
+      <c r="H254" t="n">
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>0</v>
+      </c>
+      <c r="J254" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M254" t="n">
+        <v>1</v>
+      </c>
+      <c r="N254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>65.23</v>
+      </c>
+      <c r="C255" t="n">
+        <v>65.23</v>
+      </c>
+      <c r="D255" t="n">
+        <v>65.23</v>
+      </c>
+      <c r="E255" t="n">
+        <v>65.23</v>
+      </c>
+      <c r="F255" t="n">
+        <v>200</v>
+      </c>
+      <c r="G255" t="n">
+        <v>-308083.3946988398</v>
+      </c>
+      <c r="H255" t="n">
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>0</v>
+      </c>
+      <c r="J255" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M255" t="n">
+        <v>1</v>
+      </c>
+      <c r="N255" t="inlineStr"/>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="C256" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="D256" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="E256" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="F256" t="n">
+        <v>8</v>
+      </c>
+      <c r="G256" t="n">
+        <v>-308075.3946988398</v>
+      </c>
+      <c r="H256" t="n">
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="n">
+        <v>65.23</v>
+      </c>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+      <c r="N256" t="inlineStr"/>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="C257" t="n">
+        <v>65.45999999999999</v>
+      </c>
+      <c r="D257" t="n">
+        <v>65.45999999999999</v>
+      </c>
+      <c r="E257" t="n">
+        <v>65.39</v>
+      </c>
+      <c r="F257" t="n">
+        <v>4761.136</v>
+      </c>
+      <c r="G257" t="n">
+        <v>-303314.2586988398</v>
+      </c>
+      <c r="H257" t="n">
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M257" t="n">
+        <v>1</v>
+      </c>
+      <c r="N257" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2020-01-26 BackTest XLM.xlsx
+++ b/BackTest/2020-01-26 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N257"/>
+  <dimension ref="A1:M257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -960,18 +913,15 @@
         <v>-172950.8083432</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>1</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1032,18 +979,15 @@
         <v>-172928.2785432</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1068,18 +1012,15 @@
         <v>-172913.2785432</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1104,18 +1045,15 @@
         <v>-172920.7785432</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,18 +1078,15 @@
         <v>-196792.6802432</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1176,18 +1111,15 @@
         <v>-207530.2988432</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1212,18 +1144,15 @@
         <v>-209463.1994432</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1177,15 @@
         <v>-201877.8734432</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1536,18 +1441,15 @@
         <v>-115491.7573431999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1572,18 +1474,15 @@
         <v>-125034.6548431999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +1969,15 @@
         <v>-92612.51751988995</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2101,15 @@
         <v>-92604.55341988995</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>1</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2332,15 @@
         <v>-66312.19600877997</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2365,15 @@
         <v>-65810.30170877997</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2398,15 @@
         <v>-81854.03820877997</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>-81760.63030877998</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>-128181.12910878</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>-123142.66270878</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>-126122.34460878</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>-141013.26870878</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2629,15 @@
         <v>-140909.36990878</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2662,15 @@
         <v>-140909.36990878</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>-155800.29400878</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>-153904.84590878</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>-154282.38680878</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>-158204.84490878</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>-132253.15700878</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>-167427.00940878</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>-177598.33790878</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>-146576.61294754</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>-159795.21904754</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>-163766.91854754</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>-169269.25814754</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>-169701.77484754</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>-169701.77484754</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5208,18 +4807,19 @@
         <v>-415442.9861904599</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>66.09999999999999</v>
+      </c>
+      <c r="J134" t="n">
+        <v>66.09999999999999</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5244,18 +4844,23 @@
         <v>-413866.0961904599</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+        <v>65.84999999999999</v>
+      </c>
+      <c r="J135" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5280,18 +4885,23 @@
         <v>-414869.3210904598</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+        <v>65.86</v>
+      </c>
+      <c r="J136" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5316,24 +4926,23 @@
         <v>-415672.2091904598</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>65.79000000000001</v>
       </c>
       <c r="J137" t="n">
-        <v>65.79000000000001</v>
-      </c>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5358,24 +4967,23 @@
         <v>-415230.1931904598</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>65.72</v>
       </c>
       <c r="J138" t="n">
-        <v>65.72</v>
-      </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5400,24 +5008,21 @@
         <v>-305192.3078904598</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5444,20 +5049,19 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5484,20 +5088,19 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5522,22 +5125,23 @@
         <v>-241048.9662904598</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+        <v>66.27</v>
+      </c>
+      <c r="J142" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5564,20 +5168,19 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5604,20 +5207,19 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5644,20 +5246,19 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5684,20 +5285,19 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5724,20 +5324,19 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5764,20 +5363,19 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5804,20 +5402,19 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5844,20 +5441,19 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5884,20 +5480,19 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5924,20 +5519,19 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5964,20 +5558,19 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6004,20 +5597,19 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6044,20 +5636,19 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6084,20 +5675,19 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6124,20 +5714,19 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6164,20 +5753,19 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6204,20 +5792,19 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6244,20 +5831,19 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6284,20 +5870,19 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6324,20 +5909,19 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6364,20 +5948,19 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6404,20 +5987,19 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6444,20 +6026,19 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6484,20 +6065,19 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6524,20 +6104,19 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6564,20 +6143,19 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6604,20 +6182,19 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6644,20 +6221,19 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6684,20 +6260,19 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6724,20 +6299,19 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6764,20 +6338,19 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6804,20 +6377,19 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6844,20 +6416,19 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6884,20 +6455,19 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6924,20 +6494,19 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6964,20 +6533,19 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7004,20 +6572,19 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7044,20 +6611,19 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7084,20 +6650,19 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7124,20 +6689,19 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7164,20 +6728,19 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7204,20 +6767,19 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7244,20 +6806,19 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7284,20 +6845,19 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7324,20 +6884,19 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7364,20 +6923,19 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7404,20 +6962,19 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7444,20 +7001,19 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7484,20 +7040,19 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7524,20 +7079,19 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7564,20 +7118,19 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7604,20 +7157,19 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7644,20 +7196,19 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7684,20 +7235,19 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7724,20 +7274,19 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7764,20 +7313,19 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7804,20 +7352,19 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7844,20 +7391,19 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7884,20 +7430,19 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7924,20 +7469,19 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7964,20 +7508,19 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8004,20 +7547,19 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8044,20 +7586,19 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8084,20 +7625,19 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8124,20 +7664,19 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8164,20 +7703,19 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8204,20 +7742,19 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8244,20 +7781,19 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8284,20 +7820,19 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8324,20 +7859,19 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8364,20 +7898,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8404,20 +7937,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8444,20 +7976,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8484,20 +8015,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8524,20 +8054,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8564,20 +8093,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8604,20 +8132,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8644,20 +8171,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8684,20 +8210,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8724,20 +8249,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8764,20 +8288,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8804,20 +8327,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8844,20 +8366,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8884,20 +8405,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8924,20 +8444,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8964,20 +8483,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9004,20 +8522,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9044,20 +8561,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9084,20 +8600,19 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9124,20 +8639,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9164,20 +8678,19 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9204,20 +8717,19 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9244,20 +8756,19 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9284,20 +8795,19 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9324,20 +8834,19 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9364,20 +8873,19 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9404,20 +8912,19 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9444,20 +8951,19 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9484,20 +8990,19 @@
       <c r="H241" t="n">
         <v>0</v>
       </c>
-      <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9524,20 +9029,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9564,20 +9068,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9604,20 +9107,19 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9644,20 +9146,19 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9684,20 +9185,19 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9724,20 +9224,19 @@
       <c r="H247" t="n">
         <v>0</v>
       </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9764,20 +9263,19 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9804,20 +9302,19 @@
       <c r="H249" t="n">
         <v>0</v>
       </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9844,20 +9341,19 @@
       <c r="H250" t="n">
         <v>0</v>
       </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9884,20 +9380,19 @@
       <c r="H251" t="n">
         <v>0</v>
       </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9924,20 +9419,19 @@
       <c r="H252" t="n">
         <v>0</v>
       </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9964,20 +9458,19 @@
       <c r="H253" t="n">
         <v>0</v>
       </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -10002,24 +9495,21 @@
         <v>-307883.3946988398</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>65.13</v>
-      </c>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -10044,24 +9534,21 @@
         <v>-308083.3946988398</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>65.44</v>
-      </c>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -10086,24 +9573,21 @@
         <v>-308075.3946988398</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10128,26 +9612,23 @@
         <v>-303314.2586988398</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>65.44</v>
-      </c>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+        <v>66.09999999999999</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest XLM.xlsx
+++ b/BackTest/2020-01-26 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-174838.5730432</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-174838.5730432</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-156756.8232432</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-157226.4899432</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-150979.9084432</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-193818.9036432</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-194818.9036432</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-194533.9036432</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-194468.9127432</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-169468.9127432</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-169461.4127432</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-172950.8083432</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-172943.3083432</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-172928.2785432</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-172913.2785432</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-172920.7785432</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-196792.6802432</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-207530.2988432</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-209463.1994432</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-201877.8734432</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-202855.5666432</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-215191.5571432</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-214821.2002431999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-214821.2002431999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-237321.2002431999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-114176.7573431999</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-114176.7573431999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-115491.7573431999</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-125034.6548431999</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-170753.3025431999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-149652.9337431999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-149676.2493431999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-97676.24934319995</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-97699.56494319995</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-77324.62694319995</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-77868.51614319996</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-78300.34884319996</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-82564.88534319996</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-81069.00131988995</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-91083.64291988996</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-91732.41821988995</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-92612.51751988995</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-92612.51751988995</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-92612.51751988995</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-93252.51751988995</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-93244.55341988995</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-93236.55341988995</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-92604.55341988995</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-18080.76010877996</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-18557.35970877996</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-29851.60580877996</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-52351.60580877996</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-52878.66510877996</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-53997.59570877996</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-66312.19600877997</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-65810.30170877997</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-81854.03820877997</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-82561.63020877997</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-81760.63030877998</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-128181.12910878</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-123142.66270878</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-126122.34460878</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-141013.26870878</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-140909.36990878</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-140909.36990878</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-155800.29400878</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-153904.84590878</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-154282.38680878</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-158204.84490878</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-132253.15700878</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-167427.00940878</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-177598.33790878</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-146576.61294754</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-159795.21904754</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-163766.91854754</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-169269.25814754</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-169701.77484754</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-169701.77484754</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -4180,11 +4180,17 @@
         <v>-404019.74427411</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>65.33</v>
+      </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4213,11 +4219,17 @@
         <v>-403852.62087411</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>65.11</v>
+      </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4246,11 +4258,17 @@
         <v>-403749.11327411</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I117" t="n">
+        <v>65.39</v>
+      </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4279,11 +4297,17 @@
         <v>-383686.27497411</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I118" t="n">
+        <v>65.45</v>
+      </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4316,7 +4340,11 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4349,7 +4377,11 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4382,7 +4414,11 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4415,7 +4451,11 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4488,11 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4481,7 +4525,11 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4514,7 +4562,11 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4547,7 +4599,11 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4580,7 +4636,11 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4613,7 +4673,11 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4646,7 +4710,11 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4679,7 +4747,11 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4712,7 +4784,11 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4745,7 +4821,11 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4778,7 +4858,11 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,15 +4891,15 @@
         <v>-415442.9861904599</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
-      </c>
-      <c r="I134" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="J134" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="K134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4844,17 +4928,13 @@
         <v>-413866.0961904599</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
-      </c>
-      <c r="I135" t="n">
-        <v>65.84999999999999</v>
-      </c>
-      <c r="J135" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L135" t="n">
@@ -4885,14 +4965,12 @@
         <v>-414869.3210904598</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>65.86</v>
       </c>
-      <c r="J136" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4926,14 +5004,12 @@
         <v>-415672.2091904598</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>65.79000000000001</v>
       </c>
-      <c r="J137" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4967,14 +5043,12 @@
         <v>-415230.1931904598</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>65.72</v>
       </c>
-      <c r="J138" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5008,12 +5082,12 @@
         <v>-305192.3078904598</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5050,9 +5124,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5089,9 +5161,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5125,14 +5195,10 @@
         <v>-241048.9662904598</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
-      </c>
-      <c r="I142" t="n">
-        <v>66.27</v>
-      </c>
-      <c r="J142" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5169,9 +5235,7 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5208,9 +5272,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5247,9 +5309,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5286,9 +5346,7 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5325,9 +5383,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5364,9 +5420,7 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5403,9 +5457,7 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5442,9 +5494,7 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5481,9 +5531,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5520,9 +5568,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5559,9 +5605,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5598,9 +5642,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5637,9 +5679,7 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5676,9 +5716,7 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5715,9 +5753,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5754,9 +5790,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5793,9 +5827,7 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5832,9 +5864,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5871,9 +5901,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5910,9 +5938,7 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5946,12 +5972,12 @@
         <v>-190659.7279044298</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>65.47</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5988,9 +6014,7 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6027,9 +6051,7 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6066,9 +6088,7 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6105,9 +6125,7 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6144,9 +6162,7 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6183,9 +6199,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6222,9 +6236,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6261,9 +6273,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6300,9 +6310,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6339,9 +6347,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6378,9 +6384,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6417,9 +6421,7 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6456,9 +6458,7 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6495,9 +6495,7 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6534,9 +6532,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6573,9 +6569,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6612,9 +6606,7 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6651,9 +6643,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6690,9 +6680,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6729,9 +6717,7 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6768,9 +6754,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6807,9 +6791,7 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6846,9 +6828,7 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6885,9 +6865,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6924,9 +6902,7 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6963,9 +6939,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7002,9 +6976,7 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7041,9 +7013,7 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7080,9 +7050,7 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7119,9 +7087,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7158,9 +7124,7 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7197,9 +7161,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7236,9 +7198,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7275,9 +7235,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7314,9 +7272,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7353,9 +7309,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7392,9 +7346,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7431,9 +7383,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7470,9 +7420,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7509,9 +7457,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7548,9 +7494,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7587,9 +7531,7 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7626,9 +7568,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7665,9 +7605,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7704,9 +7642,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7743,9 +7679,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7782,9 +7716,7 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7821,9 +7753,7 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7860,9 +7790,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7899,9 +7827,7 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7938,9 +7864,7 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7977,9 +7901,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8016,9 +7938,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8055,9 +7975,7 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8094,9 +8012,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8133,9 +8049,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8172,9 +8086,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8211,9 +8123,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8250,9 +8160,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8289,9 +8197,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8328,9 +8234,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8367,9 +8271,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8406,9 +8308,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8445,9 +8345,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8484,9 +8382,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8523,9 +8419,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8562,9 +8456,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8601,9 +8493,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8640,9 +8530,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8679,9 +8567,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8718,9 +8604,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8757,9 +8641,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8796,9 +8678,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8835,9 +8715,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8874,9 +8752,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8910,12 +8786,12 @@
         <v>-300052.2238555598</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8949,12 +8825,12 @@
         <v>-299952.2238555598</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>65.73999999999999</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8988,12 +8864,12 @@
         <v>-299975.4759555598</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>65.81</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9030,9 +8906,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9069,9 +8943,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9108,9 +8980,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>66.09999999999999</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9144,12 +9014,12 @@
         <v>-303980.8009555598</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9183,12 +9053,12 @@
         <v>-303980.8009555598</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9222,12 +9092,12 @@
         <v>-303980.8009555598</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9261,12 +9131,12 @@
         <v>-289348.2105555598</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>65.48999999999999</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9300,12 +9170,12 @@
         <v>-294348.2105555598</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>65.56</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9339,12 +9209,12 @@
         <v>-336449.7377555599</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>65.26000000000001</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9378,12 +9248,12 @@
         <v>-316188.6430555598</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>65</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9417,12 +9287,12 @@
         <v>-313569.1854555598</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>65.17</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9456,12 +9326,12 @@
         <v>-315448.2999555598</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>65.18000000000001</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9495,12 +9365,12 @@
         <v>-307883.3946988398</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9534,12 +9404,12 @@
         <v>-308083.3946988398</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9573,12 +9443,12 @@
         <v>-308075.3946988398</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>65.23</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9612,12 +9482,12 @@
         <v>-303314.2586988398</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>66.09999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>65.44</v>
+      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9629,6 +9499,6 @@
       <c r="M257" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest XLM.xlsx
+++ b/BackTest/2020-01-26 BackTest XLM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-174838.5730432</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-174838.5730432</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-156756.8232432</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-157226.4899432</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-150979.9084432</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-193818.9036432</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-194818.9036432</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-194533.9036432</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-194468.9127432</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-169468.9127432</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-169461.4127432</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-172950.8083432</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-172943.3083432</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-172928.2785432</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-172913.2785432</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-172920.7785432</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-196792.6802432</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-207530.2988432</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-209463.1994432</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-201877.8734432</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-202855.5666432</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-215191.5571432</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-214821.2002431999</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-214821.2002431999</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-237321.2002431999</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-114176.7573431999</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-114176.7573431999</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-115491.7573431999</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-125034.6548431999</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-170753.3025431999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-149652.9337431999</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-149676.2493431999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-97676.24934319995</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-97699.56494319995</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-77324.62694319995</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-77868.51614319996</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-78300.34884319996</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-82564.88534319996</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-81069.00131988995</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-91083.64291988996</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-91732.41821988995</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-92612.51751988995</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-92612.51751988995</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-92612.51751988995</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-93252.51751988995</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-93244.55341988995</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-93236.55341988995</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-92604.55341988995</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-18080.76010877996</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-18557.35970877996</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-29851.60580877996</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-52351.60580877996</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-52878.66510877996</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-53997.59570877996</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-66312.19600877997</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-65810.30170877997</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-81854.03820877997</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-82561.63020877997</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-81760.63030877998</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-128181.12910878</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-123142.66270878</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-126122.34460878</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-141013.26870878</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-140909.36990878</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-140909.36990878</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-155800.29400878</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-132253.15700878</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-167427.00940878</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-177598.33790878</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-146576.61294754</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-159795.21904754</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-163766.91854754</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -4180,17 +4180,11 @@
         <v>-404019.74427411</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>65.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4219,17 +4213,11 @@
         <v>-403852.62087411</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>65.11</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4258,17 +4246,11 @@
         <v>-403749.11327411</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>65.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4297,17 +4279,11 @@
         <v>-383686.27497411</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>65.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4340,11 +4316,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4377,11 +4349,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4414,11 +4382,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4451,11 +4415,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4488,11 +4448,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4525,11 +4481,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4562,11 +4514,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4599,11 +4547,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4636,11 +4580,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4673,11 +4613,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4706,15 +4642,11 @@
         <v>-413099.0287904599</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4743,15 +4675,11 @@
         <v>-413099.0287904599</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4780,15 +4708,11 @@
         <v>-413112.1335904599</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4817,15 +4741,11 @@
         <v>-413119.7298904599</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4854,15 +4774,11 @@
         <v>-413709.6524904598</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4895,11 +4811,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4932,11 +4844,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4965,17 +4873,11 @@
         <v>-414869.3210904598</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>65.86</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5004,17 +4906,11 @@
         <v>-415672.2091904598</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>65.79000000000001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5043,17 +4939,11 @@
         <v>-415230.1931904598</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>65.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5082,17 +4972,11 @@
         <v>-305192.3078904598</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>65.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5121,15 +5005,11 @@
         <v>-239821.9662904598</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5158,15 +5038,11 @@
         <v>-238414.9662904598</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5195,15 +5071,11 @@
         <v>-241048.9662904598</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5232,15 +5104,11 @@
         <v>-235035.9579904598</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5269,15 +5137,11 @@
         <v>-236009.2766904598</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5306,15 +5170,11 @@
         <v>-236009.2766904598</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5343,15 +5203,11 @@
         <v>-236009.2766904598</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5380,15 +5236,11 @@
         <v>-240692.2760904598</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5417,15 +5269,11 @@
         <v>-240312.5792904598</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5454,15 +5302,11 @@
         <v>-243410.9465904598</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5495,11 +5339,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5532,11 +5372,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5569,11 +5405,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5606,11 +5438,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5643,11 +5471,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5680,11 +5504,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5717,11 +5537,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5754,11 +5570,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5791,11 +5603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5828,11 +5636,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5865,11 +5669,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5902,11 +5702,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5939,11 +5735,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5972,17 +5764,11 @@
         <v>-190659.7279044298</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>65.47</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6015,11 +5801,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6048,15 +5830,11 @@
         <v>-210328.1437044298</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6089,11 +5867,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6126,11 +5900,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6163,11 +5933,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6200,11 +5966,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6237,11 +5999,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6274,11 +6032,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6311,11 +6065,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6348,11 +6098,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6385,11 +6131,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6422,11 +6164,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6459,11 +6197,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6496,11 +6230,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6533,11 +6263,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6570,11 +6296,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6607,11 +6329,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6644,11 +6362,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6681,11 +6395,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6718,11 +6428,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6755,11 +6461,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6792,11 +6494,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6829,11 +6527,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6866,11 +6560,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6903,11 +6593,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6940,11 +6626,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6977,11 +6659,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7014,11 +6692,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +6725,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7088,11 +6758,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7125,11 +6791,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7162,11 +6824,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7199,11 +6857,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7236,11 +6890,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7273,11 +6923,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7310,11 +6956,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7347,11 +6989,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7384,11 +7022,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7421,11 +7055,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7458,11 +7088,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7495,11 +7121,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7532,11 +7154,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7569,11 +7187,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7606,11 +7220,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7643,11 +7253,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7680,11 +7286,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7717,11 +7319,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7754,11 +7352,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7791,11 +7385,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7828,11 +7418,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7865,11 +7451,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7902,11 +7484,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7939,11 +7517,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7976,11 +7550,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8013,11 +7583,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8050,11 +7616,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8087,11 +7649,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8124,11 +7682,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8161,11 +7715,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8194,15 +7744,11 @@
         <v>-288819.9227555598</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8235,11 +7781,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8268,15 +7810,11 @@
         <v>-288782.3204555598</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8305,15 +7843,11 @@
         <v>-289227.8769555598</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8342,15 +7876,11 @@
         <v>-291764.7149555598</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8383,11 +7913,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8416,15 +7942,11 @@
         <v>-293689.7260555598</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8453,15 +7975,11 @@
         <v>-293681.7260555598</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8490,15 +8008,11 @@
         <v>-302708.9967555598</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8527,15 +8041,11 @@
         <v>-310925.1461555598</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8564,15 +8074,11 @@
         <v>-310925.1461555598</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8605,11 +8111,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8642,11 +8144,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8679,11 +8177,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8716,11 +8210,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8753,11 +8243,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8786,17 +8272,11 @@
         <v>-300052.2238555598</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>65.72</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8825,17 +8305,11 @@
         <v>-299952.2238555598</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>65.73999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8864,17 +8338,11 @@
         <v>-299975.4759555598</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>65.81</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8907,11 +8375,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8944,11 +8408,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8981,11 +8441,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9014,17 +8470,11 @@
         <v>-303980.8009555598</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>65.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9053,17 +8503,11 @@
         <v>-303980.8009555598</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>65.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9092,17 +8536,11 @@
         <v>-303980.8009555598</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>65.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9131,17 +8569,11 @@
         <v>-289348.2105555598</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>65.48999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9170,17 +8602,11 @@
         <v>-294348.2105555598</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>65.56</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9217,7 +8643,7 @@
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L250" t="n">
@@ -9499,6 +8925,6 @@
       <c r="M257" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-26 BackTest XLM.xlsx
+++ b/BackTest/2020-01-26 BackTest XLM.xlsx
@@ -748,7 +748,7 @@
         <v>-194818.9036432</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-169461.4127432</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-172950.8083432</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-172943.3083432</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-172928.2785432</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-172913.2785432</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-172920.7785432</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-196792.6802432</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-207530.2988432</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-114176.7573431999</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-115491.7573431999</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-125034.6548431999</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-77868.51614319996</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-78300.34884319996</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-82564.88534319996</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-413099.0287904599</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-413099.0287904599</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-413112.1335904599</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,10 +4741,14 @@
         <v>-413119.7298904599</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="J132" t="n">
+        <v>66.26000000000001</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
@@ -4774,11 +4778,19 @@
         <v>-413709.6524904598</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>66.25</v>
+      </c>
+      <c r="J133" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +4819,19 @@
         <v>-415442.9861904599</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>66.09999999999999</v>
+      </c>
+      <c r="J134" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +4860,19 @@
         <v>-413866.0961904599</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>65.84999999999999</v>
+      </c>
+      <c r="J135" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +4901,19 @@
         <v>-414869.3210904598</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>65.86</v>
+      </c>
+      <c r="J136" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +4942,19 @@
         <v>-415672.2091904598</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>65.79000000000001</v>
+      </c>
+      <c r="J137" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +4983,19 @@
         <v>-415230.1931904598</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>65.72</v>
+      </c>
+      <c r="J138" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5024,19 @@
         <v>-305192.3078904598</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="J139" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5065,17 @@
         <v>-239821.9662904598</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5104,17 @@
         <v>-238414.9662904598</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5143,17 @@
         <v>-241048.9662904598</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5104,11 +5182,17 @@
         <v>-235035.9579904598</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5137,11 +5221,17 @@
         <v>-236009.2766904598</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5170,11 +5260,17 @@
         <v>-236009.2766904598</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5203,11 +5299,17 @@
         <v>-236009.2766904598</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5236,11 +5338,17 @@
         <v>-240692.2760904598</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5269,11 +5377,17 @@
         <v>-240312.5792904598</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,11 +5416,17 @@
         <v>-243410.9465904598</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5458,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5497,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5536,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5575,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +5614,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +5653,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +5692,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +5731,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +5770,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +5809,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +5848,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +5887,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +5926,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +5965,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6004,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5830,11 +6040,17 @@
         <v>-210328.1437044298</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6082,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6121,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6160,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6199,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6238,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6277,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6316,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6355,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6394,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6433,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6472,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +6511,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6550,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6589,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +6628,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +6667,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +6706,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +6745,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +6784,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +6823,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +6862,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +6901,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +6940,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +6979,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +7018,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7057,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7096,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7135,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +7174,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7213,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6856,8 +7252,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6889,8 +7291,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6922,8 +7330,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6955,8 +7369,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6988,8 +7408,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7021,8 +7447,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7054,8 +7486,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7087,8 +7525,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7120,8 +7564,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7153,8 +7603,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7186,8 +7642,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7219,8 +7681,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7252,8 +7720,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7285,8 +7759,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7318,8 +7798,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7351,8 +7837,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7384,8 +7876,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +7915,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +7954,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +7993,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +8032,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8071,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8110,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8149,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +8188,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +8227,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +8266,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +8302,17 @@
         <v>-288819.9227555598</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8344,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +8380,17 @@
         <v>-288782.3204555598</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7843,11 +8419,17 @@
         <v>-289227.8769555598</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7876,11 +8458,17 @@
         <v>-291764.7149555598</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8500,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7942,11 +8536,17 @@
         <v>-293689.7260555598</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +8575,17 @@
         <v>-293681.7260555598</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8008,11 +8614,17 @@
         <v>-302708.9967555598</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +8653,17 @@
         <v>-310925.1461555598</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +8692,17 @@
         <v>-310925.1461555598</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +8734,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +8773,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8176,8 +8812,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +8851,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +8890,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8275,8 +8929,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +8968,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +9007,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +9046,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +9085,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +9124,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +9163,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +9202,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8539,8 +9241,14 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8572,8 +9280,14 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8605,8 +9319,14 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>66.26000000000001</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8635,15 +9355,15 @@
         <v>-336449.7377555599</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>65.26000000000001</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>66.26000000000001</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L250" t="n">
@@ -8674,12 +9394,12 @@
         <v>-316188.6430555598</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>65</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>66.26000000000001</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8713,12 +9433,12 @@
         <v>-313569.1854555598</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>65.17</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>66.26000000000001</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8752,12 +9472,12 @@
         <v>-315448.2999555598</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>65.18000000000001</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>66.26000000000001</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8796,7 +9516,9 @@
       <c r="I254" t="n">
         <v>65.13</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>66.26000000000001</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8830,12 +9552,12 @@
         <v>-308083.3946988398</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>65.44</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>66.26000000000001</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8874,7 +9596,9 @@
       <c r="I256" t="n">
         <v>65.23</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>66.26000000000001</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8913,7 +9637,9 @@
       <c r="I257" t="n">
         <v>65.44</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>66.26000000000001</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-26 BackTest XLM.xlsx
+++ b/BackTest/2020-01-26 BackTest XLM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M257"/>
+  <dimension ref="A1:L257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>1840.0657</v>
       </c>
       <c r="G2" t="n">
-        <v>-174838.5730432</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>4648.294</v>
       </c>
       <c r="G3" t="n">
-        <v>-174838.5730432</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>18081.7498</v>
       </c>
       <c r="G4" t="n">
-        <v>-156756.8232432</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>5362.2693</v>
       </c>
       <c r="G5" t="n">
-        <v>-162119.0925432</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>4990.9593</v>
       </c>
       <c r="G6" t="n">
-        <v>-162119.0925432</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>4892.6026</v>
       </c>
       <c r="G7" t="n">
-        <v>-157226.4899432</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>-157326.4899432</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>6346.5815</v>
       </c>
       <c r="G9" t="n">
-        <v>-150979.9084432</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>42838.9952</v>
       </c>
       <c r="G10" t="n">
-        <v>-193818.9036432</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>1000</v>
       </c>
       <c r="G11" t="n">
-        <v>-194818.9036432</v>
-      </c>
-      <c r="H11" t="n">
         <v>2</v>
       </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>285</v>
       </c>
       <c r="G12" t="n">
-        <v>-194533.9036432</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>64.9909</v>
       </c>
       <c r="G13" t="n">
-        <v>-194468.9127432</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>25000</v>
       </c>
       <c r="G14" t="n">
-        <v>-169468.9127432</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>7.5</v>
       </c>
       <c r="G15" t="n">
-        <v>-169461.4127432</v>
-      </c>
-      <c r="H15" t="n">
         <v>2</v>
       </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>3489.3956</v>
       </c>
       <c r="G16" t="n">
-        <v>-172950.8083432</v>
-      </c>
-      <c r="H16" t="n">
         <v>2</v>
       </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>7.5</v>
       </c>
       <c r="G17" t="n">
-        <v>-172943.3083432</v>
-      </c>
-      <c r="H17" t="n">
         <v>2</v>
       </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>15.0298</v>
       </c>
       <c r="G18" t="n">
-        <v>-172928.2785432</v>
-      </c>
-      <c r="H18" t="n">
         <v>2</v>
       </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>-172913.2785432</v>
-      </c>
-      <c r="H19" t="n">
         <v>2</v>
       </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>7.5</v>
       </c>
       <c r="G20" t="n">
-        <v>-172920.7785432</v>
-      </c>
-      <c r="H20" t="n">
         <v>2</v>
       </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>23871.9017</v>
       </c>
       <c r="G21" t="n">
-        <v>-196792.6802432</v>
-      </c>
-      <c r="H21" t="n">
         <v>2</v>
       </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>10737.6186</v>
       </c>
       <c r="G22" t="n">
-        <v>-207530.2988432</v>
-      </c>
-      <c r="H22" t="n">
         <v>2</v>
       </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>1932.9006</v>
       </c>
       <c r="G23" t="n">
-        <v>-209463.1994432</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>7585.326</v>
       </c>
       <c r="G24" t="n">
-        <v>-201877.8734432</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>977.6932</v>
       </c>
       <c r="G25" t="n">
-        <v>-202855.5666432</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>12335.9905</v>
       </c>
       <c r="G26" t="n">
-        <v>-215191.5571432</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>370.3569</v>
       </c>
       <c r="G27" t="n">
-        <v>-214821.2002431999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>65.6431</v>
       </c>
       <c r="G28" t="n">
-        <v>-214821.2002431999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>22500</v>
       </c>
       <c r="G29" t="n">
-        <v>-237321.2002431999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>123144.4429</v>
       </c>
       <c r="G30" t="n">
-        <v>-114176.7573431999</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>19757.7311</v>
       </c>
       <c r="G31" t="n">
-        <v>-114176.7573431999</v>
-      </c>
-      <c r="H31" t="n">
         <v>2</v>
       </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1315</v>
       </c>
       <c r="G32" t="n">
-        <v>-115491.7573431999</v>
-      </c>
-      <c r="H32" t="n">
         <v>2</v>
       </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>9542.897499999999</v>
       </c>
       <c r="G33" t="n">
-        <v>-125034.6548431999</v>
-      </c>
-      <c r="H33" t="n">
         <v>2</v>
       </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>45718.6477</v>
       </c>
       <c r="G34" t="n">
-        <v>-170753.3025431999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>21100.3688</v>
       </c>
       <c r="G35" t="n">
-        <v>-149652.9337431999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>23.3156</v>
       </c>
       <c r="G36" t="n">
-        <v>-149676.2493431999</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>52000</v>
       </c>
       <c r="G37" t="n">
-        <v>-97676.24934319995</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>23.3156</v>
       </c>
       <c r="G38" t="n">
-        <v>-97699.56494319995</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>20374.938</v>
       </c>
       <c r="G39" t="n">
-        <v>-77324.62694319995</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>543.8892</v>
       </c>
       <c r="G40" t="n">
-        <v>-77868.51614319996</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>431.8327</v>
       </c>
       <c r="G41" t="n">
-        <v>-78300.34884319996</v>
-      </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>4264.5365</v>
       </c>
       <c r="G42" t="n">
-        <v>-82564.88534319996</v>
-      </c>
-      <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>1495.88402331</v>
       </c>
       <c r="G43" t="n">
-        <v>-81069.00131988995</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>10014.6416</v>
       </c>
       <c r="G44" t="n">
-        <v>-91083.64291988996</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>648.7753</v>
       </c>
       <c r="G45" t="n">
-        <v>-91732.41821988995</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>880.0993</v>
       </c>
       <c r="G46" t="n">
-        <v>-92612.51751988995</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>1184.5839</v>
       </c>
       <c r="G47" t="n">
-        <v>-92612.51751988995</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>15.5904</v>
       </c>
       <c r="G48" t="n">
-        <v>-92612.51751988995</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>640</v>
       </c>
       <c r="G49" t="n">
-        <v>-93252.51751988995</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>7.9641</v>
       </c>
       <c r="G50" t="n">
-        <v>-93244.55341988995</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>8</v>
       </c>
       <c r="G51" t="n">
-        <v>-93236.55341988995</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>632</v>
       </c>
       <c r="G52" t="n">
-        <v>-92604.55341988995</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>74523.79331111</v>
       </c>
       <c r="G53" t="n">
-        <v>-18080.76010877996</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>476.5996</v>
       </c>
       <c r="G54" t="n">
-        <v>-18557.35970877996</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>11294.2461</v>
       </c>
       <c r="G55" t="n">
-        <v>-29851.60580877996</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>22500</v>
       </c>
       <c r="G56" t="n">
-        <v>-52351.60580877996</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>527.0593</v>
       </c>
       <c r="G57" t="n">
-        <v>-52878.66510877996</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>1118.9306</v>
       </c>
       <c r="G58" t="n">
-        <v>-53997.59570877996</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>12314.6003</v>
       </c>
       <c r="G59" t="n">
-        <v>-66312.19600877997</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>501.8943</v>
       </c>
       <c r="G60" t="n">
-        <v>-65810.30170877997</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>16043.7365</v>
       </c>
       <c r="G61" t="n">
-        <v>-81854.03820877997</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>707.592</v>
       </c>
       <c r="G62" t="n">
-        <v>-82561.63020877997</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>800.9999</v>
       </c>
       <c r="G63" t="n">
-        <v>-81760.63030877998</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>46420.4988</v>
       </c>
       <c r="G64" t="n">
-        <v>-128181.12910878</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>5038.4664</v>
       </c>
       <c r="G65" t="n">
-        <v>-123142.66270878</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>2979.6819</v>
       </c>
       <c r="G66" t="n">
-        <v>-126122.34460878</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>14890.9241</v>
       </c>
       <c r="G67" t="n">
-        <v>-141013.26870878</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>103.8988</v>
       </c>
       <c r="G68" t="n">
-        <v>-140909.36990878</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>3371.4813</v>
       </c>
       <c r="G69" t="n">
-        <v>-140909.36990878</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>14890.9241</v>
       </c>
       <c r="G70" t="n">
-        <v>-155800.29400878</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>1895.4481</v>
       </c>
       <c r="G71" t="n">
-        <v>-153904.84590878</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>377.5409</v>
       </c>
       <c r="G72" t="n">
-        <v>-154282.38680878</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>3922.4581</v>
       </c>
       <c r="G73" t="n">
-        <v>-158204.84490878</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>25951.6879</v>
       </c>
       <c r="G74" t="n">
-        <v>-132253.15700878</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>35173.8524</v>
       </c>
       <c r="G75" t="n">
-        <v>-167427.00940878</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>10171.3285</v>
       </c>
       <c r="G76" t="n">
-        <v>-177598.33790878</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>604.8029</v>
       </c>
       <c r="G77" t="n">
-        <v>-177598.33790878</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>31021.72496124</v>
       </c>
       <c r="G78" t="n">
-        <v>-146576.61294754</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>13218.6061</v>
       </c>
       <c r="G79" t="n">
-        <v>-159795.21904754</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>3971.6995</v>
       </c>
       <c r="G80" t="n">
-        <v>-163766.91854754</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>5502.3396</v>
       </c>
       <c r="G81" t="n">
-        <v>-169269.25814754</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>432.5167</v>
       </c>
       <c r="G82" t="n">
-        <v>-169701.77484754</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>2907.6768</v>
       </c>
       <c r="G83" t="n">
-        <v>-169701.77484754</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>12335.9906</v>
       </c>
       <c r="G84" t="n">
-        <v>-182037.76544754</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>894</v>
       </c>
       <c r="G85" t="n">
-        <v>-181143.76544754</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>31127.8342</v>
       </c>
       <c r="G86" t="n">
-        <v>-212271.59964754</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>23376.4188</v>
       </c>
       <c r="G87" t="n">
-        <v>-235648.01844754</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>871.1679</v>
       </c>
       <c r="G88" t="n">
-        <v>-235648.01844754</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>20159.0706</v>
       </c>
       <c r="G89" t="n">
-        <v>-215488.94784754</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,19 @@
         <v>851.7525000000001</v>
       </c>
       <c r="G90" t="n">
-        <v>-216340.70034754</v>
+        <v>1</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>65.13</v>
+      </c>
+      <c r="I90" t="n">
+        <v>65.13</v>
+      </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3117,23 @@
         <v>23417.83525095</v>
       </c>
       <c r="G91" t="n">
-        <v>-192922.86509659</v>
+        <v>1</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>65.12</v>
+      </c>
+      <c r="I91" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3155,23 @@
         <v>1701.3761</v>
       </c>
       <c r="G92" t="n">
-        <v>-194624.24119659</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>65.19</v>
+      </c>
+      <c r="I92" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3193,23 @@
         <v>1749.1859</v>
       </c>
       <c r="G93" t="n">
-        <v>-192875.05529659</v>
+        <v>1</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>65.17</v>
+      </c>
+      <c r="I93" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3231,23 @@
         <v>5604.1908</v>
       </c>
       <c r="G94" t="n">
-        <v>-198479.24609659</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>65.29000000000001</v>
+      </c>
+      <c r="I94" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3269,23 @@
         <v>591</v>
       </c>
       <c r="G95" t="n">
-        <v>-198479.24609659</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>65.27</v>
+      </c>
+      <c r="I95" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3307,23 @@
         <v>634.8528</v>
       </c>
       <c r="G96" t="n">
-        <v>-197844.39329659</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>65.27</v>
+      </c>
+      <c r="I96" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3345,23 @@
         <v>43800</v>
       </c>
       <c r="G97" t="n">
-        <v>-241644.39329659</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>65.33</v>
+      </c>
+      <c r="I97" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3383,23 @@
         <v>9283.5299</v>
       </c>
       <c r="G98" t="n">
-        <v>-241644.39329659</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>65.16</v>
+      </c>
+      <c r="I98" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3421,23 @@
         <v>827.5141</v>
       </c>
       <c r="G99" t="n">
-        <v>-240816.87919659</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>65.16</v>
+      </c>
+      <c r="I99" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3459,23 @@
         <v>386.4312</v>
       </c>
       <c r="G100" t="n">
-        <v>-240430.44799659</v>
+        <v>1</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>65.31999999999999</v>
+      </c>
+      <c r="I100" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3497,23 @@
         <v>113427.92698001</v>
       </c>
       <c r="G101" t="n">
-        <v>-353858.3749766</v>
+        <v>1</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>65.34</v>
+      </c>
+      <c r="I101" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3535,21 @@
         <v>120926.9485</v>
       </c>
       <c r="G102" t="n">
-        <v>-353858.3749766</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3571,21 @@
         <v>300.54919908</v>
       </c>
       <c r="G103" t="n">
-        <v>-353557.82577752</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3607,21 @@
         <v>302.2943</v>
       </c>
       <c r="G104" t="n">
-        <v>-353255.53147752</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3643,21 @@
         <v>2597.70261611</v>
       </c>
       <c r="G105" t="n">
-        <v>-353255.53147752</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3679,21 @@
         <v>519.7942</v>
       </c>
       <c r="G106" t="n">
-        <v>-353255.53147752</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3715,21 @@
         <v>5640.1993</v>
       </c>
       <c r="G107" t="n">
-        <v>-353255.53147752</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3751,21 @@
         <v>10000</v>
       </c>
       <c r="G108" t="n">
-        <v>-363255.53147752</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3787,21 @@
         <v>41248.3352</v>
       </c>
       <c r="G109" t="n">
-        <v>-404503.86667752</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3823,21 @@
         <v>379.4187</v>
       </c>
       <c r="G110" t="n">
-        <v>-404883.28537752</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3859,21 @@
         <v>322.28600341</v>
       </c>
       <c r="G111" t="n">
-        <v>-404560.99937411</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3895,21 @@
         <v>1252.8943</v>
       </c>
       <c r="G112" t="n">
-        <v>-405813.8936741099</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3931,21 @@
         <v>562</v>
       </c>
       <c r="G113" t="n">
-        <v>-405251.8936741099</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3967,21 @@
         <v>5727.6494</v>
       </c>
       <c r="G114" t="n">
-        <v>-399524.24427411</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4003,21 @@
         <v>4495.5</v>
       </c>
       <c r="G115" t="n">
-        <v>-404019.74427411</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4039,21 @@
         <v>167.1234</v>
       </c>
       <c r="G116" t="n">
-        <v>-403852.62087411</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4075,21 @@
         <v>103.5076</v>
       </c>
       <c r="G117" t="n">
-        <v>-403749.11327411</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4111,21 @@
         <v>20062.8383</v>
       </c>
       <c r="G118" t="n">
-        <v>-383686.27497411</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4147,21 @@
         <v>9311</v>
       </c>
       <c r="G119" t="n">
-        <v>-374375.27497411</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4183,21 @@
         <v>17561.599</v>
       </c>
       <c r="G120" t="n">
-        <v>-391936.8739741099</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4219,21 @@
         <v>14442.4189</v>
       </c>
       <c r="G121" t="n">
-        <v>-406379.2928741099</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4255,21 @@
         <v>2013.7205</v>
       </c>
       <c r="G122" t="n">
-        <v>-404365.5723741099</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4291,21 @@
         <v>16114.2064</v>
       </c>
       <c r="G123" t="n">
-        <v>-420479.77877411</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4327,21 @@
         <v>10988</v>
       </c>
       <c r="G124" t="n">
-        <v>-409491.77877411</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4363,21 @@
         <v>150.67048365</v>
       </c>
       <c r="G125" t="n">
-        <v>-409341.10829046</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4399,21 @@
         <v>3452.0365</v>
       </c>
       <c r="G126" t="n">
-        <v>-412793.1447904599</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4435,21 @@
         <v>1105.1077</v>
       </c>
       <c r="G127" t="n">
-        <v>-411688.03709046</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4471,21 @@
         <v>2282.5437</v>
       </c>
       <c r="G128" t="n">
-        <v>-413970.5807904599</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4507,21 @@
         <v>871.552</v>
       </c>
       <c r="G129" t="n">
-        <v>-413099.0287904599</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4543,21 @@
         <v>1379.273</v>
       </c>
       <c r="G130" t="n">
-        <v>-413099.0287904599</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4579,21 @@
         <v>13.1048</v>
       </c>
       <c r="G131" t="n">
-        <v>-413112.1335904599</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,22 +4615,21 @@
         <v>7.5963</v>
       </c>
       <c r="G132" t="n">
-        <v>-413119.7298904599</v>
-      </c>
-      <c r="H132" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="J132" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>65.13</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4775,26 +4651,21 @@
         <v>589.9226</v>
       </c>
       <c r="G133" t="n">
-        <v>-413709.6524904598</v>
-      </c>
-      <c r="H133" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="n">
-        <v>66.25</v>
-      </c>
-      <c r="J133" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>65.13</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4816,26 +4687,21 @@
         <v>1733.3337</v>
       </c>
       <c r="G134" t="n">
-        <v>-415442.9861904599</v>
-      </c>
-      <c r="H134" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="n">
-        <v>66.09999999999999</v>
-      </c>
-      <c r="J134" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>65.13</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4857,26 +4723,21 @@
         <v>1576.89</v>
       </c>
       <c r="G135" t="n">
-        <v>-413866.0961904599</v>
-      </c>
-      <c r="H135" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="n">
-        <v>65.84999999999999</v>
-      </c>
-      <c r="J135" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>65.13</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4898,26 +4759,21 @@
         <v>1003.2249</v>
       </c>
       <c r="G136" t="n">
-        <v>-414869.3210904598</v>
-      </c>
-      <c r="H136" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="n">
-        <v>65.86</v>
-      </c>
-      <c r="J136" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>65.13</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4939,26 +4795,21 @@
         <v>802.8881</v>
       </c>
       <c r="G137" t="n">
-        <v>-415672.2091904598</v>
-      </c>
-      <c r="H137" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
-        <v>65.79000000000001</v>
-      </c>
-      <c r="J137" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>65.13</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4980,26 +4831,21 @@
         <v>442.016</v>
       </c>
       <c r="G138" t="n">
-        <v>-415230.1931904598</v>
-      </c>
-      <c r="H138" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="n">
-        <v>65.72</v>
-      </c>
-      <c r="J138" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>65.13</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5021,26 +4867,21 @@
         <v>110037.8853</v>
       </c>
       <c r="G139" t="n">
-        <v>-305192.3078904598</v>
-      </c>
-      <c r="H139" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="J139" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>65.13</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5062,24 +4903,21 @@
         <v>65370.3416</v>
       </c>
       <c r="G140" t="n">
-        <v>-239821.9662904598</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5101,24 +4939,21 @@
         <v>1407</v>
       </c>
       <c r="G141" t="n">
-        <v>-238414.9662904598</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5140,24 +4975,21 @@
         <v>2634</v>
       </c>
       <c r="G142" t="n">
-        <v>-241048.9662904598</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5179,24 +5011,21 @@
         <v>6013.0083</v>
       </c>
       <c r="G143" t="n">
-        <v>-235035.9579904598</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5218,24 +5047,21 @@
         <v>973.3187</v>
       </c>
       <c r="G144" t="n">
-        <v>-236009.2766904598</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5257,24 +5083,21 @@
         <v>482.4979</v>
       </c>
       <c r="G145" t="n">
-        <v>-236009.2766904598</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5296,24 +5119,21 @@
         <v>178.0385</v>
       </c>
       <c r="G146" t="n">
-        <v>-236009.2766904598</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5335,24 +5155,21 @@
         <v>4682.9994</v>
       </c>
       <c r="G147" t="n">
-        <v>-240692.2760904598</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5374,24 +5191,21 @@
         <v>379.6968</v>
       </c>
       <c r="G148" t="n">
-        <v>-240312.5792904598</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5413,24 +5227,21 @@
         <v>3098.3673</v>
       </c>
       <c r="G149" t="n">
-        <v>-243410.9465904598</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5452,24 +5263,21 @@
         <v>3028.85898603</v>
       </c>
       <c r="G150" t="n">
-        <v>-240382.0876044298</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5491,24 +5299,21 @@
         <v>767.3218000000001</v>
       </c>
       <c r="G151" t="n">
-        <v>-241149.4094044298</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5530,24 +5335,21 @@
         <v>20159.0706</v>
       </c>
       <c r="G152" t="n">
-        <v>-241149.4094044298</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5569,24 +5371,21 @@
         <v>9612.4107</v>
       </c>
       <c r="G153" t="n">
-        <v>-241149.4094044298</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5608,24 +5407,21 @@
         <v>13164</v>
       </c>
       <c r="G154" t="n">
-        <v>-254313.4094044298</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5647,24 +5443,21 @@
         <v>30.4182</v>
       </c>
       <c r="G155" t="n">
-        <v>-254282.9912044298</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5686,24 +5479,21 @@
         <v>69088.60799999999</v>
       </c>
       <c r="G156" t="n">
-        <v>-185194.3832044298</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5725,24 +5515,21 @@
         <v>4286.0969</v>
       </c>
       <c r="G157" t="n">
-        <v>-189480.4801044298</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5764,24 +5551,21 @@
         <v>2647.1812</v>
       </c>
       <c r="G158" t="n">
-        <v>-189480.4801044298</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5803,24 +5587,21 @@
         <v>87.38849999999999</v>
       </c>
       <c r="G159" t="n">
-        <v>-189480.4801044298</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5842,24 +5623,21 @@
         <v>13863.6412</v>
       </c>
       <c r="G160" t="n">
-        <v>-189480.4801044298</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5881,24 +5659,21 @@
         <v>1179.2478</v>
       </c>
       <c r="G161" t="n">
-        <v>-190659.7279044298</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5920,24 +5695,21 @@
         <v>4184.5697</v>
       </c>
       <c r="G162" t="n">
-        <v>-190659.7279044298</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5959,24 +5731,21 @@
         <v>8499.823700000001</v>
       </c>
       <c r="G163" t="n">
-        <v>-190659.7279044298</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5998,24 +5767,21 @@
         <v>22465.9045</v>
       </c>
       <c r="G164" t="n">
-        <v>-168193.8234044298</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6037,24 +5803,21 @@
         <v>42134.3203</v>
       </c>
       <c r="G165" t="n">
-        <v>-210328.1437044298</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6076,24 +5839,21 @@
         <v>12.2063</v>
       </c>
       <c r="G166" t="n">
-        <v>-210340.3500044298</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6115,24 +5875,21 @@
         <v>2878.4379</v>
       </c>
       <c r="G167" t="n">
-        <v>-213218.7879044298</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6154,24 +5911,21 @@
         <v>2247.4534</v>
       </c>
       <c r="G168" t="n">
-        <v>-213218.7879044298</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6193,24 +5947,21 @@
         <v>1862.5936</v>
       </c>
       <c r="G169" t="n">
-        <v>-213218.7879044298</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6232,24 +5983,21 @@
         <v>3399.9</v>
       </c>
       <c r="G170" t="n">
-        <v>-216618.6879044298</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6271,24 +6019,21 @@
         <v>553.782</v>
       </c>
       <c r="G171" t="n">
-        <v>-216064.9059044298</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6310,24 +6055,21 @@
         <v>1002.0482</v>
       </c>
       <c r="G172" t="n">
-        <v>-216064.9059044298</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6349,24 +6091,21 @@
         <v>5000</v>
       </c>
       <c r="G173" t="n">
-        <v>-216064.9059044298</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6388,24 +6127,21 @@
         <v>542.4277</v>
       </c>
       <c r="G174" t="n">
-        <v>-216064.9059044298</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6427,24 +6163,21 @@
         <v>19.9993</v>
       </c>
       <c r="G175" t="n">
-        <v>-216084.9052044298</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6466,24 +6199,21 @@
         <v>100</v>
       </c>
       <c r="G176" t="n">
-        <v>-216184.9052044298</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6505,24 +6235,21 @@
         <v>894</v>
       </c>
       <c r="G177" t="n">
-        <v>-215290.9052044298</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6544,24 +6271,21 @@
         <v>100869.7157</v>
       </c>
       <c r="G178" t="n">
-        <v>-316160.6209044298</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6583,24 +6307,21 @@
         <v>653.7115</v>
       </c>
       <c r="G179" t="n">
-        <v>-315506.9094044298</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6622,24 +6343,21 @@
         <v>271.1726</v>
       </c>
       <c r="G180" t="n">
-        <v>-315235.7368044298</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6661,24 +6379,21 @@
         <v>15760.2</v>
       </c>
       <c r="G181" t="n">
-        <v>-315235.7368044298</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6700,24 +6415,21 @@
         <v>14532.5366</v>
       </c>
       <c r="G182" t="n">
-        <v>-315235.7368044298</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6739,24 +6451,21 @@
         <v>1979.1402</v>
       </c>
       <c r="G183" t="n">
-        <v>-315235.7368044298</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6778,24 +6487,21 @@
         <v>1659.4978</v>
       </c>
       <c r="G184" t="n">
-        <v>-315235.7368044298</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6817,24 +6523,21 @@
         <v>1705.7865</v>
       </c>
       <c r="G185" t="n">
-        <v>-315235.7368044298</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6856,24 +6559,21 @@
         <v>1000</v>
       </c>
       <c r="G186" t="n">
-        <v>-315235.7368044298</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6895,24 +6595,21 @@
         <v>624.93467557</v>
       </c>
       <c r="G187" t="n">
-        <v>-315235.7368044298</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6934,24 +6631,21 @@
         <v>906.5939</v>
       </c>
       <c r="G188" t="n">
-        <v>-316142.3307044298</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6973,24 +6667,21 @@
         <v>23254.9</v>
       </c>
       <c r="G189" t="n">
-        <v>-316142.3307044298</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7012,24 +6703,21 @@
         <v>2057</v>
       </c>
       <c r="G190" t="n">
-        <v>-318199.3307044298</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7051,24 +6739,21 @@
         <v>34904.7561</v>
       </c>
       <c r="G191" t="n">
-        <v>-353104.0868044298</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7090,24 +6775,21 @@
         <v>758.0258</v>
       </c>
       <c r="G192" t="n">
-        <v>-352346.0610044298</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7129,24 +6811,21 @@
         <v>23600</v>
       </c>
       <c r="G193" t="n">
-        <v>-328746.0610044298</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7168,24 +6847,21 @@
         <v>1330.00303674</v>
       </c>
       <c r="G194" t="n">
-        <v>-327416.0579676898</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7207,24 +6883,21 @@
         <v>388.2954</v>
       </c>
       <c r="G195" t="n">
-        <v>-327804.3533676898</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7246,24 +6919,21 @@
         <v>68.6734</v>
       </c>
       <c r="G196" t="n">
-        <v>-327804.3533676898</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7285,24 +6955,21 @@
         <v>5519.1443</v>
       </c>
       <c r="G197" t="n">
-        <v>-322285.2090676898</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7324,24 +6991,21 @@
         <v>428.6</v>
       </c>
       <c r="G198" t="n">
-        <v>-321856.6090676899</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7363,24 +7027,21 @@
         <v>8</v>
       </c>
       <c r="G199" t="n">
-        <v>-321848.6090676899</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7402,24 +7063,21 @@
         <v>10</v>
       </c>
       <c r="G200" t="n">
-        <v>-321838.6090676899</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7441,24 +7099,21 @@
         <v>7.5977</v>
       </c>
       <c r="G201" t="n">
-        <v>-321846.2067676898</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7480,24 +7135,21 @@
         <v>8</v>
       </c>
       <c r="G202" t="n">
-        <v>-321838.2067676898</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7519,24 +7171,21 @@
         <v>2122.2066</v>
       </c>
       <c r="G203" t="n">
-        <v>-321838.2067676898</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7558,24 +7207,21 @@
         <v>10881.87878787</v>
       </c>
       <c r="G204" t="n">
-        <v>-332720.0855555598</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7597,24 +7243,21 @@
         <v>1646.7832</v>
       </c>
       <c r="G205" t="n">
-        <v>-334366.8687555598</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7636,24 +7279,21 @@
         <v>125</v>
       </c>
       <c r="G206" t="n">
-        <v>-334241.8687555598</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7675,24 +7315,21 @@
         <v>60</v>
       </c>
       <c r="G207" t="n">
-        <v>-334301.8687555598</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7714,24 +7351,21 @@
         <v>22769.4747</v>
       </c>
       <c r="G208" t="n">
-        <v>-357071.3434555599</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7753,24 +7387,21 @@
         <v>7.61</v>
       </c>
       <c r="G209" t="n">
-        <v>-357063.7334555599</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7792,24 +7423,21 @@
         <v>10</v>
       </c>
       <c r="G210" t="n">
-        <v>-357063.7334555599</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7831,24 +7459,21 @@
         <v>150.0806</v>
       </c>
       <c r="G211" t="n">
-        <v>-357213.8140555599</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7870,24 +7495,21 @@
         <v>8</v>
       </c>
       <c r="G212" t="n">
-        <v>-357205.8140555599</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7909,24 +7531,21 @@
         <v>801</v>
       </c>
       <c r="G213" t="n">
-        <v>-358006.8140555599</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7948,24 +7567,21 @@
         <v>376.5661</v>
       </c>
       <c r="G214" t="n">
-        <v>-358006.8140555599</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7987,24 +7603,21 @@
         <v>53.1546</v>
       </c>
       <c r="G215" t="n">
-        <v>-358006.8140555599</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8026,24 +7639,21 @@
         <v>7574.217</v>
       </c>
       <c r="G216" t="n">
-        <v>-350432.5970555599</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8065,24 +7675,21 @@
         <v>12084.1848</v>
       </c>
       <c r="G217" t="n">
-        <v>-338348.4122555599</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8104,24 +7711,21 @@
         <v>27780.6214</v>
       </c>
       <c r="G218" t="n">
-        <v>-310567.7908555599</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8143,24 +7747,21 @@
         <v>20927.6993</v>
       </c>
       <c r="G219" t="n">
-        <v>-289640.0915555599</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8182,24 +7783,21 @@
         <v>1202.3734</v>
       </c>
       <c r="G220" t="n">
-        <v>-289640.0915555599</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8221,24 +7819,21 @@
         <v>618.9</v>
       </c>
       <c r="G221" t="n">
-        <v>-289021.1915555599</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8260,24 +7855,21 @@
         <v>64.45140000000001</v>
       </c>
       <c r="G222" t="n">
-        <v>-289021.1915555599</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8299,24 +7891,21 @@
         <v>201.2688</v>
       </c>
       <c r="G223" t="n">
-        <v>-288819.9227555598</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8338,24 +7927,21 @@
         <v>905.9446</v>
       </c>
       <c r="G224" t="n">
-        <v>-289725.8673555598</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8377,24 +7963,21 @@
         <v>943.5469000000001</v>
       </c>
       <c r="G225" t="n">
-        <v>-288782.3204555598</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8416,24 +7999,21 @@
         <v>445.5565</v>
       </c>
       <c r="G226" t="n">
-        <v>-289227.8769555598</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8455,24 +8035,21 @@
         <v>2536.838</v>
       </c>
       <c r="G227" t="n">
-        <v>-291764.7149555598</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8494,24 +8071,21 @@
         <v>14</v>
       </c>
       <c r="G228" t="n">
-        <v>-291778.7149555598</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8533,24 +8107,21 @@
         <v>1911.0111</v>
       </c>
       <c r="G229" t="n">
-        <v>-293689.7260555598</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8572,24 +8143,21 @@
         <v>8</v>
       </c>
       <c r="G230" t="n">
-        <v>-293681.7260555598</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8611,24 +8179,21 @@
         <v>9027.270699999999</v>
       </c>
       <c r="G231" t="n">
-        <v>-302708.9967555598</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8650,24 +8215,21 @@
         <v>8216.1494</v>
       </c>
       <c r="G232" t="n">
-        <v>-310925.1461555598</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8689,24 +8251,21 @@
         <v>97.3241</v>
       </c>
       <c r="G233" t="n">
-        <v>-310925.1461555598</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8728,24 +8287,21 @@
         <v>1043.6572</v>
       </c>
       <c r="G234" t="n">
-        <v>-311968.8033555598</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8767,24 +8323,21 @@
         <v>386</v>
       </c>
       <c r="G235" t="n">
-        <v>-312354.8033555598</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8806,24 +8359,21 @@
         <v>1762.7673</v>
       </c>
       <c r="G236" t="n">
-        <v>-312354.8033555598</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8845,24 +8395,21 @@
         <v>3302.5795</v>
       </c>
       <c r="G237" t="n">
-        <v>-309052.2238555598</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8884,24 +8431,21 @@
         <v>300</v>
       </c>
       <c r="G238" t="n">
-        <v>-309352.2238555598</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8923,24 +8467,21 @@
         <v>9300</v>
       </c>
       <c r="G239" t="n">
-        <v>-300052.2238555598</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
+      <c r="I239" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8962,24 +8503,21 @@
         <v>100</v>
       </c>
       <c r="G240" t="n">
-        <v>-299952.2238555598</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9001,24 +8539,21 @@
         <v>23.2521</v>
       </c>
       <c r="G241" t="n">
-        <v>-299975.4759555598</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9040,24 +8575,21 @@
         <v>221</v>
       </c>
       <c r="G242" t="n">
-        <v>-299975.4759555598</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
+      <c r="I242" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9079,24 +8611,21 @@
         <v>1346.1019</v>
       </c>
       <c r="G243" t="n">
-        <v>-301321.5778555598</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9118,24 +8647,21 @@
         <v>2659.2231</v>
       </c>
       <c r="G244" t="n">
-        <v>-303980.8009555598</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9157,24 +8683,21 @@
         <v>0.143</v>
       </c>
       <c r="G245" t="n">
-        <v>-303980.8009555598</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9196,24 +8719,21 @@
         <v>734.8366</v>
       </c>
       <c r="G246" t="n">
-        <v>-303980.8009555598</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
+      <c r="I246" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9235,24 +8755,21 @@
         <v>3266.1977</v>
       </c>
       <c r="G247" t="n">
-        <v>-303980.8009555598</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
+      <c r="I247" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9274,24 +8791,21 @@
         <v>14632.5904</v>
       </c>
       <c r="G248" t="n">
-        <v>-289348.2105555598</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9313,24 +8827,21 @@
         <v>5000</v>
       </c>
       <c r="G249" t="n">
-        <v>-294348.2105555598</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9352,24 +8863,21 @@
         <v>42101.5272</v>
       </c>
       <c r="G250" t="n">
-        <v>-336449.7377555599</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9391,24 +8899,21 @@
         <v>20261.0947</v>
       </c>
       <c r="G251" t="n">
-        <v>-316188.6430555598</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9430,24 +8935,21 @@
         <v>2619.4576</v>
       </c>
       <c r="G252" t="n">
-        <v>-313569.1854555598</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9469,24 +8971,21 @@
         <v>1879.1145</v>
       </c>
       <c r="G253" t="n">
-        <v>-315448.2999555598</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9508,26 +9007,21 @@
         <v>7564.90525672</v>
       </c>
       <c r="G254" t="n">
-        <v>-307883.3946988398</v>
-      </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="n">
         <v>65.13</v>
       </c>
-      <c r="J254" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="J254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9549,24 +9043,21 @@
         <v>200</v>
       </c>
       <c r="G255" t="n">
-        <v>-308083.3946988398</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="n">
+        <v>65.13</v>
+      </c>
+      <c r="J255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9588,26 +9079,21 @@
         <v>8</v>
       </c>
       <c r="G256" t="n">
-        <v>-308075.3946988398</v>
-      </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="n">
-        <v>65.23</v>
-      </c>
-      <c r="J256" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+        <v>65.13</v>
+      </c>
+      <c r="J256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9629,26 +9115,21 @@
         <v>4761.136</v>
       </c>
       <c r="G257" t="n">
-        <v>-303314.2586988398</v>
-      </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="n">
-        <v>65.44</v>
-      </c>
-      <c r="J257" t="n">
-        <v>66.26000000000001</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+        <v>65.13</v>
+      </c>
+      <c r="J257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
